--- a/attendence_face/dataset/test-2.xlsx
+++ b/attendence_face/dataset/test-2.xlsx
@@ -14,9 +14,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Lâm</t>
+  </si>
+  <si>
+    <t>Phạm Thị Hòa</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Khôi</t>
+  </si>
+  <si>
+    <t>Trần Thị Thùy Linh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc Thoa</t>
+  </si>
+  <si>
+    <t>Lê Xuân Quý</t>
+  </si>
+  <si>
+    <t>Trịnh Thị Ngọc Như</t>
+  </si>
+  <si>
+    <t>Lữ Hoàng Long</t>
+  </si>
+  <si>
+    <t>Ma Chí Định</t>
+  </si>
+  <si>
+    <t>Trần Đức Phụng</t>
+  </si>
+  <si>
+    <t>Phạm Thị Hương</t>
+  </si>
+  <si>
+    <t>Trần Quốc Việt</t>
   </si>
 </sst>
 </file>
@@ -374,15 +410,7012 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:DY18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:129">
+      <c r="A1" s="1">
         <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="1">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="1">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="1">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="1">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="1">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>98</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>99</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>100</v>
+      </c>
+      <c r="CX1" s="1">
+        <v>101</v>
+      </c>
+      <c r="CY1" s="1">
+        <v>102</v>
+      </c>
+      <c r="CZ1" s="1">
+        <v>103</v>
+      </c>
+      <c r="DA1" s="1">
+        <v>104</v>
+      </c>
+      <c r="DB1" s="1">
+        <v>105</v>
+      </c>
+      <c r="DC1" s="1">
+        <v>106</v>
+      </c>
+      <c r="DD1" s="1">
+        <v>107</v>
+      </c>
+      <c r="DE1" s="1">
+        <v>108</v>
+      </c>
+      <c r="DF1" s="1">
+        <v>109</v>
+      </c>
+      <c r="DG1" s="1">
+        <v>110</v>
+      </c>
+      <c r="DH1" s="1">
+        <v>111</v>
+      </c>
+      <c r="DI1" s="1">
+        <v>112</v>
+      </c>
+      <c r="DJ1" s="1">
+        <v>113</v>
+      </c>
+      <c r="DK1" s="1">
+        <v>114</v>
+      </c>
+      <c r="DL1" s="1">
+        <v>115</v>
+      </c>
+      <c r="DM1" s="1">
+        <v>116</v>
+      </c>
+      <c r="DN1" s="1">
+        <v>117</v>
+      </c>
+      <c r="DO1" s="1">
+        <v>118</v>
+      </c>
+      <c r="DP1" s="1">
+        <v>119</v>
+      </c>
+      <c r="DQ1" s="1">
+        <v>120</v>
+      </c>
+      <c r="DR1" s="1">
+        <v>121</v>
+      </c>
+      <c r="DS1" s="1">
+        <v>122</v>
+      </c>
+      <c r="DT1" s="1">
+        <v>123</v>
+      </c>
+      <c r="DU1" s="1">
+        <v>124</v>
+      </c>
+      <c r="DV1" s="1">
+        <v>125</v>
+      </c>
+      <c r="DW1" s="1">
+        <v>126</v>
+      </c>
+      <c r="DX1" s="1">
+        <v>127</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:129">
+      <c r="A2">
+        <v>-0.1098238825798035</v>
+      </c>
+      <c r="B2">
+        <v>0.05368082970380783</v>
+      </c>
+      <c r="C2">
+        <v>0.06810253113508224</v>
+      </c>
+      <c r="D2">
+        <v>-0.02734990604221821</v>
+      </c>
+      <c r="E2">
+        <v>-0.08429333567619324</v>
+      </c>
+      <c r="F2">
+        <v>0.02800767496228218</v>
+      </c>
+      <c r="G2">
+        <v>-0.08729276061058044</v>
+      </c>
+      <c r="H2">
+        <v>-0.07581067830324173</v>
+      </c>
+      <c r="I2">
+        <v>0.1184884011745453</v>
+      </c>
+      <c r="J2">
+        <v>-0.1193940341472626</v>
+      </c>
+      <c r="K2">
+        <v>0.2194262593984604</v>
+      </c>
+      <c r="L2">
+        <v>-0.05627651140093803</v>
+      </c>
+      <c r="M2">
+        <v>-0.1952308416366577</v>
+      </c>
+      <c r="N2">
+        <v>-0.08549182862043381</v>
+      </c>
+      <c r="O2">
+        <v>-0.04079015925526619</v>
+      </c>
+      <c r="P2">
+        <v>0.1902777701616287</v>
+      </c>
+      <c r="Q2">
+        <v>-0.1170591115951538</v>
+      </c>
+      <c r="R2">
+        <v>-0.1457217186689377</v>
+      </c>
+      <c r="S2">
+        <v>-0.03984528407454491</v>
+      </c>
+      <c r="T2">
+        <v>0.01096405927091837</v>
+      </c>
+      <c r="U2">
+        <v>0.1263110786676407</v>
+      </c>
+      <c r="V2">
+        <v>-0.05029318481683731</v>
+      </c>
+      <c r="W2">
+        <v>-0.008809946477413177</v>
+      </c>
+      <c r="X2">
+        <v>0.05963560193777084</v>
+      </c>
+      <c r="Y2">
+        <v>-0.1380988210439682</v>
+      </c>
+      <c r="Z2">
+        <v>-0.3866815865039825</v>
+      </c>
+      <c r="AA2">
+        <v>-0.1187408044934273</v>
+      </c>
+      <c r="AB2">
+        <v>-0.03855235874652863</v>
+      </c>
+      <c r="AC2">
+        <v>-0.02871156111359596</v>
+      </c>
+      <c r="AD2">
+        <v>-0.0569942481815815</v>
+      </c>
+      <c r="AE2">
+        <v>-0.06492910534143448</v>
+      </c>
+      <c r="AF2">
+        <v>0.06802767515182495</v>
+      </c>
+      <c r="AG2">
+        <v>-0.1371771395206451</v>
+      </c>
+      <c r="AH2">
+        <v>-0.002851014956831932</v>
+      </c>
+      <c r="AI2">
+        <v>-0.0179237499833107</v>
+      </c>
+      <c r="AJ2">
+        <v>0.1064484491944313</v>
+      </c>
+      <c r="AK2">
+        <v>0.02469511143863201</v>
+      </c>
+      <c r="AL2">
+        <v>-0.09364506602287292</v>
+      </c>
+      <c r="AM2">
+        <v>0.1466825753450394</v>
+      </c>
+      <c r="AN2">
+        <v>0.0201405044645071</v>
+      </c>
+      <c r="AO2">
+        <v>-0.229579359292984</v>
+      </c>
+      <c r="AP2">
+        <v>0.0459086000919342</v>
+      </c>
+      <c r="AQ2">
+        <v>0.006419667974114418</v>
+      </c>
+      <c r="AR2">
+        <v>0.2750548720359802</v>
+      </c>
+      <c r="AS2">
+        <v>0.1750779002904892</v>
+      </c>
+      <c r="AT2">
+        <v>0.06808311492204666</v>
+      </c>
+      <c r="AU2">
+        <v>0.05017223954200745</v>
+      </c>
+      <c r="AV2">
+        <v>-0.04611609503626823</v>
+      </c>
+      <c r="AW2">
+        <v>0.1095362603664398</v>
+      </c>
+      <c r="AX2">
+        <v>-0.2106131166219711</v>
+      </c>
+      <c r="AY2">
+        <v>0.02661649510264397</v>
+      </c>
+      <c r="AZ2">
+        <v>0.1603218466043472</v>
+      </c>
+      <c r="BA2">
+        <v>0.07008165121078491</v>
+      </c>
+      <c r="BB2">
+        <v>0.001363456249237061</v>
+      </c>
+      <c r="BC2">
+        <v>0.0555448904633522</v>
+      </c>
+      <c r="BD2">
+        <v>-0.1167725697159767</v>
+      </c>
+      <c r="BE2">
+        <v>0.03399597853422165</v>
+      </c>
+      <c r="BF2">
+        <v>0.1104866415262222</v>
+      </c>
+      <c r="BG2">
+        <v>-0.1179126277565956</v>
+      </c>
+      <c r="BH2">
+        <v>0.008538008667528629</v>
+      </c>
+      <c r="BI2">
+        <v>-0.01232956536114216</v>
+      </c>
+      <c r="BJ2">
+        <v>-0.07244620472192764</v>
+      </c>
+      <c r="BK2">
+        <v>0.01976044848561287</v>
+      </c>
+      <c r="BL2">
+        <v>-0.1119717583060265</v>
+      </c>
+      <c r="BM2">
+        <v>0.2015336751937866</v>
+      </c>
+      <c r="BN2">
+        <v>0.1387229412794113</v>
+      </c>
+      <c r="BO2">
+        <v>-0.1036031991243362</v>
+      </c>
+      <c r="BP2">
+        <v>-0.1100094988942146</v>
+      </c>
+      <c r="BQ2">
+        <v>0.1352803856134415</v>
+      </c>
+      <c r="BR2">
+        <v>-0.08060342073440552</v>
+      </c>
+      <c r="BS2">
+        <v>-0.06174666434526443</v>
+      </c>
+      <c r="BT2">
+        <v>-0.02656620927155018</v>
+      </c>
+      <c r="BU2">
+        <v>-0.2331718504428864</v>
+      </c>
+      <c r="BV2">
+        <v>-0.1942934095859528</v>
+      </c>
+      <c r="BW2">
+        <v>-0.3403154909610748</v>
+      </c>
+      <c r="BX2">
+        <v>0.02538956701755524</v>
+      </c>
+      <c r="BY2">
+        <v>0.4290713369846344</v>
+      </c>
+      <c r="BZ2">
+        <v>0.1282302737236023</v>
+      </c>
+      <c r="CA2">
+        <v>-0.2133095115423203</v>
+      </c>
+      <c r="CB2">
+        <v>0.07027912884950638</v>
+      </c>
+      <c r="CC2">
+        <v>0.002137956907972693</v>
+      </c>
+      <c r="CD2">
+        <v>0.04249807819724083</v>
+      </c>
+      <c r="CE2">
+        <v>0.1419042348861694</v>
+      </c>
+      <c r="CF2">
+        <v>0.1553207486867905</v>
+      </c>
+      <c r="CG2">
+        <v>-0.04399210214614868</v>
+      </c>
+      <c r="CH2">
+        <v>0.01292561274021864</v>
+      </c>
+      <c r="CI2">
+        <v>-0.1156495660543442</v>
+      </c>
+      <c r="CJ2">
+        <v>0.03133786842226982</v>
+      </c>
+      <c r="CK2">
+        <v>0.2141519635915756</v>
+      </c>
+      <c r="CL2">
+        <v>-0.0489966981112957</v>
+      </c>
+      <c r="CM2">
+        <v>-0.0421113595366478</v>
+      </c>
+      <c r="CN2">
+        <v>0.1903487592935562</v>
+      </c>
+      <c r="CO2">
+        <v>-0.0145112331956625</v>
+      </c>
+      <c r="CP2">
+        <v>0.04918348789215088</v>
+      </c>
+      <c r="CQ2">
+        <v>0.0230089221149683</v>
+      </c>
+      <c r="CR2">
+        <v>0.01893546991050243</v>
+      </c>
+      <c r="CS2">
+        <v>-0.04390204697847366</v>
+      </c>
+      <c r="CT2">
+        <v>0.03382856398820877</v>
+      </c>
+      <c r="CU2">
+        <v>-0.1277327239513397</v>
+      </c>
+      <c r="CV2">
+        <v>0.001683128997683525</v>
+      </c>
+      <c r="CW2">
+        <v>0.05764929950237274</v>
+      </c>
+      <c r="CX2">
+        <v>-0.01913618296384811</v>
+      </c>
+      <c r="CY2">
+        <v>0.003192655742168427</v>
+      </c>
+      <c r="CZ2">
+        <v>0.1165003180503845</v>
+      </c>
+      <c r="DA2">
+        <v>-0.1589523404836655</v>
+      </c>
+      <c r="DB2">
+        <v>0.05967433750629425</v>
+      </c>
+      <c r="DC2">
+        <v>0.005875931121408939</v>
+      </c>
+      <c r="DD2">
+        <v>0.04309684783220291</v>
+      </c>
+      <c r="DE2">
+        <v>0.01022336445748806</v>
+      </c>
+      <c r="DF2">
+        <v>0.0441242940723896</v>
+      </c>
+      <c r="DG2">
+        <v>-0.1539234519004822</v>
+      </c>
+      <c r="DH2">
+        <v>-0.04432474076747894</v>
+      </c>
+      <c r="DI2">
+        <v>0.1079239919781685</v>
+      </c>
+      <c r="DJ2">
+        <v>-0.1867533326148987</v>
+      </c>
+      <c r="DK2">
+        <v>0.1272870600223541</v>
+      </c>
+      <c r="DL2">
+        <v>0.2132621109485626</v>
+      </c>
+      <c r="DM2">
+        <v>0.03543074429035187</v>
+      </c>
+      <c r="DN2">
+        <v>0.1038869321346283</v>
+      </c>
+      <c r="DO2">
+        <v>0.1607380211353302</v>
+      </c>
+      <c r="DP2">
+        <v>0.08416847139596939</v>
+      </c>
+      <c r="DQ2">
+        <v>0.004388667643070221</v>
+      </c>
+      <c r="DR2">
+        <v>0.002298311330378056</v>
+      </c>
+      <c r="DS2">
+        <v>-0.181031197309494</v>
+      </c>
+      <c r="DT2">
+        <v>-0.02388026937842369</v>
+      </c>
+      <c r="DU2">
+        <v>0.1007861420512199</v>
+      </c>
+      <c r="DV2">
+        <v>0.009698363021016121</v>
+      </c>
+      <c r="DW2">
+        <v>0.05628664791584015</v>
+      </c>
+      <c r="DX2">
+        <v>0.03013051673769951</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:129">
+      <c r="A3">
+        <v>-0.06683854758739471</v>
+      </c>
+      <c r="B3">
+        <v>0.001542371697723866</v>
+      </c>
+      <c r="C3">
+        <v>0.04761494323611259</v>
+      </c>
+      <c r="D3">
+        <v>-0.05624168738722801</v>
+      </c>
+      <c r="E3">
+        <v>-0.0460248738527298</v>
+      </c>
+      <c r="F3">
+        <v>-0.06257778406143188</v>
+      </c>
+      <c r="G3">
+        <v>-0.03943975269794464</v>
+      </c>
+      <c r="H3">
+        <v>-0.101559191942215</v>
+      </c>
+      <c r="I3">
+        <v>0.09164705872535706</v>
+      </c>
+      <c r="J3">
+        <v>-0.09616277366876602</v>
+      </c>
+      <c r="K3">
+        <v>0.1794278174638748</v>
+      </c>
+      <c r="L3">
+        <v>-0.146528348326683</v>
+      </c>
+      <c r="M3">
+        <v>-0.2190214395523071</v>
+      </c>
+      <c r="N3">
+        <v>-0.1188562512397766</v>
+      </c>
+      <c r="O3">
+        <v>-0.04068786278367043</v>
+      </c>
+      <c r="P3">
+        <v>0.1638277322053909</v>
+      </c>
+      <c r="Q3">
+        <v>-0.1302152872085571</v>
+      </c>
+      <c r="R3">
+        <v>-0.1170539706945419</v>
+      </c>
+      <c r="S3">
+        <v>-0.08021074533462524</v>
+      </c>
+      <c r="T3">
+        <v>-0.01014181412756443</v>
+      </c>
+      <c r="U3">
+        <v>0.0797896534204483</v>
+      </c>
+      <c r="V3">
+        <v>-0.04956529662013054</v>
+      </c>
+      <c r="W3">
+        <v>-0.02649455703794956</v>
+      </c>
+      <c r="X3">
+        <v>0.02994276955723763</v>
+      </c>
+      <c r="Y3">
+        <v>-0.08727358281612396</v>
+      </c>
+      <c r="Z3">
+        <v>-0.328492671251297</v>
+      </c>
+      <c r="AA3">
+        <v>-0.07280110567808151</v>
+      </c>
+      <c r="AB3">
+        <v>-0.05669667199254036</v>
+      </c>
+      <c r="AC3">
+        <v>-0.03590187802910805</v>
+      </c>
+      <c r="AD3">
+        <v>-0.007122842129319906</v>
+      </c>
+      <c r="AE3">
+        <v>-0.05707871168851852</v>
+      </c>
+      <c r="AF3">
+        <v>0.06210264563560486</v>
+      </c>
+      <c r="AG3">
+        <v>-0.1978392750024796</v>
+      </c>
+      <c r="AH3">
+        <v>-0.07480050623416901</v>
+      </c>
+      <c r="AI3">
+        <v>0.002485517412424088</v>
+      </c>
+      <c r="AJ3">
+        <v>0.08019016683101654</v>
+      </c>
+      <c r="AK3">
+        <v>-0.01688334159553051</v>
+      </c>
+      <c r="AL3">
+        <v>-0.07304831594228745</v>
+      </c>
+      <c r="AM3">
+        <v>0.1512003839015961</v>
+      </c>
+      <c r="AN3">
+        <v>-0.01961672306060791</v>
+      </c>
+      <c r="AO3">
+        <v>-0.2037497907876968</v>
+      </c>
+      <c r="AP3">
+        <v>0.0268000066280365</v>
+      </c>
+      <c r="AQ3">
+        <v>0.04828705638647079</v>
+      </c>
+      <c r="AR3">
+        <v>0.2078340947628021</v>
+      </c>
+      <c r="AS3">
+        <v>0.1811065226793289</v>
+      </c>
+      <c r="AT3">
+        <v>0.04372173175215721</v>
+      </c>
+      <c r="AU3">
+        <v>0.03735880181193352</v>
+      </c>
+      <c r="AV3">
+        <v>-0.08947461843490601</v>
+      </c>
+      <c r="AW3">
+        <v>0.09592685103416443</v>
+      </c>
+      <c r="AX3">
+        <v>-0.169546365737915</v>
+      </c>
+      <c r="AY3">
+        <v>-0.01640919223427773</v>
+      </c>
+      <c r="AZ3">
+        <v>0.1387189626693726</v>
+      </c>
+      <c r="BA3">
+        <v>0.08236219733953476</v>
+      </c>
+      <c r="BB3">
+        <v>0.01525403466075659</v>
+      </c>
+      <c r="BC3">
+        <v>0.001428249292075634</v>
+      </c>
+      <c r="BD3">
+        <v>-0.1114781871438026</v>
+      </c>
+      <c r="BE3">
+        <v>0.02519963681697845</v>
+      </c>
+      <c r="BF3">
+        <v>0.1351672261953354</v>
+      </c>
+      <c r="BG3">
+        <v>-0.1244330331683159</v>
+      </c>
+      <c r="BH3">
+        <v>0.04245303198695183</v>
+      </c>
+      <c r="BI3">
+        <v>0.08293667435646057</v>
+      </c>
+      <c r="BJ3">
+        <v>-0.09718102961778641</v>
+      </c>
+      <c r="BK3">
+        <v>-0.07054709643125534</v>
+      </c>
+      <c r="BL3">
+        <v>-0.09318907558917999</v>
+      </c>
+      <c r="BM3">
+        <v>0.2267424166202545</v>
+      </c>
+      <c r="BN3">
+        <v>0.08114045113325119</v>
+      </c>
+      <c r="BO3">
+        <v>-0.1227556392550468</v>
+      </c>
+      <c r="BP3">
+        <v>-0.1597626656293869</v>
+      </c>
+      <c r="BQ3">
+        <v>0.1320445090532303</v>
+      </c>
+      <c r="BR3">
+        <v>-0.1256226301193237</v>
+      </c>
+      <c r="BS3">
+        <v>-0.05562443658709526</v>
+      </c>
+      <c r="BT3">
+        <v>-0.01444183196872473</v>
+      </c>
+      <c r="BU3">
+        <v>-0.16031813621521</v>
+      </c>
+      <c r="BV3">
+        <v>-0.161078080534935</v>
+      </c>
+      <c r="BW3">
+        <v>-0.2944228053092957</v>
+      </c>
+      <c r="BX3">
+        <v>0.03496061637997627</v>
+      </c>
+      <c r="BY3">
+        <v>0.3738066852092743</v>
+      </c>
+      <c r="BZ3">
+        <v>0.06580213457345963</v>
+      </c>
+      <c r="CA3">
+        <v>-0.2144689410924911</v>
+      </c>
+      <c r="CB3">
+        <v>0.06768159568309784</v>
+      </c>
+      <c r="CC3">
+        <v>-0.04624564200639725</v>
+      </c>
+      <c r="CD3">
+        <v>0.04843167215585709</v>
+      </c>
+      <c r="CE3">
+        <v>0.1720696538686752</v>
+      </c>
+      <c r="CF3">
+        <v>0.1337064355611801</v>
+      </c>
+      <c r="CG3">
+        <v>-0.01555607095360756</v>
+      </c>
+      <c r="CH3">
+        <v>0.03003059700131416</v>
+      </c>
+      <c r="CI3">
+        <v>-0.07741903513669968</v>
+      </c>
+      <c r="CJ3">
+        <v>-0.02134859189391136</v>
+      </c>
+      <c r="CK3">
+        <v>0.1999053061008453</v>
+      </c>
+      <c r="CL3">
+        <v>-0.06413597613573074</v>
+      </c>
+      <c r="CM3">
+        <v>-0.02526527270674706</v>
+      </c>
+      <c r="CN3">
+        <v>0.1531851291656494</v>
+      </c>
+      <c r="CO3">
+        <v>-0.02929241210222244</v>
+      </c>
+      <c r="CP3">
+        <v>0.02578631788492203</v>
+      </c>
+      <c r="CQ3">
+        <v>0.02228489145636559</v>
+      </c>
+      <c r="CR3">
+        <v>-0.05832678079605103</v>
+      </c>
+      <c r="CS3">
+        <v>-0.04903331771492958</v>
+      </c>
+      <c r="CT3">
+        <v>0.05610127747058868</v>
+      </c>
+      <c r="CU3">
+        <v>-0.128265380859375</v>
+      </c>
+      <c r="CV3">
+        <v>0.01933808252215385</v>
+      </c>
+      <c r="CW3">
+        <v>0.08566160500049591</v>
+      </c>
+      <c r="CX3">
+        <v>-0.07602912932634354</v>
+      </c>
+      <c r="CY3">
+        <v>0.02051002718508244</v>
+      </c>
+      <c r="CZ3">
+        <v>0.08211512118577957</v>
+      </c>
+      <c r="DA3">
+        <v>-0.1111143231391907</v>
+      </c>
+      <c r="DB3">
+        <v>0.07015965133905411</v>
+      </c>
+      <c r="DC3">
+        <v>-0.007633427157998085</v>
+      </c>
+      <c r="DD3">
+        <v>0.04585472866892815</v>
+      </c>
+      <c r="DE3">
+        <v>0.05904512479901314</v>
+      </c>
+      <c r="DF3">
+        <v>-0.004452584311366081</v>
+      </c>
+      <c r="DG3">
+        <v>-0.120967298746109</v>
+      </c>
+      <c r="DH3">
+        <v>-0.07184807956218719</v>
+      </c>
+      <c r="DI3">
+        <v>0.1200854331254959</v>
+      </c>
+      <c r="DJ3">
+        <v>-0.18704853951931</v>
+      </c>
+      <c r="DK3">
+        <v>0.1639466434717178</v>
+      </c>
+      <c r="DL3">
+        <v>0.1669495701789856</v>
+      </c>
+      <c r="DM3">
+        <v>0.07369525730609894</v>
+      </c>
+      <c r="DN3">
+        <v>0.09117437154054642</v>
+      </c>
+      <c r="DO3">
+        <v>0.1560192555189133</v>
+      </c>
+      <c r="DP3">
+        <v>0.1152776628732681</v>
+      </c>
+      <c r="DQ3">
+        <v>0.02275064960122108</v>
+      </c>
+      <c r="DR3">
+        <v>0.07094966620206833</v>
+      </c>
+      <c r="DS3">
+        <v>-0.2066056728363037</v>
+      </c>
+      <c r="DT3">
+        <v>-0.016357297077775</v>
+      </c>
+      <c r="DU3">
+        <v>0.1052541583776474</v>
+      </c>
+      <c r="DV3">
+        <v>0.02014284767210484</v>
+      </c>
+      <c r="DW3">
+        <v>0.09986908733844757</v>
+      </c>
+      <c r="DX3">
+        <v>-0.0005854619666934013</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:129">
+      <c r="A4">
+        <v>-0.04018471017479897</v>
+      </c>
+      <c r="B4">
+        <v>0.03166554868221283</v>
+      </c>
+      <c r="C4">
+        <v>-0.01097825355827808</v>
+      </c>
+      <c r="D4">
+        <v>-0.07925421744585037</v>
+      </c>
+      <c r="E4">
+        <v>-0.1895276457071304</v>
+      </c>
+      <c r="F4">
+        <v>-0.009925305843353271</v>
+      </c>
+      <c r="G4">
+        <v>-0.03977110981941223</v>
+      </c>
+      <c r="H4">
+        <v>-0.05647856742143631</v>
+      </c>
+      <c r="I4">
+        <v>0.2047815918922424</v>
+      </c>
+      <c r="J4">
+        <v>-0.1450859010219574</v>
+      </c>
+      <c r="K4">
+        <v>0.2061941921710968</v>
+      </c>
+      <c r="L4">
+        <v>-0.09949997812509537</v>
+      </c>
+      <c r="M4">
+        <v>-0.1794528961181641</v>
+      </c>
+      <c r="N4">
+        <v>-0.0440233126282692</v>
+      </c>
+      <c r="O4">
+        <v>-0.1183458343148232</v>
+      </c>
+      <c r="P4">
+        <v>0.2636721134185791</v>
+      </c>
+      <c r="Q4">
+        <v>-0.2107987999916077</v>
+      </c>
+      <c r="R4">
+        <v>-0.2105693519115448</v>
+      </c>
+      <c r="S4">
+        <v>0.02943988330662251</v>
+      </c>
+      <c r="T4">
+        <v>0.0001204656437039375</v>
+      </c>
+      <c r="U4">
+        <v>0.1029988527297974</v>
+      </c>
+      <c r="V4">
+        <v>0.004707355983555317</v>
+      </c>
+      <c r="W4">
+        <v>-0.05427231267094612</v>
+      </c>
+      <c r="X4">
+        <v>0.07053828984498978</v>
+      </c>
+      <c r="Y4">
+        <v>-0.1257329285144806</v>
+      </c>
+      <c r="Z4">
+        <v>-0.3478525280952454</v>
+      </c>
+      <c r="AA4">
+        <v>-0.08918248116970062</v>
+      </c>
+      <c r="AB4">
+        <v>-0.09157026559114456</v>
+      </c>
+      <c r="AC4">
+        <v>-0.04351869598031044</v>
+      </c>
+      <c r="AD4">
+        <v>-0.1023580133914948</v>
+      </c>
+      <c r="AE4">
+        <v>-0.0032610222697258</v>
+      </c>
+      <c r="AF4">
+        <v>0.0882008969783783</v>
+      </c>
+      <c r="AG4">
+        <v>-0.1379371136426926</v>
+      </c>
+      <c r="AH4">
+        <v>0.03020153567194939</v>
+      </c>
+      <c r="AI4">
+        <v>0.03844068199396133</v>
+      </c>
+      <c r="AJ4">
+        <v>0.03885406628251076</v>
+      </c>
+      <c r="AK4">
+        <v>0.02134006842970848</v>
+      </c>
+      <c r="AL4">
+        <v>-0.1023062318563461</v>
+      </c>
+      <c r="AM4">
+        <v>0.1607307940721512</v>
+      </c>
+      <c r="AN4">
+        <v>0.02794083952903748</v>
+      </c>
+      <c r="AO4">
+        <v>-0.3372229039669037</v>
+      </c>
+      <c r="AP4">
+        <v>0.06171640753746033</v>
+      </c>
+      <c r="AQ4">
+        <v>0.1090328618884087</v>
+      </c>
+      <c r="AR4">
+        <v>0.2395233064889908</v>
+      </c>
+      <c r="AS4">
+        <v>0.1045276969671249</v>
+      </c>
+      <c r="AT4">
+        <v>-0.00145894952584058</v>
+      </c>
+      <c r="AU4">
+        <v>-0.03003488108515739</v>
+      </c>
+      <c r="AV4">
+        <v>-0.1649201661348343</v>
+      </c>
+      <c r="AW4">
+        <v>0.1871881783008575</v>
+      </c>
+      <c r="AX4">
+        <v>-0.1458289623260498</v>
+      </c>
+      <c r="AY4">
+        <v>0.003900688141584396</v>
+      </c>
+      <c r="AZ4">
+        <v>0.1425986588001251</v>
+      </c>
+      <c r="BA4">
+        <v>0.0316452719271183</v>
+      </c>
+      <c r="BB4">
+        <v>0.03570237383246422</v>
+      </c>
+      <c r="BC4">
+        <v>0.01470285002142191</v>
+      </c>
+      <c r="BD4">
+        <v>-0.07915030419826508</v>
+      </c>
+      <c r="BE4">
+        <v>0.03549863398075104</v>
+      </c>
+      <c r="BF4">
+        <v>0.1136744916439056</v>
+      </c>
+      <c r="BG4">
+        <v>-0.1529116183519363</v>
+      </c>
+      <c r="BH4">
+        <v>-0.01664223521947861</v>
+      </c>
+      <c r="BI4">
+        <v>0.07674497365951538</v>
+      </c>
+      <c r="BJ4">
+        <v>-0.03460218757390976</v>
+      </c>
+      <c r="BK4">
+        <v>-0.01427686586976051</v>
+      </c>
+      <c r="BL4">
+        <v>-0.1882077306509018</v>
+      </c>
+      <c r="BM4">
+        <v>0.1989280879497528</v>
+      </c>
+      <c r="BN4">
+        <v>0.07932986319065094</v>
+      </c>
+      <c r="BO4">
+        <v>-0.08914103358983994</v>
+      </c>
+      <c r="BP4">
+        <v>-0.2308449447154999</v>
+      </c>
+      <c r="BQ4">
+        <v>0.1201603263616562</v>
+      </c>
+      <c r="BR4">
+        <v>-0.1740789413452148</v>
+      </c>
+      <c r="BS4">
+        <v>-0.1670258045196533</v>
+      </c>
+      <c r="BT4">
+        <v>0.08282811939716339</v>
+      </c>
+      <c r="BU4">
+        <v>-0.1571127027273178</v>
+      </c>
+      <c r="BV4">
+        <v>-0.1589609682559967</v>
+      </c>
+      <c r="BW4">
+        <v>-0.3100926280021667</v>
+      </c>
+      <c r="BX4">
+        <v>-0.05594855919480324</v>
+      </c>
+      <c r="BY4">
+        <v>0.3965690135955811</v>
+      </c>
+      <c r="BZ4">
+        <v>0.1062143817543983</v>
+      </c>
+      <c r="CA4">
+        <v>-0.147093266248703</v>
+      </c>
+      <c r="CB4">
+        <v>0.09388532489538193</v>
+      </c>
+      <c r="CC4">
+        <v>0.03001317009329796</v>
+      </c>
+      <c r="CD4">
+        <v>-0.002025116235017776</v>
+      </c>
+      <c r="CE4">
+        <v>0.1197254061698914</v>
+      </c>
+      <c r="CF4">
+        <v>0.2106940001249313</v>
+      </c>
+      <c r="CG4">
+        <v>0.0251831728965044</v>
+      </c>
+      <c r="CH4">
+        <v>0.06517087668180466</v>
+      </c>
+      <c r="CI4">
+        <v>-0.0813145637512207</v>
+      </c>
+      <c r="CJ4">
+        <v>-0.03252957761287689</v>
+      </c>
+      <c r="CK4">
+        <v>0.2723617255687714</v>
+      </c>
+      <c r="CL4">
+        <v>-0.07068922370672226</v>
+      </c>
+      <c r="CM4">
+        <v>-0.02819033339619637</v>
+      </c>
+      <c r="CN4">
+        <v>0.195062056183815</v>
+      </c>
+      <c r="CO4">
+        <v>-0.02151116169989109</v>
+      </c>
+      <c r="CP4">
+        <v>0.115980751812458</v>
+      </c>
+      <c r="CQ4">
+        <v>-0.009331362321972847</v>
+      </c>
+      <c r="CR4">
+        <v>-0.009262205101549625</v>
+      </c>
+      <c r="CS4">
+        <v>-0.06198175624012947</v>
+      </c>
+      <c r="CT4">
+        <v>0.04357251152396202</v>
+      </c>
+      <c r="CU4">
+        <v>-0.1267177313566208</v>
+      </c>
+      <c r="CV4">
+        <v>-0.04104747250676155</v>
+      </c>
+      <c r="CW4">
+        <v>-0.03102490492165089</v>
+      </c>
+      <c r="CX4">
+        <v>0.01848477497696877</v>
+      </c>
+      <c r="CY4">
+        <v>-0.05202463641762733</v>
+      </c>
+      <c r="CZ4">
+        <v>0.09440342336893082</v>
+      </c>
+      <c r="DA4">
+        <v>-0.1461278647184372</v>
+      </c>
+      <c r="DB4">
+        <v>0.1072626635432243</v>
+      </c>
+      <c r="DC4">
+        <v>0.009034149348735809</v>
+      </c>
+      <c r="DD4">
+        <v>0.04318927228450775</v>
+      </c>
+      <c r="DE4">
+        <v>-0.03530780225992203</v>
+      </c>
+      <c r="DF4">
+        <v>0.08676442503929138</v>
+      </c>
+      <c r="DG4">
+        <v>-0.05703811720013618</v>
+      </c>
+      <c r="DH4">
+        <v>-0.03152176737785339</v>
+      </c>
+      <c r="DI4">
+        <v>0.100716233253479</v>
+      </c>
+      <c r="DJ4">
+        <v>-0.2047720700502396</v>
+      </c>
+      <c r="DK4">
+        <v>0.2027340829372406</v>
+      </c>
+      <c r="DL4">
+        <v>0.1184981092810631</v>
+      </c>
+      <c r="DM4">
+        <v>0.1336141675710678</v>
+      </c>
+      <c r="DN4">
+        <v>0.06875383853912354</v>
+      </c>
+      <c r="DO4">
+        <v>0.1087739244103432</v>
+      </c>
+      <c r="DP4">
+        <v>0.0443703830242157</v>
+      </c>
+      <c r="DQ4">
+        <v>-0.07293272018432617</v>
+      </c>
+      <c r="DR4">
+        <v>-0.07396619021892548</v>
+      </c>
+      <c r="DS4">
+        <v>-0.236134260892868</v>
+      </c>
+      <c r="DT4">
+        <v>0.001336034969426692</v>
+      </c>
+      <c r="DU4">
+        <v>0.1005825698375702</v>
+      </c>
+      <c r="DV4">
+        <v>-0.07934688776731491</v>
+      </c>
+      <c r="DW4">
+        <v>0.08276414126157761</v>
+      </c>
+      <c r="DX4">
+        <v>-0.004627976566553116</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:129">
+      <c r="A5">
+        <v>-0.1741162836551666</v>
+      </c>
+      <c r="B5">
+        <v>0.07486674934625626</v>
+      </c>
+      <c r="C5">
+        <v>0.06233425438404083</v>
+      </c>
+      <c r="D5">
+        <v>-0.004059773404151201</v>
+      </c>
+      <c r="E5">
+        <v>-0.05805781111121178</v>
+      </c>
+      <c r="F5">
+        <v>-0.07740078866481781</v>
+      </c>
+      <c r="G5">
+        <v>-0.04365823417901993</v>
+      </c>
+      <c r="H5">
+        <v>-0.1451919227838516</v>
+      </c>
+      <c r="I5">
+        <v>0.09051194041967392</v>
+      </c>
+      <c r="J5">
+        <v>-0.02952694147825241</v>
+      </c>
+      <c r="K5">
+        <v>0.221510574221611</v>
+      </c>
+      <c r="L5">
+        <v>-0.07259558886289597</v>
+      </c>
+      <c r="M5">
+        <v>-0.2302842885255814</v>
+      </c>
+      <c r="N5">
+        <v>-0.1006911545991898</v>
+      </c>
+      <c r="O5">
+        <v>-0.04434090852737427</v>
+      </c>
+      <c r="P5">
+        <v>0.2060647010803223</v>
+      </c>
+      <c r="Q5">
+        <v>-0.1288888305425644</v>
+      </c>
+      <c r="R5">
+        <v>-0.1193387880921364</v>
+      </c>
+      <c r="S5">
+        <v>-0.08182743936777115</v>
+      </c>
+      <c r="T5">
+        <v>-0.004708735272288322</v>
+      </c>
+      <c r="U5">
+        <v>0.07055580615997314</v>
+      </c>
+      <c r="V5">
+        <v>0.002262091264128685</v>
+      </c>
+      <c r="W5">
+        <v>0.04174432903528214</v>
+      </c>
+      <c r="X5">
+        <v>0.04533844441175461</v>
+      </c>
+      <c r="Y5">
+        <v>-0.1022191196680069</v>
+      </c>
+      <c r="Z5">
+        <v>-0.3137758076190948</v>
+      </c>
+      <c r="AA5">
+        <v>-0.1061259135603905</v>
+      </c>
+      <c r="AB5">
+        <v>-0.01088905148208141</v>
+      </c>
+      <c r="AC5">
+        <v>0.01566164381802082</v>
+      </c>
+      <c r="AD5">
+        <v>-0.03298221528530121</v>
+      </c>
+      <c r="AE5">
+        <v>-0.07563786208629608</v>
+      </c>
+      <c r="AF5">
+        <v>0.0528998039662838</v>
+      </c>
+      <c r="AG5">
+        <v>-0.1749782711267471</v>
+      </c>
+      <c r="AH5">
+        <v>-0.1208116933703423</v>
+      </c>
+      <c r="AI5">
+        <v>0.08369223773479462</v>
+      </c>
+      <c r="AJ5">
+        <v>0.2151975780725479</v>
+      </c>
+      <c r="AK5">
+        <v>-0.03758467361330986</v>
+      </c>
+      <c r="AL5">
+        <v>-0.07237827032804489</v>
+      </c>
+      <c r="AM5">
+        <v>0.1804383546113968</v>
+      </c>
+      <c r="AN5">
+        <v>-0.04308327287435532</v>
+      </c>
+      <c r="AO5">
+        <v>-0.2164330035448074</v>
+      </c>
+      <c r="AP5">
+        <v>0.01119504310190678</v>
+      </c>
+      <c r="AQ5">
+        <v>0.1321613192558289</v>
+      </c>
+      <c r="AR5">
+        <v>0.2505179345607758</v>
+      </c>
+      <c r="AS5">
+        <v>0.1776416599750519</v>
+      </c>
+      <c r="AT5">
+        <v>0.1087613925337791</v>
+      </c>
+      <c r="AU5">
+        <v>0.03177984431385994</v>
+      </c>
+      <c r="AV5">
+        <v>-0.1433650553226471</v>
+      </c>
+      <c r="AW5">
+        <v>0.05831438675522804</v>
+      </c>
+      <c r="AX5">
+        <v>-0.1577035039663315</v>
+      </c>
+      <c r="AY5">
+        <v>0.08626256138086319</v>
+      </c>
+      <c r="AZ5">
+        <v>0.1101785376667976</v>
+      </c>
+      <c r="BA5">
+        <v>0.05504106357693672</v>
+      </c>
+      <c r="BB5">
+        <v>0.1247484907507896</v>
+      </c>
+      <c r="BC5">
+        <v>-0.01863794401288033</v>
+      </c>
+      <c r="BD5">
+        <v>-0.1332676112651825</v>
+      </c>
+      <c r="BE5">
+        <v>0.0607304647564888</v>
+      </c>
+      <c r="BF5">
+        <v>0.1233555674552917</v>
+      </c>
+      <c r="BG5">
+        <v>-0.1442933529615402</v>
+      </c>
+      <c r="BH5">
+        <v>-0.02663984335958958</v>
+      </c>
+      <c r="BI5">
+        <v>0.1163995712995529</v>
+      </c>
+      <c r="BJ5">
+        <v>-0.1051090210676193</v>
+      </c>
+      <c r="BK5">
+        <v>-0.03235907107591629</v>
+      </c>
+      <c r="BL5">
+        <v>-0.04827504232525826</v>
+      </c>
+      <c r="BM5">
+        <v>0.2319060117006302</v>
+      </c>
+      <c r="BN5">
+        <v>0.103425495326519</v>
+      </c>
+      <c r="BO5">
+        <v>-0.118981346487999</v>
+      </c>
+      <c r="BP5">
+        <v>-0.1759465634822845</v>
+      </c>
+      <c r="BQ5">
+        <v>0.1159115359187126</v>
+      </c>
+      <c r="BR5">
+        <v>-0.1520912051200867</v>
+      </c>
+      <c r="BS5">
+        <v>-0.1277197450399399</v>
+      </c>
+      <c r="BT5">
+        <v>0.05886407941579819</v>
+      </c>
+      <c r="BU5">
+        <v>-0.1380064934492111</v>
+      </c>
+      <c r="BV5">
+        <v>-0.1332676112651825</v>
+      </c>
+      <c r="BW5">
+        <v>-0.3832741379737854</v>
+      </c>
+      <c r="BX5">
+        <v>0.04270825535058975</v>
+      </c>
+      <c r="BY5">
+        <v>0.4462471604347229</v>
+      </c>
+      <c r="BZ5">
+        <v>0.08813346922397614</v>
+      </c>
+      <c r="CA5">
+        <v>-0.1687619537115097</v>
+      </c>
+      <c r="CB5">
+        <v>0.02674230933189392</v>
+      </c>
+      <c r="CC5">
+        <v>0.01900577358901501</v>
+      </c>
+      <c r="CD5">
+        <v>-0.01506277080625296</v>
+      </c>
+      <c r="CE5">
+        <v>0.137718677520752</v>
+      </c>
+      <c r="CF5">
+        <v>0.1667933911085129</v>
+      </c>
+      <c r="CG5">
+        <v>-0.04662734270095825</v>
+      </c>
+      <c r="CH5">
+        <v>0.04697650671005249</v>
+      </c>
+      <c r="CI5">
+        <v>-0.106471985578537</v>
+      </c>
+      <c r="CJ5">
+        <v>0.01077074557542801</v>
+      </c>
+      <c r="CK5">
+        <v>0.2316816598176956</v>
+      </c>
+      <c r="CL5">
+        <v>-0.01101620588451624</v>
+      </c>
+      <c r="CM5">
+        <v>-0.07285448163747787</v>
+      </c>
+      <c r="CN5">
+        <v>0.1467030495405197</v>
+      </c>
+      <c r="CO5">
+        <v>0.06303754448890686</v>
+      </c>
+      <c r="CP5">
+        <v>0.07947558164596558</v>
+      </c>
+      <c r="CQ5">
+        <v>0.06740037351846695</v>
+      </c>
+      <c r="CR5">
+        <v>0.1005228459835052</v>
+      </c>
+      <c r="CS5">
+        <v>-0.02736873552203178</v>
+      </c>
+      <c r="CT5">
+        <v>0.0202498659491539</v>
+      </c>
+      <c r="CU5">
+        <v>-0.1688464432954788</v>
+      </c>
+      <c r="CV5">
+        <v>-0.04729971289634705</v>
+      </c>
+      <c r="CW5">
+        <v>0.1169563755393028</v>
+      </c>
+      <c r="CX5">
+        <v>0.01478651911020279</v>
+      </c>
+      <c r="CY5">
+        <v>0.03330529481172562</v>
+      </c>
+      <c r="CZ5">
+        <v>0.1269509792327881</v>
+      </c>
+      <c r="DA5">
+        <v>-0.1043439209461212</v>
+      </c>
+      <c r="DB5">
+        <v>0.139664500951767</v>
+      </c>
+      <c r="DC5">
+        <v>0.02577086538076401</v>
+      </c>
+      <c r="DD5">
+        <v>0.03103804960846901</v>
+      </c>
+      <c r="DE5">
+        <v>0.03575948253273964</v>
+      </c>
+      <c r="DF5">
+        <v>0.001120889908634126</v>
+      </c>
+      <c r="DG5">
+        <v>-0.0988442674279213</v>
+      </c>
+      <c r="DH5">
+        <v>-0.06476961076259613</v>
+      </c>
+      <c r="DI5">
+        <v>0.1030671522021294</v>
+      </c>
+      <c r="DJ5">
+        <v>-0.2108528912067413</v>
+      </c>
+      <c r="DK5">
+        <v>0.1940758377313614</v>
+      </c>
+      <c r="DL5">
+        <v>0.1920822858810425</v>
+      </c>
+      <c r="DM5">
+        <v>0.05980771034955978</v>
+      </c>
+      <c r="DN5">
+        <v>0.0844796746969223</v>
+      </c>
+      <c r="DO5">
+        <v>0.1536063551902771</v>
+      </c>
+      <c r="DP5">
+        <v>0.1285707205533981</v>
+      </c>
+      <c r="DQ5">
+        <v>0.02424720674753189</v>
+      </c>
+      <c r="DR5">
+        <v>0.03350801765918732</v>
+      </c>
+      <c r="DS5">
+        <v>-0.166852742433548</v>
+      </c>
+      <c r="DT5">
+        <v>-0.0496474914252758</v>
+      </c>
+      <c r="DU5">
+        <v>0.1135256066918373</v>
+      </c>
+      <c r="DV5">
+        <v>0.0115839671343565</v>
+      </c>
+      <c r="DW5">
+        <v>0.1773982644081116</v>
+      </c>
+      <c r="DX5">
+        <v>0.0594024732708931</v>
+      </c>
+      <c r="DY5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:129">
+      <c r="A6">
+        <v>-0.1292164772748947</v>
+      </c>
+      <c r="B6">
+        <v>0.08564207702875137</v>
+      </c>
+      <c r="C6">
+        <v>0.1135402545332909</v>
+      </c>
+      <c r="D6">
+        <v>-0.03366680070757866</v>
+      </c>
+      <c r="E6">
+        <v>-0.06662195175886154</v>
+      </c>
+      <c r="F6">
+        <v>-0.1056566163897514</v>
+      </c>
+      <c r="G6">
+        <v>-0.05458107218146324</v>
+      </c>
+      <c r="H6">
+        <v>-0.1405874490737915</v>
+      </c>
+      <c r="I6">
+        <v>0.1125767976045609</v>
+      </c>
+      <c r="J6">
+        <v>-0.03779042512178421</v>
+      </c>
+      <c r="K6">
+        <v>0.3155781924724579</v>
+      </c>
+      <c r="L6">
+        <v>-0.06495950371026993</v>
+      </c>
+      <c r="M6">
+        <v>-0.2592079937458038</v>
+      </c>
+      <c r="N6">
+        <v>-0.08936760574579239</v>
+      </c>
+      <c r="O6">
+        <v>-0.04960805177688599</v>
+      </c>
+      <c r="P6">
+        <v>0.2054583132266998</v>
+      </c>
+      <c r="Q6">
+        <v>-0.1464987546205521</v>
+      </c>
+      <c r="R6">
+        <v>-0.1091363281011581</v>
+      </c>
+      <c r="S6">
+        <v>-0.08170266449451447</v>
+      </c>
+      <c r="T6">
+        <v>-0.04245499521493912</v>
+      </c>
+      <c r="U6">
+        <v>0.03853410854935646</v>
+      </c>
+      <c r="V6">
+        <v>-0.01818323507905006</v>
+      </c>
+      <c r="W6">
+        <v>0.0582205094397068</v>
+      </c>
+      <c r="X6">
+        <v>0.06748628616333008</v>
+      </c>
+      <c r="Y6">
+        <v>-0.09582629799842834</v>
+      </c>
+      <c r="Z6">
+        <v>-0.2976419627666473</v>
+      </c>
+      <c r="AA6">
+        <v>-0.08164560794830322</v>
+      </c>
+      <c r="AB6">
+        <v>-0.009459482505917549</v>
+      </c>
+      <c r="AC6">
+        <v>0.03205547481775284</v>
+      </c>
+      <c r="AD6">
+        <v>-0.06803072988986969</v>
+      </c>
+      <c r="AE6">
+        <v>-0.1065084263682365</v>
+      </c>
+      <c r="AF6">
+        <v>0.03821919113397598</v>
+      </c>
+      <c r="AG6">
+        <v>-0.2184456288814545</v>
+      </c>
+      <c r="AH6">
+        <v>-0.1481972336769104</v>
+      </c>
+      <c r="AI6">
+        <v>0.05867671594023705</v>
+      </c>
+      <c r="AJ6">
+        <v>0.1282892972230911</v>
+      </c>
+      <c r="AK6">
+        <v>-0.04676010087132454</v>
+      </c>
+      <c r="AL6">
+        <v>-0.0497967042028904</v>
+      </c>
+      <c r="AM6">
+        <v>0.1823661029338837</v>
+      </c>
+      <c r="AN6">
+        <v>-0.05714859813451767</v>
+      </c>
+      <c r="AO6">
+        <v>-0.1943024843931198</v>
+      </c>
+      <c r="AP6">
+        <v>0.0221569761633873</v>
+      </c>
+      <c r="AQ6">
+        <v>0.1032888069748878</v>
+      </c>
+      <c r="AR6">
+        <v>0.201238676905632</v>
+      </c>
+      <c r="AS6">
+        <v>0.2114091962575912</v>
+      </c>
+      <c r="AT6">
+        <v>0.1519851684570312</v>
+      </c>
+      <c r="AU6">
+        <v>0.02652590535581112</v>
+      </c>
+      <c r="AV6">
+        <v>-0.1802552789449692</v>
+      </c>
+      <c r="AW6">
+        <v>0.03918169811367989</v>
+      </c>
+      <c r="AX6">
+        <v>-0.2326699197292328</v>
+      </c>
+      <c r="AY6">
+        <v>0.08378876000642776</v>
+      </c>
+      <c r="AZ6">
+        <v>0.1276607513427734</v>
+      </c>
+      <c r="BA6">
+        <v>0.07133451849222183</v>
+      </c>
+      <c r="BB6">
+        <v>0.06131236627697945</v>
+      </c>
+      <c r="BC6">
+        <v>-0.01135426387190819</v>
+      </c>
+      <c r="BD6">
+        <v>-0.1723408997058868</v>
+      </c>
+      <c r="BE6">
+        <v>0.01565633714199066</v>
+      </c>
+      <c r="BF6">
+        <v>0.1027913242578506</v>
+      </c>
+      <c r="BG6">
+        <v>-0.1085704490542412</v>
+      </c>
+      <c r="BH6">
+        <v>-0.006351982709020376</v>
+      </c>
+      <c r="BI6">
+        <v>0.0957648903131485</v>
+      </c>
+      <c r="BJ6">
+        <v>-0.09980186074972153</v>
+      </c>
+      <c r="BK6">
+        <v>-0.03341269493103027</v>
+      </c>
+      <c r="BL6">
+        <v>-0.05527170747518539</v>
+      </c>
+      <c r="BM6">
+        <v>0.2191422581672668</v>
+      </c>
+      <c r="BN6">
+        <v>0.08650073409080505</v>
+      </c>
+      <c r="BO6">
+        <v>-0.09718635678291321</v>
+      </c>
+      <c r="BP6">
+        <v>-0.1300132274627686</v>
+      </c>
+      <c r="BQ6">
+        <v>0.1193170845508575</v>
+      </c>
+      <c r="BR6">
+        <v>-0.1485578715801239</v>
+      </c>
+      <c r="BS6">
+        <v>-0.1057244837284088</v>
+      </c>
+      <c r="BT6">
+        <v>0.08600073307752609</v>
+      </c>
+      <c r="BU6">
+        <v>-0.09232310950756073</v>
+      </c>
+      <c r="BV6">
+        <v>-0.1583576947450638</v>
+      </c>
+      <c r="BW6">
+        <v>-0.3646343350410461</v>
+      </c>
+      <c r="BX6">
+        <v>0.01652245223522186</v>
+      </c>
+      <c r="BY6">
+        <v>0.434620589017868</v>
+      </c>
+      <c r="BZ6">
+        <v>0.07822845131158829</v>
+      </c>
+      <c r="CA6">
+        <v>-0.2015888690948486</v>
+      </c>
+      <c r="CB6">
+        <v>0.04082159698009491</v>
+      </c>
+      <c r="CC6">
+        <v>-0.02526747435331345</v>
+      </c>
+      <c r="CD6">
+        <v>0.00822592806071043</v>
+      </c>
+      <c r="CE6">
+        <v>0.1291511654853821</v>
+      </c>
+      <c r="CF6">
+        <v>0.07787802070379257</v>
+      </c>
+      <c r="CG6">
+        <v>-0.07279574871063232</v>
+      </c>
+      <c r="CH6">
+        <v>-0.00575749296694994</v>
+      </c>
+      <c r="CI6">
+        <v>-0.1391119062900543</v>
+      </c>
+      <c r="CJ6">
+        <v>0.001232719048857689</v>
+      </c>
+      <c r="CK6">
+        <v>0.2328616380691528</v>
+      </c>
+      <c r="CL6">
+        <v>-0.049314234405756</v>
+      </c>
+      <c r="CM6">
+        <v>-0.02712991088628769</v>
+      </c>
+      <c r="CN6">
+        <v>0.1686685681343079</v>
+      </c>
+      <c r="CO6">
+        <v>0.0400255098938942</v>
+      </c>
+      <c r="CP6">
+        <v>0.09828241169452667</v>
+      </c>
+      <c r="CQ6">
+        <v>0.07864150404930115</v>
+      </c>
+      <c r="CR6">
+        <v>0.1084863841533661</v>
+      </c>
+      <c r="CS6">
+        <v>-0.04217216372489929</v>
+      </c>
+      <c r="CT6">
+        <v>0.02777107059955597</v>
+      </c>
+      <c r="CU6">
+        <v>-0.1621693819761276</v>
+      </c>
+      <c r="CV6">
+        <v>-0.02817645668983459</v>
+      </c>
+      <c r="CW6">
+        <v>0.1097515746951103</v>
+      </c>
+      <c r="CX6">
+        <v>0.01881514862179756</v>
+      </c>
+      <c r="CY6">
+        <v>0.01187249273061752</v>
+      </c>
+      <c r="CZ6">
+        <v>0.08951480686664581</v>
+      </c>
+      <c r="DA6">
+        <v>-0.1530831307172775</v>
+      </c>
+      <c r="DB6">
+        <v>0.1020748168230057</v>
+      </c>
+      <c r="DC6">
+        <v>0.001280825585126877</v>
+      </c>
+      <c r="DD6">
+        <v>-0.01281256601214409</v>
+      </c>
+      <c r="DE6">
+        <v>0.04295558482408524</v>
+      </c>
+      <c r="DF6">
+        <v>-0.005070989951491356</v>
+      </c>
+      <c r="DG6">
+        <v>-0.07071514427661896</v>
+      </c>
+      <c r="DH6">
+        <v>-0.08678005635738373</v>
+      </c>
+      <c r="DI6">
+        <v>0.1175690963864326</v>
+      </c>
+      <c r="DJ6">
+        <v>-0.2335353493690491</v>
+      </c>
+      <c r="DK6">
+        <v>0.2112331241369247</v>
+      </c>
+      <c r="DL6">
+        <v>0.2196802049875259</v>
+      </c>
+      <c r="DM6">
+        <v>0.01339764054864645</v>
+      </c>
+      <c r="DN6">
+        <v>0.1099605485796928</v>
+      </c>
+      <c r="DO6">
+        <v>0.1282972246408463</v>
+      </c>
+      <c r="DP6">
+        <v>0.115439236164093</v>
+      </c>
+      <c r="DQ6">
+        <v>0.00511956587433815</v>
+      </c>
+      <c r="DR6">
+        <v>0.001472460106015205</v>
+      </c>
+      <c r="DS6">
+        <v>-0.1342039257287979</v>
+      </c>
+      <c r="DT6">
+        <v>-0.06702733784914017</v>
+      </c>
+      <c r="DU6">
+        <v>0.1063724160194397</v>
+      </c>
+      <c r="DV6">
+        <v>-0.03746300935745239</v>
+      </c>
+      <c r="DW6">
+        <v>0.1711137592792511</v>
+      </c>
+      <c r="DX6">
+        <v>0.03795230016112328</v>
+      </c>
+      <c r="DY6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:129">
+      <c r="A7">
+        <v>-0.05406799167394638</v>
+      </c>
+      <c r="B7">
+        <v>0.07858839631080627</v>
+      </c>
+      <c r="C7">
+        <v>0.007620911579579115</v>
+      </c>
+      <c r="D7">
+        <v>-0.1051785945892334</v>
+      </c>
+      <c r="E7">
+        <v>-0.1028443351387978</v>
+      </c>
+      <c r="F7">
+        <v>-0.009559154510498047</v>
+      </c>
+      <c r="G7">
+        <v>-0.06096189469099045</v>
+      </c>
+      <c r="H7">
+        <v>-0.1036155968904495</v>
+      </c>
+      <c r="I7">
+        <v>0.141790047287941</v>
+      </c>
+      <c r="J7">
+        <v>-0.139496237039566</v>
+      </c>
+      <c r="K7">
+        <v>0.1974593698978424</v>
+      </c>
+      <c r="L7">
+        <v>-0.07207049429416656</v>
+      </c>
+      <c r="M7">
+        <v>-0.1727930903434753</v>
+      </c>
+      <c r="N7">
+        <v>-0.04626670107245445</v>
+      </c>
+      <c r="O7">
+        <v>-0.02426560968160629</v>
+      </c>
+      <c r="P7">
+        <v>0.1859005689620972</v>
+      </c>
+      <c r="Q7">
+        <v>-0.2029965221881866</v>
+      </c>
+      <c r="R7">
+        <v>-0.1813752949237823</v>
+      </c>
+      <c r="S7">
+        <v>-0.04600609838962555</v>
+      </c>
+      <c r="T7">
+        <v>-0.01716599613428116</v>
+      </c>
+      <c r="U7">
+        <v>0.03116602450609207</v>
+      </c>
+      <c r="V7">
+        <v>-0.02036020532250404</v>
+      </c>
+      <c r="W7">
+        <v>-0.001650587772019207</v>
+      </c>
+      <c r="X7">
+        <v>0.04009649530053139</v>
+      </c>
+      <c r="Y7">
+        <v>-0.09666715562343597</v>
+      </c>
+      <c r="Z7">
+        <v>-0.3389324843883514</v>
+      </c>
+      <c r="AA7">
+        <v>-0.1096963956952095</v>
+      </c>
+      <c r="AB7">
+        <v>0.02486596070230007</v>
+      </c>
+      <c r="AC7">
+        <v>0.04664796963334084</v>
+      </c>
+      <c r="AD7">
+        <v>-0.05665784701704979</v>
+      </c>
+      <c r="AE7">
+        <v>-0.02027748711407185</v>
+      </c>
+      <c r="AF7">
+        <v>0.09066785871982574</v>
+      </c>
+      <c r="AG7">
+        <v>-0.1837476044893265</v>
+      </c>
+      <c r="AH7">
+        <v>0.00493583083152771</v>
+      </c>
+      <c r="AI7">
+        <v>0.05147730931639671</v>
+      </c>
+      <c r="AJ7">
+        <v>0.1355338245630264</v>
+      </c>
+      <c r="AK7">
+        <v>-0.03929951041936874</v>
+      </c>
+      <c r="AL7">
+        <v>-0.1136623397469521</v>
+      </c>
+      <c r="AM7">
+        <v>0.2109731733798981</v>
+      </c>
+      <c r="AN7">
+        <v>-0.005795578006654978</v>
+      </c>
+      <c r="AO7">
+        <v>-0.2853041887283325</v>
+      </c>
+      <c r="AP7">
+        <v>0.04844106733798981</v>
+      </c>
+      <c r="AQ7">
+        <v>0.04909130558371544</v>
+      </c>
+      <c r="AR7">
+        <v>0.2696196734905243</v>
+      </c>
+      <c r="AS7">
+        <v>0.1631957441568375</v>
+      </c>
+      <c r="AT7">
+        <v>-0.01226086728274822</v>
+      </c>
+      <c r="AU7">
+        <v>0.005751450546085835</v>
+      </c>
+      <c r="AV7">
+        <v>-0.09896101057529449</v>
+      </c>
+      <c r="AW7">
+        <v>0.1099640429019928</v>
+      </c>
+      <c r="AX7">
+        <v>-0.1745906472206116</v>
+      </c>
+      <c r="AY7">
+        <v>0.04450586438179016</v>
+      </c>
+      <c r="AZ7">
+        <v>0.207519456744194</v>
+      </c>
+      <c r="BA7">
+        <v>-0.002578886691480875</v>
+      </c>
+      <c r="BB7">
+        <v>0.03892185539007187</v>
+      </c>
+      <c r="BC7">
+        <v>-0.02761613950133324</v>
+      </c>
+      <c r="BD7">
+        <v>-0.0999198779463768</v>
+      </c>
+      <c r="BE7">
+        <v>0.03596401214599609</v>
+      </c>
+      <c r="BF7">
+        <v>0.1539284139871597</v>
+      </c>
+      <c r="BG7">
+        <v>-0.1227239146828651</v>
+      </c>
+      <c r="BH7">
+        <v>-0.02601342275738716</v>
+      </c>
+      <c r="BI7">
+        <v>0.1263718754053116</v>
+      </c>
+      <c r="BJ7">
+        <v>-0.1137693449854851</v>
+      </c>
+      <c r="BK7">
+        <v>-0.01823295466601849</v>
+      </c>
+      <c r="BL7">
+        <v>-0.1184723228216171</v>
+      </c>
+      <c r="BM7">
+        <v>0.1388686746358871</v>
+      </c>
+      <c r="BN7">
+        <v>0.1107518300414085</v>
+      </c>
+      <c r="BO7">
+        <v>-0.1055560559034348</v>
+      </c>
+      <c r="BP7">
+        <v>-0.2685141265392303</v>
+      </c>
+      <c r="BQ7">
+        <v>0.1022521406412125</v>
+      </c>
+      <c r="BR7">
+        <v>-0.141192227602005</v>
+      </c>
+      <c r="BS7">
+        <v>-0.0827147513628006</v>
+      </c>
+      <c r="BT7">
+        <v>0.06873840093612671</v>
+      </c>
+      <c r="BU7">
+        <v>-0.151495486497879</v>
+      </c>
+      <c r="BV7">
+        <v>-0.1839057207107544</v>
+      </c>
+      <c r="BW7">
+        <v>-0.2854498326778412</v>
+      </c>
+      <c r="BX7">
+        <v>0.01151258684694767</v>
+      </c>
+      <c r="BY7">
+        <v>0.3707984089851379</v>
+      </c>
+      <c r="BZ7">
+        <v>0.1327795833349228</v>
+      </c>
+      <c r="CA7">
+        <v>-0.1052423492074013</v>
+      </c>
+      <c r="CB7">
+        <v>0.09439734369516373</v>
+      </c>
+      <c r="CC7">
+        <v>0.009738377295434475</v>
+      </c>
+      <c r="CD7">
+        <v>-0.02412876486778259</v>
+      </c>
+      <c r="CE7">
+        <v>0.1377041041851044</v>
+      </c>
+      <c r="CF7">
+        <v>0.1828488260507584</v>
+      </c>
+      <c r="CG7">
+        <v>-0.02994859963655472</v>
+      </c>
+      <c r="CH7">
+        <v>0.06489042937755585</v>
+      </c>
+      <c r="CI7">
+        <v>-0.1055396199226379</v>
+      </c>
+      <c r="CJ7">
+        <v>0.0715683177113533</v>
+      </c>
+      <c r="CK7">
+        <v>0.2378057837486267</v>
+      </c>
+      <c r="CL7">
+        <v>-0.02942725643515587</v>
+      </c>
+      <c r="CM7">
+        <v>-0.0611535869538784</v>
+      </c>
+      <c r="CN7">
+        <v>0.191415086388588</v>
+      </c>
+      <c r="CO7">
+        <v>-0.01981154084205627</v>
+      </c>
+      <c r="CP7">
+        <v>0.068226657807827</v>
+      </c>
+      <c r="CQ7">
+        <v>0.004803917370736599</v>
+      </c>
+      <c r="CR7">
+        <v>0.06003869697451591</v>
+      </c>
+      <c r="CS7">
+        <v>-0.04623474925756454</v>
+      </c>
+      <c r="CT7">
+        <v>0.07222272455692291</v>
+      </c>
+      <c r="CU7">
+        <v>-0.1623536646366119</v>
+      </c>
+      <c r="CV7">
+        <v>0.005186718422919512</v>
+      </c>
+      <c r="CW7">
+        <v>0.07760661840438843</v>
+      </c>
+      <c r="CX7">
+        <v>-0.0202229917049408</v>
+      </c>
+      <c r="CY7">
+        <v>-0.01207513175904751</v>
+      </c>
+      <c r="CZ7">
+        <v>0.1500425338745117</v>
+      </c>
+      <c r="DA7">
+        <v>-0.1332419365644455</v>
+      </c>
+      <c r="DB7">
+        <v>0.1648978292942047</v>
+      </c>
+      <c r="DC7">
+        <v>-0.007168124429881573</v>
+      </c>
+      <c r="DD7">
+        <v>0.06595669686794281</v>
+      </c>
+      <c r="DE7">
+        <v>0.01209232211112976</v>
+      </c>
+      <c r="DF7">
+        <v>0.004054885823279619</v>
+      </c>
+      <c r="DG7">
+        <v>-0.07090487331151962</v>
+      </c>
+      <c r="DH7">
+        <v>-0.04037673026323318</v>
+      </c>
+      <c r="DI7">
+        <v>0.1160532534122467</v>
+      </c>
+      <c r="DJ7">
+        <v>-0.2231838256120682</v>
+      </c>
+      <c r="DK7">
+        <v>0.1546620875597</v>
+      </c>
+      <c r="DL7">
+        <v>0.1936354786157608</v>
+      </c>
+      <c r="DM7">
+        <v>0.09128890931606293</v>
+      </c>
+      <c r="DN7">
+        <v>0.08536882698535919</v>
+      </c>
+      <c r="DO7">
+        <v>0.1823276877403259</v>
+      </c>
+      <c r="DP7">
+        <v>0.06180224195122719</v>
+      </c>
+      <c r="DQ7">
+        <v>0.03167464584112167</v>
+      </c>
+      <c r="DR7">
+        <v>-0.05402781069278717</v>
+      </c>
+      <c r="DS7">
+        <v>-0.2520975172519684</v>
+      </c>
+      <c r="DT7">
+        <v>-0.01748262345790863</v>
+      </c>
+      <c r="DU7">
+        <v>0.04678573831915855</v>
+      </c>
+      <c r="DV7">
+        <v>0.01917337998747826</v>
+      </c>
+      <c r="DW7">
+        <v>0.09255805611610413</v>
+      </c>
+      <c r="DX7">
+        <v>0.03277750313282013</v>
+      </c>
+      <c r="DY7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:129">
+      <c r="A8">
+        <v>-0.06051668897271156</v>
+      </c>
+      <c r="B8">
+        <v>0.06055902317166328</v>
+      </c>
+      <c r="C8">
+        <v>0.01867903396487236</v>
+      </c>
+      <c r="D8">
+        <v>-0.1302794218063354</v>
+      </c>
+      <c r="E8">
+        <v>-0.09873083233833313</v>
+      </c>
+      <c r="F8">
+        <v>-0.006062630098313093</v>
+      </c>
+      <c r="G8">
+        <v>-0.04989566653966904</v>
+      </c>
+      <c r="H8">
+        <v>-0.1147274225950241</v>
+      </c>
+      <c r="I8">
+        <v>0.1444304585456848</v>
+      </c>
+      <c r="J8">
+        <v>-0.1759509593248367</v>
+      </c>
+      <c r="K8">
+        <v>0.2189412415027618</v>
+      </c>
+      <c r="L8">
+        <v>-0.08617676794528961</v>
+      </c>
+      <c r="M8">
+        <v>-0.178284153342247</v>
+      </c>
+      <c r="N8">
+        <v>-0.072496697306633</v>
+      </c>
+      <c r="O8">
+        <v>-0.0164023544639349</v>
+      </c>
+      <c r="P8">
+        <v>0.2215348184108734</v>
+      </c>
+      <c r="Q8">
+        <v>-0.2142770290374756</v>
+      </c>
+      <c r="R8">
+        <v>-0.1740400493144989</v>
+      </c>
+      <c r="S8">
+        <v>-0.02369645610451698</v>
+      </c>
+      <c r="T8">
+        <v>0.003418326377868652</v>
+      </c>
+      <c r="U8">
+        <v>0.03132886067032814</v>
+      </c>
+      <c r="V8">
+        <v>0.02302816323935986</v>
+      </c>
+      <c r="W8">
+        <v>0.04728732258081436</v>
+      </c>
+      <c r="X8">
+        <v>0.06682087481021881</v>
+      </c>
+      <c r="Y8">
+        <v>-0.127613291144371</v>
+      </c>
+      <c r="Z8">
+        <v>-0.3474119603633881</v>
+      </c>
+      <c r="AA8">
+        <v>-0.1076710298657417</v>
+      </c>
+      <c r="AB8">
+        <v>-0.003132306970655918</v>
+      </c>
+      <c r="AC8">
+        <v>-0.01566077396273613</v>
+      </c>
+      <c r="AD8">
+        <v>-0.05412923917174339</v>
+      </c>
+      <c r="AE8">
+        <v>-0.04530131444334984</v>
+      </c>
+      <c r="AF8">
+        <v>0.1127049326896667</v>
+      </c>
+      <c r="AG8">
+        <v>-0.1770573258399963</v>
+      </c>
+      <c r="AH8">
+        <v>0.01863021962344646</v>
+      </c>
+      <c r="AI8">
+        <v>0.07475569844245911</v>
+      </c>
+      <c r="AJ8">
+        <v>0.1451102495193481</v>
+      </c>
+      <c r="AK8">
+        <v>-0.04623739048838615</v>
+      </c>
+      <c r="AL8">
+        <v>-0.1206908226013184</v>
+      </c>
+      <c r="AM8">
+        <v>0.2021138072013855</v>
+      </c>
+      <c r="AN8">
+        <v>0.0293918214738369</v>
+      </c>
+      <c r="AO8">
+        <v>-0.2849284410476685</v>
+      </c>
+      <c r="AP8">
+        <v>0.01378791779279709</v>
+      </c>
+      <c r="AQ8">
+        <v>0.06842739880084991</v>
+      </c>
+      <c r="AR8">
+        <v>0.2513004243373871</v>
+      </c>
+      <c r="AS8">
+        <v>0.1654791682958603</v>
+      </c>
+      <c r="AT8">
+        <v>0.01727319695055485</v>
+      </c>
+      <c r="AU8">
+        <v>-0.01062265038490295</v>
+      </c>
+      <c r="AV8">
+        <v>-0.1081857457756996</v>
+      </c>
+      <c r="AW8">
+        <v>0.09285622835159302</v>
+      </c>
+      <c r="AX8">
+        <v>-0.1728340983390808</v>
+      </c>
+      <c r="AY8">
+        <v>0.03313892334699631</v>
+      </c>
+      <c r="AZ8">
+        <v>0.1581754386425018</v>
+      </c>
+      <c r="BA8">
+        <v>-0.02348692156374454</v>
+      </c>
+      <c r="BB8">
+        <v>0.0004183258861303329</v>
+      </c>
+      <c r="BC8">
+        <v>0.007437586318701506</v>
+      </c>
+      <c r="BD8">
+        <v>-0.120085097849369</v>
+      </c>
+      <c r="BE8">
+        <v>0.04926195740699768</v>
+      </c>
+      <c r="BF8">
+        <v>0.121321514248848</v>
+      </c>
+      <c r="BG8">
+        <v>-0.1228307858109474</v>
+      </c>
+      <c r="BH8">
+        <v>-0.07000872492790222</v>
+      </c>
+      <c r="BI8">
+        <v>0.1037867739796638</v>
+      </c>
+      <c r="BJ8">
+        <v>-0.1080210208892822</v>
+      </c>
+      <c r="BK8">
+        <v>-0.008811164647340775</v>
+      </c>
+      <c r="BL8">
+        <v>-0.1187373697757721</v>
+      </c>
+      <c r="BM8">
+        <v>0.1740245372056961</v>
+      </c>
+      <c r="BN8">
+        <v>0.09693162888288498</v>
+      </c>
+      <c r="BO8">
+        <v>-0.1150104850530624</v>
+      </c>
+      <c r="BP8">
+        <v>-0.2172606885433197</v>
+      </c>
+      <c r="BQ8">
+        <v>0.1201832145452499</v>
+      </c>
+      <c r="BR8">
+        <v>-0.1253408938646317</v>
+      </c>
+      <c r="BS8">
+        <v>-0.08956331759691238</v>
+      </c>
+      <c r="BT8">
+        <v>0.08042805641889572</v>
+      </c>
+      <c r="BU8">
+        <v>-0.1589557081460953</v>
+      </c>
+      <c r="BV8">
+        <v>-0.1848772764205933</v>
+      </c>
+      <c r="BW8">
+        <v>-0.2797412276268005</v>
+      </c>
+      <c r="BX8">
+        <v>-0.03093994222581387</v>
+      </c>
+      <c r="BY8">
+        <v>0.3782337307929993</v>
+      </c>
+      <c r="BZ8">
+        <v>0.1328251510858536</v>
+      </c>
+      <c r="CA8">
+        <v>-0.09267484396696091</v>
+      </c>
+      <c r="CB8">
+        <v>0.07887215167284012</v>
+      </c>
+      <c r="CC8">
+        <v>0.04224671795964241</v>
+      </c>
+      <c r="CD8">
+        <v>-0.01915141008794308</v>
+      </c>
+      <c r="CE8">
+        <v>0.133646085858345</v>
+      </c>
+      <c r="CF8">
+        <v>0.2090360224246979</v>
+      </c>
+      <c r="CG8">
+        <v>-0.0335300974547863</v>
+      </c>
+      <c r="CH8">
+        <v>0.06504328548908234</v>
+      </c>
+      <c r="CI8">
+        <v>-0.08652147650718689</v>
+      </c>
+      <c r="CJ8">
+        <v>0.06085603311657906</v>
+      </c>
+      <c r="CK8">
+        <v>0.2107103019952774</v>
+      </c>
+      <c r="CL8">
+        <v>-0.0206885039806366</v>
+      </c>
+      <c r="CM8">
+        <v>-0.06209882721304893</v>
+      </c>
+      <c r="CN8">
+        <v>0.1973030567169189</v>
+      </c>
+      <c r="CO8">
+        <v>-0.04191971942782402</v>
+      </c>
+      <c r="CP8">
+        <v>0.07221762090921402</v>
+      </c>
+      <c r="CQ8">
+        <v>0.02054470777511597</v>
+      </c>
+      <c r="CR8">
+        <v>0.007598998956382275</v>
+      </c>
+      <c r="CS8">
+        <v>-0.04182278364896774</v>
+      </c>
+      <c r="CT8">
+        <v>0.08180440217256546</v>
+      </c>
+      <c r="CU8">
+        <v>-0.1559757143259048</v>
+      </c>
+      <c r="CV8">
+        <v>0.008200986310839653</v>
+      </c>
+      <c r="CW8">
+        <v>0.04694991558790207</v>
+      </c>
+      <c r="CX8">
+        <v>-0.02419954165816307</v>
+      </c>
+      <c r="CY8">
+        <v>-0.02092440985143185</v>
+      </c>
+      <c r="CZ8">
+        <v>0.1713343113660812</v>
+      </c>
+      <c r="DA8">
+        <v>-0.1527748107910156</v>
+      </c>
+      <c r="DB8">
+        <v>0.1232478022575378</v>
+      </c>
+      <c r="DC8">
+        <v>-0.02437003143131733</v>
+      </c>
+      <c r="DD8">
+        <v>0.01175691280514002</v>
+      </c>
+      <c r="DE8">
+        <v>0.005389971192926168</v>
+      </c>
+      <c r="DF8">
+        <v>0.009320257231593132</v>
+      </c>
+      <c r="DG8">
+        <v>-0.08829215168952942</v>
+      </c>
+      <c r="DH8">
+        <v>-0.03294491022825241</v>
+      </c>
+      <c r="DI8">
+        <v>0.08357984572649002</v>
+      </c>
+      <c r="DJ8">
+        <v>-0.2492959648370743</v>
+      </c>
+      <c r="DK8">
+        <v>0.1149957627058029</v>
+      </c>
+      <c r="DL8">
+        <v>0.1942115128040314</v>
+      </c>
+      <c r="DM8">
+        <v>0.07969336211681366</v>
+      </c>
+      <c r="DN8">
+        <v>0.1008641496300697</v>
+      </c>
+      <c r="DO8">
+        <v>0.1672033965587616</v>
+      </c>
+      <c r="DP8">
+        <v>0.07011076807975769</v>
+      </c>
+      <c r="DQ8">
+        <v>0.01464248169213533</v>
+      </c>
+      <c r="DR8">
+        <v>-0.03962429612874985</v>
+      </c>
+      <c r="DS8">
+        <v>-0.2785988748073578</v>
+      </c>
+      <c r="DT8">
+        <v>-0.02063694968819618</v>
+      </c>
+      <c r="DU8">
+        <v>0.08968442678451538</v>
+      </c>
+      <c r="DV8">
+        <v>-0.01083553582429886</v>
+      </c>
+      <c r="DW8">
+        <v>0.1365517228841782</v>
+      </c>
+      <c r="DX8">
+        <v>0.01174549758434296</v>
+      </c>
+      <c r="DY8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:129">
+      <c r="A9">
+        <v>-0.1762138903141022</v>
+      </c>
+      <c r="B9">
+        <v>0.141680896282196</v>
+      </c>
+      <c r="C9">
+        <v>0.02874770760536194</v>
+      </c>
+      <c r="D9">
+        <v>-0.1261463165283203</v>
+      </c>
+      <c r="E9">
+        <v>-0.1825680881738663</v>
+      </c>
+      <c r="F9">
+        <v>-0.04545935988426208</v>
+      </c>
+      <c r="G9">
+        <v>-0.1135124787688255</v>
+      </c>
+      <c r="H9">
+        <v>-0.1380153149366379</v>
+      </c>
+      <c r="I9">
+        <v>0.2101780474185944</v>
+      </c>
+      <c r="J9">
+        <v>-0.1101946905255318</v>
+      </c>
+      <c r="K9">
+        <v>0.1934342682361603</v>
+      </c>
+      <c r="L9">
+        <v>-0.05141454190015793</v>
+      </c>
+      <c r="M9">
+        <v>-0.2428606450557709</v>
+      </c>
+      <c r="N9">
+        <v>-0.07854139804840088</v>
+      </c>
+      <c r="O9">
+        <v>-0.07711021602153778</v>
+      </c>
+      <c r="P9">
+        <v>0.2404826730489731</v>
+      </c>
+      <c r="Q9">
+        <v>-0.2277267426252365</v>
+      </c>
+      <c r="R9">
+        <v>-0.1673870533704758</v>
+      </c>
+      <c r="S9">
+        <v>0.03828603774309158</v>
+      </c>
+      <c r="T9">
+        <v>-0.06095689162611961</v>
+      </c>
+      <c r="U9">
+        <v>0.08461470901966095</v>
+      </c>
+      <c r="V9">
+        <v>0.004196333233267069</v>
+      </c>
+      <c r="W9">
+        <v>-0.0462312288582325</v>
+      </c>
+      <c r="X9">
+        <v>0.05929305031895638</v>
+      </c>
+      <c r="Y9">
+        <v>-0.1340978145599365</v>
+      </c>
+      <c r="Z9">
+        <v>-0.3623939454555511</v>
+      </c>
+      <c r="AA9">
+        <v>-0.1340042650699615</v>
+      </c>
+      <c r="AB9">
+        <v>-0.07881081104278564</v>
+      </c>
+      <c r="AC9">
+        <v>-0.08674147725105286</v>
+      </c>
+      <c r="AD9">
+        <v>-0.08287795633077621</v>
+      </c>
+      <c r="AE9">
+        <v>0.007084882818162441</v>
+      </c>
+      <c r="AF9">
+        <v>0.04986830800771713</v>
+      </c>
+      <c r="AG9">
+        <v>-0.1947986036539078</v>
+      </c>
+      <c r="AH9">
+        <v>-0.05111663043498993</v>
+      </c>
+      <c r="AI9">
+        <v>0.03621076792478561</v>
+      </c>
+      <c r="AJ9">
+        <v>0.1311065852642059</v>
+      </c>
+      <c r="AK9">
+        <v>0.03232457861304283</v>
+      </c>
+      <c r="AL9">
+        <v>-0.05490466207265854</v>
+      </c>
+      <c r="AM9">
+        <v>0.06965135037899017</v>
+      </c>
+      <c r="AN9">
+        <v>-0.07344351708889008</v>
+      </c>
+      <c r="AO9">
+        <v>-0.2661701738834381</v>
+      </c>
+      <c r="AP9">
+        <v>-0.04967252537608147</v>
+      </c>
+      <c r="AQ9">
+        <v>0.2039899230003357</v>
+      </c>
+      <c r="AR9">
+        <v>0.2049107253551483</v>
+      </c>
+      <c r="AS9">
+        <v>0.1806164979934692</v>
+      </c>
+      <c r="AT9">
+        <v>-0.02657318115234375</v>
+      </c>
+      <c r="AU9">
+        <v>-0.001639969646930695</v>
+      </c>
+      <c r="AV9">
+        <v>-0.1334625035524368</v>
+      </c>
+      <c r="AW9">
+        <v>0.1143726855516434</v>
+      </c>
+      <c r="AX9">
+        <v>-0.1126263067126274</v>
+      </c>
+      <c r="AY9">
+        <v>-0.01127707585692406</v>
+      </c>
+      <c r="AZ9">
+        <v>0.1464530527591705</v>
+      </c>
+      <c r="BA9">
+        <v>0.02437909319996834</v>
+      </c>
+      <c r="BB9">
+        <v>0.07098674774169922</v>
+      </c>
+      <c r="BC9">
+        <v>0.03758362680673599</v>
+      </c>
+      <c r="BD9">
+        <v>-0.1450646072626114</v>
+      </c>
+      <c r="BE9">
+        <v>0.01688380353152752</v>
+      </c>
+      <c r="BF9">
+        <v>0.1159214153885841</v>
+      </c>
+      <c r="BG9">
+        <v>-0.1524026393890381</v>
+      </c>
+      <c r="BH9">
+        <v>-0.02449856884777546</v>
+      </c>
+      <c r="BI9">
+        <v>0.1211612224578857</v>
+      </c>
+      <c r="BJ9">
+        <v>-0.1201550140976906</v>
+      </c>
+      <c r="BK9">
+        <v>-0.08685670793056488</v>
+      </c>
+      <c r="BL9">
+        <v>-0.08874101936817169</v>
+      </c>
+      <c r="BM9">
+        <v>0.2179899364709854</v>
+      </c>
+      <c r="BN9">
+        <v>0.07835367321968079</v>
+      </c>
+      <c r="BO9">
+        <v>-0.1245083883404732</v>
+      </c>
+      <c r="BP9">
+        <v>-0.2917943596839905</v>
+      </c>
+      <c r="BQ9">
+        <v>0.1269060969352722</v>
+      </c>
+      <c r="BR9">
+        <v>-0.1772799789905548</v>
+      </c>
+      <c r="BS9">
+        <v>-0.08151278644800186</v>
+      </c>
+      <c r="BT9">
+        <v>0.0817556232213974</v>
+      </c>
+      <c r="BU9">
+        <v>-0.1644333153963089</v>
+      </c>
+      <c r="BV9">
+        <v>-0.195344090461731</v>
+      </c>
+      <c r="BW9">
+        <v>-0.3567996919155121</v>
+      </c>
+      <c r="BX9">
+        <v>-0.0005584452301263809</v>
+      </c>
+      <c r="BY9">
+        <v>0.3296558260917664</v>
+      </c>
+      <c r="BZ9">
+        <v>0.103624701499939</v>
+      </c>
+      <c r="CA9">
+        <v>-0.1278366446495056</v>
+      </c>
+      <c r="CB9">
+        <v>0.1223670244216919</v>
+      </c>
+      <c r="CC9">
+        <v>-0.05241059139370918</v>
+      </c>
+      <c r="CD9">
+        <v>-0.03268595039844513</v>
+      </c>
+      <c r="CE9">
+        <v>0.03876789659261703</v>
+      </c>
+      <c r="CF9">
+        <v>0.1734514683485031</v>
+      </c>
+      <c r="CG9">
+        <v>0.07440030574798584</v>
+      </c>
+      <c r="CH9">
+        <v>0.09302572906017303</v>
+      </c>
+      <c r="CI9">
+        <v>-0.121421754360199</v>
+      </c>
+      <c r="CJ9">
+        <v>0.04781811684370041</v>
+      </c>
+      <c r="CK9">
+        <v>0.2137409001588821</v>
+      </c>
+      <c r="CL9">
+        <v>-0.082729272544384</v>
+      </c>
+      <c r="CM9">
+        <v>0.05334711819887161</v>
+      </c>
+      <c r="CN9">
+        <v>0.2377335131168365</v>
+      </c>
+      <c r="CO9">
+        <v>-0.03600767627358437</v>
+      </c>
+      <c r="CP9">
+        <v>0.06550394743680954</v>
+      </c>
+      <c r="CQ9">
+        <v>-0.01839604787528515</v>
+      </c>
+      <c r="CR9">
+        <v>0.106224812567234</v>
+      </c>
+      <c r="CS9">
+        <v>-0.1521697491407394</v>
+      </c>
+      <c r="CT9">
+        <v>0.03266036882996559</v>
+      </c>
+      <c r="CU9">
+        <v>-0.1507052630186081</v>
+      </c>
+      <c r="CV9">
+        <v>-0.0467061810195446</v>
+      </c>
+      <c r="CW9">
+        <v>0.03800944983959198</v>
+      </c>
+      <c r="CX9">
+        <v>-0.004937108606100082</v>
+      </c>
+      <c r="CY9">
+        <v>-0.01724065467715263</v>
+      </c>
+      <c r="CZ9">
+        <v>0.09424656629562378</v>
+      </c>
+      <c r="DA9">
+        <v>-0.1285905092954636</v>
+      </c>
+      <c r="DB9">
+        <v>0.07863814383745193</v>
+      </c>
+      <c r="DC9">
+        <v>0.0192947331815958</v>
+      </c>
+      <c r="DD9">
+        <v>0.04441343620419502</v>
+      </c>
+      <c r="DE9">
+        <v>-0.1020740121603012</v>
+      </c>
+      <c r="DF9">
+        <v>-0.03531504422426224</v>
+      </c>
+      <c r="DG9">
+        <v>-0.06534410268068314</v>
+      </c>
+      <c r="DH9">
+        <v>-0.08712373673915863</v>
+      </c>
+      <c r="DI9">
+        <v>0.1603701859712601</v>
+      </c>
+      <c r="DJ9">
+        <v>-0.2009997665882111</v>
+      </c>
+      <c r="DK9">
+        <v>0.2106229215860367</v>
+      </c>
+      <c r="DL9">
+        <v>0.150908350944519</v>
+      </c>
+      <c r="DM9">
+        <v>0.03956176340579987</v>
+      </c>
+      <c r="DN9">
+        <v>0.1359191238880157</v>
+      </c>
+      <c r="DO9">
+        <v>0.1260223686695099</v>
+      </c>
+      <c r="DP9">
+        <v>0.07564821094274521</v>
+      </c>
+      <c r="DQ9">
+        <v>-0.01336666382849216</v>
+      </c>
+      <c r="DR9">
+        <v>-0.1060496792197227</v>
+      </c>
+      <c r="DS9">
+        <v>-0.1462249904870987</v>
+      </c>
+      <c r="DT9">
+        <v>0.0168656874448061</v>
+      </c>
+      <c r="DU9">
+        <v>0.03061286173760891</v>
+      </c>
+      <c r="DV9">
+        <v>-0.08920475840568542</v>
+      </c>
+      <c r="DW9">
+        <v>0.05390391871333122</v>
+      </c>
+      <c r="DX9">
+        <v>0.0118499118834734</v>
+      </c>
+      <c r="DY9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:129">
+      <c r="A10">
+        <v>-0.1474465131759644</v>
+      </c>
+      <c r="B10">
+        <v>0.07038006186485291</v>
+      </c>
+      <c r="C10">
+        <v>0.04160371795296669</v>
+      </c>
+      <c r="D10">
+        <v>-0.06207156553864479</v>
+      </c>
+      <c r="E10">
+        <v>-0.09582536667585373</v>
+      </c>
+      <c r="F10">
+        <v>-0.06726504117250443</v>
+      </c>
+      <c r="G10">
+        <v>-0.03971418365836143</v>
+      </c>
+      <c r="H10">
+        <v>-0.1394493877887726</v>
+      </c>
+      <c r="I10">
+        <v>0.1525823324918747</v>
+      </c>
+      <c r="J10">
+        <v>-0.1262962520122528</v>
+      </c>
+      <c r="K10">
+        <v>0.2445041984319687</v>
+      </c>
+      <c r="L10">
+        <v>-0.05983031541109085</v>
+      </c>
+      <c r="M10">
+        <v>-0.2643933892250061</v>
+      </c>
+      <c r="N10">
+        <v>-0.1500777453184128</v>
+      </c>
+      <c r="O10">
+        <v>0.01511160470545292</v>
+      </c>
+      <c r="P10">
+        <v>0.2220114171504974</v>
+      </c>
+      <c r="Q10">
+        <v>-0.2076947540044785</v>
+      </c>
+      <c r="R10">
+        <v>-0.1506138741970062</v>
+      </c>
+      <c r="S10">
+        <v>-0.03215013071894646</v>
+      </c>
+      <c r="T10">
+        <v>0.04221934080123901</v>
+      </c>
+      <c r="U10">
+        <v>0.07963483780622482</v>
+      </c>
+      <c r="V10">
+        <v>-0.01822713389992714</v>
+      </c>
+      <c r="W10">
+        <v>0.0736650824546814</v>
+      </c>
+      <c r="X10">
+        <v>0.05428939685225487</v>
+      </c>
+      <c r="Y10">
+        <v>-0.06239859014749527</v>
+      </c>
+      <c r="Z10">
+        <v>-0.4132702648639679</v>
+      </c>
+      <c r="AA10">
+        <v>-0.08726584911346436</v>
+      </c>
+      <c r="AB10">
+        <v>-0.0969068855047226</v>
+      </c>
+      <c r="AC10">
+        <v>0.04435006529092789</v>
+      </c>
+      <c r="AD10">
+        <v>-0.04044500738382339</v>
+      </c>
+      <c r="AE10">
+        <v>-0.07505354285240173</v>
+      </c>
+      <c r="AF10">
+        <v>-0.01180171314626932</v>
+      </c>
+      <c r="AG10">
+        <v>-0.2012660503387451</v>
+      </c>
+      <c r="AH10">
+        <v>-0.07085978984832764</v>
+      </c>
+      <c r="AI10">
+        <v>0.01739272102713585</v>
+      </c>
+      <c r="AJ10">
+        <v>0.121519073843956</v>
+      </c>
+      <c r="AK10">
+        <v>0.01222229190170765</v>
+      </c>
+      <c r="AL10">
+        <v>-0.05311580002307892</v>
+      </c>
+      <c r="AM10">
+        <v>0.2441293150186539</v>
+      </c>
+      <c r="AN10">
+        <v>-0.00712860282510519</v>
+      </c>
+      <c r="AO10">
+        <v>-0.2635467350482941</v>
+      </c>
+      <c r="AP10">
+        <v>-0.000434286892414093</v>
+      </c>
+      <c r="AQ10">
+        <v>0.007485100068151951</v>
+      </c>
+      <c r="AR10">
+        <v>0.2698207497596741</v>
+      </c>
+      <c r="AS10">
+        <v>0.1608728766441345</v>
+      </c>
+      <c r="AT10">
+        <v>0.04813473299145699</v>
+      </c>
+      <c r="AU10">
+        <v>0.07086919993162155</v>
+      </c>
+      <c r="AV10">
+        <v>-0.1389955133199692</v>
+      </c>
+      <c r="AW10">
+        <v>0.1362008452415466</v>
+      </c>
+      <c r="AX10">
+        <v>-0.1724119931459427</v>
+      </c>
+      <c r="AY10">
+        <v>0.1040714681148529</v>
+      </c>
+      <c r="AZ10">
+        <v>0.1170686706900597</v>
+      </c>
+      <c r="BA10">
+        <v>0.1003596037626266</v>
+      </c>
+      <c r="BB10">
+        <v>-0.03331442177295685</v>
+      </c>
+      <c r="BC10">
+        <v>0.01114766485989094</v>
+      </c>
+      <c r="BD10">
+        <v>-0.1680236309766769</v>
+      </c>
+      <c r="BE10">
+        <v>-0.03808856010437012</v>
+      </c>
+      <c r="BF10">
+        <v>0.1062936782836914</v>
+      </c>
+      <c r="BG10">
+        <v>-0.1619096100330353</v>
+      </c>
+      <c r="BH10">
+        <v>0.02912707813084126</v>
+      </c>
+      <c r="BI10">
+        <v>0.1311877369880676</v>
+      </c>
+      <c r="BJ10">
+        <v>-0.0472572073340416</v>
+      </c>
+      <c r="BK10">
+        <v>-0.05450189113616943</v>
+      </c>
+      <c r="BL10">
+        <v>-0.1134418249130249</v>
+      </c>
+      <c r="BM10">
+        <v>0.2830475866794586</v>
+      </c>
+      <c r="BN10">
+        <v>0.0372963510453701</v>
+      </c>
+      <c r="BO10">
+        <v>-0.1526658236980438</v>
+      </c>
+      <c r="BP10">
+        <v>-0.1629815250635147</v>
+      </c>
+      <c r="BQ10">
+        <v>0.1607090085744858</v>
+      </c>
+      <c r="BR10">
+        <v>-0.09321821480989456</v>
+      </c>
+      <c r="BS10">
+        <v>-0.02872385084629059</v>
+      </c>
+      <c r="BT10">
+        <v>0.01955560594797134</v>
+      </c>
+      <c r="BU10">
+        <v>-0.213896706700325</v>
+      </c>
+      <c r="BV10">
+        <v>-0.1646625101566315</v>
+      </c>
+      <c r="BW10">
+        <v>-0.3319779336452484</v>
+      </c>
+      <c r="BX10">
+        <v>0.04400960355997086</v>
+      </c>
+      <c r="BY10">
+        <v>0.3918537795543671</v>
+      </c>
+      <c r="BZ10">
+        <v>0.03593871742486954</v>
+      </c>
+      <c r="CA10">
+        <v>-0.1932493448257446</v>
+      </c>
+      <c r="CB10">
+        <v>0.0297548733651638</v>
+      </c>
+      <c r="CC10">
+        <v>-0.08152838051319122</v>
+      </c>
+      <c r="CD10">
+        <v>-0.01787653565406799</v>
+      </c>
+      <c r="CE10">
+        <v>0.076125867664814</v>
+      </c>
+      <c r="CF10">
+        <v>0.1919232308864594</v>
+      </c>
+      <c r="CG10">
+        <v>0.04325459524989128</v>
+      </c>
+      <c r="CH10">
+        <v>0.05758191645145416</v>
+      </c>
+      <c r="CI10">
+        <v>-0.1117395013570786</v>
+      </c>
+      <c r="CJ10">
+        <v>0.04525206983089447</v>
+      </c>
+      <c r="CK10">
+        <v>0.1860920637845993</v>
+      </c>
+      <c r="CL10">
+        <v>-0.1321432590484619</v>
+      </c>
+      <c r="CM10">
+        <v>0.009567107073962688</v>
+      </c>
+      <c r="CN10">
+        <v>0.20700803399086</v>
+      </c>
+      <c r="CO10">
+        <v>-0.001992300152778625</v>
+      </c>
+      <c r="CP10">
+        <v>0.06469865888357162</v>
+      </c>
+      <c r="CQ10">
+        <v>-0.02339802496135235</v>
+      </c>
+      <c r="CR10">
+        <v>0.01409586053341627</v>
+      </c>
+      <c r="CS10">
+        <v>-0.0902053564786911</v>
+      </c>
+      <c r="CT10">
+        <v>0.03986441344022751</v>
+      </c>
+      <c r="CU10">
+        <v>-0.152631402015686</v>
+      </c>
+      <c r="CV10">
+        <v>-0.005563205573707819</v>
+      </c>
+      <c r="CW10">
+        <v>0.0662626177072525</v>
+      </c>
+      <c r="CX10">
+        <v>-0.01572735980153084</v>
+      </c>
+      <c r="CY10">
+        <v>0.02568397670984268</v>
+      </c>
+      <c r="CZ10">
+        <v>0.113036222755909</v>
+      </c>
+      <c r="DA10">
+        <v>-0.1552194654941559</v>
+      </c>
+      <c r="DB10">
+        <v>0.07935061305761337</v>
+      </c>
+      <c r="DC10">
+        <v>0.005969613790512085</v>
+      </c>
+      <c r="DD10">
+        <v>-0.001445388421416283</v>
+      </c>
+      <c r="DE10">
+        <v>0.03181322664022446</v>
+      </c>
+      <c r="DF10">
+        <v>-0.01548314467072487</v>
+      </c>
+      <c r="DG10">
+        <v>-0.1294015198945999</v>
+      </c>
+      <c r="DH10">
+        <v>-0.1484773904085159</v>
+      </c>
+      <c r="DI10">
+        <v>0.1124087199568748</v>
+      </c>
+      <c r="DJ10">
+        <v>-0.1869374215602875</v>
+      </c>
+      <c r="DK10">
+        <v>0.2191499471664429</v>
+      </c>
+      <c r="DL10">
+        <v>0.2052126079797745</v>
+      </c>
+      <c r="DM10">
+        <v>0.08491485565900803</v>
+      </c>
+      <c r="DN10">
+        <v>0.1124298572540283</v>
+      </c>
+      <c r="DO10">
+        <v>0.08824633806943893</v>
+      </c>
+      <c r="DP10">
+        <v>0.1011310666799545</v>
+      </c>
+      <c r="DQ10">
+        <v>0.03338930010795593</v>
+      </c>
+      <c r="DR10">
+        <v>0.0463835671544075</v>
+      </c>
+      <c r="DS10">
+        <v>-0.224202424287796</v>
+      </c>
+      <c r="DT10">
+        <v>-0.0003187486727256328</v>
+      </c>
+      <c r="DU10">
+        <v>0.107460543513298</v>
+      </c>
+      <c r="DV10">
+        <v>0.0152578204870224</v>
+      </c>
+      <c r="DW10">
+        <v>0.09241092950105667</v>
+      </c>
+      <c r="DX10">
+        <v>0.03313493728637695</v>
+      </c>
+      <c r="DY10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:129">
+      <c r="A11">
+        <v>-0.1194882467389107</v>
+      </c>
+      <c r="B11">
+        <v>0.03560980409383774</v>
+      </c>
+      <c r="C11">
+        <v>0.08167050778865814</v>
+      </c>
+      <c r="D11">
+        <v>-0.1042648032307625</v>
+      </c>
+      <c r="E11">
+        <v>-0.06647935509681702</v>
+      </c>
+      <c r="F11">
+        <v>-0.02718882262706757</v>
+      </c>
+      <c r="G11">
+        <v>-0.03930418193340302</v>
+      </c>
+      <c r="H11">
+        <v>-0.1049734503030777</v>
+      </c>
+      <c r="I11">
+        <v>0.1475421488285065</v>
+      </c>
+      <c r="J11">
+        <v>-0.1705937534570694</v>
+      </c>
+      <c r="K11">
+        <v>0.2058188021183014</v>
+      </c>
+      <c r="L11">
+        <v>-0.1051027998328209</v>
+      </c>
+      <c r="M11">
+        <v>-0.2437493503093719</v>
+      </c>
+      <c r="N11">
+        <v>-0.05131308361887932</v>
+      </c>
+      <c r="O11">
+        <v>-0.02305766940116882</v>
+      </c>
+      <c r="P11">
+        <v>0.2226850837469101</v>
+      </c>
+      <c r="Q11">
+        <v>-0.1470801681280136</v>
+      </c>
+      <c r="R11">
+        <v>-0.1532307714223862</v>
+      </c>
+      <c r="S11">
+        <v>-0.08422256261110306</v>
+      </c>
+      <c r="T11">
+        <v>-0.001069537363946438</v>
+      </c>
+      <c r="U11">
+        <v>0.06348173320293427</v>
+      </c>
+      <c r="V11">
+        <v>0.02389739453792572</v>
+      </c>
+      <c r="W11">
+        <v>-0.0322638712823391</v>
+      </c>
+      <c r="X11">
+        <v>0.04141023382544518</v>
+      </c>
+      <c r="Y11">
+        <v>-0.1794667094945908</v>
+      </c>
+      <c r="Z11">
+        <v>-0.3305402994155884</v>
+      </c>
+      <c r="AA11">
+        <v>-0.09153426438570023</v>
+      </c>
+      <c r="AB11">
+        <v>0.00181283988058567</v>
+      </c>
+      <c r="AC11">
+        <v>-0.08132271468639374</v>
+      </c>
+      <c r="AD11">
+        <v>-0.03459836915135384</v>
+      </c>
+      <c r="AE11">
+        <v>-0.05271425843238831</v>
+      </c>
+      <c r="AF11">
+        <v>0.006120009813457727</v>
+      </c>
+      <c r="AG11">
+        <v>-0.2063739150762558</v>
+      </c>
+      <c r="AH11">
+        <v>-0.02642368152737617</v>
+      </c>
+      <c r="AI11">
+        <v>0.03845953568816185</v>
+      </c>
+      <c r="AJ11">
+        <v>0.1182671561837196</v>
+      </c>
+      <c r="AK11">
+        <v>-0.0009908624924719334</v>
+      </c>
+      <c r="AL11">
+        <v>-0.113746702671051</v>
+      </c>
+      <c r="AM11">
+        <v>0.138616070151329</v>
+      </c>
+      <c r="AN11">
+        <v>0.01673506945371628</v>
+      </c>
+      <c r="AO11">
+        <v>-0.2712119221687317</v>
+      </c>
+      <c r="AP11">
+        <v>0.003827656619250774</v>
+      </c>
+      <c r="AQ11">
+        <v>0.09007328748703003</v>
+      </c>
+      <c r="AR11">
+        <v>0.218762993812561</v>
+      </c>
+      <c r="AS11">
+        <v>0.1477643549442291</v>
+      </c>
+      <c r="AT11">
+        <v>-0.01985942758619785</v>
+      </c>
+      <c r="AU11">
+        <v>-0.01329545117914677</v>
+      </c>
+      <c r="AV11">
+        <v>-0.1319074481725693</v>
+      </c>
+      <c r="AW11">
+        <v>0.1558925956487656</v>
+      </c>
+      <c r="AX11">
+        <v>-0.2116552591323853</v>
+      </c>
+      <c r="AY11">
+        <v>-0.05055032670497894</v>
+      </c>
+      <c r="AZ11">
+        <v>0.1115022972226143</v>
+      </c>
+      <c r="BA11">
+        <v>0.004222932737320662</v>
+      </c>
+      <c r="BB11">
+        <v>0.09653857350349426</v>
+      </c>
+      <c r="BC11">
+        <v>0.03030635789036751</v>
+      </c>
+      <c r="BD11">
+        <v>-0.09787563979625702</v>
+      </c>
+      <c r="BE11">
+        <v>0.05403584241867065</v>
+      </c>
+      <c r="BF11">
+        <v>0.1748317182064056</v>
+      </c>
+      <c r="BG11">
+        <v>-0.08850908279418945</v>
+      </c>
+      <c r="BH11">
+        <v>-0.04103705286979675</v>
+      </c>
+      <c r="BI11">
+        <v>0.06811054050922394</v>
+      </c>
+      <c r="BJ11">
+        <v>-0.08795604109764099</v>
+      </c>
+      <c r="BK11">
+        <v>-0.0112228337675333</v>
+      </c>
+      <c r="BL11">
+        <v>-0.1368931233882904</v>
+      </c>
+      <c r="BM11">
+        <v>0.2180247157812119</v>
+      </c>
+      <c r="BN11">
+        <v>0.03432859852910042</v>
+      </c>
+      <c r="BO11">
+        <v>-0.1646260172128677</v>
+      </c>
+      <c r="BP11">
+        <v>-0.1725181937217712</v>
+      </c>
+      <c r="BQ11">
+        <v>0.07291156798601151</v>
+      </c>
+      <c r="BR11">
+        <v>-0.1118357181549072</v>
+      </c>
+      <c r="BS11">
+        <v>-0.05645543709397316</v>
+      </c>
+      <c r="BT11">
+        <v>0.04211513698101044</v>
+      </c>
+      <c r="BU11">
+        <v>-0.1309680044651031</v>
+      </c>
+      <c r="BV11">
+        <v>-0.1620229631662369</v>
+      </c>
+      <c r="BW11">
+        <v>-0.3370821177959442</v>
+      </c>
+      <c r="BX11">
+        <v>0.006029007956385612</v>
+      </c>
+      <c r="BY11">
+        <v>0.3155473470687866</v>
+      </c>
+      <c r="BZ11">
+        <v>0.0992165133357048</v>
+      </c>
+      <c r="CA11">
+        <v>-0.2068278789520264</v>
+      </c>
+      <c r="CB11">
+        <v>0.0590897761285305</v>
+      </c>
+      <c r="CC11">
+        <v>-0.05148356407880783</v>
+      </c>
+      <c r="CD11">
+        <v>0.04797794669866562</v>
+      </c>
+      <c r="CE11">
+        <v>0.1208521202206612</v>
+      </c>
+      <c r="CF11">
+        <v>0.1650583446025848</v>
+      </c>
+      <c r="CG11">
+        <v>0.0501113086938858</v>
+      </c>
+      <c r="CH11">
+        <v>0.1050039082765579</v>
+      </c>
+      <c r="CI11">
+        <v>-0.07023858278989792</v>
+      </c>
+      <c r="CJ11">
+        <v>-0.003284964710474014</v>
+      </c>
+      <c r="CK11">
+        <v>0.2602916657924652</v>
+      </c>
+      <c r="CL11">
+        <v>-0.0562129057943821</v>
+      </c>
+      <c r="CM11">
+        <v>0.05217908322811127</v>
+      </c>
+      <c r="CN11">
+        <v>0.2571138143539429</v>
+      </c>
+      <c r="CO11">
+        <v>-0.006616209633648396</v>
+      </c>
+      <c r="CP11">
+        <v>0.07764341682195663</v>
+      </c>
+      <c r="CQ11">
+        <v>0.01486514322459698</v>
+      </c>
+      <c r="CR11">
+        <v>0.03041985258460045</v>
+      </c>
+      <c r="CS11">
+        <v>-0.1242413371801376</v>
+      </c>
+      <c r="CT11">
+        <v>0.003396333195269108</v>
+      </c>
+      <c r="CU11">
+        <v>-0.1137252449989319</v>
+      </c>
+      <c r="CV11">
+        <v>0.03361243382096291</v>
+      </c>
+      <c r="CW11">
+        <v>0.04602059721946716</v>
+      </c>
+      <c r="CX11">
+        <v>-0.004418008029460907</v>
+      </c>
+      <c r="CY11">
+        <v>0.02666433155536652</v>
+      </c>
+      <c r="CZ11">
+        <v>0.124189093708992</v>
+      </c>
+      <c r="DA11">
+        <v>-0.167566791176796</v>
+      </c>
+      <c r="DB11">
+        <v>0.1570668965578079</v>
+      </c>
+      <c r="DC11">
+        <v>0.0006561209447681904</v>
+      </c>
+      <c r="DD11">
+        <v>0.05065067484974861</v>
+      </c>
+      <c r="DE11">
+        <v>0.04426881670951843</v>
+      </c>
+      <c r="DF11">
+        <v>0.01427914947271347</v>
+      </c>
+      <c r="DG11">
+        <v>-0.05229382216930389</v>
+      </c>
+      <c r="DH11">
+        <v>-0.08913237601518631</v>
+      </c>
+      <c r="DI11">
+        <v>0.07349283248186111</v>
+      </c>
+      <c r="DJ11">
+        <v>-0.236148864030838</v>
+      </c>
+      <c r="DK11">
+        <v>0.1174449324607849</v>
+      </c>
+      <c r="DL11">
+        <v>0.1771509796380997</v>
+      </c>
+      <c r="DM11">
+        <v>0.02950306609272957</v>
+      </c>
+      <c r="DN11">
+        <v>0.08801296353340149</v>
+      </c>
+      <c r="DO11">
+        <v>0.1185266375541687</v>
+      </c>
+      <c r="DP11">
+        <v>0.07537204027175903</v>
+      </c>
+      <c r="DQ11">
+        <v>-0.06474928557872772</v>
+      </c>
+      <c r="DR11">
+        <v>0.06768900156021118</v>
+      </c>
+      <c r="DS11">
+        <v>-0.1897589564323425</v>
+      </c>
+      <c r="DT11">
+        <v>-0.01424675341695547</v>
+      </c>
+      <c r="DU11">
+        <v>0.08616016060113907</v>
+      </c>
+      <c r="DV11">
+        <v>-0.03645679354667664</v>
+      </c>
+      <c r="DW11">
+        <v>0.06496103852987289</v>
+      </c>
+      <c r="DX11">
+        <v>-0.01808702200651169</v>
+      </c>
+      <c r="DY11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:129">
+      <c r="A12">
+        <v>-0.1097566112875938</v>
+      </c>
+      <c r="B12">
+        <v>0.04236674308776855</v>
+      </c>
+      <c r="C12">
+        <v>0.02533685229718685</v>
+      </c>
+      <c r="D12">
+        <v>-0.01303918845951557</v>
+      </c>
+      <c r="E12">
+        <v>-0.0663098618388176</v>
+      </c>
+      <c r="F12">
+        <v>-0.05910323560237885</v>
+      </c>
+      <c r="G12">
+        <v>-0.03495168313384056</v>
+      </c>
+      <c r="H12">
+        <v>-0.08796408027410507</v>
+      </c>
+      <c r="I12">
+        <v>0.1185027882456779</v>
+      </c>
+      <c r="J12">
+        <v>-0.103463426232338</v>
+      </c>
+      <c r="K12">
+        <v>0.2456485480070114</v>
+      </c>
+      <c r="L12">
+        <v>-0.02869640290737152</v>
+      </c>
+      <c r="M12">
+        <v>-0.1989561766386032</v>
+      </c>
+      <c r="N12">
+        <v>-0.1062164530158043</v>
+      </c>
+      <c r="O12">
+        <v>0.03988704830408096</v>
+      </c>
+      <c r="P12">
+        <v>0.08883114159107208</v>
+      </c>
+      <c r="Q12">
+        <v>-0.2327565997838974</v>
+      </c>
+      <c r="R12">
+        <v>-0.06437711417675018</v>
+      </c>
+      <c r="S12">
+        <v>-0.02401148714125156</v>
+      </c>
+      <c r="T12">
+        <v>-0.0288423802703619</v>
+      </c>
+      <c r="U12">
+        <v>0.05371870473027229</v>
+      </c>
+      <c r="V12">
+        <v>-0.02729213610291481</v>
+      </c>
+      <c r="W12">
+        <v>0.05409505218267441</v>
+      </c>
+      <c r="X12">
+        <v>0.04121971130371094</v>
+      </c>
+      <c r="Y12">
+        <v>-0.1041938364505768</v>
+      </c>
+      <c r="Z12">
+        <v>-0.3696396350860596</v>
+      </c>
+      <c r="AA12">
+        <v>-0.1033496484160423</v>
+      </c>
+      <c r="AB12">
+        <v>-0.1874058991670609</v>
+      </c>
+      <c r="AC12">
+        <v>0.03640036284923553</v>
+      </c>
+      <c r="AD12">
+        <v>-0.03675469011068344</v>
+      </c>
+      <c r="AE12">
+        <v>0.01215522550046444</v>
+      </c>
+      <c r="AF12">
+        <v>0.08960448205471039</v>
+      </c>
+      <c r="AG12">
+        <v>-0.1816191226243973</v>
+      </c>
+      <c r="AH12">
+        <v>-0.02081049233675003</v>
+      </c>
+      <c r="AI12">
+        <v>-0.03017500974237919</v>
+      </c>
+      <c r="AJ12">
+        <v>0.04925626516342163</v>
+      </c>
+      <c r="AK12">
+        <v>-0.0424831360578537</v>
+      </c>
+      <c r="AL12">
+        <v>0.04042772948741913</v>
+      </c>
+      <c r="AM12">
+        <v>0.2362858355045319</v>
+      </c>
+      <c r="AN12">
+        <v>-0.02483954653143883</v>
+      </c>
+      <c r="AO12">
+        <v>-0.1573734134435654</v>
+      </c>
+      <c r="AP12">
+        <v>-0.08580349385738373</v>
+      </c>
+      <c r="AQ12">
+        <v>0.0202549546957016</v>
+      </c>
+      <c r="AR12">
+        <v>0.2236519455909729</v>
+      </c>
+      <c r="AS12">
+        <v>0.1813636124134064</v>
+      </c>
+      <c r="AT12">
+        <v>0.03457752242684364</v>
+      </c>
+      <c r="AU12">
+        <v>0.008165697567164898</v>
+      </c>
+      <c r="AV12">
+        <v>-0.001771437935531139</v>
+      </c>
+      <c r="AW12">
+        <v>0.09174418449401855</v>
+      </c>
+      <c r="AX12">
+        <v>-0.2310142815113068</v>
+      </c>
+      <c r="AY12">
+        <v>0.03712880238890648</v>
+      </c>
+      <c r="AZ12">
+        <v>0.1317437291145325</v>
+      </c>
+      <c r="BA12">
+        <v>0.1578182131052017</v>
+      </c>
+      <c r="BB12">
+        <v>0.0436696782708168</v>
+      </c>
+      <c r="BC12">
+        <v>0.03819882869720459</v>
+      </c>
+      <c r="BD12">
+        <v>-0.161379337310791</v>
+      </c>
+      <c r="BE12">
+        <v>0.002559477463364601</v>
+      </c>
+      <c r="BF12">
+        <v>0.03703763335943222</v>
+      </c>
+      <c r="BG12">
+        <v>-0.1382551044225693</v>
+      </c>
+      <c r="BH12">
+        <v>0.05197273194789886</v>
+      </c>
+      <c r="BI12">
+        <v>0.001267040148377419</v>
+      </c>
+      <c r="BJ12">
+        <v>-0.1259048283100128</v>
+      </c>
+      <c r="BK12">
+        <v>-0.05056628957390785</v>
+      </c>
+      <c r="BL12">
+        <v>-0.009774327278137207</v>
+      </c>
+      <c r="BM12">
+        <v>0.3054991960525513</v>
+      </c>
+      <c r="BN12">
+        <v>0.08253422379493713</v>
+      </c>
+      <c r="BO12">
+        <v>-0.1103087589144707</v>
+      </c>
+      <c r="BP12">
+        <v>-0.07237047702074051</v>
+      </c>
+      <c r="BQ12">
+        <v>0.1361833959817886</v>
+      </c>
+      <c r="BR12">
+        <v>-0.1331329792737961</v>
+      </c>
+      <c r="BS12">
+        <v>-0.02644851431250572</v>
+      </c>
+      <c r="BT12">
+        <v>0.1004237979650497</v>
+      </c>
+      <c r="BU12">
+        <v>-0.170074388384819</v>
+      </c>
+      <c r="BV12">
+        <v>-0.1688618361949921</v>
+      </c>
+      <c r="BW12">
+        <v>-0.2971115410327911</v>
+      </c>
+      <c r="BX12">
+        <v>-0.01231727376580238</v>
+      </c>
+      <c r="BY12">
+        <v>0.380871057510376</v>
+      </c>
+      <c r="BZ12">
+        <v>0.05739229917526245</v>
+      </c>
+      <c r="CA12">
+        <v>-0.1382717341184616</v>
+      </c>
+      <c r="CB12">
+        <v>0.01447002403438091</v>
+      </c>
+      <c r="CC12">
+        <v>-0.1236526593565941</v>
+      </c>
+      <c r="CD12">
+        <v>-0.07280422747135162</v>
+      </c>
+      <c r="CE12">
+        <v>0.04904276877641678</v>
+      </c>
+      <c r="CF12">
+        <v>0.09441576898097992</v>
+      </c>
+      <c r="CG12">
+        <v>-0.08639594167470932</v>
+      </c>
+      <c r="CH12">
+        <v>0.03322011977434158</v>
+      </c>
+      <c r="CI12">
+        <v>-0.07824596017599106</v>
+      </c>
+      <c r="CJ12">
+        <v>0.08371530473232269</v>
+      </c>
+      <c r="CK12">
+        <v>0.1652441769838333</v>
+      </c>
+      <c r="CL12">
+        <v>-0.0961138904094696</v>
+      </c>
+      <c r="CM12">
+        <v>-0.02439587935805321</v>
+      </c>
+      <c r="CN12">
+        <v>0.1963680237531662</v>
+      </c>
+      <c r="CO12">
+        <v>-0.0431525781750679</v>
+      </c>
+      <c r="CP12">
+        <v>0.1267110556364059</v>
+      </c>
+      <c r="CQ12">
+        <v>-0.0008740848861634731</v>
+      </c>
+      <c r="CR12">
+        <v>-0.0732300654053688</v>
+      </c>
+      <c r="CS12">
+        <v>0.002084191888570786</v>
+      </c>
+      <c r="CT12">
+        <v>-0.05681347474455833</v>
+      </c>
+      <c r="CU12">
+        <v>-0.1094002202153206</v>
+      </c>
+      <c r="CV12">
+        <v>-0.007844873704016209</v>
+      </c>
+      <c r="CW12">
+        <v>0.04673733562231064</v>
+      </c>
+      <c r="CX12">
+        <v>-0.08997058123350143</v>
+      </c>
+      <c r="CY12">
+        <v>-0.02095502242445946</v>
+      </c>
+      <c r="CZ12">
+        <v>0.07397785782814026</v>
+      </c>
+      <c r="DA12">
+        <v>-0.1885553449392319</v>
+      </c>
+      <c r="DB12">
+        <v>0.06284330040216446</v>
+      </c>
+      <c r="DC12">
+        <v>0.0283603984862566</v>
+      </c>
+      <c r="DD12">
+        <v>-0.01248783431947231</v>
+      </c>
+      <c r="DE12">
+        <v>0.008301252499222755</v>
+      </c>
+      <c r="DF12">
+        <v>-0.01509120035916567</v>
+      </c>
+      <c r="DG12">
+        <v>-0.1469253599643707</v>
+      </c>
+      <c r="DH12">
+        <v>-0.05098479986190796</v>
+      </c>
+      <c r="DI12">
+        <v>0.1813132762908936</v>
+      </c>
+      <c r="DJ12">
+        <v>-0.2234586179256439</v>
+      </c>
+      <c r="DK12">
+        <v>0.2095823287963867</v>
+      </c>
+      <c r="DL12">
+        <v>0.1711749732494354</v>
+      </c>
+      <c r="DM12">
+        <v>0.02092062681913376</v>
+      </c>
+      <c r="DN12">
+        <v>0.1358625292778015</v>
+      </c>
+      <c r="DO12">
+        <v>0.05054057762026787</v>
+      </c>
+      <c r="DP12">
+        <v>0.02704564295709133</v>
+      </c>
+      <c r="DQ12">
+        <v>-0.06905611604452133</v>
+      </c>
+      <c r="DR12">
+        <v>-0.05147533118724823</v>
+      </c>
+      <c r="DS12">
+        <v>-0.1990967988967896</v>
+      </c>
+      <c r="DT12">
+        <v>0.02843451499938965</v>
+      </c>
+      <c r="DU12">
+        <v>0.1080772280693054</v>
+      </c>
+      <c r="DV12">
+        <v>-0.01465092040598392</v>
+      </c>
+      <c r="DW12">
+        <v>0.04449230432510376</v>
+      </c>
+      <c r="DX12">
+        <v>-0.02393559366464615</v>
+      </c>
+      <c r="DY12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:129">
+      <c r="A13">
+        <v>-0.1373470723628998</v>
+      </c>
+      <c r="B13">
+        <v>0.1175187677145004</v>
+      </c>
+      <c r="C13">
+        <v>0.02433144673705101</v>
+      </c>
+      <c r="D13">
+        <v>-0.03700445964932442</v>
+      </c>
+      <c r="E13">
+        <v>-0.0824468657374382</v>
+      </c>
+      <c r="F13">
+        <v>-0.1366898715496063</v>
+      </c>
+      <c r="G13">
+        <v>0.01372680068016052</v>
+      </c>
+      <c r="H13">
+        <v>-0.1825860142707825</v>
+      </c>
+      <c r="I13">
+        <v>0.1746135950088501</v>
+      </c>
+      <c r="J13">
+        <v>-0.08089055866003036</v>
+      </c>
+      <c r="K13">
+        <v>0.2284921407699585</v>
+      </c>
+      <c r="L13">
+        <v>-0.1098780035972595</v>
+      </c>
+      <c r="M13">
+        <v>-0.1863472014665604</v>
+      </c>
+      <c r="N13">
+        <v>-0.1418431997299194</v>
+      </c>
+      <c r="O13">
+        <v>0.02585586532950401</v>
+      </c>
+      <c r="P13">
+        <v>0.1994174271821976</v>
+      </c>
+      <c r="Q13">
+        <v>-0.2178867608308792</v>
+      </c>
+      <c r="R13">
+        <v>-0.1550352573394775</v>
+      </c>
+      <c r="S13">
+        <v>-0.04351654648780823</v>
+      </c>
+      <c r="T13">
+        <v>-0.02112967893481255</v>
+      </c>
+      <c r="U13">
+        <v>0.03840934485197067</v>
+      </c>
+      <c r="V13">
+        <v>-0.0538850910961628</v>
+      </c>
+      <c r="W13">
+        <v>0.03547454997897148</v>
+      </c>
+      <c r="X13">
+        <v>0.06615953892469406</v>
+      </c>
+      <c r="Y13">
+        <v>-0.0259922593832016</v>
+      </c>
+      <c r="Z13">
+        <v>-0.3791142106056213</v>
+      </c>
+      <c r="AA13">
+        <v>-0.1312440931797028</v>
+      </c>
+      <c r="AB13">
+        <v>-0.1417225003242493</v>
+      </c>
+      <c r="AC13">
+        <v>0.01503781322389841</v>
+      </c>
+      <c r="AD13">
+        <v>-0.07392721623182297</v>
+      </c>
+      <c r="AE13">
+        <v>-0.04252833127975464</v>
+      </c>
+      <c r="AF13">
+        <v>0.0455147996544838</v>
+      </c>
+      <c r="AG13">
+        <v>-0.2120517641305923</v>
+      </c>
+      <c r="AH13">
+        <v>-0.1470772922039032</v>
+      </c>
+      <c r="AI13">
+        <v>0.02937330305576324</v>
+      </c>
+      <c r="AJ13">
+        <v>0.07161159813404083</v>
+      </c>
+      <c r="AK13">
+        <v>-0.0171616468578577</v>
+      </c>
+      <c r="AL13">
+        <v>-0.0417790375649929</v>
+      </c>
+      <c r="AM13">
+        <v>0.1780151426792145</v>
+      </c>
+      <c r="AN13">
+        <v>0.003286357969045639</v>
+      </c>
+      <c r="AO13">
+        <v>-0.1958712935447693</v>
+      </c>
+      <c r="AP13">
+        <v>-0.02101603895425797</v>
+      </c>
+      <c r="AQ13">
+        <v>0.04633712396025658</v>
+      </c>
+      <c r="AR13">
+        <v>0.2882800996303558</v>
+      </c>
+      <c r="AS13">
+        <v>0.2129534333944321</v>
+      </c>
+      <c r="AT13">
+        <v>0.05108861997723579</v>
+      </c>
+      <c r="AU13">
+        <v>0.01333974581211805</v>
+      </c>
+      <c r="AV13">
+        <v>-0.1245365738868713</v>
+      </c>
+      <c r="AW13">
+        <v>0.1181423664093018</v>
+      </c>
+      <c r="AX13">
+        <v>-0.1062396913766861</v>
+      </c>
+      <c r="AY13">
+        <v>0.02443055436015129</v>
+      </c>
+      <c r="AZ13">
+        <v>0.1023722887039185</v>
+      </c>
+      <c r="BA13">
+        <v>0.0736224427819252</v>
+      </c>
+      <c r="BB13">
+        <v>0.03140281140804291</v>
+      </c>
+      <c r="BC13">
+        <v>0.01729643903672695</v>
+      </c>
+      <c r="BD13">
+        <v>-0.1649122536182404</v>
+      </c>
+      <c r="BE13">
+        <v>0.05576366186141968</v>
+      </c>
+      <c r="BF13">
+        <v>0.06545946002006531</v>
+      </c>
+      <c r="BG13">
+        <v>-0.2004493921995163</v>
+      </c>
+      <c r="BH13">
+        <v>0.01644423417747021</v>
+      </c>
+      <c r="BI13">
+        <v>0.181504875421524</v>
+      </c>
+      <c r="BJ13">
+        <v>-0.1139463931322098</v>
+      </c>
+      <c r="BK13">
+        <v>-0.09486419707536697</v>
+      </c>
+      <c r="BL13">
+        <v>-0.04132680222392082</v>
+      </c>
+      <c r="BM13">
+        <v>0.3504645526409149</v>
+      </c>
+      <c r="BN13">
+        <v>0.07270589470863342</v>
+      </c>
+      <c r="BO13">
+        <v>-0.1048878505825996</v>
+      </c>
+      <c r="BP13">
+        <v>-0.1852885186672211</v>
+      </c>
+      <c r="BQ13">
+        <v>0.155378058552742</v>
+      </c>
+      <c r="BR13">
+        <v>-0.1052324771881104</v>
+      </c>
+      <c r="BS13">
+        <v>-0.01939882338047028</v>
+      </c>
+      <c r="BT13">
+        <v>0.05623652040958405</v>
+      </c>
+      <c r="BU13">
+        <v>-0.2099619209766388</v>
+      </c>
+      <c r="BV13">
+        <v>-0.153569832444191</v>
+      </c>
+      <c r="BW13">
+        <v>-0.2988907098770142</v>
+      </c>
+      <c r="BX13">
+        <v>0.05237022414803505</v>
+      </c>
+      <c r="BY13">
+        <v>0.4114818572998047</v>
+      </c>
+      <c r="BZ13">
+        <v>0.02995981648564339</v>
+      </c>
+      <c r="CA13">
+        <v>-0.1679066717624664</v>
+      </c>
+      <c r="CB13">
+        <v>0.024944718927145</v>
+      </c>
+      <c r="CC13">
+        <v>-0.1155341863632202</v>
+      </c>
+      <c r="CD13">
+        <v>0.04390991851687431</v>
+      </c>
+      <c r="CE13">
+        <v>0.1296914517879486</v>
+      </c>
+      <c r="CF13">
+        <v>0.1598944664001465</v>
+      </c>
+      <c r="CG13">
+        <v>-0.002717632800340652</v>
+      </c>
+      <c r="CH13">
+        <v>0.03219183534383774</v>
+      </c>
+      <c r="CI13">
+        <v>-0.1205308511853218</v>
+      </c>
+      <c r="CJ13">
+        <v>-0.01826799660921097</v>
+      </c>
+      <c r="CK13">
+        <v>0.141698881983757</v>
+      </c>
+      <c r="CL13">
+        <v>-0.05768335983157158</v>
+      </c>
+      <c r="CM13">
+        <v>-0.0540476031601429</v>
+      </c>
+      <c r="CN13">
+        <v>0.1800326406955719</v>
+      </c>
+      <c r="CO13">
+        <v>-0.06885330379009247</v>
+      </c>
+      <c r="CP13">
+        <v>0.03899214416742325</v>
+      </c>
+      <c r="CQ13">
+        <v>0.02764440514147282</v>
+      </c>
+      <c r="CR13">
+        <v>-0.04873815923929214</v>
+      </c>
+      <c r="CS13">
+        <v>-0.06749650835990906</v>
+      </c>
+      <c r="CT13">
+        <v>0.03523337468504906</v>
+      </c>
+      <c r="CU13">
+        <v>-0.1470293253660202</v>
+      </c>
+      <c r="CV13">
+        <v>-0.05504614859819412</v>
+      </c>
+      <c r="CW13">
+        <v>0.05099736526608467</v>
+      </c>
+      <c r="CX13">
+        <v>-0.06807553768157959</v>
+      </c>
+      <c r="CY13">
+        <v>-0.0290378425270319</v>
+      </c>
+      <c r="CZ13">
+        <v>0.110135093331337</v>
+      </c>
+      <c r="DA13">
+        <v>-0.1445858478546143</v>
+      </c>
+      <c r="DB13">
+        <v>0.04081092402338982</v>
+      </c>
+      <c r="DC13">
+        <v>0.004012926481664181</v>
+      </c>
+      <c r="DD13">
+        <v>0.05769318342208862</v>
+      </c>
+      <c r="DE13">
+        <v>-0.03490512818098068</v>
+      </c>
+      <c r="DF13">
+        <v>-0.05600437521934509</v>
+      </c>
+      <c r="DG13">
+        <v>-0.1034399718046188</v>
+      </c>
+      <c r="DH13">
+        <v>-0.08937322348356247</v>
+      </c>
+      <c r="DI13">
+        <v>0.1204940602183342</v>
+      </c>
+      <c r="DJ13">
+        <v>-0.2558624148368835</v>
+      </c>
+      <c r="DK13">
+        <v>0.239133208990097</v>
+      </c>
+      <c r="DL13">
+        <v>0.1797846257686615</v>
+      </c>
+      <c r="DM13">
+        <v>0.0426279753446579</v>
+      </c>
+      <c r="DN13">
+        <v>0.1000974327325821</v>
+      </c>
+      <c r="DO13">
+        <v>0.03998677805066109</v>
+      </c>
+      <c r="DP13">
+        <v>0.09538851678371429</v>
+      </c>
+      <c r="DQ13">
+        <v>-0.03222765401005745</v>
+      </c>
+      <c r="DR13">
+        <v>0.0149074150249362</v>
+      </c>
+      <c r="DS13">
+        <v>-0.2049212157726288</v>
+      </c>
+      <c r="DT13">
+        <v>0.05720324069261551</v>
+      </c>
+      <c r="DU13">
+        <v>0.1131401807069778</v>
+      </c>
+      <c r="DV13">
+        <v>0.01620335131883621</v>
+      </c>
+      <c r="DW13">
+        <v>0.08765076845884323</v>
+      </c>
+      <c r="DX13">
+        <v>-0.009138760156929493</v>
+      </c>
+      <c r="DY13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:129">
+      <c r="A14">
+        <v>-0.08409734815359116</v>
+      </c>
+      <c r="B14">
+        <v>0.05838051065802574</v>
+      </c>
+      <c r="C14">
+        <v>0.04269765317440033</v>
+      </c>
+      <c r="D14">
+        <v>-0.0171088557690382</v>
+      </c>
+      <c r="E14">
+        <v>-0.08662630617618561</v>
+      </c>
+      <c r="F14">
+        <v>-0.03267819806933403</v>
+      </c>
+      <c r="G14">
+        <v>-0.02051868289709091</v>
+      </c>
+      <c r="H14">
+        <v>-0.1695716977119446</v>
+      </c>
+      <c r="I14">
+        <v>0.1376171410083771</v>
+      </c>
+      <c r="J14">
+        <v>-0.1126255020499229</v>
+      </c>
+      <c r="K14">
+        <v>0.2855627536773682</v>
+      </c>
+      <c r="L14">
+        <v>-0.05511223152279854</v>
+      </c>
+      <c r="M14">
+        <v>-0.216542586684227</v>
+      </c>
+      <c r="N14">
+        <v>-0.1576703190803528</v>
+      </c>
+      <c r="O14">
+        <v>-0.009443594142794609</v>
+      </c>
+      <c r="P14">
+        <v>0.1541889011859894</v>
+      </c>
+      <c r="Q14">
+        <v>-0.1796388775110245</v>
+      </c>
+      <c r="R14">
+        <v>-0.1664226353168488</v>
+      </c>
+      <c r="S14">
+        <v>-0.04118309170007706</v>
+      </c>
+      <c r="T14">
+        <v>0.007127217948436737</v>
+      </c>
+      <c r="U14">
+        <v>0.05840375646948814</v>
+      </c>
+      <c r="V14">
+        <v>-0.1092510223388672</v>
+      </c>
+      <c r="W14">
+        <v>0.07687286287546158</v>
+      </c>
+      <c r="X14">
+        <v>0.02997951582074165</v>
+      </c>
+      <c r="Y14">
+        <v>-0.09073636680841446</v>
+      </c>
+      <c r="Z14">
+        <v>-0.3605009615421295</v>
+      </c>
+      <c r="AA14">
+        <v>-0.1325456202030182</v>
+      </c>
+      <c r="AB14">
+        <v>-0.1226787567138672</v>
+      </c>
+      <c r="AC14">
+        <v>0.03217307105660439</v>
+      </c>
+      <c r="AD14">
+        <v>-0.01906261406838894</v>
+      </c>
+      <c r="AE14">
+        <v>-0.02081920579075813</v>
+      </c>
+      <c r="AF14">
+        <v>-0.01297386921942234</v>
+      </c>
+      <c r="AG14">
+        <v>-0.1809284090995789</v>
+      </c>
+      <c r="AH14">
+        <v>-0.08294305950403214</v>
+      </c>
+      <c r="AI14">
+        <v>0.002200200222432613</v>
+      </c>
+      <c r="AJ14">
+        <v>0.058806411921978</v>
+      </c>
+      <c r="AK14">
+        <v>-0.02184430882334709</v>
+      </c>
+      <c r="AL14">
+        <v>-0.08468309044837952</v>
+      </c>
+      <c r="AM14">
+        <v>0.2202101647853851</v>
+      </c>
+      <c r="AN14">
+        <v>-0.03381626307964325</v>
+      </c>
+      <c r="AO14">
+        <v>-0.2104168236255646</v>
+      </c>
+      <c r="AP14">
+        <v>-0.00860352348536253</v>
+      </c>
+      <c r="AQ14">
+        <v>0.04084722697734833</v>
+      </c>
+      <c r="AR14">
+        <v>0.1888896971940994</v>
+      </c>
+      <c r="AS14">
+        <v>0.1870542615652084</v>
+      </c>
+      <c r="AT14">
+        <v>0.1098941564559937</v>
+      </c>
+      <c r="AU14">
+        <v>0.04491021484136581</v>
+      </c>
+      <c r="AV14">
+        <v>-0.1063429489731789</v>
+      </c>
+      <c r="AW14">
+        <v>0.1202475428581238</v>
+      </c>
+      <c r="AX14">
+        <v>-0.1675442755222321</v>
+      </c>
+      <c r="AY14">
+        <v>0.04482690244913101</v>
+      </c>
+      <c r="AZ14">
+        <v>0.1215085908770561</v>
+      </c>
+      <c r="BA14">
+        <v>0.08886278420686722</v>
+      </c>
+      <c r="BB14">
+        <v>0.01264304015785456</v>
+      </c>
+      <c r="BC14">
+        <v>0.004304983653128147</v>
+      </c>
+      <c r="BD14">
+        <v>-0.1545955389738083</v>
+      </c>
+      <c r="BE14">
+        <v>0.07960426062345505</v>
+      </c>
+      <c r="BF14">
+        <v>0.07286147773265839</v>
+      </c>
+      <c r="BG14">
+        <v>-0.132561057806015</v>
+      </c>
+      <c r="BH14">
+        <v>-0.02178343199193478</v>
+      </c>
+      <c r="BI14">
+        <v>0.096123106777668</v>
+      </c>
+      <c r="BJ14">
+        <v>-0.1072172373533249</v>
+      </c>
+      <c r="BK14">
+        <v>-0.023204131051898</v>
+      </c>
+      <c r="BL14">
+        <v>-0.01113542914390564</v>
+      </c>
+      <c r="BM14">
+        <v>0.2781078219413757</v>
+      </c>
+      <c r="BN14">
+        <v>0.07144946604967117</v>
+      </c>
+      <c r="BO14">
+        <v>-0.08485057950019836</v>
+      </c>
+      <c r="BP14">
+        <v>-0.1701130867004395</v>
+      </c>
+      <c r="BQ14">
+        <v>0.1286076605319977</v>
+      </c>
+      <c r="BR14">
+        <v>-0.1174793839454651</v>
+      </c>
+      <c r="BS14">
+        <v>-0.05136406421661377</v>
+      </c>
+      <c r="BT14">
+        <v>0.077271968126297</v>
+      </c>
+      <c r="BU14">
+        <v>-0.1955770552158356</v>
+      </c>
+      <c r="BV14">
+        <v>-0.1261355131864548</v>
+      </c>
+      <c r="BW14">
+        <v>-0.3169342875480652</v>
+      </c>
+      <c r="BX14">
+        <v>0.02022882737219334</v>
+      </c>
+      <c r="BY14">
+        <v>0.5025414824485779</v>
+      </c>
+      <c r="BZ14">
+        <v>0.0394844226539135</v>
+      </c>
+      <c r="CA14">
+        <v>-0.1251004636287689</v>
+      </c>
+      <c r="CB14">
+        <v>0.00905128289014101</v>
+      </c>
+      <c r="CC14">
+        <v>-0.1137064248323441</v>
+      </c>
+      <c r="CD14">
+        <v>0.03319220989942551</v>
+      </c>
+      <c r="CE14">
+        <v>0.1101124808192253</v>
+      </c>
+      <c r="CF14">
+        <v>0.1068554520606995</v>
+      </c>
+      <c r="CG14">
+        <v>-0.0271815937012434</v>
+      </c>
+      <c r="CH14">
+        <v>-0.07004415988922119</v>
+      </c>
+      <c r="CI14">
+        <v>-0.1870099455118179</v>
+      </c>
+      <c r="CJ14">
+        <v>-0.0588110014796257</v>
+      </c>
+      <c r="CK14">
+        <v>0.1964121311903</v>
+      </c>
+      <c r="CL14">
+        <v>-0.09363199770450592</v>
+      </c>
+      <c r="CM14">
+        <v>-0.04822356253862381</v>
+      </c>
+      <c r="CN14">
+        <v>0.13015416264534</v>
+      </c>
+      <c r="CO14">
+        <v>-0.02852555923163891</v>
+      </c>
+      <c r="CP14">
+        <v>0.08070982992649078</v>
+      </c>
+      <c r="CQ14">
+        <v>0.02172097191214561</v>
+      </c>
+      <c r="CR14">
+        <v>0.0115367891266942</v>
+      </c>
+      <c r="CS14">
+        <v>-0.08770840615034103</v>
+      </c>
+      <c r="CT14">
+        <v>0.08281946182250977</v>
+      </c>
+      <c r="CU14">
+        <v>-0.06792494654655457</v>
+      </c>
+      <c r="CV14">
+        <v>-0.01050578337162733</v>
+      </c>
+      <c r="CW14">
+        <v>0.05710768327116966</v>
+      </c>
+      <c r="CX14">
+        <v>-0.01025266572833061</v>
+      </c>
+      <c r="CY14">
+        <v>0.005207784939557314</v>
+      </c>
+      <c r="CZ14">
+        <v>0.07584322988986969</v>
+      </c>
+      <c r="DA14">
+        <v>-0.1616050153970718</v>
+      </c>
+      <c r="DB14">
+        <v>0.03537089750170708</v>
+      </c>
+      <c r="DC14">
+        <v>-0.03263285011053085</v>
+      </c>
+      <c r="DD14">
+        <v>0.01283247862011194</v>
+      </c>
+      <c r="DE14">
+        <v>0.04290348663926125</v>
+      </c>
+      <c r="DF14">
+        <v>-0.03838145732879639</v>
+      </c>
+      <c r="DG14">
+        <v>-0.1190785393118858</v>
+      </c>
+      <c r="DH14">
+        <v>-0.07874349504709244</v>
+      </c>
+      <c r="DI14">
+        <v>0.09895754605531693</v>
+      </c>
+      <c r="DJ14">
+        <v>-0.2573938369750977</v>
+      </c>
+      <c r="DK14">
+        <v>0.1822943240404129</v>
+      </c>
+      <c r="DL14">
+        <v>0.1930041462182999</v>
+      </c>
+      <c r="DM14">
+        <v>0.05391333624720573</v>
+      </c>
+      <c r="DN14">
+        <v>0.1124683022499084</v>
+      </c>
+      <c r="DO14">
+        <v>0.1265124827623367</v>
+      </c>
+      <c r="DP14">
+        <v>0.1060473322868347</v>
+      </c>
+      <c r="DQ14">
+        <v>-0.04448845982551575</v>
+      </c>
+      <c r="DR14">
+        <v>0.02988909371197224</v>
+      </c>
+      <c r="DS14">
+        <v>-0.2186330407857895</v>
+      </c>
+      <c r="DT14">
+        <v>-0.02829510159790516</v>
+      </c>
+      <c r="DU14">
+        <v>0.05235592648386955</v>
+      </c>
+      <c r="DV14">
+        <v>0.002827735617756844</v>
+      </c>
+      <c r="DW14">
+        <v>0.09368503093719482</v>
+      </c>
+      <c r="DX14">
+        <v>-0.005504964850842953</v>
+      </c>
+      <c r="DY14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:129">
+      <c r="A15">
+        <v>-0.113674059510231</v>
+      </c>
+      <c r="B15">
+        <v>0.0309467576444149</v>
+      </c>
+      <c r="C15">
+        <v>-0.05899471789598465</v>
+      </c>
+      <c r="D15">
+        <v>-0.0902692899107933</v>
+      </c>
+      <c r="E15">
+        <v>-0.09041761606931686</v>
+      </c>
+      <c r="F15">
+        <v>-0.01371102128177881</v>
+      </c>
+      <c r="G15">
+        <v>-0.06876745074987411</v>
+      </c>
+      <c r="H15">
+        <v>-0.114590123295784</v>
+      </c>
+      <c r="I15">
+        <v>0.1230952516198158</v>
+      </c>
+      <c r="J15">
+        <v>-0.1256043165922165</v>
+      </c>
+      <c r="K15">
+        <v>0.1749181151390076</v>
+      </c>
+      <c r="L15">
+        <v>-0.07615994662046432</v>
+      </c>
+      <c r="M15">
+        <v>-0.1982500851154327</v>
+      </c>
+      <c r="N15">
+        <v>-0.1130469813942909</v>
+      </c>
+      <c r="O15">
+        <v>-0.06091895326972008</v>
+      </c>
+      <c r="P15">
+        <v>0.1515306979417801</v>
+      </c>
+      <c r="Q15">
+        <v>-0.1934626400470734</v>
+      </c>
+      <c r="R15">
+        <v>-0.1718635112047195</v>
+      </c>
+      <c r="S15">
+        <v>-0.02848858013749123</v>
+      </c>
+      <c r="T15">
+        <v>0.01142429932951927</v>
+      </c>
+      <c r="U15">
+        <v>0.1041147485375404</v>
+      </c>
+      <c r="V15">
+        <v>-0.01486265566200018</v>
+      </c>
+      <c r="W15">
+        <v>-0.02005733549594879</v>
+      </c>
+      <c r="X15">
+        <v>0.07117661833763123</v>
+      </c>
+      <c r="Y15">
+        <v>-0.116987831890583</v>
+      </c>
+      <c r="Z15">
+        <v>-0.3328548967838287</v>
+      </c>
+      <c r="AA15">
+        <v>-0.1184114888310432</v>
+      </c>
+      <c r="AB15">
+        <v>-0.07538935542106628</v>
+      </c>
+      <c r="AC15">
+        <v>-0.01072144508361816</v>
+      </c>
+      <c r="AD15">
+        <v>-0.05864199623465538</v>
+      </c>
+      <c r="AE15">
+        <v>-0.00770037155598402</v>
+      </c>
+      <c r="AF15">
+        <v>-0.01406304817646742</v>
+      </c>
+      <c r="AG15">
+        <v>-0.2086313515901566</v>
+      </c>
+      <c r="AH15">
+        <v>-0.0494193471968174</v>
+      </c>
+      <c r="AI15">
+        <v>0.01620000042021275</v>
+      </c>
+      <c r="AJ15">
+        <v>0.08060338348150253</v>
+      </c>
+      <c r="AK15">
+        <v>-0.003955719526857138</v>
+      </c>
+      <c r="AL15">
+        <v>-0.08942887932062149</v>
+      </c>
+      <c r="AM15">
+        <v>0.1378912925720215</v>
+      </c>
+      <c r="AN15">
+        <v>-0.01462001446634531</v>
+      </c>
+      <c r="AO15">
+        <v>-0.2519529461860657</v>
+      </c>
+      <c r="AP15">
+        <v>0.04558307677507401</v>
+      </c>
+      <c r="AQ15">
+        <v>0.04343873634934425</v>
+      </c>
+      <c r="AR15">
+        <v>0.2269113659858704</v>
+      </c>
+      <c r="AS15">
+        <v>0.1530845463275909</v>
+      </c>
+      <c r="AT15">
+        <v>0.04874182492494583</v>
+      </c>
+      <c r="AU15">
+        <v>-0.005994454026222229</v>
+      </c>
+      <c r="AV15">
+        <v>-0.1445730179548264</v>
+      </c>
+      <c r="AW15">
+        <v>0.1423248946666718</v>
+      </c>
+      <c r="AX15">
+        <v>-0.1567499041557312</v>
+      </c>
+      <c r="AY15">
+        <v>-0.03120426274836063</v>
+      </c>
+      <c r="AZ15">
+        <v>0.1473031044006348</v>
+      </c>
+      <c r="BA15">
+        <v>0.03426987305283546</v>
+      </c>
+      <c r="BB15">
+        <v>0.04703382030129433</v>
+      </c>
+      <c r="BC15">
+        <v>-0.02441472187638283</v>
+      </c>
+      <c r="BD15">
+        <v>-0.1125357151031494</v>
+      </c>
+      <c r="BE15">
+        <v>0.07368572801351547</v>
+      </c>
+      <c r="BF15">
+        <v>0.1375608891248703</v>
+      </c>
+      <c r="BG15">
+        <v>-0.1500328034162521</v>
+      </c>
+      <c r="BH15">
+        <v>0.007782145868986845</v>
+      </c>
+      <c r="BI15">
+        <v>0.04712191596627235</v>
+      </c>
+      <c r="BJ15">
+        <v>-0.06561990827322006</v>
+      </c>
+      <c r="BK15">
+        <v>0.03257322311401367</v>
+      </c>
+      <c r="BL15">
+        <v>-0.1011729016900063</v>
+      </c>
+      <c r="BM15">
+        <v>0.2163475304841995</v>
+      </c>
+      <c r="BN15">
+        <v>0.02586811222136021</v>
+      </c>
+      <c r="BO15">
+        <v>-0.1282503306865692</v>
+      </c>
+      <c r="BP15">
+        <v>-0.2016119062900543</v>
+      </c>
+      <c r="BQ15">
+        <v>0.1249934136867523</v>
+      </c>
+      <c r="BR15">
+        <v>-0.1542459726333618</v>
+      </c>
+      <c r="BS15">
+        <v>-0.07392527908086777</v>
+      </c>
+      <c r="BT15">
+        <v>0.08441820740699768</v>
+      </c>
+      <c r="BU15">
+        <v>-0.1397339254617691</v>
+      </c>
+      <c r="BV15">
+        <v>-0.2313016504049301</v>
+      </c>
+      <c r="BW15">
+        <v>-0.3084885776042938</v>
+      </c>
+      <c r="BX15">
+        <v>0.02249856293201447</v>
+      </c>
+      <c r="BY15">
+        <v>0.3854701817035675</v>
+      </c>
+      <c r="BZ15">
+        <v>0.1463922560214996</v>
+      </c>
+      <c r="CA15">
+        <v>-0.1270751655101776</v>
+      </c>
+      <c r="CB15">
+        <v>0.08425028622150421</v>
+      </c>
+      <c r="CC15">
+        <v>-0.04696705564856529</v>
+      </c>
+      <c r="CD15">
+        <v>0.02370910719037056</v>
+      </c>
+      <c r="CE15">
+        <v>0.1303331255912781</v>
+      </c>
+      <c r="CF15">
+        <v>0.1507169008255005</v>
+      </c>
+      <c r="CG15">
+        <v>-0.0009582340717315674</v>
+      </c>
+      <c r="CH15">
+        <v>0.05149442330002785</v>
+      </c>
+      <c r="CI15">
+        <v>-0.09186878055334091</v>
+      </c>
+      <c r="CJ15">
+        <v>0.0106287756934762</v>
+      </c>
+      <c r="CK15">
+        <v>0.2636932134628296</v>
+      </c>
+      <c r="CL15">
+        <v>-0.03119535744190216</v>
+      </c>
+      <c r="CM15">
+        <v>-0.05418845266103745</v>
+      </c>
+      <c r="CN15">
+        <v>0.1978321075439453</v>
+      </c>
+      <c r="CO15">
+        <v>-0.02485660277307034</v>
+      </c>
+      <c r="CP15">
+        <v>0.1148369014263153</v>
+      </c>
+      <c r="CQ15">
+        <v>0.0346418134868145</v>
+      </c>
+      <c r="CR15">
+        <v>0.03713949024677277</v>
+      </c>
+      <c r="CS15">
+        <v>-0.06167393177747726</v>
+      </c>
+      <c r="CT15">
+        <v>0.06517725437879562</v>
+      </c>
+      <c r="CU15">
+        <v>-0.1021016836166382</v>
+      </c>
+      <c r="CV15">
+        <v>0.05331025645136833</v>
+      </c>
+      <c r="CW15">
+        <v>0.03864607214927673</v>
+      </c>
+      <c r="CX15">
+        <v>-0.03470110520720482</v>
+      </c>
+      <c r="CY15">
+        <v>0.01772388443350792</v>
+      </c>
+      <c r="CZ15">
+        <v>0.108645923435688</v>
+      </c>
+      <c r="DA15">
+        <v>-0.08539267629384995</v>
+      </c>
+      <c r="DB15">
+        <v>0.1273542642593384</v>
+      </c>
+      <c r="DC15">
+        <v>-0.007071619853377342</v>
+      </c>
+      <c r="DD15">
+        <v>0.04038099199533463</v>
+      </c>
+      <c r="DE15">
+        <v>-0.04148479923605919</v>
+      </c>
+      <c r="DF15">
+        <v>0.005134701263159513</v>
+      </c>
+      <c r="DG15">
+        <v>-0.1058903858065605</v>
+      </c>
+      <c r="DH15">
+        <v>-0.01625155285000801</v>
+      </c>
+      <c r="DI15">
+        <v>0.1092388927936554</v>
+      </c>
+      <c r="DJ15">
+        <v>-0.2554583847522736</v>
+      </c>
+      <c r="DK15">
+        <v>0.2396095097064972</v>
+      </c>
+      <c r="DL15">
+        <v>0.193057969212532</v>
+      </c>
+      <c r="DM15">
+        <v>0.1389331519603729</v>
+      </c>
+      <c r="DN15">
+        <v>0.119038462638855</v>
+      </c>
+      <c r="DO15">
+        <v>0.1486992239952087</v>
+      </c>
+      <c r="DP15">
+        <v>0.03327807784080505</v>
+      </c>
+      <c r="DQ15">
+        <v>-0.03282094374299049</v>
+      </c>
+      <c r="DR15">
+        <v>-0.02352611161768436</v>
+      </c>
+      <c r="DS15">
+        <v>-0.2442442327737808</v>
+      </c>
+      <c r="DT15">
+        <v>-0.02326459065079689</v>
+      </c>
+      <c r="DU15">
+        <v>0.1006400436162949</v>
+      </c>
+      <c r="DV15">
+        <v>-0.04132144525647163</v>
+      </c>
+      <c r="DW15">
+        <v>0.134684830904007</v>
+      </c>
+      <c r="DX15">
+        <v>-0.006746760103851557</v>
+      </c>
+      <c r="DY15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:129">
+      <c r="A16">
+        <v>-0.06990716606378555</v>
+      </c>
+      <c r="B16">
+        <v>0.0437069833278656</v>
+      </c>
+      <c r="C16">
+        <v>0.05788126587867737</v>
+      </c>
+      <c r="D16">
+        <v>-0.05453729256987572</v>
+      </c>
+      <c r="E16">
+        <v>-0.09154588729143143</v>
+      </c>
+      <c r="F16">
+        <v>-0.0207296684384346</v>
+      </c>
+      <c r="G16">
+        <v>-0.08762927353382111</v>
+      </c>
+      <c r="H16">
+        <v>-0.1408908665180206</v>
+      </c>
+      <c r="I16">
+        <v>0.1462540775537491</v>
+      </c>
+      <c r="J16">
+        <v>-0.1609162390232086</v>
+      </c>
+      <c r="K16">
+        <v>0.2317253798246384</v>
+      </c>
+      <c r="L16">
+        <v>-0.07824753224849701</v>
+      </c>
+      <c r="M16">
+        <v>-0.1713780909776688</v>
+      </c>
+      <c r="N16">
+        <v>-0.04557859525084496</v>
+      </c>
+      <c r="O16">
+        <v>-0.03787210583686829</v>
+      </c>
+      <c r="P16">
+        <v>0.253708153963089</v>
+      </c>
+      <c r="Q16">
+        <v>-0.2141980677843094</v>
+      </c>
+      <c r="R16">
+        <v>-0.1499760448932648</v>
+      </c>
+      <c r="S16">
+        <v>0.05499482899904251</v>
+      </c>
+      <c r="T16">
+        <v>0.02966391481459141</v>
+      </c>
+      <c r="U16">
+        <v>0.04897130280733109</v>
+      </c>
+      <c r="V16">
+        <v>0.02494005113840103</v>
+      </c>
+      <c r="W16">
+        <v>0.00633418932557106</v>
+      </c>
+      <c r="X16">
+        <v>0.07332809269428253</v>
+      </c>
+      <c r="Y16">
+        <v>-0.1849222779273987</v>
+      </c>
+      <c r="Z16">
+        <v>-0.3019440174102783</v>
+      </c>
+      <c r="AA16">
+        <v>-0.1074443981051445</v>
+      </c>
+      <c r="AB16">
+        <v>-0.03246553614735603</v>
+      </c>
+      <c r="AC16">
+        <v>-0.04232807457447052</v>
+      </c>
+      <c r="AD16">
+        <v>-0.05423165112733841</v>
+      </c>
+      <c r="AE16">
+        <v>-0.1001151353120804</v>
+      </c>
+      <c r="AF16">
+        <v>0.09882883727550507</v>
+      </c>
+      <c r="AG16">
+        <v>-0.1215325891971588</v>
+      </c>
+      <c r="AH16">
+        <v>0.0148456422612071</v>
+      </c>
+      <c r="AI16">
+        <v>0.07512104511260986</v>
+      </c>
+      <c r="AJ16">
+        <v>0.1598976403474808</v>
+      </c>
+      <c r="AK16">
+        <v>-0.004295060411095619</v>
+      </c>
+      <c r="AL16">
+        <v>-0.09946908056735992</v>
+      </c>
+      <c r="AM16">
+        <v>0.1479222029447556</v>
+      </c>
+      <c r="AN16">
+        <v>-0.001009074039757252</v>
+      </c>
+      <c r="AO16">
+        <v>-0.3026112914085388</v>
+      </c>
+      <c r="AP16">
+        <v>0.07373833656311035</v>
+      </c>
+      <c r="AQ16">
+        <v>0.1187207251787186</v>
+      </c>
+      <c r="AR16">
+        <v>0.2594528198242188</v>
+      </c>
+      <c r="AS16">
+        <v>0.172668993473053</v>
+      </c>
+      <c r="AT16">
+        <v>-0.008120721206068993</v>
+      </c>
+      <c r="AU16">
+        <v>-0.02691594697535038</v>
+      </c>
+      <c r="AV16">
+        <v>-0.1502238661050797</v>
+      </c>
+      <c r="AW16">
+        <v>0.1495584845542908</v>
+      </c>
+      <c r="AX16">
+        <v>-0.186545193195343</v>
+      </c>
+      <c r="AY16">
+        <v>-0.009632544592022896</v>
+      </c>
+      <c r="AZ16">
+        <v>0.07731446623802185</v>
+      </c>
+      <c r="BA16">
+        <v>0.09809581935405731</v>
+      </c>
+      <c r="BB16">
+        <v>0.03722383081912994</v>
+      </c>
+      <c r="BC16">
+        <v>0.01992046646773815</v>
+      </c>
+      <c r="BD16">
+        <v>-0.1226847395300865</v>
+      </c>
+      <c r="BE16">
+        <v>0.03920530900359154</v>
+      </c>
+      <c r="BF16">
+        <v>0.1132493168115616</v>
+      </c>
+      <c r="BG16">
+        <v>-0.1496998369693756</v>
+      </c>
+      <c r="BH16">
+        <v>-0.05650563538074493</v>
+      </c>
+      <c r="BI16">
+        <v>0.0524202473461628</v>
+      </c>
+      <c r="BJ16">
+        <v>-0.03694447502493858</v>
+      </c>
+      <c r="BK16">
+        <v>0.07903507351875305</v>
+      </c>
+      <c r="BL16">
+        <v>-0.1071071922779083</v>
+      </c>
+      <c r="BM16">
+        <v>0.1812113672494888</v>
+      </c>
+      <c r="BN16">
+        <v>0.09792685508728027</v>
+      </c>
+      <c r="BO16">
+        <v>-0.1281867772340775</v>
+      </c>
+      <c r="BP16">
+        <v>-0.1423282325267792</v>
+      </c>
+      <c r="BQ16">
+        <v>0.09421113878488541</v>
+      </c>
+      <c r="BR16">
+        <v>-0.1473556756973267</v>
+      </c>
+      <c r="BS16">
+        <v>-0.1269161999225616</v>
+      </c>
+      <c r="BT16">
+        <v>0.08045107126235962</v>
+      </c>
+      <c r="BU16">
+        <v>-0.1344925761222839</v>
+      </c>
+      <c r="BV16">
+        <v>-0.1975101232528687</v>
+      </c>
+      <c r="BW16">
+        <v>-0.3626760542392731</v>
+      </c>
+      <c r="BX16">
+        <v>-0.08787058293819427</v>
+      </c>
+      <c r="BY16">
+        <v>0.3714000582695007</v>
+      </c>
+      <c r="BZ16">
+        <v>0.1044155657291412</v>
+      </c>
+      <c r="CA16">
+        <v>-0.1872929036617279</v>
+      </c>
+      <c r="CB16">
+        <v>0.05052056908607483</v>
+      </c>
+      <c r="CC16">
+        <v>0.06774404644966125</v>
+      </c>
+      <c r="CD16">
+        <v>-0.02183218486607075</v>
+      </c>
+      <c r="CE16">
+        <v>0.1149500831961632</v>
+      </c>
+      <c r="CF16">
+        <v>0.2065078765153885</v>
+      </c>
+      <c r="CG16">
+        <v>-0.007536905817687511</v>
+      </c>
+      <c r="CH16">
+        <v>0.0397564135491848</v>
+      </c>
+      <c r="CI16">
+        <v>-0.08625262230634689</v>
+      </c>
+      <c r="CJ16">
+        <v>-0.009708207100629807</v>
+      </c>
+      <c r="CK16">
+        <v>0.2760325968265533</v>
+      </c>
+      <c r="CL16">
+        <v>-0.05327129364013672</v>
+      </c>
+      <c r="CM16">
+        <v>-0.005978766828775406</v>
+      </c>
+      <c r="CN16">
+        <v>0.1798428744077682</v>
+      </c>
+      <c r="CO16">
+        <v>0.02006181702017784</v>
+      </c>
+      <c r="CP16">
+        <v>0.09393187612295151</v>
+      </c>
+      <c r="CQ16">
+        <v>0.01589704863727093</v>
+      </c>
+      <c r="CR16">
+        <v>0.07331090420484543</v>
+      </c>
+      <c r="CS16">
+        <v>-0.06771000474691391</v>
+      </c>
+      <c r="CT16">
+        <v>0.03691242635250092</v>
+      </c>
+      <c r="CU16">
+        <v>-0.1642566025257111</v>
+      </c>
+      <c r="CV16">
+        <v>-0.02024480886757374</v>
+      </c>
+      <c r="CW16">
+        <v>-0.05755017325282097</v>
+      </c>
+      <c r="CX16">
+        <v>0.0006314613856375217</v>
+      </c>
+      <c r="CY16">
+        <v>-0.01305172871798277</v>
+      </c>
+      <c r="CZ16">
+        <v>0.1873417645692825</v>
+      </c>
+      <c r="DA16">
+        <v>-0.2196069806814194</v>
+      </c>
+      <c r="DB16">
+        <v>0.1690155416727066</v>
+      </c>
+      <c r="DC16">
+        <v>0.03033076599240303</v>
+      </c>
+      <c r="DD16">
+        <v>-0.02185644768178463</v>
+      </c>
+      <c r="DE16">
+        <v>0.01239512301981449</v>
+      </c>
+      <c r="DF16">
+        <v>0.0876767560839653</v>
+      </c>
+      <c r="DG16">
+        <v>-0.03433016687631607</v>
+      </c>
+      <c r="DH16">
+        <v>-0.03071155585348606</v>
+      </c>
+      <c r="DI16">
+        <v>0.07907766103744507</v>
+      </c>
+      <c r="DJ16">
+        <v>-0.2674353718757629</v>
+      </c>
+      <c r="DK16">
+        <v>0.09325440227985382</v>
+      </c>
+      <c r="DL16">
+        <v>0.1897981315851212</v>
+      </c>
+      <c r="DM16">
+        <v>0.05594012141227722</v>
+      </c>
+      <c r="DN16">
+        <v>0.1009895280003548</v>
+      </c>
+      <c r="DO16">
+        <v>0.05831187963485718</v>
+      </c>
+      <c r="DP16">
+        <v>0.05676287040114403</v>
+      </c>
+      <c r="DQ16">
+        <v>-0.0691901221871376</v>
+      </c>
+      <c r="DR16">
+        <v>-0.01341085229068995</v>
+      </c>
+      <c r="DS16">
+        <v>-0.2083991914987564</v>
+      </c>
+      <c r="DT16">
+        <v>-0.03524910286068916</v>
+      </c>
+      <c r="DU16">
+        <v>0.06909746676683426</v>
+      </c>
+      <c r="DV16">
+        <v>-0.08558066189289093</v>
+      </c>
+      <c r="DW16">
+        <v>0.1044365242123604</v>
+      </c>
+      <c r="DX16">
+        <v>0.02122553437948227</v>
+      </c>
+      <c r="DY16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:129">
+      <c r="A17">
+        <v>-0.1664230525493622</v>
+      </c>
+      <c r="B17">
+        <v>0.1197999492287636</v>
+      </c>
+      <c r="C17">
+        <v>0.05202930420637131</v>
+      </c>
+      <c r="D17">
+        <v>-0.07242220640182495</v>
+      </c>
+      <c r="E17">
+        <v>-0.07684532552957535</v>
+      </c>
+      <c r="F17">
+        <v>-0.02683362737298012</v>
+      </c>
+      <c r="G17">
+        <v>-0.01401004288345575</v>
+      </c>
+      <c r="H17">
+        <v>-0.1494615375995636</v>
+      </c>
+      <c r="I17">
+        <v>0.138905942440033</v>
+      </c>
+      <c r="J17">
+        <v>-0.1236595958471298</v>
+      </c>
+      <c r="K17">
+        <v>0.2360877245664597</v>
+      </c>
+      <c r="L17">
+        <v>-0.063214510679245</v>
+      </c>
+      <c r="M17">
+        <v>-0.189377173781395</v>
+      </c>
+      <c r="N17">
+        <v>-0.1932847946882248</v>
+      </c>
+      <c r="O17">
+        <v>0.05817620456218719</v>
+      </c>
+      <c r="P17">
+        <v>0.2009020447731018</v>
+      </c>
+      <c r="Q17">
+        <v>-0.1383683830499649</v>
+      </c>
+      <c r="R17">
+        <v>-0.157707467675209</v>
+      </c>
+      <c r="S17">
+        <v>-0.1222373247146606</v>
+      </c>
+      <c r="T17">
+        <v>0.005961579270660877</v>
+      </c>
+      <c r="U17">
+        <v>0.05909128859639168</v>
+      </c>
+      <c r="V17">
+        <v>-0.0143223013728857</v>
+      </c>
+      <c r="W17">
+        <v>0.009447494521737099</v>
+      </c>
+      <c r="X17">
+        <v>0.07067190110683441</v>
+      </c>
+      <c r="Y17">
+        <v>-0.1025408208370209</v>
+      </c>
+      <c r="Z17">
+        <v>-0.3550868630409241</v>
+      </c>
+      <c r="AA17">
+        <v>-0.08157946914434433</v>
+      </c>
+      <c r="AB17">
+        <v>0.008106231689453125</v>
+      </c>
+      <c r="AC17">
+        <v>0.04415782913565636</v>
+      </c>
+      <c r="AD17">
+        <v>-0.1162653416395187</v>
+      </c>
+      <c r="AE17">
+        <v>-0.07780147343873978</v>
+      </c>
+      <c r="AF17">
+        <v>0.05034055560827255</v>
+      </c>
+      <c r="AG17">
+        <v>-0.1716775298118591</v>
+      </c>
+      <c r="AH17">
+        <v>-0.07661905884742737</v>
+      </c>
+      <c r="AI17">
+        <v>-0.01627367921173573</v>
+      </c>
+      <c r="AJ17">
+        <v>0.1450842916965485</v>
+      </c>
+      <c r="AK17">
+        <v>-0.05361558869481087</v>
+      </c>
+      <c r="AL17">
+        <v>-0.06806424260139465</v>
+      </c>
+      <c r="AM17">
+        <v>0.1355796009302139</v>
+      </c>
+      <c r="AN17">
+        <v>-0.02005532756447792</v>
+      </c>
+      <c r="AO17">
+        <v>-0.266178160905838</v>
+      </c>
+      <c r="AP17">
+        <v>0.01647906377911568</v>
+      </c>
+      <c r="AQ17">
+        <v>-0.01671315357089043</v>
+      </c>
+      <c r="AR17">
+        <v>0.2441737949848175</v>
+      </c>
+      <c r="AS17">
+        <v>0.2625419795513153</v>
+      </c>
+      <c r="AT17">
+        <v>0.05430025234818459</v>
+      </c>
+      <c r="AU17">
+        <v>-0.002611083909869194</v>
+      </c>
+      <c r="AV17">
+        <v>-0.1086878255009651</v>
+      </c>
+      <c r="AW17">
+        <v>0.1808783262968063</v>
+      </c>
+      <c r="AX17">
+        <v>-0.2271032780408859</v>
+      </c>
+      <c r="AY17">
+        <v>0.03267816826701164</v>
+      </c>
+      <c r="AZ17">
+        <v>0.09247685223817825</v>
+      </c>
+      <c r="BA17">
+        <v>0.01861864514648914</v>
+      </c>
+      <c r="BB17">
+        <v>0.01386251579970121</v>
+      </c>
+      <c r="BC17">
+        <v>0.06126523017883301</v>
+      </c>
+      <c r="BD17">
+        <v>-0.111628882586956</v>
+      </c>
+      <c r="BE17">
+        <v>0.01445482019335032</v>
+      </c>
+      <c r="BF17">
+        <v>0.1936517506837845</v>
+      </c>
+      <c r="BG17">
+        <v>-0.1982659846544266</v>
+      </c>
+      <c r="BH17">
+        <v>-0.01729383505880833</v>
+      </c>
+      <c r="BI17">
+        <v>0.03747516125440598</v>
+      </c>
+      <c r="BJ17">
+        <v>-0.2034571766853333</v>
+      </c>
+      <c r="BK17">
+        <v>-0.04353611171245575</v>
+      </c>
+      <c r="BL17">
+        <v>-0.09055360406637192</v>
+      </c>
+      <c r="BM17">
+        <v>0.1185717210173607</v>
+      </c>
+      <c r="BN17">
+        <v>0.1303165704011917</v>
+      </c>
+      <c r="BO17">
+        <v>-0.06546657532453537</v>
+      </c>
+      <c r="BP17">
+        <v>-0.1668705940246582</v>
+      </c>
+      <c r="BQ17">
+        <v>0.1804646700620651</v>
+      </c>
+      <c r="BR17">
+        <v>-0.120564840734005</v>
+      </c>
+      <c r="BS17">
+        <v>-0.05876875296235085</v>
+      </c>
+      <c r="BT17">
+        <v>0.07378401607275009</v>
+      </c>
+      <c r="BU17">
+        <v>-0.08363194018602371</v>
+      </c>
+      <c r="BV17">
+        <v>-0.1831302046775818</v>
+      </c>
+      <c r="BW17">
+        <v>-0.350675642490387</v>
+      </c>
+      <c r="BX17">
+        <v>0.008254904299974442</v>
+      </c>
+      <c r="BY17">
+        <v>0.402560830116272</v>
+      </c>
+      <c r="BZ17">
+        <v>0.1552258282899857</v>
+      </c>
+      <c r="CA17">
+        <v>-0.2051381170749664</v>
+      </c>
+      <c r="CB17">
+        <v>0.01562653109431267</v>
+      </c>
+      <c r="CC17">
+        <v>0.01984981074929237</v>
+      </c>
+      <c r="CD17">
+        <v>0.03764633461833</v>
+      </c>
+      <c r="CE17">
+        <v>0.1903020143508911</v>
+      </c>
+      <c r="CF17">
+        <v>0.1239279061555862</v>
+      </c>
+      <c r="CG17">
+        <v>-0.03394638746976852</v>
+      </c>
+      <c r="CH17">
+        <v>-0.0397799089550972</v>
+      </c>
+      <c r="CI17">
+        <v>-0.1619945913553238</v>
+      </c>
+      <c r="CJ17">
+        <v>-0.01262115035206079</v>
+      </c>
+      <c r="CK17">
+        <v>0.1731482595205307</v>
+      </c>
+      <c r="CL17">
+        <v>0.009615184739232063</v>
+      </c>
+      <c r="CM17">
+        <v>-0.02295494079589844</v>
+      </c>
+      <c r="CN17">
+        <v>0.2317280322313309</v>
+      </c>
+      <c r="CO17">
+        <v>0.02254597097635269</v>
+      </c>
+      <c r="CP17">
+        <v>0.06837128102779388</v>
+      </c>
+      <c r="CQ17">
+        <v>0.05303265526890755</v>
+      </c>
+      <c r="CR17">
+        <v>0.0541984811425209</v>
+      </c>
+      <c r="CS17">
+        <v>-0.07067787647247314</v>
+      </c>
+      <c r="CT17">
+        <v>0.05704630166292191</v>
+      </c>
+      <c r="CU17">
+        <v>-0.1324872225522995</v>
+      </c>
+      <c r="CV17">
+        <v>-0.04663413390517235</v>
+      </c>
+      <c r="CW17">
+        <v>0.09472215175628662</v>
+      </c>
+      <c r="CX17">
+        <v>-0.03650927543640137</v>
+      </c>
+      <c r="CY17">
+        <v>0.02291413955390453</v>
+      </c>
+      <c r="CZ17">
+        <v>0.1092410907149315</v>
+      </c>
+      <c r="DA17">
+        <v>-0.1076285317540169</v>
+      </c>
+      <c r="DB17">
+        <v>0.206388533115387</v>
+      </c>
+      <c r="DC17">
+        <v>0.02241501212120056</v>
+      </c>
+      <c r="DD17">
+        <v>0.122593566775322</v>
+      </c>
+      <c r="DE17">
+        <v>0.02416955679655075</v>
+      </c>
+      <c r="DF17">
+        <v>-0.06091099232435226</v>
+      </c>
+      <c r="DG17">
+        <v>-0.02152063511312008</v>
+      </c>
+      <c r="DH17">
+        <v>-0.003272675909101963</v>
+      </c>
+      <c r="DI17">
+        <v>0.06772907078266144</v>
+      </c>
+      <c r="DJ17">
+        <v>-0.237699493765831</v>
+      </c>
+      <c r="DK17">
+        <v>0.1394961923360825</v>
+      </c>
+      <c r="DL17">
+        <v>0.1930653899908066</v>
+      </c>
+      <c r="DM17">
+        <v>-0.01137595530599356</v>
+      </c>
+      <c r="DN17">
+        <v>0.1412976980209351</v>
+      </c>
+      <c r="DO17">
+        <v>0.1028188392519951</v>
+      </c>
+      <c r="DP17">
+        <v>0.08626430481672287</v>
+      </c>
+      <c r="DQ17">
+        <v>-0.0148615064099431</v>
+      </c>
+      <c r="DR17">
+        <v>-0.05347114056348801</v>
+      </c>
+      <c r="DS17">
+        <v>-0.219129741191864</v>
+      </c>
+      <c r="DT17">
+        <v>-0.02541131526231766</v>
+      </c>
+      <c r="DU17">
+        <v>0.1185694858431816</v>
+      </c>
+      <c r="DV17">
+        <v>-0.001603121869266033</v>
+      </c>
+      <c r="DW17">
+        <v>0.1121142357587814</v>
+      </c>
+      <c r="DX17">
+        <v>0.04909952729940414</v>
+      </c>
+      <c r="DY17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:129">
+      <c r="A18">
+        <v>-0.1535291522741318</v>
+      </c>
+      <c r="B18">
+        <v>0.09682773798704147</v>
+      </c>
+      <c r="C18">
+        <v>0.04342304915189743</v>
+      </c>
+      <c r="D18">
+        <v>-0.07027996331453323</v>
+      </c>
+      <c r="E18">
+        <v>-0.09440071880817413</v>
+      </c>
+      <c r="F18">
+        <v>-0.02394618839025497</v>
+      </c>
+      <c r="G18">
+        <v>-0.07258074730634689</v>
+      </c>
+      <c r="H18">
+        <v>-0.08685524016618729</v>
+      </c>
+      <c r="I18">
+        <v>0.1098929718136787</v>
+      </c>
+      <c r="J18">
+        <v>-0.1068792119622231</v>
+      </c>
+      <c r="K18">
+        <v>0.218106284737587</v>
+      </c>
+      <c r="L18">
+        <v>-0.05814434215426445</v>
+      </c>
+      <c r="M18">
+        <v>-0.1815942823886871</v>
+      </c>
+      <c r="N18">
+        <v>-0.2229961752891541</v>
+      </c>
+      <c r="O18">
+        <v>0.01289800181984901</v>
+      </c>
+      <c r="P18">
+        <v>0.2336302697658539</v>
+      </c>
+      <c r="Q18">
+        <v>-0.1705117225646973</v>
+      </c>
+      <c r="R18">
+        <v>-0.1502412259578705</v>
+      </c>
+      <c r="S18">
+        <v>-0.04609040170907974</v>
+      </c>
+      <c r="T18">
+        <v>0.02280683815479279</v>
+      </c>
+      <c r="U18">
+        <v>0.06642564386129379</v>
+      </c>
+      <c r="V18">
+        <v>0.04056094959378242</v>
+      </c>
+      <c r="W18">
+        <v>-0.007306922227144241</v>
+      </c>
+      <c r="X18">
+        <v>0.02875595167279243</v>
+      </c>
+      <c r="Y18">
+        <v>-0.1252570152282715</v>
+      </c>
+      <c r="Z18">
+        <v>-0.3564572632312775</v>
+      </c>
+      <c r="AA18">
+        <v>-0.09414362162351608</v>
+      </c>
+      <c r="AB18">
+        <v>-0.01908360794186592</v>
+      </c>
+      <c r="AC18">
+        <v>0.04876819998025894</v>
+      </c>
+      <c r="AD18">
+        <v>-0.08519284427165985</v>
+      </c>
+      <c r="AE18">
+        <v>-0.097819484770298</v>
+      </c>
+      <c r="AF18">
+        <v>0.08585383743047714</v>
+      </c>
+      <c r="AG18">
+        <v>-0.1697450876235962</v>
+      </c>
+      <c r="AH18">
+        <v>-0.07742404937744141</v>
+      </c>
+      <c r="AI18">
+        <v>0.01760385930538177</v>
+      </c>
+      <c r="AJ18">
+        <v>0.1415288895368576</v>
+      </c>
+      <c r="AK18">
+        <v>-0.02124865911900997</v>
+      </c>
+      <c r="AL18">
+        <v>-0.02753718197345734</v>
+      </c>
+      <c r="AM18">
+        <v>0.1495333462953568</v>
+      </c>
+      <c r="AN18">
+        <v>0.0326569527387619</v>
+      </c>
+      <c r="AO18">
+        <v>-0.2778990864753723</v>
+      </c>
+      <c r="AP18">
+        <v>0.005108276847749949</v>
+      </c>
+      <c r="AQ18">
+        <v>0.0550825409591198</v>
+      </c>
+      <c r="AR18">
+        <v>0.283127635717392</v>
+      </c>
+      <c r="AS18">
+        <v>0.2787679731845856</v>
+      </c>
+      <c r="AT18">
+        <v>0.0350811667740345</v>
+      </c>
+      <c r="AU18">
+        <v>0.02752446010708809</v>
+      </c>
+      <c r="AV18">
+        <v>-0.06089084595441818</v>
+      </c>
+      <c r="AW18">
+        <v>0.1290671974420547</v>
+      </c>
+      <c r="AX18">
+        <v>-0.2103680074214935</v>
+      </c>
+      <c r="AY18">
+        <v>0.02320252358913422</v>
+      </c>
+      <c r="AZ18">
+        <v>0.1130509078502655</v>
+      </c>
+      <c r="BA18">
+        <v>0.02052226848900318</v>
+      </c>
+      <c r="BB18">
+        <v>0.04848092049360275</v>
+      </c>
+      <c r="BC18">
+        <v>0.01364019140601158</v>
+      </c>
+      <c r="BD18">
+        <v>-0.1054628267884254</v>
+      </c>
+      <c r="BE18">
+        <v>0.02096804976463318</v>
+      </c>
+      <c r="BF18">
+        <v>0.1306885182857513</v>
+      </c>
+      <c r="BG18">
+        <v>-0.2162031531333923</v>
+      </c>
+      <c r="BH18">
+        <v>-0.009907149709761143</v>
+      </c>
+      <c r="BI18">
+        <v>0.07114157825708389</v>
+      </c>
+      <c r="BJ18">
+        <v>-0.1744096577167511</v>
+      </c>
+      <c r="BK18">
+        <v>-0.06691116839647293</v>
+      </c>
+      <c r="BL18">
+        <v>-0.02780559845268726</v>
+      </c>
+      <c r="BM18">
+        <v>0.1465153396129608</v>
+      </c>
+      <c r="BN18">
+        <v>0.07809504121541977</v>
+      </c>
+      <c r="BO18">
+        <v>-0.07699042558670044</v>
+      </c>
+      <c r="BP18">
+        <v>-0.2745680510997772</v>
+      </c>
+      <c r="BQ18">
+        <v>0.1441500782966614</v>
+      </c>
+      <c r="BR18">
+        <v>-0.1794628202915192</v>
+      </c>
+      <c r="BS18">
+        <v>-0.08146283775568008</v>
+      </c>
+      <c r="BT18">
+        <v>0.1243090182542801</v>
+      </c>
+      <c r="BU18">
+        <v>-0.1117895692586899</v>
+      </c>
+      <c r="BV18">
+        <v>-0.1520009934902191</v>
+      </c>
+      <c r="BW18">
+        <v>-0.3857403993606567</v>
+      </c>
+      <c r="BX18">
+        <v>0.0003344900906085968</v>
+      </c>
+      <c r="BY18">
+        <v>0.3653758466243744</v>
+      </c>
+      <c r="BZ18">
+        <v>0.1375074088573456</v>
+      </c>
+      <c r="CA18">
+        <v>-0.1605572998523712</v>
+      </c>
+      <c r="CB18">
+        <v>0.09970594942569733</v>
+      </c>
+      <c r="CC18">
+        <v>0.04755587875843048</v>
+      </c>
+      <c r="CD18">
+        <v>-0.04338795691728592</v>
+      </c>
+      <c r="CE18">
+        <v>0.1823050379753113</v>
+      </c>
+      <c r="CF18">
+        <v>0.168687641620636</v>
+      </c>
+      <c r="CG18">
+        <v>0.03313232213258743</v>
+      </c>
+      <c r="CH18">
+        <v>0.05167738348245621</v>
+      </c>
+      <c r="CI18">
+        <v>-0.1368942111730576</v>
+      </c>
+      <c r="CJ18">
+        <v>0.008367221802473068</v>
+      </c>
+      <c r="CK18">
+        <v>0.1898059695959091</v>
+      </c>
+      <c r="CL18">
+        <v>-0.01841307803988457</v>
+      </c>
+      <c r="CM18">
+        <v>-0.02626380324363708</v>
+      </c>
+      <c r="CN18">
+        <v>0.2117817252874374</v>
+      </c>
+      <c r="CO18">
+        <v>0.03608786314725876</v>
+      </c>
+      <c r="CP18">
+        <v>0.07049606740474701</v>
+      </c>
+      <c r="CQ18">
+        <v>0.0588161014020443</v>
+      </c>
+      <c r="CR18">
+        <v>0.08262388408184052</v>
+      </c>
+      <c r="CS18">
+        <v>-0.03420163691043854</v>
+      </c>
+      <c r="CT18">
+        <v>0.03675079718232155</v>
+      </c>
+      <c r="CU18">
+        <v>-0.1265552788972855</v>
+      </c>
+      <c r="CV18">
+        <v>-0.05000361427664757</v>
+      </c>
+      <c r="CW18">
+        <v>0.1004302129149437</v>
+      </c>
+      <c r="CX18">
+        <v>-0.02140680886805058</v>
+      </c>
+      <c r="CY18">
+        <v>0.02232403308153152</v>
+      </c>
+      <c r="CZ18">
+        <v>0.1029894351959229</v>
+      </c>
+      <c r="DA18">
+        <v>-0.08233877271413803</v>
+      </c>
+      <c r="DB18">
+        <v>0.2281340807676315</v>
+      </c>
+      <c r="DC18">
+        <v>-0.00237521156668663</v>
+      </c>
+      <c r="DD18">
+        <v>0.1075541451573372</v>
+      </c>
+      <c r="DE18">
+        <v>-0.0411398746073246</v>
+      </c>
+      <c r="DF18">
+        <v>-0.09560225903987885</v>
+      </c>
+      <c r="DG18">
+        <v>-0.03900812193751335</v>
+      </c>
+      <c r="DH18">
+        <v>0.02414247952401638</v>
+      </c>
+      <c r="DI18">
+        <v>0.09524443000555038</v>
+      </c>
+      <c r="DJ18">
+        <v>-0.2120030373334885</v>
+      </c>
+      <c r="DK18">
+        <v>0.1486102342605591</v>
+      </c>
+      <c r="DL18">
+        <v>0.1762285381555557</v>
+      </c>
+      <c r="DM18">
+        <v>0.02006064541637897</v>
+      </c>
+      <c r="DN18">
+        <v>0.1015866696834564</v>
+      </c>
+      <c r="DO18">
+        <v>0.1520440578460693</v>
+      </c>
+      <c r="DP18">
+        <v>0.05215759575366974</v>
+      </c>
+      <c r="DQ18">
+        <v>-0.01454875711351633</v>
+      </c>
+      <c r="DR18">
+        <v>-0.05163655430078506</v>
+      </c>
+      <c r="DS18">
+        <v>-0.2049951553344727</v>
+      </c>
+      <c r="DT18">
+        <v>-0.04454613476991653</v>
+      </c>
+      <c r="DU18">
+        <v>0.06995347142219543</v>
+      </c>
+      <c r="DV18">
+        <v>-0.05378945544362068</v>
+      </c>
+      <c r="DW18">
+        <v>0.1658004820346832</v>
+      </c>
+      <c r="DX18">
+        <v>0.03986334428191185</v>
+      </c>
+      <c r="DY18" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/attendence_face/dataset/test-2.xlsx
+++ b/attendence_face/dataset/test-2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DY18"/>
+  <dimension ref="A1:DY19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -807,388 +807,388 @@
     </row>
     <row r="2" spans="1:129">
       <c r="A2">
-        <v>-0.1098238825798035</v>
+        <v>-0.05729611963033676</v>
       </c>
       <c r="B2">
-        <v>0.05368082970380783</v>
+        <v>0.04186959564685822</v>
       </c>
       <c r="C2">
-        <v>0.06810253113508224</v>
+        <v>0.06595851480960846</v>
       </c>
       <c r="D2">
-        <v>-0.02734990604221821</v>
+        <v>-0.08875302225351334</v>
       </c>
       <c r="E2">
-        <v>-0.08429333567619324</v>
+        <v>-0.05376461148262024</v>
       </c>
       <c r="F2">
-        <v>0.02800767496228218</v>
+        <v>-0.05052751302719116</v>
       </c>
       <c r="G2">
-        <v>-0.08729276061058044</v>
+        <v>-0.01010595634579659</v>
       </c>
       <c r="H2">
-        <v>-0.07581067830324173</v>
+        <v>-0.08935604989528656</v>
       </c>
       <c r="I2">
-        <v>0.1184884011745453</v>
+        <v>0.1217475309967995</v>
       </c>
       <c r="J2">
-        <v>-0.1193940341472626</v>
+        <v>-0.1564766019582748</v>
       </c>
       <c r="K2">
-        <v>0.2194262593984604</v>
+        <v>0.2719736099243164</v>
       </c>
       <c r="L2">
-        <v>-0.05627651140093803</v>
+        <v>-0.1164958775043488</v>
       </c>
       <c r="M2">
-        <v>-0.1952308416366577</v>
+        <v>-0.2263846695423126</v>
       </c>
       <c r="N2">
-        <v>-0.08549182862043381</v>
+        <v>-0.1095355227589607</v>
       </c>
       <c r="O2">
-        <v>-0.04079015925526619</v>
+        <v>-0.03456629812717438</v>
       </c>
       <c r="P2">
-        <v>0.1902777701616287</v>
+        <v>0.168353945016861</v>
       </c>
       <c r="Q2">
-        <v>-0.1170591115951538</v>
+        <v>-0.1389682292938232</v>
       </c>
       <c r="R2">
-        <v>-0.1457217186689377</v>
+        <v>-0.1770723909139633</v>
       </c>
       <c r="S2">
-        <v>-0.03984528407454491</v>
+        <v>-0.09957031160593033</v>
       </c>
       <c r="T2">
-        <v>0.01096405927091837</v>
+        <v>0.02286281809210777</v>
       </c>
       <c r="U2">
-        <v>0.1263110786676407</v>
+        <v>0.1258743405342102</v>
       </c>
       <c r="V2">
-        <v>-0.05029318481683731</v>
+        <v>-0.0469394363462925</v>
       </c>
       <c r="W2">
-        <v>-0.008809946477413177</v>
+        <v>-0.0630108043551445</v>
       </c>
       <c r="X2">
-        <v>0.05963560193777084</v>
+        <v>0.04045012593269348</v>
       </c>
       <c r="Y2">
-        <v>-0.1380988210439682</v>
+        <v>-0.100289411842823</v>
       </c>
       <c r="Z2">
-        <v>-0.3866815865039825</v>
+        <v>-0.3178156614303589</v>
       </c>
       <c r="AA2">
-        <v>-0.1187408044934273</v>
+        <v>-0.1131827980279922</v>
       </c>
       <c r="AB2">
-        <v>-0.03855235874652863</v>
+        <v>0.003153327852487564</v>
       </c>
       <c r="AC2">
-        <v>-0.02871156111359596</v>
+        <v>-0.0375523641705513</v>
       </c>
       <c r="AD2">
-        <v>-0.0569942481815815</v>
+        <v>-0.06513090431690216</v>
       </c>
       <c r="AE2">
-        <v>-0.06492910534143448</v>
+        <v>-0.04761375114321709</v>
       </c>
       <c r="AF2">
-        <v>0.06802767515182495</v>
+        <v>0.05607026070356369</v>
       </c>
       <c r="AG2">
-        <v>-0.1371771395206451</v>
+        <v>-0.1863704323768616</v>
       </c>
       <c r="AH2">
-        <v>-0.002851014956831932</v>
+        <v>-0.09054046124219894</v>
       </c>
       <c r="AI2">
-        <v>-0.0179237499833107</v>
+        <v>-0.004902387037873268</v>
       </c>
       <c r="AJ2">
-        <v>0.1064484491944313</v>
+        <v>0.1065963059663773</v>
       </c>
       <c r="AK2">
-        <v>0.02469511143863201</v>
+        <v>-0.009050401858985424</v>
       </c>
       <c r="AL2">
-        <v>-0.09364506602287292</v>
+        <v>-0.07400791347026825</v>
       </c>
       <c r="AM2">
-        <v>0.1466825753450394</v>
+        <v>0.1390415579080582</v>
       </c>
       <c r="AN2">
-        <v>0.0201405044645071</v>
+        <v>0.007850995287299156</v>
       </c>
       <c r="AO2">
-        <v>-0.229579359292984</v>
+        <v>-0.2092925608158112</v>
       </c>
       <c r="AP2">
-        <v>0.0459086000919342</v>
+        <v>0.103649839758873</v>
       </c>
       <c r="AQ2">
-        <v>0.006419667974114418</v>
+        <v>0.05060683190822601</v>
       </c>
       <c r="AR2">
-        <v>0.2750548720359802</v>
+        <v>0.2690097689628601</v>
       </c>
       <c r="AS2">
-        <v>0.1750779002904892</v>
+        <v>0.1867472678422928</v>
       </c>
       <c r="AT2">
-        <v>0.06808311492204666</v>
+        <v>0.05355647951364517</v>
       </c>
       <c r="AU2">
-        <v>0.05017223954200745</v>
+        <v>-0.0007973834872245789</v>
       </c>
       <c r="AV2">
-        <v>-0.04611609503626823</v>
+        <v>-0.1193387508392334</v>
       </c>
       <c r="AW2">
-        <v>0.1095362603664398</v>
+        <v>0.1327866464853287</v>
       </c>
       <c r="AX2">
-        <v>-0.2106131166219711</v>
+        <v>-0.1958234161138535</v>
       </c>
       <c r="AY2">
-        <v>0.02661649510264397</v>
+        <v>0.02049261890351772</v>
       </c>
       <c r="AZ2">
-        <v>0.1603218466043472</v>
+        <v>0.1371802091598511</v>
       </c>
       <c r="BA2">
-        <v>0.07008165121078491</v>
+        <v>0.1087118461728096</v>
       </c>
       <c r="BB2">
-        <v>0.001363456249237061</v>
+        <v>0.07717321068048477</v>
       </c>
       <c r="BC2">
-        <v>0.0555448904633522</v>
+        <v>0.04813354462385178</v>
       </c>
       <c r="BD2">
-        <v>-0.1167725697159767</v>
+        <v>-0.1106038168072701</v>
       </c>
       <c r="BE2">
-        <v>0.03399597853422165</v>
+        <v>0.04263719543814659</v>
       </c>
       <c r="BF2">
-        <v>0.1104866415262222</v>
+        <v>0.1396632790565491</v>
       </c>
       <c r="BG2">
-        <v>-0.1179126277565956</v>
+        <v>-0.1190704703330994</v>
       </c>
       <c r="BH2">
-        <v>0.008538008667528629</v>
+        <v>0.02096718549728394</v>
       </c>
       <c r="BI2">
-        <v>-0.01232956536114216</v>
+        <v>0.02971061132848263</v>
       </c>
       <c r="BJ2">
-        <v>-0.07244620472192764</v>
+        <v>-0.07573454082012177</v>
       </c>
       <c r="BK2">
-        <v>0.01976044848561287</v>
+        <v>0.02387100830674171</v>
       </c>
       <c r="BL2">
-        <v>-0.1119717583060265</v>
+        <v>-0.1245967596769333</v>
       </c>
       <c r="BM2">
-        <v>0.2015336751937866</v>
+        <v>0.2093077301979065</v>
       </c>
       <c r="BN2">
-        <v>0.1387229412794113</v>
+        <v>0.04605840519070625</v>
       </c>
       <c r="BO2">
-        <v>-0.1036031991243362</v>
+        <v>-0.1297918856143951</v>
       </c>
       <c r="BP2">
-        <v>-0.1100094988942146</v>
+        <v>-0.1704464107751846</v>
       </c>
       <c r="BQ2">
-        <v>0.1352803856134415</v>
+        <v>0.09277687966823578</v>
       </c>
       <c r="BR2">
-        <v>-0.08060342073440552</v>
+        <v>-0.0975622683763504</v>
       </c>
       <c r="BS2">
-        <v>-0.06174666434526443</v>
+        <v>-0.1198659464716911</v>
       </c>
       <c r="BT2">
-        <v>-0.02656620927155018</v>
+        <v>0.03827401623129845</v>
       </c>
       <c r="BU2">
-        <v>-0.2331718504428864</v>
+        <v>-0.1922035366296768</v>
       </c>
       <c r="BV2">
-        <v>-0.1942934095859528</v>
+        <v>-0.1263231188058853</v>
       </c>
       <c r="BW2">
-        <v>-0.3403154909610748</v>
+        <v>-0.3349988460540771</v>
       </c>
       <c r="BX2">
-        <v>0.02538956701755524</v>
+        <v>0.04714002460241318</v>
       </c>
       <c r="BY2">
-        <v>0.4290713369846344</v>
+        <v>0.4505668580532074</v>
       </c>
       <c r="BZ2">
-        <v>0.1282302737236023</v>
+        <v>0.06476013362407684</v>
       </c>
       <c r="CA2">
-        <v>-0.2133095115423203</v>
+        <v>-0.24488565325737</v>
       </c>
       <c r="CB2">
-        <v>0.07027912884950638</v>
+        <v>0.06274657696485519</v>
       </c>
       <c r="CC2">
-        <v>0.002137956907972693</v>
+        <v>-0.03081879392266273</v>
       </c>
       <c r="CD2">
-        <v>0.04249807819724083</v>
+        <v>-0.01865674927830696</v>
       </c>
       <c r="CE2">
-        <v>0.1419042348861694</v>
+        <v>0.14710533618927</v>
       </c>
       <c r="CF2">
-        <v>0.1553207486867905</v>
+        <v>0.144262358546257</v>
       </c>
       <c r="CG2">
-        <v>-0.04399210214614868</v>
+        <v>0.01220065355300903</v>
       </c>
       <c r="CH2">
-        <v>0.01292561274021864</v>
+        <v>0.01730866357684135</v>
       </c>
       <c r="CI2">
-        <v>-0.1156495660543442</v>
+        <v>-0.1371807456016541</v>
       </c>
       <c r="CJ2">
-        <v>0.03133786842226982</v>
+        <v>-0.001710625365376472</v>
       </c>
       <c r="CK2">
-        <v>0.2141519635915756</v>
+        <v>0.2344436049461365</v>
       </c>
       <c r="CL2">
-        <v>-0.0489966981112957</v>
+        <v>-0.05099112913012505</v>
       </c>
       <c r="CM2">
-        <v>-0.0421113595366478</v>
+        <v>-0.06943981349468231</v>
       </c>
       <c r="CN2">
-        <v>0.1903487592935562</v>
+        <v>0.1790584772825241</v>
       </c>
       <c r="CO2">
-        <v>-0.0145112331956625</v>
+        <v>-0.01014457084238529</v>
       </c>
       <c r="CP2">
-        <v>0.04918348789215088</v>
+        <v>0.07933550328016281</v>
       </c>
       <c r="CQ2">
-        <v>0.0230089221149683</v>
+        <v>0.04797980189323425</v>
       </c>
       <c r="CR2">
-        <v>0.01893546991050243</v>
+        <v>-0.009127752855420113</v>
       </c>
       <c r="CS2">
-        <v>-0.04390204697847366</v>
+        <v>-0.08023731410503387</v>
       </c>
       <c r="CT2">
-        <v>0.03382856398820877</v>
+        <v>0.04571191966533661</v>
       </c>
       <c r="CU2">
-        <v>-0.1277327239513397</v>
+        <v>-0.1614854335784912</v>
       </c>
       <c r="CV2">
-        <v>0.001683128997683525</v>
+        <v>-0.02673891372978687</v>
       </c>
       <c r="CW2">
-        <v>0.05764929950237274</v>
+        <v>0.02118990942835808</v>
       </c>
       <c r="CX2">
-        <v>-0.01913618296384811</v>
+        <v>-0.02818629890680313</v>
       </c>
       <c r="CY2">
-        <v>0.003192655742168427</v>
+        <v>-0.0651867687702179</v>
       </c>
       <c r="CZ2">
-        <v>0.1165003180503845</v>
+        <v>0.09901872277259827</v>
       </c>
       <c r="DA2">
-        <v>-0.1589523404836655</v>
+        <v>-0.08288535475730896</v>
       </c>
       <c r="DB2">
-        <v>0.05967433750629425</v>
+        <v>0.1231664568185806</v>
       </c>
       <c r="DC2">
-        <v>0.005875931121408939</v>
+        <v>0.01437987852841616</v>
       </c>
       <c r="DD2">
-        <v>0.04309684783220291</v>
+        <v>0.06556234508752823</v>
       </c>
       <c r="DE2">
-        <v>0.01022336445748806</v>
+        <v>-0.01684567146003246</v>
       </c>
       <c r="DF2">
-        <v>0.0441242940723896</v>
+        <v>0.02173136174678802</v>
       </c>
       <c r="DG2">
-        <v>-0.1539234519004822</v>
+        <v>-0.1188287734985352</v>
       </c>
       <c r="DH2">
-        <v>-0.04432474076747894</v>
+        <v>-0.04458468034863472</v>
       </c>
       <c r="DI2">
-        <v>0.1079239919781685</v>
+        <v>0.07631803303956985</v>
       </c>
       <c r="DJ2">
-        <v>-0.1867533326148987</v>
+        <v>-0.2274244725704193</v>
       </c>
       <c r="DK2">
-        <v>0.1272870600223541</v>
+        <v>0.1499233245849609</v>
       </c>
       <c r="DL2">
-        <v>0.2132621109485626</v>
+        <v>0.1641199141740799</v>
       </c>
       <c r="DM2">
-        <v>0.03543074429035187</v>
+        <v>0.08075181394815445</v>
       </c>
       <c r="DN2">
-        <v>0.1038869321346283</v>
+        <v>0.05768536403775215</v>
       </c>
       <c r="DO2">
-        <v>0.1607380211353302</v>
+        <v>0.1480101048946381</v>
       </c>
       <c r="DP2">
-        <v>0.08416847139596939</v>
+        <v>0.06763074547052383</v>
       </c>
       <c r="DQ2">
-        <v>0.004388667643070221</v>
+        <v>0.0003805495798587799</v>
       </c>
       <c r="DR2">
-        <v>0.002298311330378056</v>
+        <v>0.05873046070337296</v>
       </c>
       <c r="DS2">
-        <v>-0.181031197309494</v>
+        <v>-0.1951470375061035</v>
       </c>
       <c r="DT2">
-        <v>-0.02388026937842369</v>
+        <v>-0.03067759424448013</v>
       </c>
       <c r="DU2">
-        <v>0.1007861420512199</v>
+        <v>0.1028628125786781</v>
       </c>
       <c r="DV2">
-        <v>0.009698363021016121</v>
+        <v>0.03404193371534348</v>
       </c>
       <c r="DW2">
-        <v>0.05628664791584015</v>
+        <v>0.1351970732212067</v>
       </c>
       <c r="DX2">
-        <v>0.03013051673769951</v>
+        <v>0.006280858535319567</v>
       </c>
       <c r="DY2" t="s">
         <v>1</v>
@@ -1196,388 +1196,388 @@
     </row>
     <row r="3" spans="1:129">
       <c r="A3">
-        <v>-0.06683854758739471</v>
+        <v>-0.1098238825798035</v>
       </c>
       <c r="B3">
-        <v>0.001542371697723866</v>
+        <v>0.05368082970380783</v>
       </c>
       <c r="C3">
-        <v>0.04761494323611259</v>
+        <v>0.06810253113508224</v>
       </c>
       <c r="D3">
-        <v>-0.05624168738722801</v>
+        <v>-0.02734990604221821</v>
       </c>
       <c r="E3">
-        <v>-0.0460248738527298</v>
+        <v>-0.08429333567619324</v>
       </c>
       <c r="F3">
-        <v>-0.06257778406143188</v>
+        <v>0.02800767496228218</v>
       </c>
       <c r="G3">
-        <v>-0.03943975269794464</v>
+        <v>-0.08729276061058044</v>
       </c>
       <c r="H3">
-        <v>-0.101559191942215</v>
+        <v>-0.07581067830324173</v>
       </c>
       <c r="I3">
-        <v>0.09164705872535706</v>
+        <v>0.1184884011745453</v>
       </c>
       <c r="J3">
-        <v>-0.09616277366876602</v>
+        <v>-0.1193940341472626</v>
       </c>
       <c r="K3">
-        <v>0.1794278174638748</v>
+        <v>0.2194262593984604</v>
       </c>
       <c r="L3">
-        <v>-0.146528348326683</v>
+        <v>-0.05627651140093803</v>
       </c>
       <c r="M3">
-        <v>-0.2190214395523071</v>
+        <v>-0.1952308416366577</v>
       </c>
       <c r="N3">
-        <v>-0.1188562512397766</v>
+        <v>-0.08549182862043381</v>
       </c>
       <c r="O3">
-        <v>-0.04068786278367043</v>
+        <v>-0.04079015925526619</v>
       </c>
       <c r="P3">
-        <v>0.1638277322053909</v>
+        <v>0.1902777701616287</v>
       </c>
       <c r="Q3">
-        <v>-0.1302152872085571</v>
+        <v>-0.1170591115951538</v>
       </c>
       <c r="R3">
-        <v>-0.1170539706945419</v>
+        <v>-0.1457217186689377</v>
       </c>
       <c r="S3">
-        <v>-0.08021074533462524</v>
+        <v>-0.03984528407454491</v>
       </c>
       <c r="T3">
-        <v>-0.01014181412756443</v>
+        <v>0.01096405927091837</v>
       </c>
       <c r="U3">
-        <v>0.0797896534204483</v>
+        <v>0.1263110786676407</v>
       </c>
       <c r="V3">
-        <v>-0.04956529662013054</v>
+        <v>-0.05029318481683731</v>
       </c>
       <c r="W3">
-        <v>-0.02649455703794956</v>
+        <v>-0.008809946477413177</v>
       </c>
       <c r="X3">
-        <v>0.02994276955723763</v>
+        <v>0.05963560193777084</v>
       </c>
       <c r="Y3">
-        <v>-0.08727358281612396</v>
+        <v>-0.1380988210439682</v>
       </c>
       <c r="Z3">
-        <v>-0.328492671251297</v>
+        <v>-0.3866815865039825</v>
       </c>
       <c r="AA3">
-        <v>-0.07280110567808151</v>
+        <v>-0.1187408044934273</v>
       </c>
       <c r="AB3">
-        <v>-0.05669667199254036</v>
+        <v>-0.03855235874652863</v>
       </c>
       <c r="AC3">
-        <v>-0.03590187802910805</v>
+        <v>-0.02871156111359596</v>
       </c>
       <c r="AD3">
-        <v>-0.007122842129319906</v>
+        <v>-0.0569942481815815</v>
       </c>
       <c r="AE3">
-        <v>-0.05707871168851852</v>
+        <v>-0.06492910534143448</v>
       </c>
       <c r="AF3">
-        <v>0.06210264563560486</v>
+        <v>0.06802767515182495</v>
       </c>
       <c r="AG3">
-        <v>-0.1978392750024796</v>
+        <v>-0.1371771395206451</v>
       </c>
       <c r="AH3">
-        <v>-0.07480050623416901</v>
+        <v>-0.002851014956831932</v>
       </c>
       <c r="AI3">
-        <v>0.002485517412424088</v>
+        <v>-0.0179237499833107</v>
       </c>
       <c r="AJ3">
-        <v>0.08019016683101654</v>
+        <v>0.1064484491944313</v>
       </c>
       <c r="AK3">
-        <v>-0.01688334159553051</v>
+        <v>0.02469511143863201</v>
       </c>
       <c r="AL3">
-        <v>-0.07304831594228745</v>
+        <v>-0.09364506602287292</v>
       </c>
       <c r="AM3">
-        <v>0.1512003839015961</v>
+        <v>0.1466825753450394</v>
       </c>
       <c r="AN3">
-        <v>-0.01961672306060791</v>
+        <v>0.0201405044645071</v>
       </c>
       <c r="AO3">
-        <v>-0.2037497907876968</v>
+        <v>-0.229579359292984</v>
       </c>
       <c r="AP3">
-        <v>0.0268000066280365</v>
+        <v>0.0459086000919342</v>
       </c>
       <c r="AQ3">
-        <v>0.04828705638647079</v>
+        <v>0.006419667974114418</v>
       </c>
       <c r="AR3">
-        <v>0.2078340947628021</v>
+        <v>0.2750548720359802</v>
       </c>
       <c r="AS3">
-        <v>0.1811065226793289</v>
+        <v>0.1750779002904892</v>
       </c>
       <c r="AT3">
-        <v>0.04372173175215721</v>
+        <v>0.06808311492204666</v>
       </c>
       <c r="AU3">
-        <v>0.03735880181193352</v>
+        <v>0.05017223954200745</v>
       </c>
       <c r="AV3">
-        <v>-0.08947461843490601</v>
+        <v>-0.04611609503626823</v>
       </c>
       <c r="AW3">
-        <v>0.09592685103416443</v>
+        <v>0.1095362603664398</v>
       </c>
       <c r="AX3">
-        <v>-0.169546365737915</v>
+        <v>-0.2106131166219711</v>
       </c>
       <c r="AY3">
-        <v>-0.01640919223427773</v>
+        <v>0.02661649510264397</v>
       </c>
       <c r="AZ3">
-        <v>0.1387189626693726</v>
+        <v>0.1603218466043472</v>
       </c>
       <c r="BA3">
-        <v>0.08236219733953476</v>
+        <v>0.07008165121078491</v>
       </c>
       <c r="BB3">
-        <v>0.01525403466075659</v>
+        <v>0.001363456249237061</v>
       </c>
       <c r="BC3">
-        <v>0.001428249292075634</v>
+        <v>0.0555448904633522</v>
       </c>
       <c r="BD3">
-        <v>-0.1114781871438026</v>
+        <v>-0.1167725697159767</v>
       </c>
       <c r="BE3">
-        <v>0.02519963681697845</v>
+        <v>0.03399597853422165</v>
       </c>
       <c r="BF3">
-        <v>0.1351672261953354</v>
+        <v>0.1104866415262222</v>
       </c>
       <c r="BG3">
-        <v>-0.1244330331683159</v>
+        <v>-0.1179126277565956</v>
       </c>
       <c r="BH3">
-        <v>0.04245303198695183</v>
+        <v>0.008538008667528629</v>
       </c>
       <c r="BI3">
-        <v>0.08293667435646057</v>
+        <v>-0.01232956536114216</v>
       </c>
       <c r="BJ3">
-        <v>-0.09718102961778641</v>
+        <v>-0.07244620472192764</v>
       </c>
       <c r="BK3">
-        <v>-0.07054709643125534</v>
+        <v>0.01976044848561287</v>
       </c>
       <c r="BL3">
-        <v>-0.09318907558917999</v>
+        <v>-0.1119717583060265</v>
       </c>
       <c r="BM3">
-        <v>0.2267424166202545</v>
+        <v>0.2015336751937866</v>
       </c>
       <c r="BN3">
-        <v>0.08114045113325119</v>
+        <v>0.1387229412794113</v>
       </c>
       <c r="BO3">
-        <v>-0.1227556392550468</v>
+        <v>-0.1036031991243362</v>
       </c>
       <c r="BP3">
-        <v>-0.1597626656293869</v>
+        <v>-0.1100094988942146</v>
       </c>
       <c r="BQ3">
-        <v>0.1320445090532303</v>
+        <v>0.1352803856134415</v>
       </c>
       <c r="BR3">
-        <v>-0.1256226301193237</v>
+        <v>-0.08060342073440552</v>
       </c>
       <c r="BS3">
-        <v>-0.05562443658709526</v>
+        <v>-0.06174666434526443</v>
       </c>
       <c r="BT3">
-        <v>-0.01444183196872473</v>
+        <v>-0.02656620927155018</v>
       </c>
       <c r="BU3">
-        <v>-0.16031813621521</v>
+        <v>-0.2331718504428864</v>
       </c>
       <c r="BV3">
-        <v>-0.161078080534935</v>
+        <v>-0.1942934095859528</v>
       </c>
       <c r="BW3">
-        <v>-0.2944228053092957</v>
+        <v>-0.3403154909610748</v>
       </c>
       <c r="BX3">
-        <v>0.03496061637997627</v>
+        <v>0.02538956701755524</v>
       </c>
       <c r="BY3">
-        <v>0.3738066852092743</v>
+        <v>0.4290713369846344</v>
       </c>
       <c r="BZ3">
-        <v>0.06580213457345963</v>
+        <v>0.1282302737236023</v>
       </c>
       <c r="CA3">
-        <v>-0.2144689410924911</v>
+        <v>-0.2133095115423203</v>
       </c>
       <c r="CB3">
-        <v>0.06768159568309784</v>
+        <v>0.07027912884950638</v>
       </c>
       <c r="CC3">
-        <v>-0.04624564200639725</v>
+        <v>0.002137956907972693</v>
       </c>
       <c r="CD3">
-        <v>0.04843167215585709</v>
+        <v>0.04249807819724083</v>
       </c>
       <c r="CE3">
-        <v>0.1720696538686752</v>
+        <v>0.1419042348861694</v>
       </c>
       <c r="CF3">
-        <v>0.1337064355611801</v>
+        <v>0.1553207486867905</v>
       </c>
       <c r="CG3">
-        <v>-0.01555607095360756</v>
+        <v>-0.04399210214614868</v>
       </c>
       <c r="CH3">
-        <v>0.03003059700131416</v>
+        <v>0.01292561274021864</v>
       </c>
       <c r="CI3">
-        <v>-0.07741903513669968</v>
+        <v>-0.1156495660543442</v>
       </c>
       <c r="CJ3">
-        <v>-0.02134859189391136</v>
+        <v>0.03133786842226982</v>
       </c>
       <c r="CK3">
-        <v>0.1999053061008453</v>
+        <v>0.2141519635915756</v>
       </c>
       <c r="CL3">
-        <v>-0.06413597613573074</v>
+        <v>-0.0489966981112957</v>
       </c>
       <c r="CM3">
-        <v>-0.02526527270674706</v>
+        <v>-0.0421113595366478</v>
       </c>
       <c r="CN3">
-        <v>0.1531851291656494</v>
+        <v>0.1903487592935562</v>
       </c>
       <c r="CO3">
-        <v>-0.02929241210222244</v>
+        <v>-0.0145112331956625</v>
       </c>
       <c r="CP3">
-        <v>0.02578631788492203</v>
+        <v>0.04918348789215088</v>
       </c>
       <c r="CQ3">
-        <v>0.02228489145636559</v>
+        <v>0.0230089221149683</v>
       </c>
       <c r="CR3">
-        <v>-0.05832678079605103</v>
+        <v>0.01893546991050243</v>
       </c>
       <c r="CS3">
-        <v>-0.04903331771492958</v>
+        <v>-0.04390204697847366</v>
       </c>
       <c r="CT3">
-        <v>0.05610127747058868</v>
+        <v>0.03382856398820877</v>
       </c>
       <c r="CU3">
-        <v>-0.128265380859375</v>
+        <v>-0.1277327239513397</v>
       </c>
       <c r="CV3">
-        <v>0.01933808252215385</v>
+        <v>0.001683128997683525</v>
       </c>
       <c r="CW3">
-        <v>0.08566160500049591</v>
+        <v>0.05764929950237274</v>
       </c>
       <c r="CX3">
-        <v>-0.07602912932634354</v>
+        <v>-0.01913618296384811</v>
       </c>
       <c r="CY3">
-        <v>0.02051002718508244</v>
+        <v>0.003192655742168427</v>
       </c>
       <c r="CZ3">
-        <v>0.08211512118577957</v>
+        <v>0.1165003180503845</v>
       </c>
       <c r="DA3">
-        <v>-0.1111143231391907</v>
+        <v>-0.1589523404836655</v>
       </c>
       <c r="DB3">
-        <v>0.07015965133905411</v>
+        <v>0.05967433750629425</v>
       </c>
       <c r="DC3">
-        <v>-0.007633427157998085</v>
+        <v>0.005875931121408939</v>
       </c>
       <c r="DD3">
-        <v>0.04585472866892815</v>
+        <v>0.04309684783220291</v>
       </c>
       <c r="DE3">
-        <v>0.05904512479901314</v>
+        <v>0.01022336445748806</v>
       </c>
       <c r="DF3">
-        <v>-0.004452584311366081</v>
+        <v>0.0441242940723896</v>
       </c>
       <c r="DG3">
-        <v>-0.120967298746109</v>
+        <v>-0.1539234519004822</v>
       </c>
       <c r="DH3">
-        <v>-0.07184807956218719</v>
+        <v>-0.04432474076747894</v>
       </c>
       <c r="DI3">
-        <v>0.1200854331254959</v>
+        <v>0.1079239919781685</v>
       </c>
       <c r="DJ3">
-        <v>-0.18704853951931</v>
+        <v>-0.1867533326148987</v>
       </c>
       <c r="DK3">
-        <v>0.1639466434717178</v>
+        <v>0.1272870600223541</v>
       </c>
       <c r="DL3">
-        <v>0.1669495701789856</v>
+        <v>0.2132621109485626</v>
       </c>
       <c r="DM3">
-        <v>0.07369525730609894</v>
+        <v>0.03543074429035187</v>
       </c>
       <c r="DN3">
-        <v>0.09117437154054642</v>
+        <v>0.1038869321346283</v>
       </c>
       <c r="DO3">
-        <v>0.1560192555189133</v>
+        <v>0.1607380211353302</v>
       </c>
       <c r="DP3">
-        <v>0.1152776628732681</v>
+        <v>0.08416847139596939</v>
       </c>
       <c r="DQ3">
-        <v>0.02275064960122108</v>
+        <v>0.004388667643070221</v>
       </c>
       <c r="DR3">
-        <v>0.07094966620206833</v>
+        <v>0.002298311330378056</v>
       </c>
       <c r="DS3">
-        <v>-0.2066056728363037</v>
+        <v>-0.181031197309494</v>
       </c>
       <c r="DT3">
-        <v>-0.016357297077775</v>
+        <v>-0.02388026937842369</v>
       </c>
       <c r="DU3">
-        <v>0.1052541583776474</v>
+        <v>0.1007861420512199</v>
       </c>
       <c r="DV3">
-        <v>0.02014284767210484</v>
+        <v>0.009698363021016121</v>
       </c>
       <c r="DW3">
-        <v>0.09986908733844757</v>
+        <v>0.05628664791584015</v>
       </c>
       <c r="DX3">
-        <v>-0.0005854619666934013</v>
+        <v>0.03013051673769951</v>
       </c>
       <c r="DY3" t="s">
         <v>1</v>
@@ -1585,1166 +1585,1166 @@
     </row>
     <row r="4" spans="1:129">
       <c r="A4">
-        <v>-0.04018471017479897</v>
+        <v>-0.06683854758739471</v>
       </c>
       <c r="B4">
-        <v>0.03166554868221283</v>
+        <v>0.001542371697723866</v>
       </c>
       <c r="C4">
-        <v>-0.01097825355827808</v>
+        <v>0.04761494323611259</v>
       </c>
       <c r="D4">
-        <v>-0.07925421744585037</v>
+        <v>-0.05624168738722801</v>
       </c>
       <c r="E4">
-        <v>-0.1895276457071304</v>
+        <v>-0.0460248738527298</v>
       </c>
       <c r="F4">
-        <v>-0.009925305843353271</v>
+        <v>-0.06257778406143188</v>
       </c>
       <c r="G4">
-        <v>-0.03977110981941223</v>
+        <v>-0.03943975269794464</v>
       </c>
       <c r="H4">
-        <v>-0.05647856742143631</v>
+        <v>-0.101559191942215</v>
       </c>
       <c r="I4">
-        <v>0.2047815918922424</v>
+        <v>0.09164705872535706</v>
       </c>
       <c r="J4">
-        <v>-0.1450859010219574</v>
+        <v>-0.09616277366876602</v>
       </c>
       <c r="K4">
-        <v>0.2061941921710968</v>
+        <v>0.1794278174638748</v>
       </c>
       <c r="L4">
-        <v>-0.09949997812509537</v>
+        <v>-0.146528348326683</v>
       </c>
       <c r="M4">
-        <v>-0.1794528961181641</v>
+        <v>-0.2190214395523071</v>
       </c>
       <c r="N4">
-        <v>-0.0440233126282692</v>
+        <v>-0.1188562512397766</v>
       </c>
       <c r="O4">
-        <v>-0.1183458343148232</v>
+        <v>-0.04068786278367043</v>
       </c>
       <c r="P4">
-        <v>0.2636721134185791</v>
+        <v>0.1638277322053909</v>
       </c>
       <c r="Q4">
-        <v>-0.2107987999916077</v>
+        <v>-0.1302152872085571</v>
       </c>
       <c r="R4">
-        <v>-0.2105693519115448</v>
+        <v>-0.1170539706945419</v>
       </c>
       <c r="S4">
-        <v>0.02943988330662251</v>
+        <v>-0.08021074533462524</v>
       </c>
       <c r="T4">
-        <v>0.0001204656437039375</v>
+        <v>-0.01014181412756443</v>
       </c>
       <c r="U4">
-        <v>0.1029988527297974</v>
+        <v>0.0797896534204483</v>
       </c>
       <c r="V4">
-        <v>0.004707355983555317</v>
+        <v>-0.04956529662013054</v>
       </c>
       <c r="W4">
-        <v>-0.05427231267094612</v>
+        <v>-0.02649455703794956</v>
       </c>
       <c r="X4">
-        <v>0.07053828984498978</v>
+        <v>0.02994276955723763</v>
       </c>
       <c r="Y4">
-        <v>-0.1257329285144806</v>
+        <v>-0.08727358281612396</v>
       </c>
       <c r="Z4">
-        <v>-0.3478525280952454</v>
+        <v>-0.328492671251297</v>
       </c>
       <c r="AA4">
-        <v>-0.08918248116970062</v>
+        <v>-0.07280110567808151</v>
       </c>
       <c r="AB4">
-        <v>-0.09157026559114456</v>
+        <v>-0.05669667199254036</v>
       </c>
       <c r="AC4">
-        <v>-0.04351869598031044</v>
+        <v>-0.03590187802910805</v>
       </c>
       <c r="AD4">
-        <v>-0.1023580133914948</v>
+        <v>-0.007122842129319906</v>
       </c>
       <c r="AE4">
-        <v>-0.0032610222697258</v>
+        <v>-0.05707871168851852</v>
       </c>
       <c r="AF4">
-        <v>0.0882008969783783</v>
+        <v>0.06210264563560486</v>
       </c>
       <c r="AG4">
-        <v>-0.1379371136426926</v>
+        <v>-0.1978392750024796</v>
       </c>
       <c r="AH4">
-        <v>0.03020153567194939</v>
+        <v>-0.07480050623416901</v>
       </c>
       <c r="AI4">
-        <v>0.03844068199396133</v>
+        <v>0.002485517412424088</v>
       </c>
       <c r="AJ4">
-        <v>0.03885406628251076</v>
+        <v>0.08019016683101654</v>
       </c>
       <c r="AK4">
-        <v>0.02134006842970848</v>
+        <v>-0.01688334159553051</v>
       </c>
       <c r="AL4">
-        <v>-0.1023062318563461</v>
+        <v>-0.07304831594228745</v>
       </c>
       <c r="AM4">
-        <v>0.1607307940721512</v>
+        <v>0.1512003839015961</v>
       </c>
       <c r="AN4">
-        <v>0.02794083952903748</v>
+        <v>-0.01961672306060791</v>
       </c>
       <c r="AO4">
-        <v>-0.3372229039669037</v>
+        <v>-0.2037497907876968</v>
       </c>
       <c r="AP4">
-        <v>0.06171640753746033</v>
+        <v>0.0268000066280365</v>
       </c>
       <c r="AQ4">
-        <v>0.1090328618884087</v>
+        <v>0.04828705638647079</v>
       </c>
       <c r="AR4">
-        <v>0.2395233064889908</v>
+        <v>0.2078340947628021</v>
       </c>
       <c r="AS4">
-        <v>0.1045276969671249</v>
+        <v>0.1811065226793289</v>
       </c>
       <c r="AT4">
-        <v>-0.00145894952584058</v>
+        <v>0.04372173175215721</v>
       </c>
       <c r="AU4">
-        <v>-0.03003488108515739</v>
+        <v>0.03735880181193352</v>
       </c>
       <c r="AV4">
-        <v>-0.1649201661348343</v>
+        <v>-0.08947461843490601</v>
       </c>
       <c r="AW4">
-        <v>0.1871881783008575</v>
+        <v>0.09592685103416443</v>
       </c>
       <c r="AX4">
-        <v>-0.1458289623260498</v>
+        <v>-0.169546365737915</v>
       </c>
       <c r="AY4">
-        <v>0.003900688141584396</v>
+        <v>-0.01640919223427773</v>
       </c>
       <c r="AZ4">
-        <v>0.1425986588001251</v>
+        <v>0.1387189626693726</v>
       </c>
       <c r="BA4">
-        <v>0.0316452719271183</v>
+        <v>0.08236219733953476</v>
       </c>
       <c r="BB4">
-        <v>0.03570237383246422</v>
+        <v>0.01525403466075659</v>
       </c>
       <c r="BC4">
-        <v>0.01470285002142191</v>
+        <v>0.001428249292075634</v>
       </c>
       <c r="BD4">
-        <v>-0.07915030419826508</v>
+        <v>-0.1114781871438026</v>
       </c>
       <c r="BE4">
-        <v>0.03549863398075104</v>
+        <v>0.02519963681697845</v>
       </c>
       <c r="BF4">
-        <v>0.1136744916439056</v>
+        <v>0.1351672261953354</v>
       </c>
       <c r="BG4">
-        <v>-0.1529116183519363</v>
+        <v>-0.1244330331683159</v>
       </c>
       <c r="BH4">
-        <v>-0.01664223521947861</v>
+        <v>0.04245303198695183</v>
       </c>
       <c r="BI4">
-        <v>0.07674497365951538</v>
+        <v>0.08293667435646057</v>
       </c>
       <c r="BJ4">
-        <v>-0.03460218757390976</v>
+        <v>-0.09718102961778641</v>
       </c>
       <c r="BK4">
-        <v>-0.01427686586976051</v>
+        <v>-0.07054709643125534</v>
       </c>
       <c r="BL4">
-        <v>-0.1882077306509018</v>
+        <v>-0.09318907558917999</v>
       </c>
       <c r="BM4">
-        <v>0.1989280879497528</v>
+        <v>0.2267424166202545</v>
       </c>
       <c r="BN4">
-        <v>0.07932986319065094</v>
+        <v>0.08114045113325119</v>
       </c>
       <c r="BO4">
-        <v>-0.08914103358983994</v>
+        <v>-0.1227556392550468</v>
       </c>
       <c r="BP4">
-        <v>-0.2308449447154999</v>
+        <v>-0.1597626656293869</v>
       </c>
       <c r="BQ4">
-        <v>0.1201603263616562</v>
+        <v>0.1320445090532303</v>
       </c>
       <c r="BR4">
-        <v>-0.1740789413452148</v>
+        <v>-0.1256226301193237</v>
       </c>
       <c r="BS4">
-        <v>-0.1670258045196533</v>
+        <v>-0.05562443658709526</v>
       </c>
       <c r="BT4">
-        <v>0.08282811939716339</v>
+        <v>-0.01444183196872473</v>
       </c>
       <c r="BU4">
-        <v>-0.1571127027273178</v>
+        <v>-0.16031813621521</v>
       </c>
       <c r="BV4">
-        <v>-0.1589609682559967</v>
+        <v>-0.161078080534935</v>
       </c>
       <c r="BW4">
-        <v>-0.3100926280021667</v>
+        <v>-0.2944228053092957</v>
       </c>
       <c r="BX4">
-        <v>-0.05594855919480324</v>
+        <v>0.03496061637997627</v>
       </c>
       <c r="BY4">
-        <v>0.3965690135955811</v>
+        <v>0.3738066852092743</v>
       </c>
       <c r="BZ4">
-        <v>0.1062143817543983</v>
+        <v>0.06580213457345963</v>
       </c>
       <c r="CA4">
-        <v>-0.147093266248703</v>
+        <v>-0.2144689410924911</v>
       </c>
       <c r="CB4">
-        <v>0.09388532489538193</v>
+        <v>0.06768159568309784</v>
       </c>
       <c r="CC4">
-        <v>0.03001317009329796</v>
+        <v>-0.04624564200639725</v>
       </c>
       <c r="CD4">
-        <v>-0.002025116235017776</v>
+        <v>0.04843167215585709</v>
       </c>
       <c r="CE4">
-        <v>0.1197254061698914</v>
+        <v>0.1720696538686752</v>
       </c>
       <c r="CF4">
-        <v>0.2106940001249313</v>
+        <v>0.1337064355611801</v>
       </c>
       <c r="CG4">
-        <v>0.0251831728965044</v>
+        <v>-0.01555607095360756</v>
       </c>
       <c r="CH4">
-        <v>0.06517087668180466</v>
+        <v>0.03003059700131416</v>
       </c>
       <c r="CI4">
-        <v>-0.0813145637512207</v>
+        <v>-0.07741903513669968</v>
       </c>
       <c r="CJ4">
-        <v>-0.03252957761287689</v>
+        <v>-0.02134859189391136</v>
       </c>
       <c r="CK4">
-        <v>0.2723617255687714</v>
+        <v>0.1999053061008453</v>
       </c>
       <c r="CL4">
-        <v>-0.07068922370672226</v>
+        <v>-0.06413597613573074</v>
       </c>
       <c r="CM4">
-        <v>-0.02819033339619637</v>
+        <v>-0.02526527270674706</v>
       </c>
       <c r="CN4">
-        <v>0.195062056183815</v>
+        <v>0.1531851291656494</v>
       </c>
       <c r="CO4">
-        <v>-0.02151116169989109</v>
+        <v>-0.02929241210222244</v>
       </c>
       <c r="CP4">
-        <v>0.115980751812458</v>
+        <v>0.02578631788492203</v>
       </c>
       <c r="CQ4">
-        <v>-0.009331362321972847</v>
+        <v>0.02228489145636559</v>
       </c>
       <c r="CR4">
-        <v>-0.009262205101549625</v>
+        <v>-0.05832678079605103</v>
       </c>
       <c r="CS4">
-        <v>-0.06198175624012947</v>
+        <v>-0.04903331771492958</v>
       </c>
       <c r="CT4">
-        <v>0.04357251152396202</v>
+        <v>0.05610127747058868</v>
       </c>
       <c r="CU4">
-        <v>-0.1267177313566208</v>
+        <v>-0.128265380859375</v>
       </c>
       <c r="CV4">
-        <v>-0.04104747250676155</v>
+        <v>0.01933808252215385</v>
       </c>
       <c r="CW4">
-        <v>-0.03102490492165089</v>
+        <v>0.08566160500049591</v>
       </c>
       <c r="CX4">
-        <v>0.01848477497696877</v>
+        <v>-0.07602912932634354</v>
       </c>
       <c r="CY4">
-        <v>-0.05202463641762733</v>
+        <v>0.02051002718508244</v>
       </c>
       <c r="CZ4">
-        <v>0.09440342336893082</v>
+        <v>0.08211512118577957</v>
       </c>
       <c r="DA4">
-        <v>-0.1461278647184372</v>
+        <v>-0.1111143231391907</v>
       </c>
       <c r="DB4">
-        <v>0.1072626635432243</v>
+        <v>0.07015965133905411</v>
       </c>
       <c r="DC4">
-        <v>0.009034149348735809</v>
+        <v>-0.007633427157998085</v>
       </c>
       <c r="DD4">
-        <v>0.04318927228450775</v>
+        <v>0.04585472866892815</v>
       </c>
       <c r="DE4">
-        <v>-0.03530780225992203</v>
+        <v>0.05904512479901314</v>
       </c>
       <c r="DF4">
-        <v>0.08676442503929138</v>
+        <v>-0.004452584311366081</v>
       </c>
       <c r="DG4">
-        <v>-0.05703811720013618</v>
+        <v>-0.120967298746109</v>
       </c>
       <c r="DH4">
-        <v>-0.03152176737785339</v>
+        <v>-0.07184807956218719</v>
       </c>
       <c r="DI4">
-        <v>0.100716233253479</v>
+        <v>0.1200854331254959</v>
       </c>
       <c r="DJ4">
-        <v>-0.2047720700502396</v>
+        <v>-0.18704853951931</v>
       </c>
       <c r="DK4">
-        <v>0.2027340829372406</v>
+        <v>0.1639466434717178</v>
       </c>
       <c r="DL4">
-        <v>0.1184981092810631</v>
+        <v>0.1669495701789856</v>
       </c>
       <c r="DM4">
-        <v>0.1336141675710678</v>
+        <v>0.07369525730609894</v>
       </c>
       <c r="DN4">
-        <v>0.06875383853912354</v>
+        <v>0.09117437154054642</v>
       </c>
       <c r="DO4">
-        <v>0.1087739244103432</v>
+        <v>0.1560192555189133</v>
       </c>
       <c r="DP4">
-        <v>0.0443703830242157</v>
+        <v>0.1152776628732681</v>
       </c>
       <c r="DQ4">
-        <v>-0.07293272018432617</v>
+        <v>0.02275064960122108</v>
       </c>
       <c r="DR4">
-        <v>-0.07396619021892548</v>
+        <v>0.07094966620206833</v>
       </c>
       <c r="DS4">
-        <v>-0.236134260892868</v>
+        <v>-0.2066056728363037</v>
       </c>
       <c r="DT4">
-        <v>0.001336034969426692</v>
+        <v>-0.016357297077775</v>
       </c>
       <c r="DU4">
-        <v>0.1005825698375702</v>
+        <v>0.1052541583776474</v>
       </c>
       <c r="DV4">
-        <v>-0.07934688776731491</v>
+        <v>0.02014284767210484</v>
       </c>
       <c r="DW4">
-        <v>0.08276414126157761</v>
+        <v>0.09986908733844757</v>
       </c>
       <c r="DX4">
-        <v>-0.004627976566553116</v>
+        <v>-0.0005854619666934013</v>
       </c>
       <c r="DY4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:129">
       <c r="A5">
-        <v>-0.1741162836551666</v>
+        <v>-0.04018471017479897</v>
       </c>
       <c r="B5">
-        <v>0.07486674934625626</v>
+        <v>0.03166554868221283</v>
       </c>
       <c r="C5">
-        <v>0.06233425438404083</v>
+        <v>-0.01097825355827808</v>
       </c>
       <c r="D5">
-        <v>-0.004059773404151201</v>
+        <v>-0.07925421744585037</v>
       </c>
       <c r="E5">
-        <v>-0.05805781111121178</v>
+        <v>-0.1895276457071304</v>
       </c>
       <c r="F5">
-        <v>-0.07740078866481781</v>
+        <v>-0.009925305843353271</v>
       </c>
       <c r="G5">
-        <v>-0.04365823417901993</v>
+        <v>-0.03977110981941223</v>
       </c>
       <c r="H5">
-        <v>-0.1451919227838516</v>
+        <v>-0.05647856742143631</v>
       </c>
       <c r="I5">
-        <v>0.09051194041967392</v>
+        <v>0.2047815918922424</v>
       </c>
       <c r="J5">
-        <v>-0.02952694147825241</v>
+        <v>-0.1450859010219574</v>
       </c>
       <c r="K5">
-        <v>0.221510574221611</v>
+        <v>0.2061941921710968</v>
       </c>
       <c r="L5">
-        <v>-0.07259558886289597</v>
+        <v>-0.09949997812509537</v>
       </c>
       <c r="M5">
-        <v>-0.2302842885255814</v>
+        <v>-0.1794528961181641</v>
       </c>
       <c r="N5">
-        <v>-0.1006911545991898</v>
+        <v>-0.0440233126282692</v>
       </c>
       <c r="O5">
-        <v>-0.04434090852737427</v>
+        <v>-0.1183458343148232</v>
       </c>
       <c r="P5">
-        <v>0.2060647010803223</v>
+        <v>0.2636721134185791</v>
       </c>
       <c r="Q5">
-        <v>-0.1288888305425644</v>
+        <v>-0.2107987999916077</v>
       </c>
       <c r="R5">
-        <v>-0.1193387880921364</v>
+        <v>-0.2105693519115448</v>
       </c>
       <c r="S5">
-        <v>-0.08182743936777115</v>
+        <v>0.02943988330662251</v>
       </c>
       <c r="T5">
-        <v>-0.004708735272288322</v>
+        <v>0.0001204656437039375</v>
       </c>
       <c r="U5">
-        <v>0.07055580615997314</v>
+        <v>0.1029988527297974</v>
       </c>
       <c r="V5">
-        <v>0.002262091264128685</v>
+        <v>0.004707355983555317</v>
       </c>
       <c r="W5">
-        <v>0.04174432903528214</v>
+        <v>-0.05427231267094612</v>
       </c>
       <c r="X5">
-        <v>0.04533844441175461</v>
+        <v>0.07053828984498978</v>
       </c>
       <c r="Y5">
-        <v>-0.1022191196680069</v>
+        <v>-0.1257329285144806</v>
       </c>
       <c r="Z5">
-        <v>-0.3137758076190948</v>
+        <v>-0.3478525280952454</v>
       </c>
       <c r="AA5">
-        <v>-0.1061259135603905</v>
+        <v>-0.08918248116970062</v>
       </c>
       <c r="AB5">
-        <v>-0.01088905148208141</v>
+        <v>-0.09157026559114456</v>
       </c>
       <c r="AC5">
-        <v>0.01566164381802082</v>
+        <v>-0.04351869598031044</v>
       </c>
       <c r="AD5">
-        <v>-0.03298221528530121</v>
+        <v>-0.1023580133914948</v>
       </c>
       <c r="AE5">
-        <v>-0.07563786208629608</v>
+        <v>-0.0032610222697258</v>
       </c>
       <c r="AF5">
-        <v>0.0528998039662838</v>
+        <v>0.0882008969783783</v>
       </c>
       <c r="AG5">
-        <v>-0.1749782711267471</v>
+        <v>-0.1379371136426926</v>
       </c>
       <c r="AH5">
-        <v>-0.1208116933703423</v>
+        <v>0.03020153567194939</v>
       </c>
       <c r="AI5">
-        <v>0.08369223773479462</v>
+        <v>0.03844068199396133</v>
       </c>
       <c r="AJ5">
-        <v>0.2151975780725479</v>
+        <v>0.03885406628251076</v>
       </c>
       <c r="AK5">
-        <v>-0.03758467361330986</v>
+        <v>0.02134006842970848</v>
       </c>
       <c r="AL5">
-        <v>-0.07237827032804489</v>
+        <v>-0.1023062318563461</v>
       </c>
       <c r="AM5">
-        <v>0.1804383546113968</v>
+        <v>0.1607307940721512</v>
       </c>
       <c r="AN5">
-        <v>-0.04308327287435532</v>
+        <v>0.02794083952903748</v>
       </c>
       <c r="AO5">
-        <v>-0.2164330035448074</v>
+        <v>-0.3372229039669037</v>
       </c>
       <c r="AP5">
-        <v>0.01119504310190678</v>
+        <v>0.06171640753746033</v>
       </c>
       <c r="AQ5">
-        <v>0.1321613192558289</v>
+        <v>0.1090328618884087</v>
       </c>
       <c r="AR5">
-        <v>0.2505179345607758</v>
+        <v>0.2395233064889908</v>
       </c>
       <c r="AS5">
-        <v>0.1776416599750519</v>
+        <v>0.1045276969671249</v>
       </c>
       <c r="AT5">
-        <v>0.1087613925337791</v>
+        <v>-0.00145894952584058</v>
       </c>
       <c r="AU5">
-        <v>0.03177984431385994</v>
+        <v>-0.03003488108515739</v>
       </c>
       <c r="AV5">
-        <v>-0.1433650553226471</v>
+        <v>-0.1649201661348343</v>
       </c>
       <c r="AW5">
-        <v>0.05831438675522804</v>
+        <v>0.1871881783008575</v>
       </c>
       <c r="AX5">
-        <v>-0.1577035039663315</v>
+        <v>-0.1458289623260498</v>
       </c>
       <c r="AY5">
-        <v>0.08626256138086319</v>
+        <v>0.003900688141584396</v>
       </c>
       <c r="AZ5">
-        <v>0.1101785376667976</v>
+        <v>0.1425986588001251</v>
       </c>
       <c r="BA5">
-        <v>0.05504106357693672</v>
+        <v>0.0316452719271183</v>
       </c>
       <c r="BB5">
-        <v>0.1247484907507896</v>
+        <v>0.03570237383246422</v>
       </c>
       <c r="BC5">
-        <v>-0.01863794401288033</v>
+        <v>0.01470285002142191</v>
       </c>
       <c r="BD5">
-        <v>-0.1332676112651825</v>
+        <v>-0.07915030419826508</v>
       </c>
       <c r="BE5">
-        <v>0.0607304647564888</v>
+        <v>0.03549863398075104</v>
       </c>
       <c r="BF5">
-        <v>0.1233555674552917</v>
+        <v>0.1136744916439056</v>
       </c>
       <c r="BG5">
-        <v>-0.1442933529615402</v>
+        <v>-0.1529116183519363</v>
       </c>
       <c r="BH5">
-        <v>-0.02663984335958958</v>
+        <v>-0.01664223521947861</v>
       </c>
       <c r="BI5">
-        <v>0.1163995712995529</v>
+        <v>0.07674497365951538</v>
       </c>
       <c r="BJ5">
-        <v>-0.1051090210676193</v>
+        <v>-0.03460218757390976</v>
       </c>
       <c r="BK5">
-        <v>-0.03235907107591629</v>
+        <v>-0.01427686586976051</v>
       </c>
       <c r="BL5">
-        <v>-0.04827504232525826</v>
+        <v>-0.1882077306509018</v>
       </c>
       <c r="BM5">
-        <v>0.2319060117006302</v>
+        <v>0.1989280879497528</v>
       </c>
       <c r="BN5">
-        <v>0.103425495326519</v>
+        <v>0.07932986319065094</v>
       </c>
       <c r="BO5">
-        <v>-0.118981346487999</v>
+        <v>-0.08914103358983994</v>
       </c>
       <c r="BP5">
-        <v>-0.1759465634822845</v>
+        <v>-0.2308449447154999</v>
       </c>
       <c r="BQ5">
-        <v>0.1159115359187126</v>
+        <v>0.1201603263616562</v>
       </c>
       <c r="BR5">
-        <v>-0.1520912051200867</v>
+        <v>-0.1740789413452148</v>
       </c>
       <c r="BS5">
-        <v>-0.1277197450399399</v>
+        <v>-0.1670258045196533</v>
       </c>
       <c r="BT5">
-        <v>0.05886407941579819</v>
+        <v>0.08282811939716339</v>
       </c>
       <c r="BU5">
-        <v>-0.1380064934492111</v>
+        <v>-0.1571127027273178</v>
       </c>
       <c r="BV5">
-        <v>-0.1332676112651825</v>
+        <v>-0.1589609682559967</v>
       </c>
       <c r="BW5">
-        <v>-0.3832741379737854</v>
+        <v>-0.3100926280021667</v>
       </c>
       <c r="BX5">
-        <v>0.04270825535058975</v>
+        <v>-0.05594855919480324</v>
       </c>
       <c r="BY5">
-        <v>0.4462471604347229</v>
+        <v>0.3965690135955811</v>
       </c>
       <c r="BZ5">
-        <v>0.08813346922397614</v>
+        <v>0.1062143817543983</v>
       </c>
       <c r="CA5">
-        <v>-0.1687619537115097</v>
+        <v>-0.147093266248703</v>
       </c>
       <c r="CB5">
-        <v>0.02674230933189392</v>
+        <v>0.09388532489538193</v>
       </c>
       <c r="CC5">
-        <v>0.01900577358901501</v>
+        <v>0.03001317009329796</v>
       </c>
       <c r="CD5">
-        <v>-0.01506277080625296</v>
+        <v>-0.002025116235017776</v>
       </c>
       <c r="CE5">
-        <v>0.137718677520752</v>
+        <v>0.1197254061698914</v>
       </c>
       <c r="CF5">
-        <v>0.1667933911085129</v>
+        <v>0.2106940001249313</v>
       </c>
       <c r="CG5">
-        <v>-0.04662734270095825</v>
+        <v>0.0251831728965044</v>
       </c>
       <c r="CH5">
-        <v>0.04697650671005249</v>
+        <v>0.06517087668180466</v>
       </c>
       <c r="CI5">
-        <v>-0.106471985578537</v>
+        <v>-0.0813145637512207</v>
       </c>
       <c r="CJ5">
-        <v>0.01077074557542801</v>
+        <v>-0.03252957761287689</v>
       </c>
       <c r="CK5">
-        <v>0.2316816598176956</v>
+        <v>0.2723617255687714</v>
       </c>
       <c r="CL5">
-        <v>-0.01101620588451624</v>
+        <v>-0.07068922370672226</v>
       </c>
       <c r="CM5">
-        <v>-0.07285448163747787</v>
+        <v>-0.02819033339619637</v>
       </c>
       <c r="CN5">
-        <v>0.1467030495405197</v>
+        <v>0.195062056183815</v>
       </c>
       <c r="CO5">
-        <v>0.06303754448890686</v>
+        <v>-0.02151116169989109</v>
       </c>
       <c r="CP5">
-        <v>0.07947558164596558</v>
+        <v>0.115980751812458</v>
       </c>
       <c r="CQ5">
-        <v>0.06740037351846695</v>
+        <v>-0.009331362321972847</v>
       </c>
       <c r="CR5">
-        <v>0.1005228459835052</v>
+        <v>-0.009262205101549625</v>
       </c>
       <c r="CS5">
-        <v>-0.02736873552203178</v>
+        <v>-0.06198175624012947</v>
       </c>
       <c r="CT5">
-        <v>0.0202498659491539</v>
+        <v>0.04357251152396202</v>
       </c>
       <c r="CU5">
-        <v>-0.1688464432954788</v>
+        <v>-0.1267177313566208</v>
       </c>
       <c r="CV5">
-        <v>-0.04729971289634705</v>
+        <v>-0.04104747250676155</v>
       </c>
       <c r="CW5">
-        <v>0.1169563755393028</v>
+        <v>-0.03102490492165089</v>
       </c>
       <c r="CX5">
-        <v>0.01478651911020279</v>
+        <v>0.01848477497696877</v>
       </c>
       <c r="CY5">
-        <v>0.03330529481172562</v>
+        <v>-0.05202463641762733</v>
       </c>
       <c r="CZ5">
-        <v>0.1269509792327881</v>
+        <v>0.09440342336893082</v>
       </c>
       <c r="DA5">
-        <v>-0.1043439209461212</v>
+        <v>-0.1461278647184372</v>
       </c>
       <c r="DB5">
-        <v>0.139664500951767</v>
+        <v>0.1072626635432243</v>
       </c>
       <c r="DC5">
-        <v>0.02577086538076401</v>
+        <v>0.009034149348735809</v>
       </c>
       <c r="DD5">
-        <v>0.03103804960846901</v>
+        <v>0.04318927228450775</v>
       </c>
       <c r="DE5">
-        <v>0.03575948253273964</v>
+        <v>-0.03530780225992203</v>
       </c>
       <c r="DF5">
-        <v>0.001120889908634126</v>
+        <v>0.08676442503929138</v>
       </c>
       <c r="DG5">
-        <v>-0.0988442674279213</v>
+        <v>-0.05703811720013618</v>
       </c>
       <c r="DH5">
-        <v>-0.06476961076259613</v>
+        <v>-0.03152176737785339</v>
       </c>
       <c r="DI5">
-        <v>0.1030671522021294</v>
+        <v>0.100716233253479</v>
       </c>
       <c r="DJ5">
-        <v>-0.2108528912067413</v>
+        <v>-0.2047720700502396</v>
       </c>
       <c r="DK5">
-        <v>0.1940758377313614</v>
+        <v>0.2027340829372406</v>
       </c>
       <c r="DL5">
-        <v>0.1920822858810425</v>
+        <v>0.1184981092810631</v>
       </c>
       <c r="DM5">
-        <v>0.05980771034955978</v>
+        <v>0.1336141675710678</v>
       </c>
       <c r="DN5">
-        <v>0.0844796746969223</v>
+        <v>0.06875383853912354</v>
       </c>
       <c r="DO5">
-        <v>0.1536063551902771</v>
+        <v>0.1087739244103432</v>
       </c>
       <c r="DP5">
-        <v>0.1285707205533981</v>
+        <v>0.0443703830242157</v>
       </c>
       <c r="DQ5">
-        <v>0.02424720674753189</v>
+        <v>-0.07293272018432617</v>
       </c>
       <c r="DR5">
-        <v>0.03350801765918732</v>
+        <v>-0.07396619021892548</v>
       </c>
       <c r="DS5">
-        <v>-0.166852742433548</v>
+        <v>-0.236134260892868</v>
       </c>
       <c r="DT5">
-        <v>-0.0496474914252758</v>
+        <v>0.001336034969426692</v>
       </c>
       <c r="DU5">
-        <v>0.1135256066918373</v>
+        <v>0.1005825698375702</v>
       </c>
       <c r="DV5">
-        <v>0.0115839671343565</v>
+        <v>-0.07934688776731491</v>
       </c>
       <c r="DW5">
-        <v>0.1773982644081116</v>
+        <v>0.08276414126157761</v>
       </c>
       <c r="DX5">
-        <v>0.0594024732708931</v>
+        <v>-0.004627976566553116</v>
       </c>
       <c r="DY5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:129">
       <c r="A6">
-        <v>-0.1292164772748947</v>
+        <v>-0.1741162836551666</v>
       </c>
       <c r="B6">
-        <v>0.08564207702875137</v>
+        <v>0.07486674934625626</v>
       </c>
       <c r="C6">
-        <v>0.1135402545332909</v>
+        <v>0.06233425438404083</v>
       </c>
       <c r="D6">
-        <v>-0.03366680070757866</v>
+        <v>-0.004059773404151201</v>
       </c>
       <c r="E6">
-        <v>-0.06662195175886154</v>
+        <v>-0.05805781111121178</v>
       </c>
       <c r="F6">
-        <v>-0.1056566163897514</v>
+        <v>-0.07740078866481781</v>
       </c>
       <c r="G6">
-        <v>-0.05458107218146324</v>
+        <v>-0.04365823417901993</v>
       </c>
       <c r="H6">
-        <v>-0.1405874490737915</v>
+        <v>-0.1451919227838516</v>
       </c>
       <c r="I6">
-        <v>0.1125767976045609</v>
+        <v>0.09051194041967392</v>
       </c>
       <c r="J6">
-        <v>-0.03779042512178421</v>
+        <v>-0.02952694147825241</v>
       </c>
       <c r="K6">
-        <v>0.3155781924724579</v>
+        <v>0.221510574221611</v>
       </c>
       <c r="L6">
-        <v>-0.06495950371026993</v>
+        <v>-0.07259558886289597</v>
       </c>
       <c r="M6">
-        <v>-0.2592079937458038</v>
+        <v>-0.2302842885255814</v>
       </c>
       <c r="N6">
-        <v>-0.08936760574579239</v>
+        <v>-0.1006911545991898</v>
       </c>
       <c r="O6">
-        <v>-0.04960805177688599</v>
+        <v>-0.04434090852737427</v>
       </c>
       <c r="P6">
-        <v>0.2054583132266998</v>
+        <v>0.2060647010803223</v>
       </c>
       <c r="Q6">
-        <v>-0.1464987546205521</v>
+        <v>-0.1288888305425644</v>
       </c>
       <c r="R6">
-        <v>-0.1091363281011581</v>
+        <v>-0.1193387880921364</v>
       </c>
       <c r="S6">
-        <v>-0.08170266449451447</v>
+        <v>-0.08182743936777115</v>
       </c>
       <c r="T6">
-        <v>-0.04245499521493912</v>
+        <v>-0.004708735272288322</v>
       </c>
       <c r="U6">
-        <v>0.03853410854935646</v>
+        <v>0.07055580615997314</v>
       </c>
       <c r="V6">
-        <v>-0.01818323507905006</v>
+        <v>0.002262091264128685</v>
       </c>
       <c r="W6">
-        <v>0.0582205094397068</v>
+        <v>0.04174432903528214</v>
       </c>
       <c r="X6">
-        <v>0.06748628616333008</v>
+        <v>0.04533844441175461</v>
       </c>
       <c r="Y6">
-        <v>-0.09582629799842834</v>
+        <v>-0.1022191196680069</v>
       </c>
       <c r="Z6">
-        <v>-0.2976419627666473</v>
+        <v>-0.3137758076190948</v>
       </c>
       <c r="AA6">
-        <v>-0.08164560794830322</v>
+        <v>-0.1061259135603905</v>
       </c>
       <c r="AB6">
-        <v>-0.009459482505917549</v>
+        <v>-0.01088905148208141</v>
       </c>
       <c r="AC6">
-        <v>0.03205547481775284</v>
+        <v>0.01566164381802082</v>
       </c>
       <c r="AD6">
-        <v>-0.06803072988986969</v>
+        <v>-0.03298221528530121</v>
       </c>
       <c r="AE6">
-        <v>-0.1065084263682365</v>
+        <v>-0.07563786208629608</v>
       </c>
       <c r="AF6">
-        <v>0.03821919113397598</v>
+        <v>0.0528998039662838</v>
       </c>
       <c r="AG6">
-        <v>-0.2184456288814545</v>
+        <v>-0.1749782711267471</v>
       </c>
       <c r="AH6">
-        <v>-0.1481972336769104</v>
+        <v>-0.1208116933703423</v>
       </c>
       <c r="AI6">
-        <v>0.05867671594023705</v>
+        <v>0.08369223773479462</v>
       </c>
       <c r="AJ6">
-        <v>0.1282892972230911</v>
+        <v>0.2151975780725479</v>
       </c>
       <c r="AK6">
-        <v>-0.04676010087132454</v>
+        <v>-0.03758467361330986</v>
       </c>
       <c r="AL6">
-        <v>-0.0497967042028904</v>
+        <v>-0.07237827032804489</v>
       </c>
       <c r="AM6">
-        <v>0.1823661029338837</v>
+        <v>0.1804383546113968</v>
       </c>
       <c r="AN6">
-        <v>-0.05714859813451767</v>
+        <v>-0.04308327287435532</v>
       </c>
       <c r="AO6">
-        <v>-0.1943024843931198</v>
+        <v>-0.2164330035448074</v>
       </c>
       <c r="AP6">
-        <v>0.0221569761633873</v>
+        <v>0.01119504310190678</v>
       </c>
       <c r="AQ6">
-        <v>0.1032888069748878</v>
+        <v>0.1321613192558289</v>
       </c>
       <c r="AR6">
-        <v>0.201238676905632</v>
+        <v>0.2505179345607758</v>
       </c>
       <c r="AS6">
-        <v>0.2114091962575912</v>
+        <v>0.1776416599750519</v>
       </c>
       <c r="AT6">
-        <v>0.1519851684570312</v>
+        <v>0.1087613925337791</v>
       </c>
       <c r="AU6">
-        <v>0.02652590535581112</v>
+        <v>0.03177984431385994</v>
       </c>
       <c r="AV6">
-        <v>-0.1802552789449692</v>
+        <v>-0.1433650553226471</v>
       </c>
       <c r="AW6">
-        <v>0.03918169811367989</v>
+        <v>0.05831438675522804</v>
       </c>
       <c r="AX6">
-        <v>-0.2326699197292328</v>
+        <v>-0.1577035039663315</v>
       </c>
       <c r="AY6">
-        <v>0.08378876000642776</v>
+        <v>0.08626256138086319</v>
       </c>
       <c r="AZ6">
-        <v>0.1276607513427734</v>
+        <v>0.1101785376667976</v>
       </c>
       <c r="BA6">
-        <v>0.07133451849222183</v>
+        <v>0.05504106357693672</v>
       </c>
       <c r="BB6">
-        <v>0.06131236627697945</v>
+        <v>0.1247484907507896</v>
       </c>
       <c r="BC6">
-        <v>-0.01135426387190819</v>
+        <v>-0.01863794401288033</v>
       </c>
       <c r="BD6">
-        <v>-0.1723408997058868</v>
+        <v>-0.1332676112651825</v>
       </c>
       <c r="BE6">
-        <v>0.01565633714199066</v>
+        <v>0.0607304647564888</v>
       </c>
       <c r="BF6">
-        <v>0.1027913242578506</v>
+        <v>0.1233555674552917</v>
       </c>
       <c r="BG6">
-        <v>-0.1085704490542412</v>
+        <v>-0.1442933529615402</v>
       </c>
       <c r="BH6">
-        <v>-0.006351982709020376</v>
+        <v>-0.02663984335958958</v>
       </c>
       <c r="BI6">
-        <v>0.0957648903131485</v>
+        <v>0.1163995712995529</v>
       </c>
       <c r="BJ6">
-        <v>-0.09980186074972153</v>
+        <v>-0.1051090210676193</v>
       </c>
       <c r="BK6">
-        <v>-0.03341269493103027</v>
+        <v>-0.03235907107591629</v>
       </c>
       <c r="BL6">
-        <v>-0.05527170747518539</v>
+        <v>-0.04827504232525826</v>
       </c>
       <c r="BM6">
-        <v>0.2191422581672668</v>
+        <v>0.2319060117006302</v>
       </c>
       <c r="BN6">
-        <v>0.08650073409080505</v>
+        <v>0.103425495326519</v>
       </c>
       <c r="BO6">
-        <v>-0.09718635678291321</v>
+        <v>-0.118981346487999</v>
       </c>
       <c r="BP6">
-        <v>-0.1300132274627686</v>
+        <v>-0.1759465634822845</v>
       </c>
       <c r="BQ6">
-        <v>0.1193170845508575</v>
+        <v>0.1159115359187126</v>
       </c>
       <c r="BR6">
-        <v>-0.1485578715801239</v>
+        <v>-0.1520912051200867</v>
       </c>
       <c r="BS6">
-        <v>-0.1057244837284088</v>
+        <v>-0.1277197450399399</v>
       </c>
       <c r="BT6">
-        <v>0.08600073307752609</v>
+        <v>0.05886407941579819</v>
       </c>
       <c r="BU6">
-        <v>-0.09232310950756073</v>
+        <v>-0.1380064934492111</v>
       </c>
       <c r="BV6">
-        <v>-0.1583576947450638</v>
+        <v>-0.1332676112651825</v>
       </c>
       <c r="BW6">
-        <v>-0.3646343350410461</v>
+        <v>-0.3832741379737854</v>
       </c>
       <c r="BX6">
-        <v>0.01652245223522186</v>
+        <v>0.04270825535058975</v>
       </c>
       <c r="BY6">
-        <v>0.434620589017868</v>
+        <v>0.4462471604347229</v>
       </c>
       <c r="BZ6">
-        <v>0.07822845131158829</v>
+        <v>0.08813346922397614</v>
       </c>
       <c r="CA6">
-        <v>-0.2015888690948486</v>
+        <v>-0.1687619537115097</v>
       </c>
       <c r="CB6">
-        <v>0.04082159698009491</v>
+        <v>0.02674230933189392</v>
       </c>
       <c r="CC6">
-        <v>-0.02526747435331345</v>
+        <v>0.01900577358901501</v>
       </c>
       <c r="CD6">
-        <v>0.00822592806071043</v>
+        <v>-0.01506277080625296</v>
       </c>
       <c r="CE6">
-        <v>0.1291511654853821</v>
+        <v>0.137718677520752</v>
       </c>
       <c r="CF6">
-        <v>0.07787802070379257</v>
+        <v>0.1667933911085129</v>
       </c>
       <c r="CG6">
-        <v>-0.07279574871063232</v>
+        <v>-0.04662734270095825</v>
       </c>
       <c r="CH6">
-        <v>-0.00575749296694994</v>
+        <v>0.04697650671005249</v>
       </c>
       <c r="CI6">
-        <v>-0.1391119062900543</v>
+        <v>-0.106471985578537</v>
       </c>
       <c r="CJ6">
-        <v>0.001232719048857689</v>
+        <v>0.01077074557542801</v>
       </c>
       <c r="CK6">
-        <v>0.2328616380691528</v>
+        <v>0.2316816598176956</v>
       </c>
       <c r="CL6">
-        <v>-0.049314234405756</v>
+        <v>-0.01101620588451624</v>
       </c>
       <c r="CM6">
-        <v>-0.02712991088628769</v>
+        <v>-0.07285448163747787</v>
       </c>
       <c r="CN6">
-        <v>0.1686685681343079</v>
+        <v>0.1467030495405197</v>
       </c>
       <c r="CO6">
-        <v>0.0400255098938942</v>
+        <v>0.06303754448890686</v>
       </c>
       <c r="CP6">
-        <v>0.09828241169452667</v>
+        <v>0.07947558164596558</v>
       </c>
       <c r="CQ6">
-        <v>0.07864150404930115</v>
+        <v>0.06740037351846695</v>
       </c>
       <c r="CR6">
-        <v>0.1084863841533661</v>
+        <v>0.1005228459835052</v>
       </c>
       <c r="CS6">
-        <v>-0.04217216372489929</v>
+        <v>-0.02736873552203178</v>
       </c>
       <c r="CT6">
-        <v>0.02777107059955597</v>
+        <v>0.0202498659491539</v>
       </c>
       <c r="CU6">
-        <v>-0.1621693819761276</v>
+        <v>-0.1688464432954788</v>
       </c>
       <c r="CV6">
-        <v>-0.02817645668983459</v>
+        <v>-0.04729971289634705</v>
       </c>
       <c r="CW6">
-        <v>0.1097515746951103</v>
+        <v>0.1169563755393028</v>
       </c>
       <c r="CX6">
-        <v>0.01881514862179756</v>
+        <v>0.01478651911020279</v>
       </c>
       <c r="CY6">
-        <v>0.01187249273061752</v>
+        <v>0.03330529481172562</v>
       </c>
       <c r="CZ6">
-        <v>0.08951480686664581</v>
+        <v>0.1269509792327881</v>
       </c>
       <c r="DA6">
-        <v>-0.1530831307172775</v>
+        <v>-0.1043439209461212</v>
       </c>
       <c r="DB6">
-        <v>0.1020748168230057</v>
+        <v>0.139664500951767</v>
       </c>
       <c r="DC6">
-        <v>0.001280825585126877</v>
+        <v>0.02577086538076401</v>
       </c>
       <c r="DD6">
-        <v>-0.01281256601214409</v>
+        <v>0.03103804960846901</v>
       </c>
       <c r="DE6">
-        <v>0.04295558482408524</v>
+        <v>0.03575948253273964</v>
       </c>
       <c r="DF6">
-        <v>-0.005070989951491356</v>
+        <v>0.001120889908634126</v>
       </c>
       <c r="DG6">
-        <v>-0.07071514427661896</v>
+        <v>-0.0988442674279213</v>
       </c>
       <c r="DH6">
-        <v>-0.08678005635738373</v>
+        <v>-0.06476961076259613</v>
       </c>
       <c r="DI6">
-        <v>0.1175690963864326</v>
+        <v>0.1030671522021294</v>
       </c>
       <c r="DJ6">
-        <v>-0.2335353493690491</v>
+        <v>-0.2108528912067413</v>
       </c>
       <c r="DK6">
-        <v>0.2112331241369247</v>
+        <v>0.1940758377313614</v>
       </c>
       <c r="DL6">
-        <v>0.2196802049875259</v>
+        <v>0.1920822858810425</v>
       </c>
       <c r="DM6">
-        <v>0.01339764054864645</v>
+        <v>0.05980771034955978</v>
       </c>
       <c r="DN6">
-        <v>0.1099605485796928</v>
+        <v>0.0844796746969223</v>
       </c>
       <c r="DO6">
-        <v>0.1282972246408463</v>
+        <v>0.1536063551902771</v>
       </c>
       <c r="DP6">
-        <v>0.115439236164093</v>
+        <v>0.1285707205533981</v>
       </c>
       <c r="DQ6">
-        <v>0.00511956587433815</v>
+        <v>0.02424720674753189</v>
       </c>
       <c r="DR6">
-        <v>0.001472460106015205</v>
+        <v>0.03350801765918732</v>
       </c>
       <c r="DS6">
-        <v>-0.1342039257287979</v>
+        <v>-0.166852742433548</v>
       </c>
       <c r="DT6">
-        <v>-0.06702733784914017</v>
+        <v>-0.0496474914252758</v>
       </c>
       <c r="DU6">
-        <v>0.1063724160194397</v>
+        <v>0.1135256066918373</v>
       </c>
       <c r="DV6">
-        <v>-0.03746300935745239</v>
+        <v>0.0115839671343565</v>
       </c>
       <c r="DW6">
-        <v>0.1711137592792511</v>
+        <v>0.1773982644081116</v>
       </c>
       <c r="DX6">
-        <v>0.03795230016112328</v>
+        <v>0.0594024732708931</v>
       </c>
       <c r="DY6" t="s">
         <v>3</v>
@@ -2752,777 +2752,777 @@
     </row>
     <row r="7" spans="1:129">
       <c r="A7">
-        <v>-0.05406799167394638</v>
+        <v>-0.1292164772748947</v>
       </c>
       <c r="B7">
-        <v>0.07858839631080627</v>
+        <v>0.08564207702875137</v>
       </c>
       <c r="C7">
-        <v>0.007620911579579115</v>
+        <v>0.1135402545332909</v>
       </c>
       <c r="D7">
-        <v>-0.1051785945892334</v>
+        <v>-0.03366680070757866</v>
       </c>
       <c r="E7">
-        <v>-0.1028443351387978</v>
+        <v>-0.06662195175886154</v>
       </c>
       <c r="F7">
-        <v>-0.009559154510498047</v>
+        <v>-0.1056566163897514</v>
       </c>
       <c r="G7">
-        <v>-0.06096189469099045</v>
+        <v>-0.05458107218146324</v>
       </c>
       <c r="H7">
-        <v>-0.1036155968904495</v>
+        <v>-0.1405874490737915</v>
       </c>
       <c r="I7">
-        <v>0.141790047287941</v>
+        <v>0.1125767976045609</v>
       </c>
       <c r="J7">
-        <v>-0.139496237039566</v>
+        <v>-0.03779042512178421</v>
       </c>
       <c r="K7">
-        <v>0.1974593698978424</v>
+        <v>0.3155781924724579</v>
       </c>
       <c r="L7">
-        <v>-0.07207049429416656</v>
+        <v>-0.06495950371026993</v>
       </c>
       <c r="M7">
-        <v>-0.1727930903434753</v>
+        <v>-0.2592079937458038</v>
       </c>
       <c r="N7">
-        <v>-0.04626670107245445</v>
+        <v>-0.08936760574579239</v>
       </c>
       <c r="O7">
-        <v>-0.02426560968160629</v>
+        <v>-0.04960805177688599</v>
       </c>
       <c r="P7">
-        <v>0.1859005689620972</v>
+        <v>0.2054583132266998</v>
       </c>
       <c r="Q7">
-        <v>-0.2029965221881866</v>
+        <v>-0.1464987546205521</v>
       </c>
       <c r="R7">
-        <v>-0.1813752949237823</v>
+        <v>-0.1091363281011581</v>
       </c>
       <c r="S7">
-        <v>-0.04600609838962555</v>
+        <v>-0.08170266449451447</v>
       </c>
       <c r="T7">
-        <v>-0.01716599613428116</v>
+        <v>-0.04245499521493912</v>
       </c>
       <c r="U7">
-        <v>0.03116602450609207</v>
+        <v>0.03853410854935646</v>
       </c>
       <c r="V7">
-        <v>-0.02036020532250404</v>
+        <v>-0.01818323507905006</v>
       </c>
       <c r="W7">
-        <v>-0.001650587772019207</v>
+        <v>0.0582205094397068</v>
       </c>
       <c r="X7">
-        <v>0.04009649530053139</v>
+        <v>0.06748628616333008</v>
       </c>
       <c r="Y7">
-        <v>-0.09666715562343597</v>
+        <v>-0.09582629799842834</v>
       </c>
       <c r="Z7">
-        <v>-0.3389324843883514</v>
+        <v>-0.2976419627666473</v>
       </c>
       <c r="AA7">
-        <v>-0.1096963956952095</v>
+        <v>-0.08164560794830322</v>
       </c>
       <c r="AB7">
-        <v>0.02486596070230007</v>
+        <v>-0.009459482505917549</v>
       </c>
       <c r="AC7">
-        <v>0.04664796963334084</v>
+        <v>0.03205547481775284</v>
       </c>
       <c r="AD7">
-        <v>-0.05665784701704979</v>
+        <v>-0.06803072988986969</v>
       </c>
       <c r="AE7">
-        <v>-0.02027748711407185</v>
+        <v>-0.1065084263682365</v>
       </c>
       <c r="AF7">
-        <v>0.09066785871982574</v>
+        <v>0.03821919113397598</v>
       </c>
       <c r="AG7">
-        <v>-0.1837476044893265</v>
+        <v>-0.2184456288814545</v>
       </c>
       <c r="AH7">
-        <v>0.00493583083152771</v>
+        <v>-0.1481972336769104</v>
       </c>
       <c r="AI7">
-        <v>0.05147730931639671</v>
+        <v>0.05867671594023705</v>
       </c>
       <c r="AJ7">
-        <v>0.1355338245630264</v>
+        <v>0.1282892972230911</v>
       </c>
       <c r="AK7">
-        <v>-0.03929951041936874</v>
+        <v>-0.04676010087132454</v>
       </c>
       <c r="AL7">
-        <v>-0.1136623397469521</v>
+        <v>-0.0497967042028904</v>
       </c>
       <c r="AM7">
-        <v>0.2109731733798981</v>
+        <v>0.1823661029338837</v>
       </c>
       <c r="AN7">
-        <v>-0.005795578006654978</v>
+        <v>-0.05714859813451767</v>
       </c>
       <c r="AO7">
-        <v>-0.2853041887283325</v>
+        <v>-0.1943024843931198</v>
       </c>
       <c r="AP7">
-        <v>0.04844106733798981</v>
+        <v>0.0221569761633873</v>
       </c>
       <c r="AQ7">
-        <v>0.04909130558371544</v>
+        <v>0.1032888069748878</v>
       </c>
       <c r="AR7">
-        <v>0.2696196734905243</v>
+        <v>0.201238676905632</v>
       </c>
       <c r="AS7">
-        <v>0.1631957441568375</v>
+        <v>0.2114091962575912</v>
       </c>
       <c r="AT7">
-        <v>-0.01226086728274822</v>
+        <v>0.1519851684570312</v>
       </c>
       <c r="AU7">
-        <v>0.005751450546085835</v>
+        <v>0.02652590535581112</v>
       </c>
       <c r="AV7">
-        <v>-0.09896101057529449</v>
+        <v>-0.1802552789449692</v>
       </c>
       <c r="AW7">
-        <v>0.1099640429019928</v>
+        <v>0.03918169811367989</v>
       </c>
       <c r="AX7">
-        <v>-0.1745906472206116</v>
+        <v>-0.2326699197292328</v>
       </c>
       <c r="AY7">
-        <v>0.04450586438179016</v>
+        <v>0.08378876000642776</v>
       </c>
       <c r="AZ7">
-        <v>0.207519456744194</v>
+        <v>0.1276607513427734</v>
       </c>
       <c r="BA7">
-        <v>-0.002578886691480875</v>
+        <v>0.07133451849222183</v>
       </c>
       <c r="BB7">
-        <v>0.03892185539007187</v>
+        <v>0.06131236627697945</v>
       </c>
       <c r="BC7">
-        <v>-0.02761613950133324</v>
+        <v>-0.01135426387190819</v>
       </c>
       <c r="BD7">
-        <v>-0.0999198779463768</v>
+        <v>-0.1723408997058868</v>
       </c>
       <c r="BE7">
-        <v>0.03596401214599609</v>
+        <v>0.01565633714199066</v>
       </c>
       <c r="BF7">
-        <v>0.1539284139871597</v>
+        <v>0.1027913242578506</v>
       </c>
       <c r="BG7">
-        <v>-0.1227239146828651</v>
+        <v>-0.1085704490542412</v>
       </c>
       <c r="BH7">
-        <v>-0.02601342275738716</v>
+        <v>-0.006351982709020376</v>
       </c>
       <c r="BI7">
-        <v>0.1263718754053116</v>
+        <v>0.0957648903131485</v>
       </c>
       <c r="BJ7">
-        <v>-0.1137693449854851</v>
+        <v>-0.09980186074972153</v>
       </c>
       <c r="BK7">
-        <v>-0.01823295466601849</v>
+        <v>-0.03341269493103027</v>
       </c>
       <c r="BL7">
-        <v>-0.1184723228216171</v>
+        <v>-0.05527170747518539</v>
       </c>
       <c r="BM7">
-        <v>0.1388686746358871</v>
+        <v>0.2191422581672668</v>
       </c>
       <c r="BN7">
-        <v>0.1107518300414085</v>
+        <v>0.08650073409080505</v>
       </c>
       <c r="BO7">
-        <v>-0.1055560559034348</v>
+        <v>-0.09718635678291321</v>
       </c>
       <c r="BP7">
-        <v>-0.2685141265392303</v>
+        <v>-0.1300132274627686</v>
       </c>
       <c r="BQ7">
-        <v>0.1022521406412125</v>
+        <v>0.1193170845508575</v>
       </c>
       <c r="BR7">
-        <v>-0.141192227602005</v>
+        <v>-0.1485578715801239</v>
       </c>
       <c r="BS7">
-        <v>-0.0827147513628006</v>
+        <v>-0.1057244837284088</v>
       </c>
       <c r="BT7">
-        <v>0.06873840093612671</v>
+        <v>0.08600073307752609</v>
       </c>
       <c r="BU7">
-        <v>-0.151495486497879</v>
+        <v>-0.09232310950756073</v>
       </c>
       <c r="BV7">
-        <v>-0.1839057207107544</v>
+        <v>-0.1583576947450638</v>
       </c>
       <c r="BW7">
-        <v>-0.2854498326778412</v>
+        <v>-0.3646343350410461</v>
       </c>
       <c r="BX7">
-        <v>0.01151258684694767</v>
+        <v>0.01652245223522186</v>
       </c>
       <c r="BY7">
-        <v>0.3707984089851379</v>
+        <v>0.434620589017868</v>
       </c>
       <c r="BZ7">
-        <v>0.1327795833349228</v>
+        <v>0.07822845131158829</v>
       </c>
       <c r="CA7">
-        <v>-0.1052423492074013</v>
+        <v>-0.2015888690948486</v>
       </c>
       <c r="CB7">
-        <v>0.09439734369516373</v>
+        <v>0.04082159698009491</v>
       </c>
       <c r="CC7">
-        <v>0.009738377295434475</v>
+        <v>-0.02526747435331345</v>
       </c>
       <c r="CD7">
-        <v>-0.02412876486778259</v>
+        <v>0.00822592806071043</v>
       </c>
       <c r="CE7">
-        <v>0.1377041041851044</v>
+        <v>0.1291511654853821</v>
       </c>
       <c r="CF7">
-        <v>0.1828488260507584</v>
+        <v>0.07787802070379257</v>
       </c>
       <c r="CG7">
-        <v>-0.02994859963655472</v>
+        <v>-0.07279574871063232</v>
       </c>
       <c r="CH7">
-        <v>0.06489042937755585</v>
+        <v>-0.00575749296694994</v>
       </c>
       <c r="CI7">
-        <v>-0.1055396199226379</v>
+        <v>-0.1391119062900543</v>
       </c>
       <c r="CJ7">
-        <v>0.0715683177113533</v>
+        <v>0.001232719048857689</v>
       </c>
       <c r="CK7">
-        <v>0.2378057837486267</v>
+        <v>0.2328616380691528</v>
       </c>
       <c r="CL7">
-        <v>-0.02942725643515587</v>
+        <v>-0.049314234405756</v>
       </c>
       <c r="CM7">
-        <v>-0.0611535869538784</v>
+        <v>-0.02712991088628769</v>
       </c>
       <c r="CN7">
-        <v>0.191415086388588</v>
+        <v>0.1686685681343079</v>
       </c>
       <c r="CO7">
-        <v>-0.01981154084205627</v>
+        <v>0.0400255098938942</v>
       </c>
       <c r="CP7">
-        <v>0.068226657807827</v>
+        <v>0.09828241169452667</v>
       </c>
       <c r="CQ7">
-        <v>0.004803917370736599</v>
+        <v>0.07864150404930115</v>
       </c>
       <c r="CR7">
-        <v>0.06003869697451591</v>
+        <v>0.1084863841533661</v>
       </c>
       <c r="CS7">
-        <v>-0.04623474925756454</v>
+        <v>-0.04217216372489929</v>
       </c>
       <c r="CT7">
-        <v>0.07222272455692291</v>
+        <v>0.02777107059955597</v>
       </c>
       <c r="CU7">
-        <v>-0.1623536646366119</v>
+        <v>-0.1621693819761276</v>
       </c>
       <c r="CV7">
-        <v>0.005186718422919512</v>
+        <v>-0.02817645668983459</v>
       </c>
       <c r="CW7">
-        <v>0.07760661840438843</v>
+        <v>0.1097515746951103</v>
       </c>
       <c r="CX7">
-        <v>-0.0202229917049408</v>
+        <v>0.01881514862179756</v>
       </c>
       <c r="CY7">
-        <v>-0.01207513175904751</v>
+        <v>0.01187249273061752</v>
       </c>
       <c r="CZ7">
-        <v>0.1500425338745117</v>
+        <v>0.08951480686664581</v>
       </c>
       <c r="DA7">
-        <v>-0.1332419365644455</v>
+        <v>-0.1530831307172775</v>
       </c>
       <c r="DB7">
-        <v>0.1648978292942047</v>
+        <v>0.1020748168230057</v>
       </c>
       <c r="DC7">
-        <v>-0.007168124429881573</v>
+        <v>0.001280825585126877</v>
       </c>
       <c r="DD7">
-        <v>0.06595669686794281</v>
+        <v>-0.01281256601214409</v>
       </c>
       <c r="DE7">
-        <v>0.01209232211112976</v>
+        <v>0.04295558482408524</v>
       </c>
       <c r="DF7">
-        <v>0.004054885823279619</v>
+        <v>-0.005070989951491356</v>
       </c>
       <c r="DG7">
-        <v>-0.07090487331151962</v>
+        <v>-0.07071514427661896</v>
       </c>
       <c r="DH7">
-        <v>-0.04037673026323318</v>
+        <v>-0.08678005635738373</v>
       </c>
       <c r="DI7">
-        <v>0.1160532534122467</v>
+        <v>0.1175690963864326</v>
       </c>
       <c r="DJ7">
-        <v>-0.2231838256120682</v>
+        <v>-0.2335353493690491</v>
       </c>
       <c r="DK7">
-        <v>0.1546620875597</v>
+        <v>0.2112331241369247</v>
       </c>
       <c r="DL7">
-        <v>0.1936354786157608</v>
+        <v>0.2196802049875259</v>
       </c>
       <c r="DM7">
-        <v>0.09128890931606293</v>
+        <v>0.01339764054864645</v>
       </c>
       <c r="DN7">
-        <v>0.08536882698535919</v>
+        <v>0.1099605485796928</v>
       </c>
       <c r="DO7">
-        <v>0.1823276877403259</v>
+        <v>0.1282972246408463</v>
       </c>
       <c r="DP7">
-        <v>0.06180224195122719</v>
+        <v>0.115439236164093</v>
       </c>
       <c r="DQ7">
-        <v>0.03167464584112167</v>
+        <v>0.00511956587433815</v>
       </c>
       <c r="DR7">
-        <v>-0.05402781069278717</v>
+        <v>0.001472460106015205</v>
       </c>
       <c r="DS7">
-        <v>-0.2520975172519684</v>
+        <v>-0.1342039257287979</v>
       </c>
       <c r="DT7">
-        <v>-0.01748262345790863</v>
+        <v>-0.06702733784914017</v>
       </c>
       <c r="DU7">
-        <v>0.04678573831915855</v>
+        <v>0.1063724160194397</v>
       </c>
       <c r="DV7">
-        <v>0.01917337998747826</v>
+        <v>-0.03746300935745239</v>
       </c>
       <c r="DW7">
-        <v>0.09255805611610413</v>
+        <v>0.1711137592792511</v>
       </c>
       <c r="DX7">
-        <v>0.03277750313282013</v>
+        <v>0.03795230016112328</v>
       </c>
       <c r="DY7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:129">
       <c r="A8">
-        <v>-0.06051668897271156</v>
+        <v>-0.05406799167394638</v>
       </c>
       <c r="B8">
-        <v>0.06055902317166328</v>
+        <v>0.07858839631080627</v>
       </c>
       <c r="C8">
-        <v>0.01867903396487236</v>
+        <v>0.007620911579579115</v>
       </c>
       <c r="D8">
-        <v>-0.1302794218063354</v>
+        <v>-0.1051785945892334</v>
       </c>
       <c r="E8">
-        <v>-0.09873083233833313</v>
+        <v>-0.1028443351387978</v>
       </c>
       <c r="F8">
-        <v>-0.006062630098313093</v>
+        <v>-0.009559154510498047</v>
       </c>
       <c r="G8">
-        <v>-0.04989566653966904</v>
+        <v>-0.06096189469099045</v>
       </c>
       <c r="H8">
-        <v>-0.1147274225950241</v>
+        <v>-0.1036155968904495</v>
       </c>
       <c r="I8">
-        <v>0.1444304585456848</v>
+        <v>0.141790047287941</v>
       </c>
       <c r="J8">
-        <v>-0.1759509593248367</v>
+        <v>-0.139496237039566</v>
       </c>
       <c r="K8">
-        <v>0.2189412415027618</v>
+        <v>0.1974593698978424</v>
       </c>
       <c r="L8">
-        <v>-0.08617676794528961</v>
+        <v>-0.07207049429416656</v>
       </c>
       <c r="M8">
-        <v>-0.178284153342247</v>
+        <v>-0.1727930903434753</v>
       </c>
       <c r="N8">
-        <v>-0.072496697306633</v>
+        <v>-0.04626670107245445</v>
       </c>
       <c r="O8">
-        <v>-0.0164023544639349</v>
+        <v>-0.02426560968160629</v>
       </c>
       <c r="P8">
-        <v>0.2215348184108734</v>
+        <v>0.1859005689620972</v>
       </c>
       <c r="Q8">
-        <v>-0.2142770290374756</v>
+        <v>-0.2029965221881866</v>
       </c>
       <c r="R8">
-        <v>-0.1740400493144989</v>
+        <v>-0.1813752949237823</v>
       </c>
       <c r="S8">
-        <v>-0.02369645610451698</v>
+        <v>-0.04600609838962555</v>
       </c>
       <c r="T8">
-        <v>0.003418326377868652</v>
+        <v>-0.01716599613428116</v>
       </c>
       <c r="U8">
-        <v>0.03132886067032814</v>
+        <v>0.03116602450609207</v>
       </c>
       <c r="V8">
-        <v>0.02302816323935986</v>
+        <v>-0.02036020532250404</v>
       </c>
       <c r="W8">
-        <v>0.04728732258081436</v>
+        <v>-0.001650587772019207</v>
       </c>
       <c r="X8">
-        <v>0.06682087481021881</v>
+        <v>0.04009649530053139</v>
       </c>
       <c r="Y8">
-        <v>-0.127613291144371</v>
+        <v>-0.09666715562343597</v>
       </c>
       <c r="Z8">
-        <v>-0.3474119603633881</v>
+        <v>-0.3389324843883514</v>
       </c>
       <c r="AA8">
-        <v>-0.1076710298657417</v>
+        <v>-0.1096963956952095</v>
       </c>
       <c r="AB8">
-        <v>-0.003132306970655918</v>
+        <v>0.02486596070230007</v>
       </c>
       <c r="AC8">
-        <v>-0.01566077396273613</v>
+        <v>0.04664796963334084</v>
       </c>
       <c r="AD8">
-        <v>-0.05412923917174339</v>
+        <v>-0.05665784701704979</v>
       </c>
       <c r="AE8">
-        <v>-0.04530131444334984</v>
+        <v>-0.02027748711407185</v>
       </c>
       <c r="AF8">
-        <v>0.1127049326896667</v>
+        <v>0.09066785871982574</v>
       </c>
       <c r="AG8">
-        <v>-0.1770573258399963</v>
+        <v>-0.1837476044893265</v>
       </c>
       <c r="AH8">
-        <v>0.01863021962344646</v>
+        <v>0.00493583083152771</v>
       </c>
       <c r="AI8">
-        <v>0.07475569844245911</v>
+        <v>0.05147730931639671</v>
       </c>
       <c r="AJ8">
-        <v>0.1451102495193481</v>
+        <v>0.1355338245630264</v>
       </c>
       <c r="AK8">
-        <v>-0.04623739048838615</v>
+        <v>-0.03929951041936874</v>
       </c>
       <c r="AL8">
-        <v>-0.1206908226013184</v>
+        <v>-0.1136623397469521</v>
       </c>
       <c r="AM8">
-        <v>0.2021138072013855</v>
+        <v>0.2109731733798981</v>
       </c>
       <c r="AN8">
-        <v>0.0293918214738369</v>
+        <v>-0.005795578006654978</v>
       </c>
       <c r="AO8">
-        <v>-0.2849284410476685</v>
+        <v>-0.2853041887283325</v>
       </c>
       <c r="AP8">
-        <v>0.01378791779279709</v>
+        <v>0.04844106733798981</v>
       </c>
       <c r="AQ8">
-        <v>0.06842739880084991</v>
+        <v>0.04909130558371544</v>
       </c>
       <c r="AR8">
-        <v>0.2513004243373871</v>
+        <v>0.2696196734905243</v>
       </c>
       <c r="AS8">
-        <v>0.1654791682958603</v>
+        <v>0.1631957441568375</v>
       </c>
       <c r="AT8">
-        <v>0.01727319695055485</v>
+        <v>-0.01226086728274822</v>
       </c>
       <c r="AU8">
-        <v>-0.01062265038490295</v>
+        <v>0.005751450546085835</v>
       </c>
       <c r="AV8">
-        <v>-0.1081857457756996</v>
+        <v>-0.09896101057529449</v>
       </c>
       <c r="AW8">
-        <v>0.09285622835159302</v>
+        <v>0.1099640429019928</v>
       </c>
       <c r="AX8">
-        <v>-0.1728340983390808</v>
+        <v>-0.1745906472206116</v>
       </c>
       <c r="AY8">
-        <v>0.03313892334699631</v>
+        <v>0.04450586438179016</v>
       </c>
       <c r="AZ8">
-        <v>0.1581754386425018</v>
+        <v>0.207519456744194</v>
       </c>
       <c r="BA8">
-        <v>-0.02348692156374454</v>
+        <v>-0.002578886691480875</v>
       </c>
       <c r="BB8">
-        <v>0.0004183258861303329</v>
+        <v>0.03892185539007187</v>
       </c>
       <c r="BC8">
-        <v>0.007437586318701506</v>
+        <v>-0.02761613950133324</v>
       </c>
       <c r="BD8">
-        <v>-0.120085097849369</v>
+        <v>-0.0999198779463768</v>
       </c>
       <c r="BE8">
-        <v>0.04926195740699768</v>
+        <v>0.03596401214599609</v>
       </c>
       <c r="BF8">
-        <v>0.121321514248848</v>
+        <v>0.1539284139871597</v>
       </c>
       <c r="BG8">
-        <v>-0.1228307858109474</v>
+        <v>-0.1227239146828651</v>
       </c>
       <c r="BH8">
-        <v>-0.07000872492790222</v>
+        <v>-0.02601342275738716</v>
       </c>
       <c r="BI8">
-        <v>0.1037867739796638</v>
+        <v>0.1263718754053116</v>
       </c>
       <c r="BJ8">
-        <v>-0.1080210208892822</v>
+        <v>-0.1137693449854851</v>
       </c>
       <c r="BK8">
-        <v>-0.008811164647340775</v>
+        <v>-0.01823295466601849</v>
       </c>
       <c r="BL8">
-        <v>-0.1187373697757721</v>
+        <v>-0.1184723228216171</v>
       </c>
       <c r="BM8">
-        <v>0.1740245372056961</v>
+        <v>0.1388686746358871</v>
       </c>
       <c r="BN8">
-        <v>0.09693162888288498</v>
+        <v>0.1107518300414085</v>
       </c>
       <c r="BO8">
-        <v>-0.1150104850530624</v>
+        <v>-0.1055560559034348</v>
       </c>
       <c r="BP8">
-        <v>-0.2172606885433197</v>
+        <v>-0.2685141265392303</v>
       </c>
       <c r="BQ8">
-        <v>0.1201832145452499</v>
+        <v>0.1022521406412125</v>
       </c>
       <c r="BR8">
-        <v>-0.1253408938646317</v>
+        <v>-0.141192227602005</v>
       </c>
       <c r="BS8">
-        <v>-0.08956331759691238</v>
+        <v>-0.0827147513628006</v>
       </c>
       <c r="BT8">
-        <v>0.08042805641889572</v>
+        <v>0.06873840093612671</v>
       </c>
       <c r="BU8">
-        <v>-0.1589557081460953</v>
+        <v>-0.151495486497879</v>
       </c>
       <c r="BV8">
-        <v>-0.1848772764205933</v>
+        <v>-0.1839057207107544</v>
       </c>
       <c r="BW8">
-        <v>-0.2797412276268005</v>
+        <v>-0.2854498326778412</v>
       </c>
       <c r="BX8">
-        <v>-0.03093994222581387</v>
+        <v>0.01151258684694767</v>
       </c>
       <c r="BY8">
-        <v>0.3782337307929993</v>
+        <v>0.3707984089851379</v>
       </c>
       <c r="BZ8">
-        <v>0.1328251510858536</v>
+        <v>0.1327795833349228</v>
       </c>
       <c r="CA8">
-        <v>-0.09267484396696091</v>
+        <v>-0.1052423492074013</v>
       </c>
       <c r="CB8">
-        <v>0.07887215167284012</v>
+        <v>0.09439734369516373</v>
       </c>
       <c r="CC8">
-        <v>0.04224671795964241</v>
+        <v>0.009738377295434475</v>
       </c>
       <c r="CD8">
-        <v>-0.01915141008794308</v>
+        <v>-0.02412876486778259</v>
       </c>
       <c r="CE8">
-        <v>0.133646085858345</v>
+        <v>0.1377041041851044</v>
       </c>
       <c r="CF8">
-        <v>0.2090360224246979</v>
+        <v>0.1828488260507584</v>
       </c>
       <c r="CG8">
-        <v>-0.0335300974547863</v>
+        <v>-0.02994859963655472</v>
       </c>
       <c r="CH8">
-        <v>0.06504328548908234</v>
+        <v>0.06489042937755585</v>
       </c>
       <c r="CI8">
-        <v>-0.08652147650718689</v>
+        <v>-0.1055396199226379</v>
       </c>
       <c r="CJ8">
-        <v>0.06085603311657906</v>
+        <v>0.0715683177113533</v>
       </c>
       <c r="CK8">
-        <v>0.2107103019952774</v>
+        <v>0.2378057837486267</v>
       </c>
       <c r="CL8">
-        <v>-0.0206885039806366</v>
+        <v>-0.02942725643515587</v>
       </c>
       <c r="CM8">
-        <v>-0.06209882721304893</v>
+        <v>-0.0611535869538784</v>
       </c>
       <c r="CN8">
-        <v>0.1973030567169189</v>
+        <v>0.191415086388588</v>
       </c>
       <c r="CO8">
-        <v>-0.04191971942782402</v>
+        <v>-0.01981154084205627</v>
       </c>
       <c r="CP8">
-        <v>0.07221762090921402</v>
+        <v>0.068226657807827</v>
       </c>
       <c r="CQ8">
-        <v>0.02054470777511597</v>
+        <v>0.004803917370736599</v>
       </c>
       <c r="CR8">
-        <v>0.007598998956382275</v>
+        <v>0.06003869697451591</v>
       </c>
       <c r="CS8">
-        <v>-0.04182278364896774</v>
+        <v>-0.04623474925756454</v>
       </c>
       <c r="CT8">
-        <v>0.08180440217256546</v>
+        <v>0.07222272455692291</v>
       </c>
       <c r="CU8">
-        <v>-0.1559757143259048</v>
+        <v>-0.1623536646366119</v>
       </c>
       <c r="CV8">
-        <v>0.008200986310839653</v>
+        <v>0.005186718422919512</v>
       </c>
       <c r="CW8">
-        <v>0.04694991558790207</v>
+        <v>0.07760661840438843</v>
       </c>
       <c r="CX8">
-        <v>-0.02419954165816307</v>
+        <v>-0.0202229917049408</v>
       </c>
       <c r="CY8">
-        <v>-0.02092440985143185</v>
+        <v>-0.01207513175904751</v>
       </c>
       <c r="CZ8">
-        <v>0.1713343113660812</v>
+        <v>0.1500425338745117</v>
       </c>
       <c r="DA8">
-        <v>-0.1527748107910156</v>
+        <v>-0.1332419365644455</v>
       </c>
       <c r="DB8">
-        <v>0.1232478022575378</v>
+        <v>0.1648978292942047</v>
       </c>
       <c r="DC8">
-        <v>-0.02437003143131733</v>
+        <v>-0.007168124429881573</v>
       </c>
       <c r="DD8">
-        <v>0.01175691280514002</v>
+        <v>0.06595669686794281</v>
       </c>
       <c r="DE8">
-        <v>0.005389971192926168</v>
+        <v>0.01209232211112976</v>
       </c>
       <c r="DF8">
-        <v>0.009320257231593132</v>
+        <v>0.004054885823279619</v>
       </c>
       <c r="DG8">
-        <v>-0.08829215168952942</v>
+        <v>-0.07090487331151962</v>
       </c>
       <c r="DH8">
-        <v>-0.03294491022825241</v>
+        <v>-0.04037673026323318</v>
       </c>
       <c r="DI8">
-        <v>0.08357984572649002</v>
+        <v>0.1160532534122467</v>
       </c>
       <c r="DJ8">
-        <v>-0.2492959648370743</v>
+        <v>-0.2231838256120682</v>
       </c>
       <c r="DK8">
-        <v>0.1149957627058029</v>
+        <v>0.1546620875597</v>
       </c>
       <c r="DL8">
-        <v>0.1942115128040314</v>
+        <v>0.1936354786157608</v>
       </c>
       <c r="DM8">
-        <v>0.07969336211681366</v>
+        <v>0.09128890931606293</v>
       </c>
       <c r="DN8">
-        <v>0.1008641496300697</v>
+        <v>0.08536882698535919</v>
       </c>
       <c r="DO8">
-        <v>0.1672033965587616</v>
+        <v>0.1823276877403259</v>
       </c>
       <c r="DP8">
-        <v>0.07011076807975769</v>
+        <v>0.06180224195122719</v>
       </c>
       <c r="DQ8">
-        <v>0.01464248169213533</v>
+        <v>0.03167464584112167</v>
       </c>
       <c r="DR8">
-        <v>-0.03962429612874985</v>
+        <v>-0.05402781069278717</v>
       </c>
       <c r="DS8">
-        <v>-0.2785988748073578</v>
+        <v>-0.2520975172519684</v>
       </c>
       <c r="DT8">
-        <v>-0.02063694968819618</v>
+        <v>-0.01748262345790863</v>
       </c>
       <c r="DU8">
-        <v>0.08968442678451538</v>
+        <v>0.04678573831915855</v>
       </c>
       <c r="DV8">
-        <v>-0.01083553582429886</v>
+        <v>0.01917337998747826</v>
       </c>
       <c r="DW8">
-        <v>0.1365517228841782</v>
+        <v>0.09255805611610413</v>
       </c>
       <c r="DX8">
-        <v>0.01174549758434296</v>
+        <v>0.03277750313282013</v>
       </c>
       <c r="DY8" t="s">
         <v>4</v>
@@ -3530,2333 +3530,2333 @@
     </row>
     <row r="9" spans="1:129">
       <c r="A9">
-        <v>-0.1762138903141022</v>
+        <v>-0.06051668897271156</v>
       </c>
       <c r="B9">
-        <v>0.141680896282196</v>
+        <v>0.06055902317166328</v>
       </c>
       <c r="C9">
-        <v>0.02874770760536194</v>
+        <v>0.01867903396487236</v>
       </c>
       <c r="D9">
-        <v>-0.1261463165283203</v>
+        <v>-0.1302794218063354</v>
       </c>
       <c r="E9">
-        <v>-0.1825680881738663</v>
+        <v>-0.09873083233833313</v>
       </c>
       <c r="F9">
-        <v>-0.04545935988426208</v>
+        <v>-0.006062630098313093</v>
       </c>
       <c r="G9">
-        <v>-0.1135124787688255</v>
+        <v>-0.04989566653966904</v>
       </c>
       <c r="H9">
-        <v>-0.1380153149366379</v>
+        <v>-0.1147274225950241</v>
       </c>
       <c r="I9">
-        <v>0.2101780474185944</v>
+        <v>0.1444304585456848</v>
       </c>
       <c r="J9">
-        <v>-0.1101946905255318</v>
+        <v>-0.1759509593248367</v>
       </c>
       <c r="K9">
-        <v>0.1934342682361603</v>
+        <v>0.2189412415027618</v>
       </c>
       <c r="L9">
-        <v>-0.05141454190015793</v>
+        <v>-0.08617676794528961</v>
       </c>
       <c r="M9">
-        <v>-0.2428606450557709</v>
+        <v>-0.178284153342247</v>
       </c>
       <c r="N9">
-        <v>-0.07854139804840088</v>
+        <v>-0.072496697306633</v>
       </c>
       <c r="O9">
-        <v>-0.07711021602153778</v>
+        <v>-0.0164023544639349</v>
       </c>
       <c r="P9">
-        <v>0.2404826730489731</v>
+        <v>0.2215348184108734</v>
       </c>
       <c r="Q9">
-        <v>-0.2277267426252365</v>
+        <v>-0.2142770290374756</v>
       </c>
       <c r="R9">
-        <v>-0.1673870533704758</v>
+        <v>-0.1740400493144989</v>
       </c>
       <c r="S9">
-        <v>0.03828603774309158</v>
+        <v>-0.02369645610451698</v>
       </c>
       <c r="T9">
-        <v>-0.06095689162611961</v>
+        <v>0.003418326377868652</v>
       </c>
       <c r="U9">
-        <v>0.08461470901966095</v>
+        <v>0.03132886067032814</v>
       </c>
       <c r="V9">
-        <v>0.004196333233267069</v>
+        <v>0.02302816323935986</v>
       </c>
       <c r="W9">
-        <v>-0.0462312288582325</v>
+        <v>0.04728732258081436</v>
       </c>
       <c r="X9">
-        <v>0.05929305031895638</v>
+        <v>0.06682087481021881</v>
       </c>
       <c r="Y9">
-        <v>-0.1340978145599365</v>
+        <v>-0.127613291144371</v>
       </c>
       <c r="Z9">
-        <v>-0.3623939454555511</v>
+        <v>-0.3474119603633881</v>
       </c>
       <c r="AA9">
-        <v>-0.1340042650699615</v>
+        <v>-0.1076710298657417</v>
       </c>
       <c r="AB9">
-        <v>-0.07881081104278564</v>
+        <v>-0.003132306970655918</v>
       </c>
       <c r="AC9">
-        <v>-0.08674147725105286</v>
+        <v>-0.01566077396273613</v>
       </c>
       <c r="AD9">
-        <v>-0.08287795633077621</v>
+        <v>-0.05412923917174339</v>
       </c>
       <c r="AE9">
-        <v>0.007084882818162441</v>
+        <v>-0.04530131444334984</v>
       </c>
       <c r="AF9">
-        <v>0.04986830800771713</v>
+        <v>0.1127049326896667</v>
       </c>
       <c r="AG9">
-        <v>-0.1947986036539078</v>
+        <v>-0.1770573258399963</v>
       </c>
       <c r="AH9">
-        <v>-0.05111663043498993</v>
+        <v>0.01863021962344646</v>
       </c>
       <c r="AI9">
-        <v>0.03621076792478561</v>
+        <v>0.07475569844245911</v>
       </c>
       <c r="AJ9">
-        <v>0.1311065852642059</v>
+        <v>0.1451102495193481</v>
       </c>
       <c r="AK9">
-        <v>0.03232457861304283</v>
+        <v>-0.04623739048838615</v>
       </c>
       <c r="AL9">
-        <v>-0.05490466207265854</v>
+        <v>-0.1206908226013184</v>
       </c>
       <c r="AM9">
-        <v>0.06965135037899017</v>
+        <v>0.2021138072013855</v>
       </c>
       <c r="AN9">
-        <v>-0.07344351708889008</v>
+        <v>0.0293918214738369</v>
       </c>
       <c r="AO9">
-        <v>-0.2661701738834381</v>
+        <v>-0.2849284410476685</v>
       </c>
       <c r="AP9">
-        <v>-0.04967252537608147</v>
+        <v>0.01378791779279709</v>
       </c>
       <c r="AQ9">
-        <v>0.2039899230003357</v>
+        <v>0.06842739880084991</v>
       </c>
       <c r="AR9">
-        <v>0.2049107253551483</v>
+        <v>0.2513004243373871</v>
       </c>
       <c r="AS9">
-        <v>0.1806164979934692</v>
+        <v>0.1654791682958603</v>
       </c>
       <c r="AT9">
-        <v>-0.02657318115234375</v>
+        <v>0.01727319695055485</v>
       </c>
       <c r="AU9">
-        <v>-0.001639969646930695</v>
+        <v>-0.01062265038490295</v>
       </c>
       <c r="AV9">
-        <v>-0.1334625035524368</v>
+        <v>-0.1081857457756996</v>
       </c>
       <c r="AW9">
-        <v>0.1143726855516434</v>
+        <v>0.09285622835159302</v>
       </c>
       <c r="AX9">
-        <v>-0.1126263067126274</v>
+        <v>-0.1728340983390808</v>
       </c>
       <c r="AY9">
-        <v>-0.01127707585692406</v>
+        <v>0.03313892334699631</v>
       </c>
       <c r="AZ9">
-        <v>0.1464530527591705</v>
+        <v>0.1581754386425018</v>
       </c>
       <c r="BA9">
-        <v>0.02437909319996834</v>
+        <v>-0.02348692156374454</v>
       </c>
       <c r="BB9">
-        <v>0.07098674774169922</v>
+        <v>0.0004183258861303329</v>
       </c>
       <c r="BC9">
-        <v>0.03758362680673599</v>
+        <v>0.007437586318701506</v>
       </c>
       <c r="BD9">
-        <v>-0.1450646072626114</v>
+        <v>-0.120085097849369</v>
       </c>
       <c r="BE9">
-        <v>0.01688380353152752</v>
+        <v>0.04926195740699768</v>
       </c>
       <c r="BF9">
-        <v>0.1159214153885841</v>
+        <v>0.121321514248848</v>
       </c>
       <c r="BG9">
-        <v>-0.1524026393890381</v>
+        <v>-0.1228307858109474</v>
       </c>
       <c r="BH9">
-        <v>-0.02449856884777546</v>
+        <v>-0.07000872492790222</v>
       </c>
       <c r="BI9">
-        <v>0.1211612224578857</v>
+        <v>0.1037867739796638</v>
       </c>
       <c r="BJ9">
-        <v>-0.1201550140976906</v>
+        <v>-0.1080210208892822</v>
       </c>
       <c r="BK9">
-        <v>-0.08685670793056488</v>
+        <v>-0.008811164647340775</v>
       </c>
       <c r="BL9">
-        <v>-0.08874101936817169</v>
+        <v>-0.1187373697757721</v>
       </c>
       <c r="BM9">
-        <v>0.2179899364709854</v>
+        <v>0.1740245372056961</v>
       </c>
       <c r="BN9">
-        <v>0.07835367321968079</v>
+        <v>0.09693162888288498</v>
       </c>
       <c r="BO9">
-        <v>-0.1245083883404732</v>
+        <v>-0.1150104850530624</v>
       </c>
       <c r="BP9">
-        <v>-0.2917943596839905</v>
+        <v>-0.2172606885433197</v>
       </c>
       <c r="BQ9">
-        <v>0.1269060969352722</v>
+        <v>0.1201832145452499</v>
       </c>
       <c r="BR9">
-        <v>-0.1772799789905548</v>
+        <v>-0.1253408938646317</v>
       </c>
       <c r="BS9">
-        <v>-0.08151278644800186</v>
+        <v>-0.08956331759691238</v>
       </c>
       <c r="BT9">
-        <v>0.0817556232213974</v>
+        <v>0.08042805641889572</v>
       </c>
       <c r="BU9">
-        <v>-0.1644333153963089</v>
+        <v>-0.1589557081460953</v>
       </c>
       <c r="BV9">
-        <v>-0.195344090461731</v>
+        <v>-0.1848772764205933</v>
       </c>
       <c r="BW9">
-        <v>-0.3567996919155121</v>
+        <v>-0.2797412276268005</v>
       </c>
       <c r="BX9">
-        <v>-0.0005584452301263809</v>
+        <v>-0.03093994222581387</v>
       </c>
       <c r="BY9">
-        <v>0.3296558260917664</v>
+        <v>0.3782337307929993</v>
       </c>
       <c r="BZ9">
-        <v>0.103624701499939</v>
+        <v>0.1328251510858536</v>
       </c>
       <c r="CA9">
-        <v>-0.1278366446495056</v>
+        <v>-0.09267484396696091</v>
       </c>
       <c r="CB9">
-        <v>0.1223670244216919</v>
+        <v>0.07887215167284012</v>
       </c>
       <c r="CC9">
-        <v>-0.05241059139370918</v>
+        <v>0.04224671795964241</v>
       </c>
       <c r="CD9">
-        <v>-0.03268595039844513</v>
+        <v>-0.01915141008794308</v>
       </c>
       <c r="CE9">
-        <v>0.03876789659261703</v>
+        <v>0.133646085858345</v>
       </c>
       <c r="CF9">
-        <v>0.1734514683485031</v>
+        <v>0.2090360224246979</v>
       </c>
       <c r="CG9">
-        <v>0.07440030574798584</v>
+        <v>-0.0335300974547863</v>
       </c>
       <c r="CH9">
-        <v>0.09302572906017303</v>
+        <v>0.06504328548908234</v>
       </c>
       <c r="CI9">
-        <v>-0.121421754360199</v>
+        <v>-0.08652147650718689</v>
       </c>
       <c r="CJ9">
-        <v>0.04781811684370041</v>
+        <v>0.06085603311657906</v>
       </c>
       <c r="CK9">
-        <v>0.2137409001588821</v>
+        <v>0.2107103019952774</v>
       </c>
       <c r="CL9">
-        <v>-0.082729272544384</v>
+        <v>-0.0206885039806366</v>
       </c>
       <c r="CM9">
-        <v>0.05334711819887161</v>
+        <v>-0.06209882721304893</v>
       </c>
       <c r="CN9">
-        <v>0.2377335131168365</v>
+        <v>0.1973030567169189</v>
       </c>
       <c r="CO9">
-        <v>-0.03600767627358437</v>
+        <v>-0.04191971942782402</v>
       </c>
       <c r="CP9">
-        <v>0.06550394743680954</v>
+        <v>0.07221762090921402</v>
       </c>
       <c r="CQ9">
-        <v>-0.01839604787528515</v>
+        <v>0.02054470777511597</v>
       </c>
       <c r="CR9">
-        <v>0.106224812567234</v>
+        <v>0.007598998956382275</v>
       </c>
       <c r="CS9">
-        <v>-0.1521697491407394</v>
+        <v>-0.04182278364896774</v>
       </c>
       <c r="CT9">
-        <v>0.03266036882996559</v>
+        <v>0.08180440217256546</v>
       </c>
       <c r="CU9">
-        <v>-0.1507052630186081</v>
+        <v>-0.1559757143259048</v>
       </c>
       <c r="CV9">
-        <v>-0.0467061810195446</v>
+        <v>0.008200986310839653</v>
       </c>
       <c r="CW9">
-        <v>0.03800944983959198</v>
+        <v>0.04694991558790207</v>
       </c>
       <c r="CX9">
-        <v>-0.004937108606100082</v>
+        <v>-0.02419954165816307</v>
       </c>
       <c r="CY9">
-        <v>-0.01724065467715263</v>
+        <v>-0.02092440985143185</v>
       </c>
       <c r="CZ9">
-        <v>0.09424656629562378</v>
+        <v>0.1713343113660812</v>
       </c>
       <c r="DA9">
-        <v>-0.1285905092954636</v>
+        <v>-0.1527748107910156</v>
       </c>
       <c r="DB9">
-        <v>0.07863814383745193</v>
+        <v>0.1232478022575378</v>
       </c>
       <c r="DC9">
-        <v>0.0192947331815958</v>
+        <v>-0.02437003143131733</v>
       </c>
       <c r="DD9">
-        <v>0.04441343620419502</v>
+        <v>0.01175691280514002</v>
       </c>
       <c r="DE9">
-        <v>-0.1020740121603012</v>
+        <v>0.005389971192926168</v>
       </c>
       <c r="DF9">
-        <v>-0.03531504422426224</v>
+        <v>0.009320257231593132</v>
       </c>
       <c r="DG9">
-        <v>-0.06534410268068314</v>
+        <v>-0.08829215168952942</v>
       </c>
       <c r="DH9">
-        <v>-0.08712373673915863</v>
+        <v>-0.03294491022825241</v>
       </c>
       <c r="DI9">
-        <v>0.1603701859712601</v>
+        <v>0.08357984572649002</v>
       </c>
       <c r="DJ9">
-        <v>-0.2009997665882111</v>
+        <v>-0.2492959648370743</v>
       </c>
       <c r="DK9">
-        <v>0.2106229215860367</v>
+        <v>0.1149957627058029</v>
       </c>
       <c r="DL9">
-        <v>0.150908350944519</v>
+        <v>0.1942115128040314</v>
       </c>
       <c r="DM9">
-        <v>0.03956176340579987</v>
+        <v>0.07969336211681366</v>
       </c>
       <c r="DN9">
-        <v>0.1359191238880157</v>
+        <v>0.1008641496300697</v>
       </c>
       <c r="DO9">
-        <v>0.1260223686695099</v>
+        <v>0.1672033965587616</v>
       </c>
       <c r="DP9">
-        <v>0.07564821094274521</v>
+        <v>0.07011076807975769</v>
       </c>
       <c r="DQ9">
-        <v>-0.01336666382849216</v>
+        <v>0.01464248169213533</v>
       </c>
       <c r="DR9">
-        <v>-0.1060496792197227</v>
+        <v>-0.03962429612874985</v>
       </c>
       <c r="DS9">
-        <v>-0.1462249904870987</v>
+        <v>-0.2785988748073578</v>
       </c>
       <c r="DT9">
-        <v>0.0168656874448061</v>
+        <v>-0.02063694968819618</v>
       </c>
       <c r="DU9">
-        <v>0.03061286173760891</v>
+        <v>0.08968442678451538</v>
       </c>
       <c r="DV9">
-        <v>-0.08920475840568542</v>
+        <v>-0.01083553582429886</v>
       </c>
       <c r="DW9">
-        <v>0.05390391871333122</v>
+        <v>0.1365517228841782</v>
       </c>
       <c r="DX9">
-        <v>0.0118499118834734</v>
+        <v>0.01174549758434296</v>
       </c>
       <c r="DY9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:129">
       <c r="A10">
-        <v>-0.1474465131759644</v>
+        <v>-0.1762138903141022</v>
       </c>
       <c r="B10">
-        <v>0.07038006186485291</v>
+        <v>0.141680896282196</v>
       </c>
       <c r="C10">
-        <v>0.04160371795296669</v>
+        <v>0.02874770760536194</v>
       </c>
       <c r="D10">
-        <v>-0.06207156553864479</v>
+        <v>-0.1261463165283203</v>
       </c>
       <c r="E10">
-        <v>-0.09582536667585373</v>
+        <v>-0.1825680881738663</v>
       </c>
       <c r="F10">
-        <v>-0.06726504117250443</v>
+        <v>-0.04545935988426208</v>
       </c>
       <c r="G10">
-        <v>-0.03971418365836143</v>
+        <v>-0.1135124787688255</v>
       </c>
       <c r="H10">
-        <v>-0.1394493877887726</v>
+        <v>-0.1380153149366379</v>
       </c>
       <c r="I10">
-        <v>0.1525823324918747</v>
+        <v>0.2101780474185944</v>
       </c>
       <c r="J10">
-        <v>-0.1262962520122528</v>
+        <v>-0.1101946905255318</v>
       </c>
       <c r="K10">
-        <v>0.2445041984319687</v>
+        <v>0.1934342682361603</v>
       </c>
       <c r="L10">
-        <v>-0.05983031541109085</v>
+        <v>-0.05141454190015793</v>
       </c>
       <c r="M10">
-        <v>-0.2643933892250061</v>
+        <v>-0.2428606450557709</v>
       </c>
       <c r="N10">
-        <v>-0.1500777453184128</v>
+        <v>-0.07854139804840088</v>
       </c>
       <c r="O10">
-        <v>0.01511160470545292</v>
+        <v>-0.07711021602153778</v>
       </c>
       <c r="P10">
-        <v>0.2220114171504974</v>
+        <v>0.2404826730489731</v>
       </c>
       <c r="Q10">
-        <v>-0.2076947540044785</v>
+        <v>-0.2277267426252365</v>
       </c>
       <c r="R10">
-        <v>-0.1506138741970062</v>
+        <v>-0.1673870533704758</v>
       </c>
       <c r="S10">
-        <v>-0.03215013071894646</v>
+        <v>0.03828603774309158</v>
       </c>
       <c r="T10">
-        <v>0.04221934080123901</v>
+        <v>-0.06095689162611961</v>
       </c>
       <c r="U10">
-        <v>0.07963483780622482</v>
+        <v>0.08461470901966095</v>
       </c>
       <c r="V10">
-        <v>-0.01822713389992714</v>
+        <v>0.004196333233267069</v>
       </c>
       <c r="W10">
-        <v>0.0736650824546814</v>
+        <v>-0.0462312288582325</v>
       </c>
       <c r="X10">
-        <v>0.05428939685225487</v>
+        <v>0.05929305031895638</v>
       </c>
       <c r="Y10">
-        <v>-0.06239859014749527</v>
+        <v>-0.1340978145599365</v>
       </c>
       <c r="Z10">
-        <v>-0.4132702648639679</v>
+        <v>-0.3623939454555511</v>
       </c>
       <c r="AA10">
-        <v>-0.08726584911346436</v>
+        <v>-0.1340042650699615</v>
       </c>
       <c r="AB10">
-        <v>-0.0969068855047226</v>
+        <v>-0.07881081104278564</v>
       </c>
       <c r="AC10">
-        <v>0.04435006529092789</v>
+        <v>-0.08674147725105286</v>
       </c>
       <c r="AD10">
-        <v>-0.04044500738382339</v>
+        <v>-0.08287795633077621</v>
       </c>
       <c r="AE10">
-        <v>-0.07505354285240173</v>
+        <v>0.007084882818162441</v>
       </c>
       <c r="AF10">
-        <v>-0.01180171314626932</v>
+        <v>0.04986830800771713</v>
       </c>
       <c r="AG10">
-        <v>-0.2012660503387451</v>
+        <v>-0.1947986036539078</v>
       </c>
       <c r="AH10">
-        <v>-0.07085978984832764</v>
+        <v>-0.05111663043498993</v>
       </c>
       <c r="AI10">
-        <v>0.01739272102713585</v>
+        <v>0.03621076792478561</v>
       </c>
       <c r="AJ10">
-        <v>0.121519073843956</v>
+        <v>0.1311065852642059</v>
       </c>
       <c r="AK10">
-        <v>0.01222229190170765</v>
+        <v>0.03232457861304283</v>
       </c>
       <c r="AL10">
-        <v>-0.05311580002307892</v>
+        <v>-0.05490466207265854</v>
       </c>
       <c r="AM10">
-        <v>0.2441293150186539</v>
+        <v>0.06965135037899017</v>
       </c>
       <c r="AN10">
-        <v>-0.00712860282510519</v>
+        <v>-0.07344351708889008</v>
       </c>
       <c r="AO10">
-        <v>-0.2635467350482941</v>
+        <v>-0.2661701738834381</v>
       </c>
       <c r="AP10">
-        <v>-0.000434286892414093</v>
+        <v>-0.04967252537608147</v>
       </c>
       <c r="AQ10">
-        <v>0.007485100068151951</v>
+        <v>0.2039899230003357</v>
       </c>
       <c r="AR10">
-        <v>0.2698207497596741</v>
+        <v>0.2049107253551483</v>
       </c>
       <c r="AS10">
-        <v>0.1608728766441345</v>
+        <v>0.1806164979934692</v>
       </c>
       <c r="AT10">
-        <v>0.04813473299145699</v>
+        <v>-0.02657318115234375</v>
       </c>
       <c r="AU10">
-        <v>0.07086919993162155</v>
+        <v>-0.001639969646930695</v>
       </c>
       <c r="AV10">
-        <v>-0.1389955133199692</v>
+        <v>-0.1334625035524368</v>
       </c>
       <c r="AW10">
-        <v>0.1362008452415466</v>
+        <v>0.1143726855516434</v>
       </c>
       <c r="AX10">
-        <v>-0.1724119931459427</v>
+        <v>-0.1126263067126274</v>
       </c>
       <c r="AY10">
-        <v>0.1040714681148529</v>
+        <v>-0.01127707585692406</v>
       </c>
       <c r="AZ10">
-        <v>0.1170686706900597</v>
+        <v>0.1464530527591705</v>
       </c>
       <c r="BA10">
-        <v>0.1003596037626266</v>
+        <v>0.02437909319996834</v>
       </c>
       <c r="BB10">
-        <v>-0.03331442177295685</v>
+        <v>0.07098674774169922</v>
       </c>
       <c r="BC10">
-        <v>0.01114766485989094</v>
+        <v>0.03758362680673599</v>
       </c>
       <c r="BD10">
-        <v>-0.1680236309766769</v>
+        <v>-0.1450646072626114</v>
       </c>
       <c r="BE10">
-        <v>-0.03808856010437012</v>
+        <v>0.01688380353152752</v>
       </c>
       <c r="BF10">
-        <v>0.1062936782836914</v>
+        <v>0.1159214153885841</v>
       </c>
       <c r="BG10">
-        <v>-0.1619096100330353</v>
+        <v>-0.1524026393890381</v>
       </c>
       <c r="BH10">
-        <v>0.02912707813084126</v>
+        <v>-0.02449856884777546</v>
       </c>
       <c r="BI10">
-        <v>0.1311877369880676</v>
+        <v>0.1211612224578857</v>
       </c>
       <c r="BJ10">
-        <v>-0.0472572073340416</v>
+        <v>-0.1201550140976906</v>
       </c>
       <c r="BK10">
-        <v>-0.05450189113616943</v>
+        <v>-0.08685670793056488</v>
       </c>
       <c r="BL10">
-        <v>-0.1134418249130249</v>
+        <v>-0.08874101936817169</v>
       </c>
       <c r="BM10">
-        <v>0.2830475866794586</v>
+        <v>0.2179899364709854</v>
       </c>
       <c r="BN10">
-        <v>0.0372963510453701</v>
+        <v>0.07835367321968079</v>
       </c>
       <c r="BO10">
-        <v>-0.1526658236980438</v>
+        <v>-0.1245083883404732</v>
       </c>
       <c r="BP10">
-        <v>-0.1629815250635147</v>
+        <v>-0.2917943596839905</v>
       </c>
       <c r="BQ10">
-        <v>0.1607090085744858</v>
+        <v>0.1269060969352722</v>
       </c>
       <c r="BR10">
-        <v>-0.09321821480989456</v>
+        <v>-0.1772799789905548</v>
       </c>
       <c r="BS10">
-        <v>-0.02872385084629059</v>
+        <v>-0.08151278644800186</v>
       </c>
       <c r="BT10">
-        <v>0.01955560594797134</v>
+        <v>0.0817556232213974</v>
       </c>
       <c r="BU10">
-        <v>-0.213896706700325</v>
+        <v>-0.1644333153963089</v>
       </c>
       <c r="BV10">
-        <v>-0.1646625101566315</v>
+        <v>-0.195344090461731</v>
       </c>
       <c r="BW10">
-        <v>-0.3319779336452484</v>
+        <v>-0.3567996919155121</v>
       </c>
       <c r="BX10">
-        <v>0.04400960355997086</v>
+        <v>-0.0005584452301263809</v>
       </c>
       <c r="BY10">
-        <v>0.3918537795543671</v>
+        <v>0.3296558260917664</v>
       </c>
       <c r="BZ10">
-        <v>0.03593871742486954</v>
+        <v>0.103624701499939</v>
       </c>
       <c r="CA10">
-        <v>-0.1932493448257446</v>
+        <v>-0.1278366446495056</v>
       </c>
       <c r="CB10">
-        <v>0.0297548733651638</v>
+        <v>0.1223670244216919</v>
       </c>
       <c r="CC10">
-        <v>-0.08152838051319122</v>
+        <v>-0.05241059139370918</v>
       </c>
       <c r="CD10">
-        <v>-0.01787653565406799</v>
+        <v>-0.03268595039844513</v>
       </c>
       <c r="CE10">
-        <v>0.076125867664814</v>
+        <v>0.03876789659261703</v>
       </c>
       <c r="CF10">
-        <v>0.1919232308864594</v>
+        <v>0.1734514683485031</v>
       </c>
       <c r="CG10">
-        <v>0.04325459524989128</v>
+        <v>0.07440030574798584</v>
       </c>
       <c r="CH10">
-        <v>0.05758191645145416</v>
+        <v>0.09302572906017303</v>
       </c>
       <c r="CI10">
-        <v>-0.1117395013570786</v>
+        <v>-0.121421754360199</v>
       </c>
       <c r="CJ10">
-        <v>0.04525206983089447</v>
+        <v>0.04781811684370041</v>
       </c>
       <c r="CK10">
-        <v>0.1860920637845993</v>
+        <v>0.2137409001588821</v>
       </c>
       <c r="CL10">
-        <v>-0.1321432590484619</v>
+        <v>-0.082729272544384</v>
       </c>
       <c r="CM10">
-        <v>0.009567107073962688</v>
+        <v>0.05334711819887161</v>
       </c>
       <c r="CN10">
-        <v>0.20700803399086</v>
+        <v>0.2377335131168365</v>
       </c>
       <c r="CO10">
-        <v>-0.001992300152778625</v>
+        <v>-0.03600767627358437</v>
       </c>
       <c r="CP10">
-        <v>0.06469865888357162</v>
+        <v>0.06550394743680954</v>
       </c>
       <c r="CQ10">
-        <v>-0.02339802496135235</v>
+        <v>-0.01839604787528515</v>
       </c>
       <c r="CR10">
-        <v>0.01409586053341627</v>
+        <v>0.106224812567234</v>
       </c>
       <c r="CS10">
-        <v>-0.0902053564786911</v>
+        <v>-0.1521697491407394</v>
       </c>
       <c r="CT10">
-        <v>0.03986441344022751</v>
+        <v>0.03266036882996559</v>
       </c>
       <c r="CU10">
-        <v>-0.152631402015686</v>
+        <v>-0.1507052630186081</v>
       </c>
       <c r="CV10">
-        <v>-0.005563205573707819</v>
+        <v>-0.0467061810195446</v>
       </c>
       <c r="CW10">
-        <v>0.0662626177072525</v>
+        <v>0.03800944983959198</v>
       </c>
       <c r="CX10">
-        <v>-0.01572735980153084</v>
+        <v>-0.004937108606100082</v>
       </c>
       <c r="CY10">
-        <v>0.02568397670984268</v>
+        <v>-0.01724065467715263</v>
       </c>
       <c r="CZ10">
-        <v>0.113036222755909</v>
+        <v>0.09424656629562378</v>
       </c>
       <c r="DA10">
-        <v>-0.1552194654941559</v>
+        <v>-0.1285905092954636</v>
       </c>
       <c r="DB10">
-        <v>0.07935061305761337</v>
+        <v>0.07863814383745193</v>
       </c>
       <c r="DC10">
-        <v>0.005969613790512085</v>
+        <v>0.0192947331815958</v>
       </c>
       <c r="DD10">
-        <v>-0.001445388421416283</v>
+        <v>0.04441343620419502</v>
       </c>
       <c r="DE10">
-        <v>0.03181322664022446</v>
+        <v>-0.1020740121603012</v>
       </c>
       <c r="DF10">
-        <v>-0.01548314467072487</v>
+        <v>-0.03531504422426224</v>
       </c>
       <c r="DG10">
-        <v>-0.1294015198945999</v>
+        <v>-0.06534410268068314</v>
       </c>
       <c r="DH10">
-        <v>-0.1484773904085159</v>
+        <v>-0.08712373673915863</v>
       </c>
       <c r="DI10">
-        <v>0.1124087199568748</v>
+        <v>0.1603701859712601</v>
       </c>
       <c r="DJ10">
-        <v>-0.1869374215602875</v>
+        <v>-0.2009997665882111</v>
       </c>
       <c r="DK10">
-        <v>0.2191499471664429</v>
+        <v>0.2106229215860367</v>
       </c>
       <c r="DL10">
-        <v>0.2052126079797745</v>
+        <v>0.150908350944519</v>
       </c>
       <c r="DM10">
-        <v>0.08491485565900803</v>
+        <v>0.03956176340579987</v>
       </c>
       <c r="DN10">
-        <v>0.1124298572540283</v>
+        <v>0.1359191238880157</v>
       </c>
       <c r="DO10">
-        <v>0.08824633806943893</v>
+        <v>0.1260223686695099</v>
       </c>
       <c r="DP10">
-        <v>0.1011310666799545</v>
+        <v>0.07564821094274521</v>
       </c>
       <c r="DQ10">
-        <v>0.03338930010795593</v>
+        <v>-0.01336666382849216</v>
       </c>
       <c r="DR10">
-        <v>0.0463835671544075</v>
+        <v>-0.1060496792197227</v>
       </c>
       <c r="DS10">
-        <v>-0.224202424287796</v>
+        <v>-0.1462249904870987</v>
       </c>
       <c r="DT10">
-        <v>-0.0003187486727256328</v>
+        <v>0.0168656874448061</v>
       </c>
       <c r="DU10">
-        <v>0.107460543513298</v>
+        <v>0.03061286173760891</v>
       </c>
       <c r="DV10">
-        <v>0.0152578204870224</v>
+        <v>-0.08920475840568542</v>
       </c>
       <c r="DW10">
-        <v>0.09241092950105667</v>
+        <v>0.05390391871333122</v>
       </c>
       <c r="DX10">
-        <v>0.03313493728637695</v>
+        <v>0.0118499118834734</v>
       </c>
       <c r="DY10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:129">
       <c r="A11">
-        <v>-0.1194882467389107</v>
+        <v>-0.1474465131759644</v>
       </c>
       <c r="B11">
-        <v>0.03560980409383774</v>
+        <v>0.07038006186485291</v>
       </c>
       <c r="C11">
-        <v>0.08167050778865814</v>
+        <v>0.04160371795296669</v>
       </c>
       <c r="D11">
-        <v>-0.1042648032307625</v>
+        <v>-0.06207156553864479</v>
       </c>
       <c r="E11">
-        <v>-0.06647935509681702</v>
+        <v>-0.09582536667585373</v>
       </c>
       <c r="F11">
-        <v>-0.02718882262706757</v>
+        <v>-0.06726504117250443</v>
       </c>
       <c r="G11">
-        <v>-0.03930418193340302</v>
+        <v>-0.03971418365836143</v>
       </c>
       <c r="H11">
-        <v>-0.1049734503030777</v>
+        <v>-0.1394493877887726</v>
       </c>
       <c r="I11">
-        <v>0.1475421488285065</v>
+        <v>0.1525823324918747</v>
       </c>
       <c r="J11">
-        <v>-0.1705937534570694</v>
+        <v>-0.1262962520122528</v>
       </c>
       <c r="K11">
-        <v>0.2058188021183014</v>
+        <v>0.2445041984319687</v>
       </c>
       <c r="L11">
-        <v>-0.1051027998328209</v>
+        <v>-0.05983031541109085</v>
       </c>
       <c r="M11">
-        <v>-0.2437493503093719</v>
+        <v>-0.2643933892250061</v>
       </c>
       <c r="N11">
-        <v>-0.05131308361887932</v>
+        <v>-0.1500777453184128</v>
       </c>
       <c r="O11">
-        <v>-0.02305766940116882</v>
+        <v>0.01511160470545292</v>
       </c>
       <c r="P11">
-        <v>0.2226850837469101</v>
+        <v>0.2220114171504974</v>
       </c>
       <c r="Q11">
-        <v>-0.1470801681280136</v>
+        <v>-0.2076947540044785</v>
       </c>
       <c r="R11">
-        <v>-0.1532307714223862</v>
+        <v>-0.1506138741970062</v>
       </c>
       <c r="S11">
-        <v>-0.08422256261110306</v>
+        <v>-0.03215013071894646</v>
       </c>
       <c r="T11">
-        <v>-0.001069537363946438</v>
+        <v>0.04221934080123901</v>
       </c>
       <c r="U11">
-        <v>0.06348173320293427</v>
+        <v>0.07963483780622482</v>
       </c>
       <c r="V11">
-        <v>0.02389739453792572</v>
+        <v>-0.01822713389992714</v>
       </c>
       <c r="W11">
-        <v>-0.0322638712823391</v>
+        <v>0.0736650824546814</v>
       </c>
       <c r="X11">
-        <v>0.04141023382544518</v>
+        <v>0.05428939685225487</v>
       </c>
       <c r="Y11">
-        <v>-0.1794667094945908</v>
+        <v>-0.06239859014749527</v>
       </c>
       <c r="Z11">
-        <v>-0.3305402994155884</v>
+        <v>-0.4132702648639679</v>
       </c>
       <c r="AA11">
-        <v>-0.09153426438570023</v>
+        <v>-0.08726584911346436</v>
       </c>
       <c r="AB11">
-        <v>0.00181283988058567</v>
+        <v>-0.0969068855047226</v>
       </c>
       <c r="AC11">
-        <v>-0.08132271468639374</v>
+        <v>0.04435006529092789</v>
       </c>
       <c r="AD11">
-        <v>-0.03459836915135384</v>
+        <v>-0.04044500738382339</v>
       </c>
       <c r="AE11">
-        <v>-0.05271425843238831</v>
+        <v>-0.07505354285240173</v>
       </c>
       <c r="AF11">
-        <v>0.006120009813457727</v>
+        <v>-0.01180171314626932</v>
       </c>
       <c r="AG11">
-        <v>-0.2063739150762558</v>
+        <v>-0.2012660503387451</v>
       </c>
       <c r="AH11">
-        <v>-0.02642368152737617</v>
+        <v>-0.07085978984832764</v>
       </c>
       <c r="AI11">
-        <v>0.03845953568816185</v>
+        <v>0.01739272102713585</v>
       </c>
       <c r="AJ11">
-        <v>0.1182671561837196</v>
+        <v>0.121519073843956</v>
       </c>
       <c r="AK11">
-        <v>-0.0009908624924719334</v>
+        <v>0.01222229190170765</v>
       </c>
       <c r="AL11">
-        <v>-0.113746702671051</v>
+        <v>-0.05311580002307892</v>
       </c>
       <c r="AM11">
-        <v>0.138616070151329</v>
+        <v>0.2441293150186539</v>
       </c>
       <c r="AN11">
-        <v>0.01673506945371628</v>
+        <v>-0.00712860282510519</v>
       </c>
       <c r="AO11">
-        <v>-0.2712119221687317</v>
+        <v>-0.2635467350482941</v>
       </c>
       <c r="AP11">
-        <v>0.003827656619250774</v>
+        <v>-0.000434286892414093</v>
       </c>
       <c r="AQ11">
-        <v>0.09007328748703003</v>
+        <v>0.007485100068151951</v>
       </c>
       <c r="AR11">
-        <v>0.218762993812561</v>
+        <v>0.2698207497596741</v>
       </c>
       <c r="AS11">
-        <v>0.1477643549442291</v>
+        <v>0.1608728766441345</v>
       </c>
       <c r="AT11">
-        <v>-0.01985942758619785</v>
+        <v>0.04813473299145699</v>
       </c>
       <c r="AU11">
-        <v>-0.01329545117914677</v>
+        <v>0.07086919993162155</v>
       </c>
       <c r="AV11">
-        <v>-0.1319074481725693</v>
+        <v>-0.1389955133199692</v>
       </c>
       <c r="AW11">
-        <v>0.1558925956487656</v>
+        <v>0.1362008452415466</v>
       </c>
       <c r="AX11">
-        <v>-0.2116552591323853</v>
+        <v>-0.1724119931459427</v>
       </c>
       <c r="AY11">
-        <v>-0.05055032670497894</v>
+        <v>0.1040714681148529</v>
       </c>
       <c r="AZ11">
-        <v>0.1115022972226143</v>
+        <v>0.1170686706900597</v>
       </c>
       <c r="BA11">
-        <v>0.004222932737320662</v>
+        <v>0.1003596037626266</v>
       </c>
       <c r="BB11">
-        <v>0.09653857350349426</v>
+        <v>-0.03331442177295685</v>
       </c>
       <c r="BC11">
-        <v>0.03030635789036751</v>
+        <v>0.01114766485989094</v>
       </c>
       <c r="BD11">
-        <v>-0.09787563979625702</v>
+        <v>-0.1680236309766769</v>
       </c>
       <c r="BE11">
-        <v>0.05403584241867065</v>
+        <v>-0.03808856010437012</v>
       </c>
       <c r="BF11">
-        <v>0.1748317182064056</v>
+        <v>0.1062936782836914</v>
       </c>
       <c r="BG11">
-        <v>-0.08850908279418945</v>
+        <v>-0.1619096100330353</v>
       </c>
       <c r="BH11">
-        <v>-0.04103705286979675</v>
+        <v>0.02912707813084126</v>
       </c>
       <c r="BI11">
-        <v>0.06811054050922394</v>
+        <v>0.1311877369880676</v>
       </c>
       <c r="BJ11">
-        <v>-0.08795604109764099</v>
+        <v>-0.0472572073340416</v>
       </c>
       <c r="BK11">
-        <v>-0.0112228337675333</v>
+        <v>-0.05450189113616943</v>
       </c>
       <c r="BL11">
-        <v>-0.1368931233882904</v>
+        <v>-0.1134418249130249</v>
       </c>
       <c r="BM11">
-        <v>0.2180247157812119</v>
+        <v>0.2830475866794586</v>
       </c>
       <c r="BN11">
-        <v>0.03432859852910042</v>
+        <v>0.0372963510453701</v>
       </c>
       <c r="BO11">
-        <v>-0.1646260172128677</v>
+        <v>-0.1526658236980438</v>
       </c>
       <c r="BP11">
-        <v>-0.1725181937217712</v>
+        <v>-0.1629815250635147</v>
       </c>
       <c r="BQ11">
-        <v>0.07291156798601151</v>
+        <v>0.1607090085744858</v>
       </c>
       <c r="BR11">
-        <v>-0.1118357181549072</v>
+        <v>-0.09321821480989456</v>
       </c>
       <c r="BS11">
-        <v>-0.05645543709397316</v>
+        <v>-0.02872385084629059</v>
       </c>
       <c r="BT11">
-        <v>0.04211513698101044</v>
+        <v>0.01955560594797134</v>
       </c>
       <c r="BU11">
-        <v>-0.1309680044651031</v>
+        <v>-0.213896706700325</v>
       </c>
       <c r="BV11">
-        <v>-0.1620229631662369</v>
+        <v>-0.1646625101566315</v>
       </c>
       <c r="BW11">
-        <v>-0.3370821177959442</v>
+        <v>-0.3319779336452484</v>
       </c>
       <c r="BX11">
-        <v>0.006029007956385612</v>
+        <v>0.04400960355997086</v>
       </c>
       <c r="BY11">
-        <v>0.3155473470687866</v>
+        <v>0.3918537795543671</v>
       </c>
       <c r="BZ11">
-        <v>0.0992165133357048</v>
+        <v>0.03593871742486954</v>
       </c>
       <c r="CA11">
-        <v>-0.2068278789520264</v>
+        <v>-0.1932493448257446</v>
       </c>
       <c r="CB11">
-        <v>0.0590897761285305</v>
+        <v>0.0297548733651638</v>
       </c>
       <c r="CC11">
-        <v>-0.05148356407880783</v>
+        <v>-0.08152838051319122</v>
       </c>
       <c r="CD11">
-        <v>0.04797794669866562</v>
+        <v>-0.01787653565406799</v>
       </c>
       <c r="CE11">
-        <v>0.1208521202206612</v>
+        <v>0.076125867664814</v>
       </c>
       <c r="CF11">
-        <v>0.1650583446025848</v>
+        <v>0.1919232308864594</v>
       </c>
       <c r="CG11">
-        <v>0.0501113086938858</v>
+        <v>0.04325459524989128</v>
       </c>
       <c r="CH11">
-        <v>0.1050039082765579</v>
+        <v>0.05758191645145416</v>
       </c>
       <c r="CI11">
-        <v>-0.07023858278989792</v>
+        <v>-0.1117395013570786</v>
       </c>
       <c r="CJ11">
-        <v>-0.003284964710474014</v>
+        <v>0.04525206983089447</v>
       </c>
       <c r="CK11">
-        <v>0.2602916657924652</v>
+        <v>0.1860920637845993</v>
       </c>
       <c r="CL11">
-        <v>-0.0562129057943821</v>
+        <v>-0.1321432590484619</v>
       </c>
       <c r="CM11">
-        <v>0.05217908322811127</v>
+        <v>0.009567107073962688</v>
       </c>
       <c r="CN11">
-        <v>0.2571138143539429</v>
+        <v>0.20700803399086</v>
       </c>
       <c r="CO11">
-        <v>-0.006616209633648396</v>
+        <v>-0.001992300152778625</v>
       </c>
       <c r="CP11">
-        <v>0.07764341682195663</v>
+        <v>0.06469865888357162</v>
       </c>
       <c r="CQ11">
-        <v>0.01486514322459698</v>
+        <v>-0.02339802496135235</v>
       </c>
       <c r="CR11">
-        <v>0.03041985258460045</v>
+        <v>0.01409586053341627</v>
       </c>
       <c r="CS11">
-        <v>-0.1242413371801376</v>
+        <v>-0.0902053564786911</v>
       </c>
       <c r="CT11">
-        <v>0.003396333195269108</v>
+        <v>0.03986441344022751</v>
       </c>
       <c r="CU11">
-        <v>-0.1137252449989319</v>
+        <v>-0.152631402015686</v>
       </c>
       <c r="CV11">
-        <v>0.03361243382096291</v>
+        <v>-0.005563205573707819</v>
       </c>
       <c r="CW11">
-        <v>0.04602059721946716</v>
+        <v>0.0662626177072525</v>
       </c>
       <c r="CX11">
-        <v>-0.004418008029460907</v>
+        <v>-0.01572735980153084</v>
       </c>
       <c r="CY11">
-        <v>0.02666433155536652</v>
+        <v>0.02568397670984268</v>
       </c>
       <c r="CZ11">
-        <v>0.124189093708992</v>
+        <v>0.113036222755909</v>
       </c>
       <c r="DA11">
-        <v>-0.167566791176796</v>
+        <v>-0.1552194654941559</v>
       </c>
       <c r="DB11">
-        <v>0.1570668965578079</v>
+        <v>0.07935061305761337</v>
       </c>
       <c r="DC11">
-        <v>0.0006561209447681904</v>
+        <v>0.005969613790512085</v>
       </c>
       <c r="DD11">
-        <v>0.05065067484974861</v>
+        <v>-0.001445388421416283</v>
       </c>
       <c r="DE11">
-        <v>0.04426881670951843</v>
+        <v>0.03181322664022446</v>
       </c>
       <c r="DF11">
-        <v>0.01427914947271347</v>
+        <v>-0.01548314467072487</v>
       </c>
       <c r="DG11">
-        <v>-0.05229382216930389</v>
+        <v>-0.1294015198945999</v>
       </c>
       <c r="DH11">
-        <v>-0.08913237601518631</v>
+        <v>-0.1484773904085159</v>
       </c>
       <c r="DI11">
-        <v>0.07349283248186111</v>
+        <v>0.1124087199568748</v>
       </c>
       <c r="DJ11">
-        <v>-0.236148864030838</v>
+        <v>-0.1869374215602875</v>
       </c>
       <c r="DK11">
-        <v>0.1174449324607849</v>
+        <v>0.2191499471664429</v>
       </c>
       <c r="DL11">
-        <v>0.1771509796380997</v>
+        <v>0.2052126079797745</v>
       </c>
       <c r="DM11">
-        <v>0.02950306609272957</v>
+        <v>0.08491485565900803</v>
       </c>
       <c r="DN11">
-        <v>0.08801296353340149</v>
+        <v>0.1124298572540283</v>
       </c>
       <c r="DO11">
-        <v>0.1185266375541687</v>
+        <v>0.08824633806943893</v>
       </c>
       <c r="DP11">
-        <v>0.07537204027175903</v>
+        <v>0.1011310666799545</v>
       </c>
       <c r="DQ11">
-        <v>-0.06474928557872772</v>
+        <v>0.03338930010795593</v>
       </c>
       <c r="DR11">
-        <v>0.06768900156021118</v>
+        <v>0.0463835671544075</v>
       </c>
       <c r="DS11">
-        <v>-0.1897589564323425</v>
+        <v>-0.224202424287796</v>
       </c>
       <c r="DT11">
-        <v>-0.01424675341695547</v>
+        <v>-0.0003187486727256328</v>
       </c>
       <c r="DU11">
-        <v>0.08616016060113907</v>
+        <v>0.107460543513298</v>
       </c>
       <c r="DV11">
-        <v>-0.03645679354667664</v>
+        <v>0.0152578204870224</v>
       </c>
       <c r="DW11">
-        <v>0.06496103852987289</v>
+        <v>0.09241092950105667</v>
       </c>
       <c r="DX11">
-        <v>-0.01808702200651169</v>
+        <v>0.03313493728637695</v>
       </c>
       <c r="DY11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:129">
       <c r="A12">
-        <v>-0.1097566112875938</v>
+        <v>-0.1194882467389107</v>
       </c>
       <c r="B12">
-        <v>0.04236674308776855</v>
+        <v>0.03560980409383774</v>
       </c>
       <c r="C12">
-        <v>0.02533685229718685</v>
+        <v>0.08167050778865814</v>
       </c>
       <c r="D12">
-        <v>-0.01303918845951557</v>
+        <v>-0.1042648032307625</v>
       </c>
       <c r="E12">
-        <v>-0.0663098618388176</v>
+        <v>-0.06647935509681702</v>
       </c>
       <c r="F12">
-        <v>-0.05910323560237885</v>
+        <v>-0.02718882262706757</v>
       </c>
       <c r="G12">
-        <v>-0.03495168313384056</v>
+        <v>-0.03930418193340302</v>
       </c>
       <c r="H12">
-        <v>-0.08796408027410507</v>
+        <v>-0.1049734503030777</v>
       </c>
       <c r="I12">
-        <v>0.1185027882456779</v>
+        <v>0.1475421488285065</v>
       </c>
       <c r="J12">
-        <v>-0.103463426232338</v>
+        <v>-0.1705937534570694</v>
       </c>
       <c r="K12">
-        <v>0.2456485480070114</v>
+        <v>0.2058188021183014</v>
       </c>
       <c r="L12">
-        <v>-0.02869640290737152</v>
+        <v>-0.1051027998328209</v>
       </c>
       <c r="M12">
-        <v>-0.1989561766386032</v>
+        <v>-0.2437493503093719</v>
       </c>
       <c r="N12">
-        <v>-0.1062164530158043</v>
+        <v>-0.05131308361887932</v>
       </c>
       <c r="O12">
-        <v>0.03988704830408096</v>
+        <v>-0.02305766940116882</v>
       </c>
       <c r="P12">
-        <v>0.08883114159107208</v>
+        <v>0.2226850837469101</v>
       </c>
       <c r="Q12">
-        <v>-0.2327565997838974</v>
+        <v>-0.1470801681280136</v>
       </c>
       <c r="R12">
-        <v>-0.06437711417675018</v>
+        <v>-0.1532307714223862</v>
       </c>
       <c r="S12">
-        <v>-0.02401148714125156</v>
+        <v>-0.08422256261110306</v>
       </c>
       <c r="T12">
-        <v>-0.0288423802703619</v>
+        <v>-0.001069537363946438</v>
       </c>
       <c r="U12">
-        <v>0.05371870473027229</v>
+        <v>0.06348173320293427</v>
       </c>
       <c r="V12">
-        <v>-0.02729213610291481</v>
+        <v>0.02389739453792572</v>
       </c>
       <c r="W12">
-        <v>0.05409505218267441</v>
+        <v>-0.0322638712823391</v>
       </c>
       <c r="X12">
-        <v>0.04121971130371094</v>
+        <v>0.04141023382544518</v>
       </c>
       <c r="Y12">
-        <v>-0.1041938364505768</v>
+        <v>-0.1794667094945908</v>
       </c>
       <c r="Z12">
-        <v>-0.3696396350860596</v>
+        <v>-0.3305402994155884</v>
       </c>
       <c r="AA12">
-        <v>-0.1033496484160423</v>
+        <v>-0.09153426438570023</v>
       </c>
       <c r="AB12">
-        <v>-0.1874058991670609</v>
+        <v>0.00181283988058567</v>
       </c>
       <c r="AC12">
-        <v>0.03640036284923553</v>
+        <v>-0.08132271468639374</v>
       </c>
       <c r="AD12">
-        <v>-0.03675469011068344</v>
+        <v>-0.03459836915135384</v>
       </c>
       <c r="AE12">
-        <v>0.01215522550046444</v>
+        <v>-0.05271425843238831</v>
       </c>
       <c r="AF12">
-        <v>0.08960448205471039</v>
+        <v>0.006120009813457727</v>
       </c>
       <c r="AG12">
-        <v>-0.1816191226243973</v>
+        <v>-0.2063739150762558</v>
       </c>
       <c r="AH12">
-        <v>-0.02081049233675003</v>
+        <v>-0.02642368152737617</v>
       </c>
       <c r="AI12">
-        <v>-0.03017500974237919</v>
+        <v>0.03845953568816185</v>
       </c>
       <c r="AJ12">
-        <v>0.04925626516342163</v>
+        <v>0.1182671561837196</v>
       </c>
       <c r="AK12">
-        <v>-0.0424831360578537</v>
+        <v>-0.0009908624924719334</v>
       </c>
       <c r="AL12">
-        <v>0.04042772948741913</v>
+        <v>-0.113746702671051</v>
       </c>
       <c r="AM12">
-        <v>0.2362858355045319</v>
+        <v>0.138616070151329</v>
       </c>
       <c r="AN12">
-        <v>-0.02483954653143883</v>
+        <v>0.01673506945371628</v>
       </c>
       <c r="AO12">
-        <v>-0.1573734134435654</v>
+        <v>-0.2712119221687317</v>
       </c>
       <c r="AP12">
-        <v>-0.08580349385738373</v>
+        <v>0.003827656619250774</v>
       </c>
       <c r="AQ12">
-        <v>0.0202549546957016</v>
+        <v>0.09007328748703003</v>
       </c>
       <c r="AR12">
-        <v>0.2236519455909729</v>
+        <v>0.218762993812561</v>
       </c>
       <c r="AS12">
-        <v>0.1813636124134064</v>
+        <v>0.1477643549442291</v>
       </c>
       <c r="AT12">
-        <v>0.03457752242684364</v>
+        <v>-0.01985942758619785</v>
       </c>
       <c r="AU12">
-        <v>0.008165697567164898</v>
+        <v>-0.01329545117914677</v>
       </c>
       <c r="AV12">
-        <v>-0.001771437935531139</v>
+        <v>-0.1319074481725693</v>
       </c>
       <c r="AW12">
-        <v>0.09174418449401855</v>
+        <v>0.1558925956487656</v>
       </c>
       <c r="AX12">
-        <v>-0.2310142815113068</v>
+        <v>-0.2116552591323853</v>
       </c>
       <c r="AY12">
-        <v>0.03712880238890648</v>
+        <v>-0.05055032670497894</v>
       </c>
       <c r="AZ12">
-        <v>0.1317437291145325</v>
+        <v>0.1115022972226143</v>
       </c>
       <c r="BA12">
-        <v>0.1578182131052017</v>
+        <v>0.004222932737320662</v>
       </c>
       <c r="BB12">
-        <v>0.0436696782708168</v>
+        <v>0.09653857350349426</v>
       </c>
       <c r="BC12">
-        <v>0.03819882869720459</v>
+        <v>0.03030635789036751</v>
       </c>
       <c r="BD12">
-        <v>-0.161379337310791</v>
+        <v>-0.09787563979625702</v>
       </c>
       <c r="BE12">
-        <v>0.002559477463364601</v>
+        <v>0.05403584241867065</v>
       </c>
       <c r="BF12">
-        <v>0.03703763335943222</v>
+        <v>0.1748317182064056</v>
       </c>
       <c r="BG12">
-        <v>-0.1382551044225693</v>
+        <v>-0.08850908279418945</v>
       </c>
       <c r="BH12">
-        <v>0.05197273194789886</v>
+        <v>-0.04103705286979675</v>
       </c>
       <c r="BI12">
-        <v>0.001267040148377419</v>
+        <v>0.06811054050922394</v>
       </c>
       <c r="BJ12">
-        <v>-0.1259048283100128</v>
+        <v>-0.08795604109764099</v>
       </c>
       <c r="BK12">
-        <v>-0.05056628957390785</v>
+        <v>-0.0112228337675333</v>
       </c>
       <c r="BL12">
-        <v>-0.009774327278137207</v>
+        <v>-0.1368931233882904</v>
       </c>
       <c r="BM12">
-        <v>0.3054991960525513</v>
+        <v>0.2180247157812119</v>
       </c>
       <c r="BN12">
-        <v>0.08253422379493713</v>
+        <v>0.03432859852910042</v>
       </c>
       <c r="BO12">
-        <v>-0.1103087589144707</v>
+        <v>-0.1646260172128677</v>
       </c>
       <c r="BP12">
-        <v>-0.07237047702074051</v>
+        <v>-0.1725181937217712</v>
       </c>
       <c r="BQ12">
-        <v>0.1361833959817886</v>
+        <v>0.07291156798601151</v>
       </c>
       <c r="BR12">
-        <v>-0.1331329792737961</v>
+        <v>-0.1118357181549072</v>
       </c>
       <c r="BS12">
-        <v>-0.02644851431250572</v>
+        <v>-0.05645543709397316</v>
       </c>
       <c r="BT12">
-        <v>0.1004237979650497</v>
+        <v>0.04211513698101044</v>
       </c>
       <c r="BU12">
-        <v>-0.170074388384819</v>
+        <v>-0.1309680044651031</v>
       </c>
       <c r="BV12">
-        <v>-0.1688618361949921</v>
+        <v>-0.1620229631662369</v>
       </c>
       <c r="BW12">
-        <v>-0.2971115410327911</v>
+        <v>-0.3370821177959442</v>
       </c>
       <c r="BX12">
-        <v>-0.01231727376580238</v>
+        <v>0.006029007956385612</v>
       </c>
       <c r="BY12">
-        <v>0.380871057510376</v>
+        <v>0.3155473470687866</v>
       </c>
       <c r="BZ12">
-        <v>0.05739229917526245</v>
+        <v>0.0992165133357048</v>
       </c>
       <c r="CA12">
-        <v>-0.1382717341184616</v>
+        <v>-0.2068278789520264</v>
       </c>
       <c r="CB12">
-        <v>0.01447002403438091</v>
+        <v>0.0590897761285305</v>
       </c>
       <c r="CC12">
-        <v>-0.1236526593565941</v>
+        <v>-0.05148356407880783</v>
       </c>
       <c r="CD12">
-        <v>-0.07280422747135162</v>
+        <v>0.04797794669866562</v>
       </c>
       <c r="CE12">
-        <v>0.04904276877641678</v>
+        <v>0.1208521202206612</v>
       </c>
       <c r="CF12">
-        <v>0.09441576898097992</v>
+        <v>0.1650583446025848</v>
       </c>
       <c r="CG12">
-        <v>-0.08639594167470932</v>
+        <v>0.0501113086938858</v>
       </c>
       <c r="CH12">
-        <v>0.03322011977434158</v>
+        <v>0.1050039082765579</v>
       </c>
       <c r="CI12">
-        <v>-0.07824596017599106</v>
+        <v>-0.07023858278989792</v>
       </c>
       <c r="CJ12">
-        <v>0.08371530473232269</v>
+        <v>-0.003284964710474014</v>
       </c>
       <c r="CK12">
-        <v>0.1652441769838333</v>
+        <v>0.2602916657924652</v>
       </c>
       <c r="CL12">
-        <v>-0.0961138904094696</v>
+        <v>-0.0562129057943821</v>
       </c>
       <c r="CM12">
-        <v>-0.02439587935805321</v>
+        <v>0.05217908322811127</v>
       </c>
       <c r="CN12">
-        <v>0.1963680237531662</v>
+        <v>0.2571138143539429</v>
       </c>
       <c r="CO12">
-        <v>-0.0431525781750679</v>
+        <v>-0.006616209633648396</v>
       </c>
       <c r="CP12">
-        <v>0.1267110556364059</v>
+        <v>0.07764341682195663</v>
       </c>
       <c r="CQ12">
-        <v>-0.0008740848861634731</v>
+        <v>0.01486514322459698</v>
       </c>
       <c r="CR12">
-        <v>-0.0732300654053688</v>
+        <v>0.03041985258460045</v>
       </c>
       <c r="CS12">
-        <v>0.002084191888570786</v>
+        <v>-0.1242413371801376</v>
       </c>
       <c r="CT12">
-        <v>-0.05681347474455833</v>
+        <v>0.003396333195269108</v>
       </c>
       <c r="CU12">
-        <v>-0.1094002202153206</v>
+        <v>-0.1137252449989319</v>
       </c>
       <c r="CV12">
-        <v>-0.007844873704016209</v>
+        <v>0.03361243382096291</v>
       </c>
       <c r="CW12">
-        <v>0.04673733562231064</v>
+        <v>0.04602059721946716</v>
       </c>
       <c r="CX12">
-        <v>-0.08997058123350143</v>
+        <v>-0.004418008029460907</v>
       </c>
       <c r="CY12">
-        <v>-0.02095502242445946</v>
+        <v>0.02666433155536652</v>
       </c>
       <c r="CZ12">
-        <v>0.07397785782814026</v>
+        <v>0.124189093708992</v>
       </c>
       <c r="DA12">
-        <v>-0.1885553449392319</v>
+        <v>-0.167566791176796</v>
       </c>
       <c r="DB12">
-        <v>0.06284330040216446</v>
+        <v>0.1570668965578079</v>
       </c>
       <c r="DC12">
-        <v>0.0283603984862566</v>
+        <v>0.0006561209447681904</v>
       </c>
       <c r="DD12">
-        <v>-0.01248783431947231</v>
+        <v>0.05065067484974861</v>
       </c>
       <c r="DE12">
-        <v>0.008301252499222755</v>
+        <v>0.04426881670951843</v>
       </c>
       <c r="DF12">
-        <v>-0.01509120035916567</v>
+        <v>0.01427914947271347</v>
       </c>
       <c r="DG12">
-        <v>-0.1469253599643707</v>
+        <v>-0.05229382216930389</v>
       </c>
       <c r="DH12">
-        <v>-0.05098479986190796</v>
+        <v>-0.08913237601518631</v>
       </c>
       <c r="DI12">
-        <v>0.1813132762908936</v>
+        <v>0.07349283248186111</v>
       </c>
       <c r="DJ12">
-        <v>-0.2234586179256439</v>
+        <v>-0.236148864030838</v>
       </c>
       <c r="DK12">
-        <v>0.2095823287963867</v>
+        <v>0.1174449324607849</v>
       </c>
       <c r="DL12">
-        <v>0.1711749732494354</v>
+        <v>0.1771509796380997</v>
       </c>
       <c r="DM12">
-        <v>0.02092062681913376</v>
+        <v>0.02950306609272957</v>
       </c>
       <c r="DN12">
-        <v>0.1358625292778015</v>
+        <v>0.08801296353340149</v>
       </c>
       <c r="DO12">
-        <v>0.05054057762026787</v>
+        <v>0.1185266375541687</v>
       </c>
       <c r="DP12">
-        <v>0.02704564295709133</v>
+        <v>0.07537204027175903</v>
       </c>
       <c r="DQ12">
-        <v>-0.06905611604452133</v>
+        <v>-0.06474928557872772</v>
       </c>
       <c r="DR12">
-        <v>-0.05147533118724823</v>
+        <v>0.06768900156021118</v>
       </c>
       <c r="DS12">
-        <v>-0.1990967988967896</v>
+        <v>-0.1897589564323425</v>
       </c>
       <c r="DT12">
-        <v>0.02843451499938965</v>
+        <v>-0.01424675341695547</v>
       </c>
       <c r="DU12">
-        <v>0.1080772280693054</v>
+        <v>0.08616016060113907</v>
       </c>
       <c r="DV12">
-        <v>-0.01465092040598392</v>
+        <v>-0.03645679354667664</v>
       </c>
       <c r="DW12">
-        <v>0.04449230432510376</v>
+        <v>0.06496103852987289</v>
       </c>
       <c r="DX12">
-        <v>-0.02393559366464615</v>
+        <v>-0.01808702200651169</v>
       </c>
       <c r="DY12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:129">
       <c r="A13">
-        <v>-0.1373470723628998</v>
+        <v>-0.1097566112875938</v>
       </c>
       <c r="B13">
-        <v>0.1175187677145004</v>
+        <v>0.04236674308776855</v>
       </c>
       <c r="C13">
-        <v>0.02433144673705101</v>
+        <v>0.02533685229718685</v>
       </c>
       <c r="D13">
-        <v>-0.03700445964932442</v>
+        <v>-0.01303918845951557</v>
       </c>
       <c r="E13">
-        <v>-0.0824468657374382</v>
+        <v>-0.0663098618388176</v>
       </c>
       <c r="F13">
-        <v>-0.1366898715496063</v>
+        <v>-0.05910323560237885</v>
       </c>
       <c r="G13">
-        <v>0.01372680068016052</v>
+        <v>-0.03495168313384056</v>
       </c>
       <c r="H13">
-        <v>-0.1825860142707825</v>
+        <v>-0.08796408027410507</v>
       </c>
       <c r="I13">
-        <v>0.1746135950088501</v>
+        <v>0.1185027882456779</v>
       </c>
       <c r="J13">
-        <v>-0.08089055866003036</v>
+        <v>-0.103463426232338</v>
       </c>
       <c r="K13">
-        <v>0.2284921407699585</v>
+        <v>0.2456485480070114</v>
       </c>
       <c r="L13">
-        <v>-0.1098780035972595</v>
+        <v>-0.02869640290737152</v>
       </c>
       <c r="M13">
-        <v>-0.1863472014665604</v>
+        <v>-0.1989561766386032</v>
       </c>
       <c r="N13">
-        <v>-0.1418431997299194</v>
+        <v>-0.1062164530158043</v>
       </c>
       <c r="O13">
-        <v>0.02585586532950401</v>
+        <v>0.03988704830408096</v>
       </c>
       <c r="P13">
-        <v>0.1994174271821976</v>
+        <v>0.08883114159107208</v>
       </c>
       <c r="Q13">
-        <v>-0.2178867608308792</v>
+        <v>-0.2327565997838974</v>
       </c>
       <c r="R13">
-        <v>-0.1550352573394775</v>
+        <v>-0.06437711417675018</v>
       </c>
       <c r="S13">
-        <v>-0.04351654648780823</v>
+        <v>-0.02401148714125156</v>
       </c>
       <c r="T13">
-        <v>-0.02112967893481255</v>
+        <v>-0.0288423802703619</v>
       </c>
       <c r="U13">
-        <v>0.03840934485197067</v>
+        <v>0.05371870473027229</v>
       </c>
       <c r="V13">
-        <v>-0.0538850910961628</v>
+        <v>-0.02729213610291481</v>
       </c>
       <c r="W13">
-        <v>0.03547454997897148</v>
+        <v>0.05409505218267441</v>
       </c>
       <c r="X13">
-        <v>0.06615953892469406</v>
+        <v>0.04121971130371094</v>
       </c>
       <c r="Y13">
-        <v>-0.0259922593832016</v>
+        <v>-0.1041938364505768</v>
       </c>
       <c r="Z13">
-        <v>-0.3791142106056213</v>
+        <v>-0.3696396350860596</v>
       </c>
       <c r="AA13">
-        <v>-0.1312440931797028</v>
+        <v>-0.1033496484160423</v>
       </c>
       <c r="AB13">
-        <v>-0.1417225003242493</v>
+        <v>-0.1874058991670609</v>
       </c>
       <c r="AC13">
-        <v>0.01503781322389841</v>
+        <v>0.03640036284923553</v>
       </c>
       <c r="AD13">
-        <v>-0.07392721623182297</v>
+        <v>-0.03675469011068344</v>
       </c>
       <c r="AE13">
-        <v>-0.04252833127975464</v>
+        <v>0.01215522550046444</v>
       </c>
       <c r="AF13">
-        <v>0.0455147996544838</v>
+        <v>0.08960448205471039</v>
       </c>
       <c r="AG13">
-        <v>-0.2120517641305923</v>
+        <v>-0.1816191226243973</v>
       </c>
       <c r="AH13">
-        <v>-0.1470772922039032</v>
+        <v>-0.02081049233675003</v>
       </c>
       <c r="AI13">
-        <v>0.02937330305576324</v>
+        <v>-0.03017500974237919</v>
       </c>
       <c r="AJ13">
-        <v>0.07161159813404083</v>
+        <v>0.04925626516342163</v>
       </c>
       <c r="AK13">
-        <v>-0.0171616468578577</v>
+        <v>-0.0424831360578537</v>
       </c>
       <c r="AL13">
-        <v>-0.0417790375649929</v>
+        <v>0.04042772948741913</v>
       </c>
       <c r="AM13">
-        <v>0.1780151426792145</v>
+        <v>0.2362858355045319</v>
       </c>
       <c r="AN13">
-        <v>0.003286357969045639</v>
+        <v>-0.02483954653143883</v>
       </c>
       <c r="AO13">
-        <v>-0.1958712935447693</v>
+        <v>-0.1573734134435654</v>
       </c>
       <c r="AP13">
-        <v>-0.02101603895425797</v>
+        <v>-0.08580349385738373</v>
       </c>
       <c r="AQ13">
-        <v>0.04633712396025658</v>
+        <v>0.0202549546957016</v>
       </c>
       <c r="AR13">
-        <v>0.2882800996303558</v>
+        <v>0.2236519455909729</v>
       </c>
       <c r="AS13">
-        <v>0.2129534333944321</v>
+        <v>0.1813636124134064</v>
       </c>
       <c r="AT13">
-        <v>0.05108861997723579</v>
+        <v>0.03457752242684364</v>
       </c>
       <c r="AU13">
-        <v>0.01333974581211805</v>
+        <v>0.008165697567164898</v>
       </c>
       <c r="AV13">
-        <v>-0.1245365738868713</v>
+        <v>-0.001771437935531139</v>
       </c>
       <c r="AW13">
-        <v>0.1181423664093018</v>
+        <v>0.09174418449401855</v>
       </c>
       <c r="AX13">
-        <v>-0.1062396913766861</v>
+        <v>-0.2310142815113068</v>
       </c>
       <c r="AY13">
-        <v>0.02443055436015129</v>
+        <v>0.03712880238890648</v>
       </c>
       <c r="AZ13">
-        <v>0.1023722887039185</v>
+        <v>0.1317437291145325</v>
       </c>
       <c r="BA13">
-        <v>0.0736224427819252</v>
+        <v>0.1578182131052017</v>
       </c>
       <c r="BB13">
-        <v>0.03140281140804291</v>
+        <v>0.0436696782708168</v>
       </c>
       <c r="BC13">
-        <v>0.01729643903672695</v>
+        <v>0.03819882869720459</v>
       </c>
       <c r="BD13">
-        <v>-0.1649122536182404</v>
+        <v>-0.161379337310791</v>
       </c>
       <c r="BE13">
-        <v>0.05576366186141968</v>
+        <v>0.002559477463364601</v>
       </c>
       <c r="BF13">
-        <v>0.06545946002006531</v>
+        <v>0.03703763335943222</v>
       </c>
       <c r="BG13">
-        <v>-0.2004493921995163</v>
+        <v>-0.1382551044225693</v>
       </c>
       <c r="BH13">
-        <v>0.01644423417747021</v>
+        <v>0.05197273194789886</v>
       </c>
       <c r="BI13">
-        <v>0.181504875421524</v>
+        <v>0.001267040148377419</v>
       </c>
       <c r="BJ13">
-        <v>-0.1139463931322098</v>
+        <v>-0.1259048283100128</v>
       </c>
       <c r="BK13">
-        <v>-0.09486419707536697</v>
+        <v>-0.05056628957390785</v>
       </c>
       <c r="BL13">
-        <v>-0.04132680222392082</v>
+        <v>-0.009774327278137207</v>
       </c>
       <c r="BM13">
-        <v>0.3504645526409149</v>
+        <v>0.3054991960525513</v>
       </c>
       <c r="BN13">
-        <v>0.07270589470863342</v>
+        <v>0.08253422379493713</v>
       </c>
       <c r="BO13">
-        <v>-0.1048878505825996</v>
+        <v>-0.1103087589144707</v>
       </c>
       <c r="BP13">
-        <v>-0.1852885186672211</v>
+        <v>-0.07237047702074051</v>
       </c>
       <c r="BQ13">
-        <v>0.155378058552742</v>
+        <v>0.1361833959817886</v>
       </c>
       <c r="BR13">
-        <v>-0.1052324771881104</v>
+        <v>-0.1331329792737961</v>
       </c>
       <c r="BS13">
-        <v>-0.01939882338047028</v>
+        <v>-0.02644851431250572</v>
       </c>
       <c r="BT13">
-        <v>0.05623652040958405</v>
+        <v>0.1004237979650497</v>
       </c>
       <c r="BU13">
-        <v>-0.2099619209766388</v>
+        <v>-0.170074388384819</v>
       </c>
       <c r="BV13">
-        <v>-0.153569832444191</v>
+        <v>-0.1688618361949921</v>
       </c>
       <c r="BW13">
-        <v>-0.2988907098770142</v>
+        <v>-0.2971115410327911</v>
       </c>
       <c r="BX13">
-        <v>0.05237022414803505</v>
+        <v>-0.01231727376580238</v>
       </c>
       <c r="BY13">
-        <v>0.4114818572998047</v>
+        <v>0.380871057510376</v>
       </c>
       <c r="BZ13">
-        <v>0.02995981648564339</v>
+        <v>0.05739229917526245</v>
       </c>
       <c r="CA13">
-        <v>-0.1679066717624664</v>
+        <v>-0.1382717341184616</v>
       </c>
       <c r="CB13">
-        <v>0.024944718927145</v>
+        <v>0.01447002403438091</v>
       </c>
       <c r="CC13">
-        <v>-0.1155341863632202</v>
+        <v>-0.1236526593565941</v>
       </c>
       <c r="CD13">
-        <v>0.04390991851687431</v>
+        <v>-0.07280422747135162</v>
       </c>
       <c r="CE13">
-        <v>0.1296914517879486</v>
+        <v>0.04904276877641678</v>
       </c>
       <c r="CF13">
-        <v>0.1598944664001465</v>
+        <v>0.09441576898097992</v>
       </c>
       <c r="CG13">
-        <v>-0.002717632800340652</v>
+        <v>-0.08639594167470932</v>
       </c>
       <c r="CH13">
-        <v>0.03219183534383774</v>
+        <v>0.03322011977434158</v>
       </c>
       <c r="CI13">
-        <v>-0.1205308511853218</v>
+        <v>-0.07824596017599106</v>
       </c>
       <c r="CJ13">
-        <v>-0.01826799660921097</v>
+        <v>0.08371530473232269</v>
       </c>
       <c r="CK13">
-        <v>0.141698881983757</v>
+        <v>0.1652441769838333</v>
       </c>
       <c r="CL13">
-        <v>-0.05768335983157158</v>
+        <v>-0.0961138904094696</v>
       </c>
       <c r="CM13">
-        <v>-0.0540476031601429</v>
+        <v>-0.02439587935805321</v>
       </c>
       <c r="CN13">
-        <v>0.1800326406955719</v>
+        <v>0.1963680237531662</v>
       </c>
       <c r="CO13">
-        <v>-0.06885330379009247</v>
+        <v>-0.0431525781750679</v>
       </c>
       <c r="CP13">
-        <v>0.03899214416742325</v>
+        <v>0.1267110556364059</v>
       </c>
       <c r="CQ13">
-        <v>0.02764440514147282</v>
+        <v>-0.0008740848861634731</v>
       </c>
       <c r="CR13">
-        <v>-0.04873815923929214</v>
+        <v>-0.0732300654053688</v>
       </c>
       <c r="CS13">
-        <v>-0.06749650835990906</v>
+        <v>0.002084191888570786</v>
       </c>
       <c r="CT13">
-        <v>0.03523337468504906</v>
+        <v>-0.05681347474455833</v>
       </c>
       <c r="CU13">
-        <v>-0.1470293253660202</v>
+        <v>-0.1094002202153206</v>
       </c>
       <c r="CV13">
-        <v>-0.05504614859819412</v>
+        <v>-0.007844873704016209</v>
       </c>
       <c r="CW13">
-        <v>0.05099736526608467</v>
+        <v>0.04673733562231064</v>
       </c>
       <c r="CX13">
-        <v>-0.06807553768157959</v>
+        <v>-0.08997058123350143</v>
       </c>
       <c r="CY13">
-        <v>-0.0290378425270319</v>
+        <v>-0.02095502242445946</v>
       </c>
       <c r="CZ13">
-        <v>0.110135093331337</v>
+        <v>0.07397785782814026</v>
       </c>
       <c r="DA13">
-        <v>-0.1445858478546143</v>
+        <v>-0.1885553449392319</v>
       </c>
       <c r="DB13">
-        <v>0.04081092402338982</v>
+        <v>0.06284330040216446</v>
       </c>
       <c r="DC13">
-        <v>0.004012926481664181</v>
+        <v>0.0283603984862566</v>
       </c>
       <c r="DD13">
-        <v>0.05769318342208862</v>
+        <v>-0.01248783431947231</v>
       </c>
       <c r="DE13">
-        <v>-0.03490512818098068</v>
+        <v>0.008301252499222755</v>
       </c>
       <c r="DF13">
-        <v>-0.05600437521934509</v>
+        <v>-0.01509120035916567</v>
       </c>
       <c r="DG13">
-        <v>-0.1034399718046188</v>
+        <v>-0.1469253599643707</v>
       </c>
       <c r="DH13">
-        <v>-0.08937322348356247</v>
+        <v>-0.05098479986190796</v>
       </c>
       <c r="DI13">
-        <v>0.1204940602183342</v>
+        <v>0.1813132762908936</v>
       </c>
       <c r="DJ13">
-        <v>-0.2558624148368835</v>
+        <v>-0.2234586179256439</v>
       </c>
       <c r="DK13">
-        <v>0.239133208990097</v>
+        <v>0.2095823287963867</v>
       </c>
       <c r="DL13">
-        <v>0.1797846257686615</v>
+        <v>0.1711749732494354</v>
       </c>
       <c r="DM13">
-        <v>0.0426279753446579</v>
+        <v>0.02092062681913376</v>
       </c>
       <c r="DN13">
-        <v>0.1000974327325821</v>
+        <v>0.1358625292778015</v>
       </c>
       <c r="DO13">
-        <v>0.03998677805066109</v>
+        <v>0.05054057762026787</v>
       </c>
       <c r="DP13">
-        <v>0.09538851678371429</v>
+        <v>0.02704564295709133</v>
       </c>
       <c r="DQ13">
-        <v>-0.03222765401005745</v>
+        <v>-0.06905611604452133</v>
       </c>
       <c r="DR13">
-        <v>0.0149074150249362</v>
+        <v>-0.05147533118724823</v>
       </c>
       <c r="DS13">
-        <v>-0.2049212157726288</v>
+        <v>-0.1990967988967896</v>
       </c>
       <c r="DT13">
-        <v>0.05720324069261551</v>
+        <v>0.02843451499938965</v>
       </c>
       <c r="DU13">
-        <v>0.1131401807069778</v>
+        <v>0.1080772280693054</v>
       </c>
       <c r="DV13">
-        <v>0.01620335131883621</v>
+        <v>-0.01465092040598392</v>
       </c>
       <c r="DW13">
-        <v>0.08765076845884323</v>
+        <v>0.04449230432510376</v>
       </c>
       <c r="DX13">
-        <v>-0.009138760156929493</v>
+        <v>-0.02393559366464615</v>
       </c>
       <c r="DY13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:129">
       <c r="A14">
-        <v>-0.08409734815359116</v>
+        <v>-0.1373470723628998</v>
       </c>
       <c r="B14">
-        <v>0.05838051065802574</v>
+        <v>0.1175187677145004</v>
       </c>
       <c r="C14">
-        <v>0.04269765317440033</v>
+        <v>0.02433144673705101</v>
       </c>
       <c r="D14">
-        <v>-0.0171088557690382</v>
+        <v>-0.03700445964932442</v>
       </c>
       <c r="E14">
-        <v>-0.08662630617618561</v>
+        <v>-0.0824468657374382</v>
       </c>
       <c r="F14">
-        <v>-0.03267819806933403</v>
+        <v>-0.1366898715496063</v>
       </c>
       <c r="G14">
-        <v>-0.02051868289709091</v>
+        <v>0.01372680068016052</v>
       </c>
       <c r="H14">
-        <v>-0.1695716977119446</v>
+        <v>-0.1825860142707825</v>
       </c>
       <c r="I14">
-        <v>0.1376171410083771</v>
+        <v>0.1746135950088501</v>
       </c>
       <c r="J14">
-        <v>-0.1126255020499229</v>
+        <v>-0.08089055866003036</v>
       </c>
       <c r="K14">
-        <v>0.2855627536773682</v>
+        <v>0.2284921407699585</v>
       </c>
       <c r="L14">
-        <v>-0.05511223152279854</v>
+        <v>-0.1098780035972595</v>
       </c>
       <c r="M14">
-        <v>-0.216542586684227</v>
+        <v>-0.1863472014665604</v>
       </c>
       <c r="N14">
-        <v>-0.1576703190803528</v>
+        <v>-0.1418431997299194</v>
       </c>
       <c r="O14">
-        <v>-0.009443594142794609</v>
+        <v>0.02585586532950401</v>
       </c>
       <c r="P14">
-        <v>0.1541889011859894</v>
+        <v>0.1994174271821976</v>
       </c>
       <c r="Q14">
-        <v>-0.1796388775110245</v>
+        <v>-0.2178867608308792</v>
       </c>
       <c r="R14">
-        <v>-0.1664226353168488</v>
+        <v>-0.1550352573394775</v>
       </c>
       <c r="S14">
-        <v>-0.04118309170007706</v>
+        <v>-0.04351654648780823</v>
       </c>
       <c r="T14">
-        <v>0.007127217948436737</v>
+        <v>-0.02112967893481255</v>
       </c>
       <c r="U14">
-        <v>0.05840375646948814</v>
+        <v>0.03840934485197067</v>
       </c>
       <c r="V14">
-        <v>-0.1092510223388672</v>
+        <v>-0.0538850910961628</v>
       </c>
       <c r="W14">
-        <v>0.07687286287546158</v>
+        <v>0.03547454997897148</v>
       </c>
       <c r="X14">
-        <v>0.02997951582074165</v>
+        <v>0.06615953892469406</v>
       </c>
       <c r="Y14">
-        <v>-0.09073636680841446</v>
+        <v>-0.0259922593832016</v>
       </c>
       <c r="Z14">
-        <v>-0.3605009615421295</v>
+        <v>-0.3791142106056213</v>
       </c>
       <c r="AA14">
-        <v>-0.1325456202030182</v>
+        <v>-0.1312440931797028</v>
       </c>
       <c r="AB14">
-        <v>-0.1226787567138672</v>
+        <v>-0.1417225003242493</v>
       </c>
       <c r="AC14">
-        <v>0.03217307105660439</v>
+        <v>0.01503781322389841</v>
       </c>
       <c r="AD14">
-        <v>-0.01906261406838894</v>
+        <v>-0.07392721623182297</v>
       </c>
       <c r="AE14">
-        <v>-0.02081920579075813</v>
+        <v>-0.04252833127975464</v>
       </c>
       <c r="AF14">
-        <v>-0.01297386921942234</v>
+        <v>0.0455147996544838</v>
       </c>
       <c r="AG14">
-        <v>-0.1809284090995789</v>
+        <v>-0.2120517641305923</v>
       </c>
       <c r="AH14">
-        <v>-0.08294305950403214</v>
+        <v>-0.1470772922039032</v>
       </c>
       <c r="AI14">
-        <v>0.002200200222432613</v>
+        <v>0.02937330305576324</v>
       </c>
       <c r="AJ14">
-        <v>0.058806411921978</v>
+        <v>0.07161159813404083</v>
       </c>
       <c r="AK14">
-        <v>-0.02184430882334709</v>
+        <v>-0.0171616468578577</v>
       </c>
       <c r="AL14">
-        <v>-0.08468309044837952</v>
+        <v>-0.0417790375649929</v>
       </c>
       <c r="AM14">
-        <v>0.2202101647853851</v>
+        <v>0.1780151426792145</v>
       </c>
       <c r="AN14">
-        <v>-0.03381626307964325</v>
+        <v>0.003286357969045639</v>
       </c>
       <c r="AO14">
-        <v>-0.2104168236255646</v>
+        <v>-0.1958712935447693</v>
       </c>
       <c r="AP14">
-        <v>-0.00860352348536253</v>
+        <v>-0.02101603895425797</v>
       </c>
       <c r="AQ14">
-        <v>0.04084722697734833</v>
+        <v>0.04633712396025658</v>
       </c>
       <c r="AR14">
-        <v>0.1888896971940994</v>
+        <v>0.2882800996303558</v>
       </c>
       <c r="AS14">
-        <v>0.1870542615652084</v>
+        <v>0.2129534333944321</v>
       </c>
       <c r="AT14">
-        <v>0.1098941564559937</v>
+        <v>0.05108861997723579</v>
       </c>
       <c r="AU14">
-        <v>0.04491021484136581</v>
+        <v>0.01333974581211805</v>
       </c>
       <c r="AV14">
-        <v>-0.1063429489731789</v>
+        <v>-0.1245365738868713</v>
       </c>
       <c r="AW14">
-        <v>0.1202475428581238</v>
+        <v>0.1181423664093018</v>
       </c>
       <c r="AX14">
-        <v>-0.1675442755222321</v>
+        <v>-0.1062396913766861</v>
       </c>
       <c r="AY14">
-        <v>0.04482690244913101</v>
+        <v>0.02443055436015129</v>
       </c>
       <c r="AZ14">
-        <v>0.1215085908770561</v>
+        <v>0.1023722887039185</v>
       </c>
       <c r="BA14">
-        <v>0.08886278420686722</v>
+        <v>0.0736224427819252</v>
       </c>
       <c r="BB14">
-        <v>0.01264304015785456</v>
+        <v>0.03140281140804291</v>
       </c>
       <c r="BC14">
-        <v>0.004304983653128147</v>
+        <v>0.01729643903672695</v>
       </c>
       <c r="BD14">
-        <v>-0.1545955389738083</v>
+        <v>-0.1649122536182404</v>
       </c>
       <c r="BE14">
-        <v>0.07960426062345505</v>
+        <v>0.05576366186141968</v>
       </c>
       <c r="BF14">
-        <v>0.07286147773265839</v>
+        <v>0.06545946002006531</v>
       </c>
       <c r="BG14">
-        <v>-0.132561057806015</v>
+        <v>-0.2004493921995163</v>
       </c>
       <c r="BH14">
-        <v>-0.02178343199193478</v>
+        <v>0.01644423417747021</v>
       </c>
       <c r="BI14">
-        <v>0.096123106777668</v>
+        <v>0.181504875421524</v>
       </c>
       <c r="BJ14">
-        <v>-0.1072172373533249</v>
+        <v>-0.1139463931322098</v>
       </c>
       <c r="BK14">
-        <v>-0.023204131051898</v>
+        <v>-0.09486419707536697</v>
       </c>
       <c r="BL14">
-        <v>-0.01113542914390564</v>
+        <v>-0.04132680222392082</v>
       </c>
       <c r="BM14">
-        <v>0.2781078219413757</v>
+        <v>0.3504645526409149</v>
       </c>
       <c r="BN14">
-        <v>0.07144946604967117</v>
+        <v>0.07270589470863342</v>
       </c>
       <c r="BO14">
-        <v>-0.08485057950019836</v>
+        <v>-0.1048878505825996</v>
       </c>
       <c r="BP14">
-        <v>-0.1701130867004395</v>
+        <v>-0.1852885186672211</v>
       </c>
       <c r="BQ14">
-        <v>0.1286076605319977</v>
+        <v>0.155378058552742</v>
       </c>
       <c r="BR14">
-        <v>-0.1174793839454651</v>
+        <v>-0.1052324771881104</v>
       </c>
       <c r="BS14">
-        <v>-0.05136406421661377</v>
+        <v>-0.01939882338047028</v>
       </c>
       <c r="BT14">
-        <v>0.077271968126297</v>
+        <v>0.05623652040958405</v>
       </c>
       <c r="BU14">
-        <v>-0.1955770552158356</v>
+        <v>-0.2099619209766388</v>
       </c>
       <c r="BV14">
-        <v>-0.1261355131864548</v>
+        <v>-0.153569832444191</v>
       </c>
       <c r="BW14">
-        <v>-0.3169342875480652</v>
+        <v>-0.2988907098770142</v>
       </c>
       <c r="BX14">
-        <v>0.02022882737219334</v>
+        <v>0.05237022414803505</v>
       </c>
       <c r="BY14">
-        <v>0.5025414824485779</v>
+        <v>0.4114818572998047</v>
       </c>
       <c r="BZ14">
-        <v>0.0394844226539135</v>
+        <v>0.02995981648564339</v>
       </c>
       <c r="CA14">
-        <v>-0.1251004636287689</v>
+        <v>-0.1679066717624664</v>
       </c>
       <c r="CB14">
-        <v>0.00905128289014101</v>
+        <v>0.024944718927145</v>
       </c>
       <c r="CC14">
-        <v>-0.1137064248323441</v>
+        <v>-0.1155341863632202</v>
       </c>
       <c r="CD14">
-        <v>0.03319220989942551</v>
+        <v>0.04390991851687431</v>
       </c>
       <c r="CE14">
-        <v>0.1101124808192253</v>
+        <v>0.1296914517879486</v>
       </c>
       <c r="CF14">
-        <v>0.1068554520606995</v>
+        <v>0.1598944664001465</v>
       </c>
       <c r="CG14">
-        <v>-0.0271815937012434</v>
+        <v>-0.002717632800340652</v>
       </c>
       <c r="CH14">
-        <v>-0.07004415988922119</v>
+        <v>0.03219183534383774</v>
       </c>
       <c r="CI14">
-        <v>-0.1870099455118179</v>
+        <v>-0.1205308511853218</v>
       </c>
       <c r="CJ14">
-        <v>-0.0588110014796257</v>
+        <v>-0.01826799660921097</v>
       </c>
       <c r="CK14">
-        <v>0.1964121311903</v>
+        <v>0.141698881983757</v>
       </c>
       <c r="CL14">
-        <v>-0.09363199770450592</v>
+        <v>-0.05768335983157158</v>
       </c>
       <c r="CM14">
-        <v>-0.04822356253862381</v>
+        <v>-0.0540476031601429</v>
       </c>
       <c r="CN14">
-        <v>0.13015416264534</v>
+        <v>0.1800326406955719</v>
       </c>
       <c r="CO14">
-        <v>-0.02852555923163891</v>
+        <v>-0.06885330379009247</v>
       </c>
       <c r="CP14">
-        <v>0.08070982992649078</v>
+        <v>0.03899214416742325</v>
       </c>
       <c r="CQ14">
-        <v>0.02172097191214561</v>
+        <v>0.02764440514147282</v>
       </c>
       <c r="CR14">
-        <v>0.0115367891266942</v>
+        <v>-0.04873815923929214</v>
       </c>
       <c r="CS14">
-        <v>-0.08770840615034103</v>
+        <v>-0.06749650835990906</v>
       </c>
       <c r="CT14">
-        <v>0.08281946182250977</v>
+        <v>0.03523337468504906</v>
       </c>
       <c r="CU14">
-        <v>-0.06792494654655457</v>
+        <v>-0.1470293253660202</v>
       </c>
       <c r="CV14">
-        <v>-0.01050578337162733</v>
+        <v>-0.05504614859819412</v>
       </c>
       <c r="CW14">
-        <v>0.05710768327116966</v>
+        <v>0.05099736526608467</v>
       </c>
       <c r="CX14">
-        <v>-0.01025266572833061</v>
+        <v>-0.06807553768157959</v>
       </c>
       <c r="CY14">
-        <v>0.005207784939557314</v>
+        <v>-0.0290378425270319</v>
       </c>
       <c r="CZ14">
-        <v>0.07584322988986969</v>
+        <v>0.110135093331337</v>
       </c>
       <c r="DA14">
-        <v>-0.1616050153970718</v>
+        <v>-0.1445858478546143</v>
       </c>
       <c r="DB14">
-        <v>0.03537089750170708</v>
+        <v>0.04081092402338982</v>
       </c>
       <c r="DC14">
-        <v>-0.03263285011053085</v>
+        <v>0.004012926481664181</v>
       </c>
       <c r="DD14">
-        <v>0.01283247862011194</v>
+        <v>0.05769318342208862</v>
       </c>
       <c r="DE14">
-        <v>0.04290348663926125</v>
+        <v>-0.03490512818098068</v>
       </c>
       <c r="DF14">
-        <v>-0.03838145732879639</v>
+        <v>-0.05600437521934509</v>
       </c>
       <c r="DG14">
-        <v>-0.1190785393118858</v>
+        <v>-0.1034399718046188</v>
       </c>
       <c r="DH14">
-        <v>-0.07874349504709244</v>
+        <v>-0.08937322348356247</v>
       </c>
       <c r="DI14">
-        <v>0.09895754605531693</v>
+        <v>0.1204940602183342</v>
       </c>
       <c r="DJ14">
-        <v>-0.2573938369750977</v>
+        <v>-0.2558624148368835</v>
       </c>
       <c r="DK14">
-        <v>0.1822943240404129</v>
+        <v>0.239133208990097</v>
       </c>
       <c r="DL14">
-        <v>0.1930041462182999</v>
+        <v>0.1797846257686615</v>
       </c>
       <c r="DM14">
-        <v>0.05391333624720573</v>
+        <v>0.0426279753446579</v>
       </c>
       <c r="DN14">
-        <v>0.1124683022499084</v>
+        <v>0.1000974327325821</v>
       </c>
       <c r="DO14">
-        <v>0.1265124827623367</v>
+        <v>0.03998677805066109</v>
       </c>
       <c r="DP14">
-        <v>0.1060473322868347</v>
+        <v>0.09538851678371429</v>
       </c>
       <c r="DQ14">
-        <v>-0.04448845982551575</v>
+        <v>-0.03222765401005745</v>
       </c>
       <c r="DR14">
-        <v>0.02988909371197224</v>
+        <v>0.0149074150249362</v>
       </c>
       <c r="DS14">
-        <v>-0.2186330407857895</v>
+        <v>-0.2049212157726288</v>
       </c>
       <c r="DT14">
-        <v>-0.02829510159790516</v>
+        <v>0.05720324069261551</v>
       </c>
       <c r="DU14">
-        <v>0.05235592648386955</v>
+        <v>0.1131401807069778</v>
       </c>
       <c r="DV14">
-        <v>0.002827735617756844</v>
+        <v>0.01620335131883621</v>
       </c>
       <c r="DW14">
-        <v>0.09368503093719482</v>
+        <v>0.08765076845884323</v>
       </c>
       <c r="DX14">
-        <v>-0.005504964850842953</v>
+        <v>-0.009138760156929493</v>
       </c>
       <c r="DY14" t="s">
         <v>9</v>
@@ -5864,1557 +5864,1946 @@
     </row>
     <row r="15" spans="1:129">
       <c r="A15">
-        <v>-0.113674059510231</v>
+        <v>-0.08409734815359116</v>
       </c>
       <c r="B15">
-        <v>0.0309467576444149</v>
+        <v>0.05838051065802574</v>
       </c>
       <c r="C15">
-        <v>-0.05899471789598465</v>
+        <v>0.04269765317440033</v>
       </c>
       <c r="D15">
-        <v>-0.0902692899107933</v>
+        <v>-0.0171088557690382</v>
       </c>
       <c r="E15">
-        <v>-0.09041761606931686</v>
+        <v>-0.08662630617618561</v>
       </c>
       <c r="F15">
-        <v>-0.01371102128177881</v>
+        <v>-0.03267819806933403</v>
       </c>
       <c r="G15">
-        <v>-0.06876745074987411</v>
+        <v>-0.02051868289709091</v>
       </c>
       <c r="H15">
-        <v>-0.114590123295784</v>
+        <v>-0.1695716977119446</v>
       </c>
       <c r="I15">
-        <v>0.1230952516198158</v>
+        <v>0.1376171410083771</v>
       </c>
       <c r="J15">
-        <v>-0.1256043165922165</v>
+        <v>-0.1126255020499229</v>
       </c>
       <c r="K15">
-        <v>0.1749181151390076</v>
+        <v>0.2855627536773682</v>
       </c>
       <c r="L15">
-        <v>-0.07615994662046432</v>
+        <v>-0.05511223152279854</v>
       </c>
       <c r="M15">
-        <v>-0.1982500851154327</v>
+        <v>-0.216542586684227</v>
       </c>
       <c r="N15">
-        <v>-0.1130469813942909</v>
+        <v>-0.1576703190803528</v>
       </c>
       <c r="O15">
-        <v>-0.06091895326972008</v>
+        <v>-0.009443594142794609</v>
       </c>
       <c r="P15">
-        <v>0.1515306979417801</v>
+        <v>0.1541889011859894</v>
       </c>
       <c r="Q15">
-        <v>-0.1934626400470734</v>
+        <v>-0.1796388775110245</v>
       </c>
       <c r="R15">
-        <v>-0.1718635112047195</v>
+        <v>-0.1664226353168488</v>
       </c>
       <c r="S15">
-        <v>-0.02848858013749123</v>
+        <v>-0.04118309170007706</v>
       </c>
       <c r="T15">
-        <v>0.01142429932951927</v>
+        <v>0.007127217948436737</v>
       </c>
       <c r="U15">
-        <v>0.1041147485375404</v>
+        <v>0.05840375646948814</v>
       </c>
       <c r="V15">
-        <v>-0.01486265566200018</v>
+        <v>-0.1092510223388672</v>
       </c>
       <c r="W15">
-        <v>-0.02005733549594879</v>
+        <v>0.07687286287546158</v>
       </c>
       <c r="X15">
-        <v>0.07117661833763123</v>
+        <v>0.02997951582074165</v>
       </c>
       <c r="Y15">
-        <v>-0.116987831890583</v>
+        <v>-0.09073636680841446</v>
       </c>
       <c r="Z15">
-        <v>-0.3328548967838287</v>
+        <v>-0.3605009615421295</v>
       </c>
       <c r="AA15">
-        <v>-0.1184114888310432</v>
+        <v>-0.1325456202030182</v>
       </c>
       <c r="AB15">
-        <v>-0.07538935542106628</v>
+        <v>-0.1226787567138672</v>
       </c>
       <c r="AC15">
-        <v>-0.01072144508361816</v>
+        <v>0.03217307105660439</v>
       </c>
       <c r="AD15">
-        <v>-0.05864199623465538</v>
+        <v>-0.01906261406838894</v>
       </c>
       <c r="AE15">
-        <v>-0.00770037155598402</v>
+        <v>-0.02081920579075813</v>
       </c>
       <c r="AF15">
-        <v>-0.01406304817646742</v>
+        <v>-0.01297386921942234</v>
       </c>
       <c r="AG15">
-        <v>-0.2086313515901566</v>
+        <v>-0.1809284090995789</v>
       </c>
       <c r="AH15">
-        <v>-0.0494193471968174</v>
+        <v>-0.08294305950403214</v>
       </c>
       <c r="AI15">
-        <v>0.01620000042021275</v>
+        <v>0.002200200222432613</v>
       </c>
       <c r="AJ15">
-        <v>0.08060338348150253</v>
+        <v>0.058806411921978</v>
       </c>
       <c r="AK15">
-        <v>-0.003955719526857138</v>
+        <v>-0.02184430882334709</v>
       </c>
       <c r="AL15">
-        <v>-0.08942887932062149</v>
+        <v>-0.08468309044837952</v>
       </c>
       <c r="AM15">
-        <v>0.1378912925720215</v>
+        <v>0.2202101647853851</v>
       </c>
       <c r="AN15">
-        <v>-0.01462001446634531</v>
+        <v>-0.03381626307964325</v>
       </c>
       <c r="AO15">
-        <v>-0.2519529461860657</v>
+        <v>-0.2104168236255646</v>
       </c>
       <c r="AP15">
-        <v>0.04558307677507401</v>
+        <v>-0.00860352348536253</v>
       </c>
       <c r="AQ15">
-        <v>0.04343873634934425</v>
+        <v>0.04084722697734833</v>
       </c>
       <c r="AR15">
-        <v>0.2269113659858704</v>
+        <v>0.1888896971940994</v>
       </c>
       <c r="AS15">
-        <v>0.1530845463275909</v>
+        <v>0.1870542615652084</v>
       </c>
       <c r="AT15">
-        <v>0.04874182492494583</v>
+        <v>0.1098941564559937</v>
       </c>
       <c r="AU15">
-        <v>-0.005994454026222229</v>
+        <v>0.04491021484136581</v>
       </c>
       <c r="AV15">
-        <v>-0.1445730179548264</v>
+        <v>-0.1063429489731789</v>
       </c>
       <c r="AW15">
-        <v>0.1423248946666718</v>
+        <v>0.1202475428581238</v>
       </c>
       <c r="AX15">
-        <v>-0.1567499041557312</v>
+        <v>-0.1675442755222321</v>
       </c>
       <c r="AY15">
-        <v>-0.03120426274836063</v>
+        <v>0.04482690244913101</v>
       </c>
       <c r="AZ15">
-        <v>0.1473031044006348</v>
+        <v>0.1215085908770561</v>
       </c>
       <c r="BA15">
-        <v>0.03426987305283546</v>
+        <v>0.08886278420686722</v>
       </c>
       <c r="BB15">
-        <v>0.04703382030129433</v>
+        <v>0.01264304015785456</v>
       </c>
       <c r="BC15">
-        <v>-0.02441472187638283</v>
+        <v>0.004304983653128147</v>
       </c>
       <c r="BD15">
-        <v>-0.1125357151031494</v>
+        <v>-0.1545955389738083</v>
       </c>
       <c r="BE15">
-        <v>0.07368572801351547</v>
+        <v>0.07960426062345505</v>
       </c>
       <c r="BF15">
-        <v>0.1375608891248703</v>
+        <v>0.07286147773265839</v>
       </c>
       <c r="BG15">
-        <v>-0.1500328034162521</v>
+        <v>-0.132561057806015</v>
       </c>
       <c r="BH15">
-        <v>0.007782145868986845</v>
+        <v>-0.02178343199193478</v>
       </c>
       <c r="BI15">
-        <v>0.04712191596627235</v>
+        <v>0.096123106777668</v>
       </c>
       <c r="BJ15">
-        <v>-0.06561990827322006</v>
+        <v>-0.1072172373533249</v>
       </c>
       <c r="BK15">
-        <v>0.03257322311401367</v>
+        <v>-0.023204131051898</v>
       </c>
       <c r="BL15">
-        <v>-0.1011729016900063</v>
+        <v>-0.01113542914390564</v>
       </c>
       <c r="BM15">
-        <v>0.2163475304841995</v>
+        <v>0.2781078219413757</v>
       </c>
       <c r="BN15">
-        <v>0.02586811222136021</v>
+        <v>0.07144946604967117</v>
       </c>
       <c r="BO15">
-        <v>-0.1282503306865692</v>
+        <v>-0.08485057950019836</v>
       </c>
       <c r="BP15">
-        <v>-0.2016119062900543</v>
+        <v>-0.1701130867004395</v>
       </c>
       <c r="BQ15">
-        <v>0.1249934136867523</v>
+        <v>0.1286076605319977</v>
       </c>
       <c r="BR15">
-        <v>-0.1542459726333618</v>
+        <v>-0.1174793839454651</v>
       </c>
       <c r="BS15">
-        <v>-0.07392527908086777</v>
+        <v>-0.05136406421661377</v>
       </c>
       <c r="BT15">
-        <v>0.08441820740699768</v>
+        <v>0.077271968126297</v>
       </c>
       <c r="BU15">
-        <v>-0.1397339254617691</v>
+        <v>-0.1955770552158356</v>
       </c>
       <c r="BV15">
-        <v>-0.2313016504049301</v>
+        <v>-0.1261355131864548</v>
       </c>
       <c r="BW15">
-        <v>-0.3084885776042938</v>
+        <v>-0.3169342875480652</v>
       </c>
       <c r="BX15">
-        <v>0.02249856293201447</v>
+        <v>0.02022882737219334</v>
       </c>
       <c r="BY15">
-        <v>0.3854701817035675</v>
+        <v>0.5025414824485779</v>
       </c>
       <c r="BZ15">
-        <v>0.1463922560214996</v>
+        <v>0.0394844226539135</v>
       </c>
       <c r="CA15">
-        <v>-0.1270751655101776</v>
+        <v>-0.1251004636287689</v>
       </c>
       <c r="CB15">
-        <v>0.08425028622150421</v>
+        <v>0.00905128289014101</v>
       </c>
       <c r="CC15">
-        <v>-0.04696705564856529</v>
+        <v>-0.1137064248323441</v>
       </c>
       <c r="CD15">
-        <v>0.02370910719037056</v>
+        <v>0.03319220989942551</v>
       </c>
       <c r="CE15">
-        <v>0.1303331255912781</v>
+        <v>0.1101124808192253</v>
       </c>
       <c r="CF15">
-        <v>0.1507169008255005</v>
+        <v>0.1068554520606995</v>
       </c>
       <c r="CG15">
-        <v>-0.0009582340717315674</v>
+        <v>-0.0271815937012434</v>
       </c>
       <c r="CH15">
-        <v>0.05149442330002785</v>
+        <v>-0.07004415988922119</v>
       </c>
       <c r="CI15">
-        <v>-0.09186878055334091</v>
+        <v>-0.1870099455118179</v>
       </c>
       <c r="CJ15">
-        <v>0.0106287756934762</v>
+        <v>-0.0588110014796257</v>
       </c>
       <c r="CK15">
-        <v>0.2636932134628296</v>
+        <v>0.1964121311903</v>
       </c>
       <c r="CL15">
-        <v>-0.03119535744190216</v>
+        <v>-0.09363199770450592</v>
       </c>
       <c r="CM15">
-        <v>-0.05418845266103745</v>
+        <v>-0.04822356253862381</v>
       </c>
       <c r="CN15">
-        <v>0.1978321075439453</v>
+        <v>0.13015416264534</v>
       </c>
       <c r="CO15">
-        <v>-0.02485660277307034</v>
+        <v>-0.02852555923163891</v>
       </c>
       <c r="CP15">
-        <v>0.1148369014263153</v>
+        <v>0.08070982992649078</v>
       </c>
       <c r="CQ15">
-        <v>0.0346418134868145</v>
+        <v>0.02172097191214561</v>
       </c>
       <c r="CR15">
-        <v>0.03713949024677277</v>
+        <v>0.0115367891266942</v>
       </c>
       <c r="CS15">
-        <v>-0.06167393177747726</v>
+        <v>-0.08770840615034103</v>
       </c>
       <c r="CT15">
-        <v>0.06517725437879562</v>
+        <v>0.08281946182250977</v>
       </c>
       <c r="CU15">
-        <v>-0.1021016836166382</v>
+        <v>-0.06792494654655457</v>
       </c>
       <c r="CV15">
-        <v>0.05331025645136833</v>
+        <v>-0.01050578337162733</v>
       </c>
       <c r="CW15">
-        <v>0.03864607214927673</v>
+        <v>0.05710768327116966</v>
       </c>
       <c r="CX15">
-        <v>-0.03470110520720482</v>
+        <v>-0.01025266572833061</v>
       </c>
       <c r="CY15">
-        <v>0.01772388443350792</v>
+        <v>0.005207784939557314</v>
       </c>
       <c r="CZ15">
-        <v>0.108645923435688</v>
+        <v>0.07584322988986969</v>
       </c>
       <c r="DA15">
-        <v>-0.08539267629384995</v>
+        <v>-0.1616050153970718</v>
       </c>
       <c r="DB15">
-        <v>0.1273542642593384</v>
+        <v>0.03537089750170708</v>
       </c>
       <c r="DC15">
-        <v>-0.007071619853377342</v>
+        <v>-0.03263285011053085</v>
       </c>
       <c r="DD15">
-        <v>0.04038099199533463</v>
+        <v>0.01283247862011194</v>
       </c>
       <c r="DE15">
-        <v>-0.04148479923605919</v>
+        <v>0.04290348663926125</v>
       </c>
       <c r="DF15">
-        <v>0.005134701263159513</v>
+        <v>-0.03838145732879639</v>
       </c>
       <c r="DG15">
-        <v>-0.1058903858065605</v>
+        <v>-0.1190785393118858</v>
       </c>
       <c r="DH15">
-        <v>-0.01625155285000801</v>
+        <v>-0.07874349504709244</v>
       </c>
       <c r="DI15">
-        <v>0.1092388927936554</v>
+        <v>0.09895754605531693</v>
       </c>
       <c r="DJ15">
-        <v>-0.2554583847522736</v>
+        <v>-0.2573938369750977</v>
       </c>
       <c r="DK15">
-        <v>0.2396095097064972</v>
+        <v>0.1822943240404129</v>
       </c>
       <c r="DL15">
-        <v>0.193057969212532</v>
+        <v>0.1930041462182999</v>
       </c>
       <c r="DM15">
-        <v>0.1389331519603729</v>
+        <v>0.05391333624720573</v>
       </c>
       <c r="DN15">
-        <v>0.119038462638855</v>
+        <v>0.1124683022499084</v>
       </c>
       <c r="DO15">
-        <v>0.1486992239952087</v>
+        <v>0.1265124827623367</v>
       </c>
       <c r="DP15">
-        <v>0.03327807784080505</v>
+        <v>0.1060473322868347</v>
       </c>
       <c r="DQ15">
-        <v>-0.03282094374299049</v>
+        <v>-0.04448845982551575</v>
       </c>
       <c r="DR15">
-        <v>-0.02352611161768436</v>
+        <v>0.02988909371197224</v>
       </c>
       <c r="DS15">
-        <v>-0.2442442327737808</v>
+        <v>-0.2186330407857895</v>
       </c>
       <c r="DT15">
-        <v>-0.02326459065079689</v>
+        <v>-0.02829510159790516</v>
       </c>
       <c r="DU15">
-        <v>0.1006400436162949</v>
+        <v>0.05235592648386955</v>
       </c>
       <c r="DV15">
-        <v>-0.04132144525647163</v>
+        <v>0.002827735617756844</v>
       </c>
       <c r="DW15">
-        <v>0.134684830904007</v>
+        <v>0.09368503093719482</v>
       </c>
       <c r="DX15">
-        <v>-0.006746760103851557</v>
+        <v>-0.005504964850842953</v>
       </c>
       <c r="DY15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:129">
       <c r="A16">
-        <v>-0.06990716606378555</v>
+        <v>-0.113674059510231</v>
       </c>
       <c r="B16">
-        <v>0.0437069833278656</v>
+        <v>0.0309467576444149</v>
       </c>
       <c r="C16">
-        <v>0.05788126587867737</v>
+        <v>-0.05899471789598465</v>
       </c>
       <c r="D16">
-        <v>-0.05453729256987572</v>
+        <v>-0.0902692899107933</v>
       </c>
       <c r="E16">
-        <v>-0.09154588729143143</v>
+        <v>-0.09041761606931686</v>
       </c>
       <c r="F16">
-        <v>-0.0207296684384346</v>
+        <v>-0.01371102128177881</v>
       </c>
       <c r="G16">
-        <v>-0.08762927353382111</v>
+        <v>-0.06876745074987411</v>
       </c>
       <c r="H16">
-        <v>-0.1408908665180206</v>
+        <v>-0.114590123295784</v>
       </c>
       <c r="I16">
-        <v>0.1462540775537491</v>
+        <v>0.1230952516198158</v>
       </c>
       <c r="J16">
-        <v>-0.1609162390232086</v>
+        <v>-0.1256043165922165</v>
       </c>
       <c r="K16">
-        <v>0.2317253798246384</v>
+        <v>0.1749181151390076</v>
       </c>
       <c r="L16">
-        <v>-0.07824753224849701</v>
+        <v>-0.07615994662046432</v>
       </c>
       <c r="M16">
-        <v>-0.1713780909776688</v>
+        <v>-0.1982500851154327</v>
       </c>
       <c r="N16">
-        <v>-0.04557859525084496</v>
+        <v>-0.1130469813942909</v>
       </c>
       <c r="O16">
-        <v>-0.03787210583686829</v>
+        <v>-0.06091895326972008</v>
       </c>
       <c r="P16">
-        <v>0.253708153963089</v>
+        <v>0.1515306979417801</v>
       </c>
       <c r="Q16">
-        <v>-0.2141980677843094</v>
+        <v>-0.1934626400470734</v>
       </c>
       <c r="R16">
-        <v>-0.1499760448932648</v>
+        <v>-0.1718635112047195</v>
       </c>
       <c r="S16">
-        <v>0.05499482899904251</v>
+        <v>-0.02848858013749123</v>
       </c>
       <c r="T16">
-        <v>0.02966391481459141</v>
+        <v>0.01142429932951927</v>
       </c>
       <c r="U16">
-        <v>0.04897130280733109</v>
+        <v>0.1041147485375404</v>
       </c>
       <c r="V16">
-        <v>0.02494005113840103</v>
+        <v>-0.01486265566200018</v>
       </c>
       <c r="W16">
-        <v>0.00633418932557106</v>
+        <v>-0.02005733549594879</v>
       </c>
       <c r="X16">
-        <v>0.07332809269428253</v>
+        <v>0.07117661833763123</v>
       </c>
       <c r="Y16">
-        <v>-0.1849222779273987</v>
+        <v>-0.116987831890583</v>
       </c>
       <c r="Z16">
-        <v>-0.3019440174102783</v>
+        <v>-0.3328548967838287</v>
       </c>
       <c r="AA16">
-        <v>-0.1074443981051445</v>
+        <v>-0.1184114888310432</v>
       </c>
       <c r="AB16">
-        <v>-0.03246553614735603</v>
+        <v>-0.07538935542106628</v>
       </c>
       <c r="AC16">
-        <v>-0.04232807457447052</v>
+        <v>-0.01072144508361816</v>
       </c>
       <c r="AD16">
-        <v>-0.05423165112733841</v>
+        <v>-0.05864199623465538</v>
       </c>
       <c r="AE16">
-        <v>-0.1001151353120804</v>
+        <v>-0.00770037155598402</v>
       </c>
       <c r="AF16">
-        <v>0.09882883727550507</v>
+        <v>-0.01406304817646742</v>
       </c>
       <c r="AG16">
-        <v>-0.1215325891971588</v>
+        <v>-0.2086313515901566</v>
       </c>
       <c r="AH16">
-        <v>0.0148456422612071</v>
+        <v>-0.0494193471968174</v>
       </c>
       <c r="AI16">
-        <v>0.07512104511260986</v>
+        <v>0.01620000042021275</v>
       </c>
       <c r="AJ16">
-        <v>0.1598976403474808</v>
+        <v>0.08060338348150253</v>
       </c>
       <c r="AK16">
-        <v>-0.004295060411095619</v>
+        <v>-0.003955719526857138</v>
       </c>
       <c r="AL16">
-        <v>-0.09946908056735992</v>
+        <v>-0.08942887932062149</v>
       </c>
       <c r="AM16">
-        <v>0.1479222029447556</v>
+        <v>0.1378912925720215</v>
       </c>
       <c r="AN16">
-        <v>-0.001009074039757252</v>
+        <v>-0.01462001446634531</v>
       </c>
       <c r="AO16">
-        <v>-0.3026112914085388</v>
+        <v>-0.2519529461860657</v>
       </c>
       <c r="AP16">
-        <v>0.07373833656311035</v>
+        <v>0.04558307677507401</v>
       </c>
       <c r="AQ16">
-        <v>0.1187207251787186</v>
+        <v>0.04343873634934425</v>
       </c>
       <c r="AR16">
-        <v>0.2594528198242188</v>
+        <v>0.2269113659858704</v>
       </c>
       <c r="AS16">
-        <v>0.172668993473053</v>
+        <v>0.1530845463275909</v>
       </c>
       <c r="AT16">
-        <v>-0.008120721206068993</v>
+        <v>0.04874182492494583</v>
       </c>
       <c r="AU16">
-        <v>-0.02691594697535038</v>
+        <v>-0.005994454026222229</v>
       </c>
       <c r="AV16">
-        <v>-0.1502238661050797</v>
+        <v>-0.1445730179548264</v>
       </c>
       <c r="AW16">
-        <v>0.1495584845542908</v>
+        <v>0.1423248946666718</v>
       </c>
       <c r="AX16">
-        <v>-0.186545193195343</v>
+        <v>-0.1567499041557312</v>
       </c>
       <c r="AY16">
-        <v>-0.009632544592022896</v>
+        <v>-0.03120426274836063</v>
       </c>
       <c r="AZ16">
-        <v>0.07731446623802185</v>
+        <v>0.1473031044006348</v>
       </c>
       <c r="BA16">
-        <v>0.09809581935405731</v>
+        <v>0.03426987305283546</v>
       </c>
       <c r="BB16">
-        <v>0.03722383081912994</v>
+        <v>0.04703382030129433</v>
       </c>
       <c r="BC16">
-        <v>0.01992046646773815</v>
+        <v>-0.02441472187638283</v>
       </c>
       <c r="BD16">
-        <v>-0.1226847395300865</v>
+        <v>-0.1125357151031494</v>
       </c>
       <c r="BE16">
-        <v>0.03920530900359154</v>
+        <v>0.07368572801351547</v>
       </c>
       <c r="BF16">
-        <v>0.1132493168115616</v>
+        <v>0.1375608891248703</v>
       </c>
       <c r="BG16">
-        <v>-0.1496998369693756</v>
+        <v>-0.1500328034162521</v>
       </c>
       <c r="BH16">
-        <v>-0.05650563538074493</v>
+        <v>0.007782145868986845</v>
       </c>
       <c r="BI16">
-        <v>0.0524202473461628</v>
+        <v>0.04712191596627235</v>
       </c>
       <c r="BJ16">
-        <v>-0.03694447502493858</v>
+        <v>-0.06561990827322006</v>
       </c>
       <c r="BK16">
-        <v>0.07903507351875305</v>
+        <v>0.03257322311401367</v>
       </c>
       <c r="BL16">
-        <v>-0.1071071922779083</v>
+        <v>-0.1011729016900063</v>
       </c>
       <c r="BM16">
-        <v>0.1812113672494888</v>
+        <v>0.2163475304841995</v>
       </c>
       <c r="BN16">
-        <v>0.09792685508728027</v>
+        <v>0.02586811222136021</v>
       </c>
       <c r="BO16">
-        <v>-0.1281867772340775</v>
+        <v>-0.1282503306865692</v>
       </c>
       <c r="BP16">
-        <v>-0.1423282325267792</v>
+        <v>-0.2016119062900543</v>
       </c>
       <c r="BQ16">
-        <v>0.09421113878488541</v>
+        <v>0.1249934136867523</v>
       </c>
       <c r="BR16">
-        <v>-0.1473556756973267</v>
+        <v>-0.1542459726333618</v>
       </c>
       <c r="BS16">
-        <v>-0.1269161999225616</v>
+        <v>-0.07392527908086777</v>
       </c>
       <c r="BT16">
-        <v>0.08045107126235962</v>
+        <v>0.08441820740699768</v>
       </c>
       <c r="BU16">
-        <v>-0.1344925761222839</v>
+        <v>-0.1397339254617691</v>
       </c>
       <c r="BV16">
-        <v>-0.1975101232528687</v>
+        <v>-0.2313016504049301</v>
       </c>
       <c r="BW16">
-        <v>-0.3626760542392731</v>
+        <v>-0.3084885776042938</v>
       </c>
       <c r="BX16">
-        <v>-0.08787058293819427</v>
+        <v>0.02249856293201447</v>
       </c>
       <c r="BY16">
-        <v>0.3714000582695007</v>
+        <v>0.3854701817035675</v>
       </c>
       <c r="BZ16">
-        <v>0.1044155657291412</v>
+        <v>0.1463922560214996</v>
       </c>
       <c r="CA16">
-        <v>-0.1872929036617279</v>
+        <v>-0.1270751655101776</v>
       </c>
       <c r="CB16">
-        <v>0.05052056908607483</v>
+        <v>0.08425028622150421</v>
       </c>
       <c r="CC16">
-        <v>0.06774404644966125</v>
+        <v>-0.04696705564856529</v>
       </c>
       <c r="CD16">
-        <v>-0.02183218486607075</v>
+        <v>0.02370910719037056</v>
       </c>
       <c r="CE16">
-        <v>0.1149500831961632</v>
+        <v>0.1303331255912781</v>
       </c>
       <c r="CF16">
-        <v>0.2065078765153885</v>
+        <v>0.1507169008255005</v>
       </c>
       <c r="CG16">
-        <v>-0.007536905817687511</v>
+        <v>-0.0009582340717315674</v>
       </c>
       <c r="CH16">
-        <v>0.0397564135491848</v>
+        <v>0.05149442330002785</v>
       </c>
       <c r="CI16">
-        <v>-0.08625262230634689</v>
+        <v>-0.09186878055334091</v>
       </c>
       <c r="CJ16">
-        <v>-0.009708207100629807</v>
+        <v>0.0106287756934762</v>
       </c>
       <c r="CK16">
-        <v>0.2760325968265533</v>
+        <v>0.2636932134628296</v>
       </c>
       <c r="CL16">
-        <v>-0.05327129364013672</v>
+        <v>-0.03119535744190216</v>
       </c>
       <c r="CM16">
-        <v>-0.005978766828775406</v>
+        <v>-0.05418845266103745</v>
       </c>
       <c r="CN16">
-        <v>0.1798428744077682</v>
+        <v>0.1978321075439453</v>
       </c>
       <c r="CO16">
-        <v>0.02006181702017784</v>
+        <v>-0.02485660277307034</v>
       </c>
       <c r="CP16">
-        <v>0.09393187612295151</v>
+        <v>0.1148369014263153</v>
       </c>
       <c r="CQ16">
-        <v>0.01589704863727093</v>
+        <v>0.0346418134868145</v>
       </c>
       <c r="CR16">
-        <v>0.07331090420484543</v>
+        <v>0.03713949024677277</v>
       </c>
       <c r="CS16">
-        <v>-0.06771000474691391</v>
+        <v>-0.06167393177747726</v>
       </c>
       <c r="CT16">
-        <v>0.03691242635250092</v>
+        <v>0.06517725437879562</v>
       </c>
       <c r="CU16">
-        <v>-0.1642566025257111</v>
+        <v>-0.1021016836166382</v>
       </c>
       <c r="CV16">
-        <v>-0.02024480886757374</v>
+        <v>0.05331025645136833</v>
       </c>
       <c r="CW16">
-        <v>-0.05755017325282097</v>
+        <v>0.03864607214927673</v>
       </c>
       <c r="CX16">
-        <v>0.0006314613856375217</v>
+        <v>-0.03470110520720482</v>
       </c>
       <c r="CY16">
-        <v>-0.01305172871798277</v>
+        <v>0.01772388443350792</v>
       </c>
       <c r="CZ16">
-        <v>0.1873417645692825</v>
+        <v>0.108645923435688</v>
       </c>
       <c r="DA16">
-        <v>-0.2196069806814194</v>
+        <v>-0.08539267629384995</v>
       </c>
       <c r="DB16">
-        <v>0.1690155416727066</v>
+        <v>0.1273542642593384</v>
       </c>
       <c r="DC16">
-        <v>0.03033076599240303</v>
+        <v>-0.007071619853377342</v>
       </c>
       <c r="DD16">
-        <v>-0.02185644768178463</v>
+        <v>0.04038099199533463</v>
       </c>
       <c r="DE16">
-        <v>0.01239512301981449</v>
+        <v>-0.04148479923605919</v>
       </c>
       <c r="DF16">
-        <v>0.0876767560839653</v>
+        <v>0.005134701263159513</v>
       </c>
       <c r="DG16">
-        <v>-0.03433016687631607</v>
+        <v>-0.1058903858065605</v>
       </c>
       <c r="DH16">
-        <v>-0.03071155585348606</v>
+        <v>-0.01625155285000801</v>
       </c>
       <c r="DI16">
-        <v>0.07907766103744507</v>
+        <v>0.1092388927936554</v>
       </c>
       <c r="DJ16">
-        <v>-0.2674353718757629</v>
+        <v>-0.2554583847522736</v>
       </c>
       <c r="DK16">
-        <v>0.09325440227985382</v>
+        <v>0.2396095097064972</v>
       </c>
       <c r="DL16">
-        <v>0.1897981315851212</v>
+        <v>0.193057969212532</v>
       </c>
       <c r="DM16">
-        <v>0.05594012141227722</v>
+        <v>0.1389331519603729</v>
       </c>
       <c r="DN16">
-        <v>0.1009895280003548</v>
+        <v>0.119038462638855</v>
       </c>
       <c r="DO16">
-        <v>0.05831187963485718</v>
+        <v>0.1486992239952087</v>
       </c>
       <c r="DP16">
-        <v>0.05676287040114403</v>
+        <v>0.03327807784080505</v>
       </c>
       <c r="DQ16">
-        <v>-0.0691901221871376</v>
+        <v>-0.03282094374299049</v>
       </c>
       <c r="DR16">
-        <v>-0.01341085229068995</v>
+        <v>-0.02352611161768436</v>
       </c>
       <c r="DS16">
-        <v>-0.2083991914987564</v>
+        <v>-0.2442442327737808</v>
       </c>
       <c r="DT16">
-        <v>-0.03524910286068916</v>
+        <v>-0.02326459065079689</v>
       </c>
       <c r="DU16">
-        <v>0.06909746676683426</v>
+        <v>0.1006400436162949</v>
       </c>
       <c r="DV16">
-        <v>-0.08558066189289093</v>
+        <v>-0.04132144525647163</v>
       </c>
       <c r="DW16">
-        <v>0.1044365242123604</v>
+        <v>0.134684830904007</v>
       </c>
       <c r="DX16">
-        <v>0.02122553437948227</v>
+        <v>-0.006746760103851557</v>
       </c>
       <c r="DY16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:129">
       <c r="A17">
-        <v>-0.1664230525493622</v>
+        <v>-0.06990716606378555</v>
       </c>
       <c r="B17">
-        <v>0.1197999492287636</v>
+        <v>0.0437069833278656</v>
       </c>
       <c r="C17">
-        <v>0.05202930420637131</v>
+        <v>0.05788126587867737</v>
       </c>
       <c r="D17">
-        <v>-0.07242220640182495</v>
+        <v>-0.05453729256987572</v>
       </c>
       <c r="E17">
-        <v>-0.07684532552957535</v>
+        <v>-0.09154588729143143</v>
       </c>
       <c r="F17">
-        <v>-0.02683362737298012</v>
+        <v>-0.0207296684384346</v>
       </c>
       <c r="G17">
-        <v>-0.01401004288345575</v>
+        <v>-0.08762927353382111</v>
       </c>
       <c r="H17">
-        <v>-0.1494615375995636</v>
+        <v>-0.1408908665180206</v>
       </c>
       <c r="I17">
-        <v>0.138905942440033</v>
+        <v>0.1462540775537491</v>
       </c>
       <c r="J17">
-        <v>-0.1236595958471298</v>
+        <v>-0.1609162390232086</v>
       </c>
       <c r="K17">
-        <v>0.2360877245664597</v>
+        <v>0.2317253798246384</v>
       </c>
       <c r="L17">
-        <v>-0.063214510679245</v>
+        <v>-0.07824753224849701</v>
       </c>
       <c r="M17">
-        <v>-0.189377173781395</v>
+        <v>-0.1713780909776688</v>
       </c>
       <c r="N17">
-        <v>-0.1932847946882248</v>
+        <v>-0.04557859525084496</v>
       </c>
       <c r="O17">
-        <v>0.05817620456218719</v>
+        <v>-0.03787210583686829</v>
       </c>
       <c r="P17">
-        <v>0.2009020447731018</v>
+        <v>0.253708153963089</v>
       </c>
       <c r="Q17">
-        <v>-0.1383683830499649</v>
+        <v>-0.2141980677843094</v>
       </c>
       <c r="R17">
-        <v>-0.157707467675209</v>
+        <v>-0.1499760448932648</v>
       </c>
       <c r="S17">
-        <v>-0.1222373247146606</v>
+        <v>0.05499482899904251</v>
       </c>
       <c r="T17">
-        <v>0.005961579270660877</v>
+        <v>0.02966391481459141</v>
       </c>
       <c r="U17">
-        <v>0.05909128859639168</v>
+        <v>0.04897130280733109</v>
       </c>
       <c r="V17">
-        <v>-0.0143223013728857</v>
+        <v>0.02494005113840103</v>
       </c>
       <c r="W17">
-        <v>0.009447494521737099</v>
+        <v>0.00633418932557106</v>
       </c>
       <c r="X17">
-        <v>0.07067190110683441</v>
+        <v>0.07332809269428253</v>
       </c>
       <c r="Y17">
-        <v>-0.1025408208370209</v>
+        <v>-0.1849222779273987</v>
       </c>
       <c r="Z17">
-        <v>-0.3550868630409241</v>
+        <v>-0.3019440174102783</v>
       </c>
       <c r="AA17">
-        <v>-0.08157946914434433</v>
+        <v>-0.1074443981051445</v>
       </c>
       <c r="AB17">
-        <v>0.008106231689453125</v>
+        <v>-0.03246553614735603</v>
       </c>
       <c r="AC17">
-        <v>0.04415782913565636</v>
+        <v>-0.04232807457447052</v>
       </c>
       <c r="AD17">
-        <v>-0.1162653416395187</v>
+        <v>-0.05423165112733841</v>
       </c>
       <c r="AE17">
-        <v>-0.07780147343873978</v>
+        <v>-0.1001151353120804</v>
       </c>
       <c r="AF17">
-        <v>0.05034055560827255</v>
+        <v>0.09882883727550507</v>
       </c>
       <c r="AG17">
-        <v>-0.1716775298118591</v>
+        <v>-0.1215325891971588</v>
       </c>
       <c r="AH17">
-        <v>-0.07661905884742737</v>
+        <v>0.0148456422612071</v>
       </c>
       <c r="AI17">
-        <v>-0.01627367921173573</v>
+        <v>0.07512104511260986</v>
       </c>
       <c r="AJ17">
-        <v>0.1450842916965485</v>
+        <v>0.1598976403474808</v>
       </c>
       <c r="AK17">
-        <v>-0.05361558869481087</v>
+        <v>-0.004295060411095619</v>
       </c>
       <c r="AL17">
-        <v>-0.06806424260139465</v>
+        <v>-0.09946908056735992</v>
       </c>
       <c r="AM17">
-        <v>0.1355796009302139</v>
+        <v>0.1479222029447556</v>
       </c>
       <c r="AN17">
-        <v>-0.02005532756447792</v>
+        <v>-0.001009074039757252</v>
       </c>
       <c r="AO17">
-        <v>-0.266178160905838</v>
+        <v>-0.3026112914085388</v>
       </c>
       <c r="AP17">
-        <v>0.01647906377911568</v>
+        <v>0.07373833656311035</v>
       </c>
       <c r="AQ17">
-        <v>-0.01671315357089043</v>
+        <v>0.1187207251787186</v>
       </c>
       <c r="AR17">
-        <v>0.2441737949848175</v>
+        <v>0.2594528198242188</v>
       </c>
       <c r="AS17">
-        <v>0.2625419795513153</v>
+        <v>0.172668993473053</v>
       </c>
       <c r="AT17">
-        <v>0.05430025234818459</v>
+        <v>-0.008120721206068993</v>
       </c>
       <c r="AU17">
-        <v>-0.002611083909869194</v>
+        <v>-0.02691594697535038</v>
       </c>
       <c r="AV17">
-        <v>-0.1086878255009651</v>
+        <v>-0.1502238661050797</v>
       </c>
       <c r="AW17">
-        <v>0.1808783262968063</v>
+        <v>0.1495584845542908</v>
       </c>
       <c r="AX17">
-        <v>-0.2271032780408859</v>
+        <v>-0.186545193195343</v>
       </c>
       <c r="AY17">
-        <v>0.03267816826701164</v>
+        <v>-0.009632544592022896</v>
       </c>
       <c r="AZ17">
-        <v>0.09247685223817825</v>
+        <v>0.07731446623802185</v>
       </c>
       <c r="BA17">
-        <v>0.01861864514648914</v>
+        <v>0.09809581935405731</v>
       </c>
       <c r="BB17">
-        <v>0.01386251579970121</v>
+        <v>0.03722383081912994</v>
       </c>
       <c r="BC17">
-        <v>0.06126523017883301</v>
+        <v>0.01992046646773815</v>
       </c>
       <c r="BD17">
-        <v>-0.111628882586956</v>
+        <v>-0.1226847395300865</v>
       </c>
       <c r="BE17">
-        <v>0.01445482019335032</v>
+        <v>0.03920530900359154</v>
       </c>
       <c r="BF17">
-        <v>0.1936517506837845</v>
+        <v>0.1132493168115616</v>
       </c>
       <c r="BG17">
-        <v>-0.1982659846544266</v>
+        <v>-0.1496998369693756</v>
       </c>
       <c r="BH17">
-        <v>-0.01729383505880833</v>
+        <v>-0.05650563538074493</v>
       </c>
       <c r="BI17">
-        <v>0.03747516125440598</v>
+        <v>0.0524202473461628</v>
       </c>
       <c r="BJ17">
-        <v>-0.2034571766853333</v>
+        <v>-0.03694447502493858</v>
       </c>
       <c r="BK17">
-        <v>-0.04353611171245575</v>
+        <v>0.07903507351875305</v>
       </c>
       <c r="BL17">
-        <v>-0.09055360406637192</v>
+        <v>-0.1071071922779083</v>
       </c>
       <c r="BM17">
-        <v>0.1185717210173607</v>
+        <v>0.1812113672494888</v>
       </c>
       <c r="BN17">
-        <v>0.1303165704011917</v>
+        <v>0.09792685508728027</v>
       </c>
       <c r="BO17">
-        <v>-0.06546657532453537</v>
+        <v>-0.1281867772340775</v>
       </c>
       <c r="BP17">
-        <v>-0.1668705940246582</v>
+        <v>-0.1423282325267792</v>
       </c>
       <c r="BQ17">
-        <v>0.1804646700620651</v>
+        <v>0.09421113878488541</v>
       </c>
       <c r="BR17">
-        <v>-0.120564840734005</v>
+        <v>-0.1473556756973267</v>
       </c>
       <c r="BS17">
-        <v>-0.05876875296235085</v>
+        <v>-0.1269161999225616</v>
       </c>
       <c r="BT17">
-        <v>0.07378401607275009</v>
+        <v>0.08045107126235962</v>
       </c>
       <c r="BU17">
-        <v>-0.08363194018602371</v>
+        <v>-0.1344925761222839</v>
       </c>
       <c r="BV17">
-        <v>-0.1831302046775818</v>
+        <v>-0.1975101232528687</v>
       </c>
       <c r="BW17">
-        <v>-0.350675642490387</v>
+        <v>-0.3626760542392731</v>
       </c>
       <c r="BX17">
-        <v>0.008254904299974442</v>
+        <v>-0.08787058293819427</v>
       </c>
       <c r="BY17">
-        <v>0.402560830116272</v>
+        <v>0.3714000582695007</v>
       </c>
       <c r="BZ17">
-        <v>0.1552258282899857</v>
+        <v>0.1044155657291412</v>
       </c>
       <c r="CA17">
-        <v>-0.2051381170749664</v>
+        <v>-0.1872929036617279</v>
       </c>
       <c r="CB17">
-        <v>0.01562653109431267</v>
+        <v>0.05052056908607483</v>
       </c>
       <c r="CC17">
-        <v>0.01984981074929237</v>
+        <v>0.06774404644966125</v>
       </c>
       <c r="CD17">
-        <v>0.03764633461833</v>
+        <v>-0.02183218486607075</v>
       </c>
       <c r="CE17">
-        <v>0.1903020143508911</v>
+        <v>0.1149500831961632</v>
       </c>
       <c r="CF17">
-        <v>0.1239279061555862</v>
+        <v>0.2065078765153885</v>
       </c>
       <c r="CG17">
-        <v>-0.03394638746976852</v>
+        <v>-0.007536905817687511</v>
       </c>
       <c r="CH17">
-        <v>-0.0397799089550972</v>
+        <v>0.0397564135491848</v>
       </c>
       <c r="CI17">
-        <v>-0.1619945913553238</v>
+        <v>-0.08625262230634689</v>
       </c>
       <c r="CJ17">
-        <v>-0.01262115035206079</v>
+        <v>-0.009708207100629807</v>
       </c>
       <c r="CK17">
-        <v>0.1731482595205307</v>
+        <v>0.2760325968265533</v>
       </c>
       <c r="CL17">
-        <v>0.009615184739232063</v>
+        <v>-0.05327129364013672</v>
       </c>
       <c r="CM17">
-        <v>-0.02295494079589844</v>
+        <v>-0.005978766828775406</v>
       </c>
       <c r="CN17">
-        <v>0.2317280322313309</v>
+        <v>0.1798428744077682</v>
       </c>
       <c r="CO17">
-        <v>0.02254597097635269</v>
+        <v>0.02006181702017784</v>
       </c>
       <c r="CP17">
-        <v>0.06837128102779388</v>
+        <v>0.09393187612295151</v>
       </c>
       <c r="CQ17">
-        <v>0.05303265526890755</v>
+        <v>0.01589704863727093</v>
       </c>
       <c r="CR17">
-        <v>0.0541984811425209</v>
+        <v>0.07331090420484543</v>
       </c>
       <c r="CS17">
-        <v>-0.07067787647247314</v>
+        <v>-0.06771000474691391</v>
       </c>
       <c r="CT17">
-        <v>0.05704630166292191</v>
+        <v>0.03691242635250092</v>
       </c>
       <c r="CU17">
-        <v>-0.1324872225522995</v>
+        <v>-0.1642566025257111</v>
       </c>
       <c r="CV17">
-        <v>-0.04663413390517235</v>
+        <v>-0.02024480886757374</v>
       </c>
       <c r="CW17">
-        <v>0.09472215175628662</v>
+        <v>-0.05755017325282097</v>
       </c>
       <c r="CX17">
-        <v>-0.03650927543640137</v>
+        <v>0.0006314613856375217</v>
       </c>
       <c r="CY17">
-        <v>0.02291413955390453</v>
+        <v>-0.01305172871798277</v>
       </c>
       <c r="CZ17">
-        <v>0.1092410907149315</v>
+        <v>0.1873417645692825</v>
       </c>
       <c r="DA17">
-        <v>-0.1076285317540169</v>
+        <v>-0.2196069806814194</v>
       </c>
       <c r="DB17">
-        <v>0.206388533115387</v>
+        <v>0.1690155416727066</v>
       </c>
       <c r="DC17">
-        <v>0.02241501212120056</v>
+        <v>0.03033076599240303</v>
       </c>
       <c r="DD17">
-        <v>0.122593566775322</v>
+        <v>-0.02185644768178463</v>
       </c>
       <c r="DE17">
-        <v>0.02416955679655075</v>
+        <v>0.01239512301981449</v>
       </c>
       <c r="DF17">
-        <v>-0.06091099232435226</v>
+        <v>0.0876767560839653</v>
       </c>
       <c r="DG17">
-        <v>-0.02152063511312008</v>
+        <v>-0.03433016687631607</v>
       </c>
       <c r="DH17">
-        <v>-0.003272675909101963</v>
+        <v>-0.03071155585348606</v>
       </c>
       <c r="DI17">
-        <v>0.06772907078266144</v>
+        <v>0.07907766103744507</v>
       </c>
       <c r="DJ17">
-        <v>-0.237699493765831</v>
+        <v>-0.2674353718757629</v>
       </c>
       <c r="DK17">
-        <v>0.1394961923360825</v>
+        <v>0.09325440227985382</v>
       </c>
       <c r="DL17">
-        <v>0.1930653899908066</v>
+        <v>0.1897981315851212</v>
       </c>
       <c r="DM17">
-        <v>-0.01137595530599356</v>
+        <v>0.05594012141227722</v>
       </c>
       <c r="DN17">
-        <v>0.1412976980209351</v>
+        <v>0.1009895280003548</v>
       </c>
       <c r="DO17">
-        <v>0.1028188392519951</v>
+        <v>0.05831187963485718</v>
       </c>
       <c r="DP17">
-        <v>0.08626430481672287</v>
+        <v>0.05676287040114403</v>
       </c>
       <c r="DQ17">
-        <v>-0.0148615064099431</v>
+        <v>-0.0691901221871376</v>
       </c>
       <c r="DR17">
-        <v>-0.05347114056348801</v>
+        <v>-0.01341085229068995</v>
       </c>
       <c r="DS17">
-        <v>-0.219129741191864</v>
+        <v>-0.2083991914987564</v>
       </c>
       <c r="DT17">
-        <v>-0.02541131526231766</v>
+        <v>-0.03524910286068916</v>
       </c>
       <c r="DU17">
-        <v>0.1185694858431816</v>
+        <v>0.06909746676683426</v>
       </c>
       <c r="DV17">
-        <v>-0.001603121869266033</v>
+        <v>-0.08558066189289093</v>
       </c>
       <c r="DW17">
-        <v>0.1121142357587814</v>
+        <v>0.1044365242123604</v>
       </c>
       <c r="DX17">
-        <v>0.04909952729940414</v>
+        <v>0.02122553437948227</v>
       </c>
       <c r="DY17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:129">
       <c r="A18">
+        <v>-0.1664230525493622</v>
+      </c>
+      <c r="B18">
+        <v>0.1197999492287636</v>
+      </c>
+      <c r="C18">
+        <v>0.05202930420637131</v>
+      </c>
+      <c r="D18">
+        <v>-0.07242220640182495</v>
+      </c>
+      <c r="E18">
+        <v>-0.07684532552957535</v>
+      </c>
+      <c r="F18">
+        <v>-0.02683362737298012</v>
+      </c>
+      <c r="G18">
+        <v>-0.01401004288345575</v>
+      </c>
+      <c r="H18">
+        <v>-0.1494615375995636</v>
+      </c>
+      <c r="I18">
+        <v>0.138905942440033</v>
+      </c>
+      <c r="J18">
+        <v>-0.1236595958471298</v>
+      </c>
+      <c r="K18">
+        <v>0.2360877245664597</v>
+      </c>
+      <c r="L18">
+        <v>-0.063214510679245</v>
+      </c>
+      <c r="M18">
+        <v>-0.189377173781395</v>
+      </c>
+      <c r="N18">
+        <v>-0.1932847946882248</v>
+      </c>
+      <c r="O18">
+        <v>0.05817620456218719</v>
+      </c>
+      <c r="P18">
+        <v>0.2009020447731018</v>
+      </c>
+      <c r="Q18">
+        <v>-0.1383683830499649</v>
+      </c>
+      <c r="R18">
+        <v>-0.157707467675209</v>
+      </c>
+      <c r="S18">
+        <v>-0.1222373247146606</v>
+      </c>
+      <c r="T18">
+        <v>0.005961579270660877</v>
+      </c>
+      <c r="U18">
+        <v>0.05909128859639168</v>
+      </c>
+      <c r="V18">
+        <v>-0.0143223013728857</v>
+      </c>
+      <c r="W18">
+        <v>0.009447494521737099</v>
+      </c>
+      <c r="X18">
+        <v>0.07067190110683441</v>
+      </c>
+      <c r="Y18">
+        <v>-0.1025408208370209</v>
+      </c>
+      <c r="Z18">
+        <v>-0.3550868630409241</v>
+      </c>
+      <c r="AA18">
+        <v>-0.08157946914434433</v>
+      </c>
+      <c r="AB18">
+        <v>0.008106231689453125</v>
+      </c>
+      <c r="AC18">
+        <v>0.04415782913565636</v>
+      </c>
+      <c r="AD18">
+        <v>-0.1162653416395187</v>
+      </c>
+      <c r="AE18">
+        <v>-0.07780147343873978</v>
+      </c>
+      <c r="AF18">
+        <v>0.05034055560827255</v>
+      </c>
+      <c r="AG18">
+        <v>-0.1716775298118591</v>
+      </c>
+      <c r="AH18">
+        <v>-0.07661905884742737</v>
+      </c>
+      <c r="AI18">
+        <v>-0.01627367921173573</v>
+      </c>
+      <c r="AJ18">
+        <v>0.1450842916965485</v>
+      </c>
+      <c r="AK18">
+        <v>-0.05361558869481087</v>
+      </c>
+      <c r="AL18">
+        <v>-0.06806424260139465</v>
+      </c>
+      <c r="AM18">
+        <v>0.1355796009302139</v>
+      </c>
+      <c r="AN18">
+        <v>-0.02005532756447792</v>
+      </c>
+      <c r="AO18">
+        <v>-0.266178160905838</v>
+      </c>
+      <c r="AP18">
+        <v>0.01647906377911568</v>
+      </c>
+      <c r="AQ18">
+        <v>-0.01671315357089043</v>
+      </c>
+      <c r="AR18">
+        <v>0.2441737949848175</v>
+      </c>
+      <c r="AS18">
+        <v>0.2625419795513153</v>
+      </c>
+      <c r="AT18">
+        <v>0.05430025234818459</v>
+      </c>
+      <c r="AU18">
+        <v>-0.002611083909869194</v>
+      </c>
+      <c r="AV18">
+        <v>-0.1086878255009651</v>
+      </c>
+      <c r="AW18">
+        <v>0.1808783262968063</v>
+      </c>
+      <c r="AX18">
+        <v>-0.2271032780408859</v>
+      </c>
+      <c r="AY18">
+        <v>0.03267816826701164</v>
+      </c>
+      <c r="AZ18">
+        <v>0.09247685223817825</v>
+      </c>
+      <c r="BA18">
+        <v>0.01861864514648914</v>
+      </c>
+      <c r="BB18">
+        <v>0.01386251579970121</v>
+      </c>
+      <c r="BC18">
+        <v>0.06126523017883301</v>
+      </c>
+      <c r="BD18">
+        <v>-0.111628882586956</v>
+      </c>
+      <c r="BE18">
+        <v>0.01445482019335032</v>
+      </c>
+      <c r="BF18">
+        <v>0.1936517506837845</v>
+      </c>
+      <c r="BG18">
+        <v>-0.1982659846544266</v>
+      </c>
+      <c r="BH18">
+        <v>-0.01729383505880833</v>
+      </c>
+      <c r="BI18">
+        <v>0.03747516125440598</v>
+      </c>
+      <c r="BJ18">
+        <v>-0.2034571766853333</v>
+      </c>
+      <c r="BK18">
+        <v>-0.04353611171245575</v>
+      </c>
+      <c r="BL18">
+        <v>-0.09055360406637192</v>
+      </c>
+      <c r="BM18">
+        <v>0.1185717210173607</v>
+      </c>
+      <c r="BN18">
+        <v>0.1303165704011917</v>
+      </c>
+      <c r="BO18">
+        <v>-0.06546657532453537</v>
+      </c>
+      <c r="BP18">
+        <v>-0.1668705940246582</v>
+      </c>
+      <c r="BQ18">
+        <v>0.1804646700620651</v>
+      </c>
+      <c r="BR18">
+        <v>-0.120564840734005</v>
+      </c>
+      <c r="BS18">
+        <v>-0.05876875296235085</v>
+      </c>
+      <c r="BT18">
+        <v>0.07378401607275009</v>
+      </c>
+      <c r="BU18">
+        <v>-0.08363194018602371</v>
+      </c>
+      <c r="BV18">
+        <v>-0.1831302046775818</v>
+      </c>
+      <c r="BW18">
+        <v>-0.350675642490387</v>
+      </c>
+      <c r="BX18">
+        <v>0.008254904299974442</v>
+      </c>
+      <c r="BY18">
+        <v>0.402560830116272</v>
+      </c>
+      <c r="BZ18">
+        <v>0.1552258282899857</v>
+      </c>
+      <c r="CA18">
+        <v>-0.2051381170749664</v>
+      </c>
+      <c r="CB18">
+        <v>0.01562653109431267</v>
+      </c>
+      <c r="CC18">
+        <v>0.01984981074929237</v>
+      </c>
+      <c r="CD18">
+        <v>0.03764633461833</v>
+      </c>
+      <c r="CE18">
+        <v>0.1903020143508911</v>
+      </c>
+      <c r="CF18">
+        <v>0.1239279061555862</v>
+      </c>
+      <c r="CG18">
+        <v>-0.03394638746976852</v>
+      </c>
+      <c r="CH18">
+        <v>-0.0397799089550972</v>
+      </c>
+      <c r="CI18">
+        <v>-0.1619945913553238</v>
+      </c>
+      <c r="CJ18">
+        <v>-0.01262115035206079</v>
+      </c>
+      <c r="CK18">
+        <v>0.1731482595205307</v>
+      </c>
+      <c r="CL18">
+        <v>0.009615184739232063</v>
+      </c>
+      <c r="CM18">
+        <v>-0.02295494079589844</v>
+      </c>
+      <c r="CN18">
+        <v>0.2317280322313309</v>
+      </c>
+      <c r="CO18">
+        <v>0.02254597097635269</v>
+      </c>
+      <c r="CP18">
+        <v>0.06837128102779388</v>
+      </c>
+      <c r="CQ18">
+        <v>0.05303265526890755</v>
+      </c>
+      <c r="CR18">
+        <v>0.0541984811425209</v>
+      </c>
+      <c r="CS18">
+        <v>-0.07067787647247314</v>
+      </c>
+      <c r="CT18">
+        <v>0.05704630166292191</v>
+      </c>
+      <c r="CU18">
+        <v>-0.1324872225522995</v>
+      </c>
+      <c r="CV18">
+        <v>-0.04663413390517235</v>
+      </c>
+      <c r="CW18">
+        <v>0.09472215175628662</v>
+      </c>
+      <c r="CX18">
+        <v>-0.03650927543640137</v>
+      </c>
+      <c r="CY18">
+        <v>0.02291413955390453</v>
+      </c>
+      <c r="CZ18">
+        <v>0.1092410907149315</v>
+      </c>
+      <c r="DA18">
+        <v>-0.1076285317540169</v>
+      </c>
+      <c r="DB18">
+        <v>0.206388533115387</v>
+      </c>
+      <c r="DC18">
+        <v>0.02241501212120056</v>
+      </c>
+      <c r="DD18">
+        <v>0.122593566775322</v>
+      </c>
+      <c r="DE18">
+        <v>0.02416955679655075</v>
+      </c>
+      <c r="DF18">
+        <v>-0.06091099232435226</v>
+      </c>
+      <c r="DG18">
+        <v>-0.02152063511312008</v>
+      </c>
+      <c r="DH18">
+        <v>-0.003272675909101963</v>
+      </c>
+      <c r="DI18">
+        <v>0.06772907078266144</v>
+      </c>
+      <c r="DJ18">
+        <v>-0.237699493765831</v>
+      </c>
+      <c r="DK18">
+        <v>0.1394961923360825</v>
+      </c>
+      <c r="DL18">
+        <v>0.1930653899908066</v>
+      </c>
+      <c r="DM18">
+        <v>-0.01137595530599356</v>
+      </c>
+      <c r="DN18">
+        <v>0.1412976980209351</v>
+      </c>
+      <c r="DO18">
+        <v>0.1028188392519951</v>
+      </c>
+      <c r="DP18">
+        <v>0.08626430481672287</v>
+      </c>
+      <c r="DQ18">
+        <v>-0.0148615064099431</v>
+      </c>
+      <c r="DR18">
+        <v>-0.05347114056348801</v>
+      </c>
+      <c r="DS18">
+        <v>-0.219129741191864</v>
+      </c>
+      <c r="DT18">
+        <v>-0.02541131526231766</v>
+      </c>
+      <c r="DU18">
+        <v>0.1185694858431816</v>
+      </c>
+      <c r="DV18">
+        <v>-0.001603121869266033</v>
+      </c>
+      <c r="DW18">
+        <v>0.1121142357587814</v>
+      </c>
+      <c r="DX18">
+        <v>0.04909952729940414</v>
+      </c>
+      <c r="DY18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:129">
+      <c r="A19">
         <v>-0.1535291522741318</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>0.09682773798704147</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>0.04342304915189743</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>-0.07027996331453323</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>-0.09440071880817413</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>-0.02394618839025497</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>-0.07258074730634689</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <v>-0.08685524016618729</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <v>0.1098929718136787</v>
       </c>
-      <c r="J18">
+      <c r="J19">
         <v>-0.1068792119622231</v>
       </c>
-      <c r="K18">
+      <c r="K19">
         <v>0.218106284737587</v>
       </c>
-      <c r="L18">
+      <c r="L19">
         <v>-0.05814434215426445</v>
       </c>
-      <c r="M18">
+      <c r="M19">
         <v>-0.1815942823886871</v>
       </c>
-      <c r="N18">
+      <c r="N19">
         <v>-0.2229961752891541</v>
       </c>
-      <c r="O18">
+      <c r="O19">
         <v>0.01289800181984901</v>
       </c>
-      <c r="P18">
+      <c r="P19">
         <v>0.2336302697658539</v>
       </c>
-      <c r="Q18">
+      <c r="Q19">
         <v>-0.1705117225646973</v>
       </c>
-      <c r="R18">
+      <c r="R19">
         <v>-0.1502412259578705</v>
       </c>
-      <c r="S18">
+      <c r="S19">
         <v>-0.04609040170907974</v>
       </c>
-      <c r="T18">
+      <c r="T19">
         <v>0.02280683815479279</v>
       </c>
-      <c r="U18">
+      <c r="U19">
         <v>0.06642564386129379</v>
       </c>
-      <c r="V18">
+      <c r="V19">
         <v>0.04056094959378242</v>
       </c>
-      <c r="W18">
+      <c r="W19">
         <v>-0.007306922227144241</v>
       </c>
-      <c r="X18">
+      <c r="X19">
         <v>0.02875595167279243</v>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <v>-0.1252570152282715</v>
       </c>
-      <c r="Z18">
+      <c r="Z19">
         <v>-0.3564572632312775</v>
       </c>
-      <c r="AA18">
+      <c r="AA19">
         <v>-0.09414362162351608</v>
       </c>
-      <c r="AB18">
+      <c r="AB19">
         <v>-0.01908360794186592</v>
       </c>
-      <c r="AC18">
+      <c r="AC19">
         <v>0.04876819998025894</v>
       </c>
-      <c r="AD18">
+      <c r="AD19">
         <v>-0.08519284427165985</v>
       </c>
-      <c r="AE18">
+      <c r="AE19">
         <v>-0.097819484770298</v>
       </c>
-      <c r="AF18">
+      <c r="AF19">
         <v>0.08585383743047714</v>
       </c>
-      <c r="AG18">
+      <c r="AG19">
         <v>-0.1697450876235962</v>
       </c>
-      <c r="AH18">
+      <c r="AH19">
         <v>-0.07742404937744141</v>
       </c>
-      <c r="AI18">
+      <c r="AI19">
         <v>0.01760385930538177</v>
       </c>
-      <c r="AJ18">
+      <c r="AJ19">
         <v>0.1415288895368576</v>
       </c>
-      <c r="AK18">
+      <c r="AK19">
         <v>-0.02124865911900997</v>
       </c>
-      <c r="AL18">
+      <c r="AL19">
         <v>-0.02753718197345734</v>
       </c>
-      <c r="AM18">
+      <c r="AM19">
         <v>0.1495333462953568</v>
       </c>
-      <c r="AN18">
+      <c r="AN19">
         <v>0.0326569527387619</v>
       </c>
-      <c r="AO18">
+      <c r="AO19">
         <v>-0.2778990864753723</v>
       </c>
-      <c r="AP18">
+      <c r="AP19">
         <v>0.005108276847749949</v>
       </c>
-      <c r="AQ18">
+      <c r="AQ19">
         <v>0.0550825409591198</v>
       </c>
-      <c r="AR18">
+      <c r="AR19">
         <v>0.283127635717392</v>
       </c>
-      <c r="AS18">
+      <c r="AS19">
         <v>0.2787679731845856</v>
       </c>
-      <c r="AT18">
+      <c r="AT19">
         <v>0.0350811667740345</v>
       </c>
-      <c r="AU18">
+      <c r="AU19">
         <v>0.02752446010708809</v>
       </c>
-      <c r="AV18">
+      <c r="AV19">
         <v>-0.06089084595441818</v>
       </c>
-      <c r="AW18">
+      <c r="AW19">
         <v>0.1290671974420547</v>
       </c>
-      <c r="AX18">
+      <c r="AX19">
         <v>-0.2103680074214935</v>
       </c>
-      <c r="AY18">
+      <c r="AY19">
         <v>0.02320252358913422</v>
       </c>
-      <c r="AZ18">
+      <c r="AZ19">
         <v>0.1130509078502655</v>
       </c>
-      <c r="BA18">
+      <c r="BA19">
         <v>0.02052226848900318</v>
       </c>
-      <c r="BB18">
+      <c r="BB19">
         <v>0.04848092049360275</v>
       </c>
-      <c r="BC18">
+      <c r="BC19">
         <v>0.01364019140601158</v>
       </c>
-      <c r="BD18">
+      <c r="BD19">
         <v>-0.1054628267884254</v>
       </c>
-      <c r="BE18">
+      <c r="BE19">
         <v>0.02096804976463318</v>
       </c>
-      <c r="BF18">
+      <c r="BF19">
         <v>0.1306885182857513</v>
       </c>
-      <c r="BG18">
+      <c r="BG19">
         <v>-0.2162031531333923</v>
       </c>
-      <c r="BH18">
+      <c r="BH19">
         <v>-0.009907149709761143</v>
       </c>
-      <c r="BI18">
+      <c r="BI19">
         <v>0.07114157825708389</v>
       </c>
-      <c r="BJ18">
+      <c r="BJ19">
         <v>-0.1744096577167511</v>
       </c>
-      <c r="BK18">
+      <c r="BK19">
         <v>-0.06691116839647293</v>
       </c>
-      <c r="BL18">
+      <c r="BL19">
         <v>-0.02780559845268726</v>
       </c>
-      <c r="BM18">
+      <c r="BM19">
         <v>0.1465153396129608</v>
       </c>
-      <c r="BN18">
+      <c r="BN19">
         <v>0.07809504121541977</v>
       </c>
-      <c r="BO18">
+      <c r="BO19">
         <v>-0.07699042558670044</v>
       </c>
-      <c r="BP18">
+      <c r="BP19">
         <v>-0.2745680510997772</v>
       </c>
-      <c r="BQ18">
+      <c r="BQ19">
         <v>0.1441500782966614</v>
       </c>
-      <c r="BR18">
+      <c r="BR19">
         <v>-0.1794628202915192</v>
       </c>
-      <c r="BS18">
+      <c r="BS19">
         <v>-0.08146283775568008</v>
       </c>
-      <c r="BT18">
+      <c r="BT19">
         <v>0.1243090182542801</v>
       </c>
-      <c r="BU18">
+      <c r="BU19">
         <v>-0.1117895692586899</v>
       </c>
-      <c r="BV18">
+      <c r="BV19">
         <v>-0.1520009934902191</v>
       </c>
-      <c r="BW18">
+      <c r="BW19">
         <v>-0.3857403993606567</v>
       </c>
-      <c r="BX18">
+      <c r="BX19">
         <v>0.0003344900906085968</v>
       </c>
-      <c r="BY18">
+      <c r="BY19">
         <v>0.3653758466243744</v>
       </c>
-      <c r="BZ18">
+      <c r="BZ19">
         <v>0.1375074088573456</v>
       </c>
-      <c r="CA18">
+      <c r="CA19">
         <v>-0.1605572998523712</v>
       </c>
-      <c r="CB18">
+      <c r="CB19">
         <v>0.09970594942569733</v>
       </c>
-      <c r="CC18">
+      <c r="CC19">
         <v>0.04755587875843048</v>
       </c>
-      <c r="CD18">
+      <c r="CD19">
         <v>-0.04338795691728592</v>
       </c>
-      <c r="CE18">
+      <c r="CE19">
         <v>0.1823050379753113</v>
       </c>
-      <c r="CF18">
+      <c r="CF19">
         <v>0.168687641620636</v>
       </c>
-      <c r="CG18">
+      <c r="CG19">
         <v>0.03313232213258743</v>
       </c>
-      <c r="CH18">
+      <c r="CH19">
         <v>0.05167738348245621</v>
       </c>
-      <c r="CI18">
+      <c r="CI19">
         <v>-0.1368942111730576</v>
       </c>
-      <c r="CJ18">
+      <c r="CJ19">
         <v>0.008367221802473068</v>
       </c>
-      <c r="CK18">
+      <c r="CK19">
         <v>0.1898059695959091</v>
       </c>
-      <c r="CL18">
+      <c r="CL19">
         <v>-0.01841307803988457</v>
       </c>
-      <c r="CM18">
+      <c r="CM19">
         <v>-0.02626380324363708</v>
       </c>
-      <c r="CN18">
+      <c r="CN19">
         <v>0.2117817252874374</v>
       </c>
-      <c r="CO18">
+      <c r="CO19">
         <v>0.03608786314725876</v>
       </c>
-      <c r="CP18">
+      <c r="CP19">
         <v>0.07049606740474701</v>
       </c>
-      <c r="CQ18">
+      <c r="CQ19">
         <v>0.0588161014020443</v>
       </c>
-      <c r="CR18">
+      <c r="CR19">
         <v>0.08262388408184052</v>
       </c>
-      <c r="CS18">
+      <c r="CS19">
         <v>-0.03420163691043854</v>
       </c>
-      <c r="CT18">
+      <c r="CT19">
         <v>0.03675079718232155</v>
       </c>
-      <c r="CU18">
+      <c r="CU19">
         <v>-0.1265552788972855</v>
       </c>
-      <c r="CV18">
+      <c r="CV19">
         <v>-0.05000361427664757</v>
       </c>
-      <c r="CW18">
+      <c r="CW19">
         <v>0.1004302129149437</v>
       </c>
-      <c r="CX18">
+      <c r="CX19">
         <v>-0.02140680886805058</v>
       </c>
-      <c r="CY18">
+      <c r="CY19">
         <v>0.02232403308153152</v>
       </c>
-      <c r="CZ18">
+      <c r="CZ19">
         <v>0.1029894351959229</v>
       </c>
-      <c r="DA18">
+      <c r="DA19">
         <v>-0.08233877271413803</v>
       </c>
-      <c r="DB18">
+      <c r="DB19">
         <v>0.2281340807676315</v>
       </c>
-      <c r="DC18">
+      <c r="DC19">
         <v>-0.00237521156668663</v>
       </c>
-      <c r="DD18">
+      <c r="DD19">
         <v>0.1075541451573372</v>
       </c>
-      <c r="DE18">
+      <c r="DE19">
         <v>-0.0411398746073246</v>
       </c>
-      <c r="DF18">
+      <c r="DF19">
         <v>-0.09560225903987885</v>
       </c>
-      <c r="DG18">
+      <c r="DG19">
         <v>-0.03900812193751335</v>
       </c>
-      <c r="DH18">
+      <c r="DH19">
         <v>0.02414247952401638</v>
       </c>
-      <c r="DI18">
+      <c r="DI19">
         <v>0.09524443000555038</v>
       </c>
-      <c r="DJ18">
+      <c r="DJ19">
         <v>-0.2120030373334885</v>
       </c>
-      <c r="DK18">
+      <c r="DK19">
         <v>0.1486102342605591</v>
       </c>
-      <c r="DL18">
+      <c r="DL19">
         <v>0.1762285381555557</v>
       </c>
-      <c r="DM18">
+      <c r="DM19">
         <v>0.02006064541637897</v>
       </c>
-      <c r="DN18">
+      <c r="DN19">
         <v>0.1015866696834564</v>
       </c>
-      <c r="DO18">
+      <c r="DO19">
         <v>0.1520440578460693</v>
       </c>
-      <c r="DP18">
+      <c r="DP19">
         <v>0.05215759575366974</v>
       </c>
-      <c r="DQ18">
+      <c r="DQ19">
         <v>-0.01454875711351633</v>
       </c>
-      <c r="DR18">
+      <c r="DR19">
         <v>-0.05163655430078506</v>
       </c>
-      <c r="DS18">
+      <c r="DS19">
         <v>-0.2049951553344727</v>
       </c>
-      <c r="DT18">
+      <c r="DT19">
         <v>-0.04454613476991653</v>
       </c>
-      <c r="DU18">
+      <c r="DU19">
         <v>0.06995347142219543</v>
       </c>
-      <c r="DV18">
+      <c r="DV19">
         <v>-0.05378945544362068</v>
       </c>
-      <c r="DW18">
+      <c r="DW19">
         <v>0.1658004820346832</v>
       </c>
-      <c r="DX18">
+      <c r="DX19">
         <v>0.03986334428191185</v>
       </c>
-      <c r="DY18" t="s">
+      <c r="DY19" t="s">
         <v>12</v>
       </c>
     </row>
